--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="839">
   <si>
     <t>class</t>
   </si>
@@ -2379,6 +2379,15 @@
     <t>chest: 4</t>
   </si>
   <si>
+    <t>coffee maker</t>
+  </si>
+  <si>
+    <t>lightbulb</t>
+  </si>
+  <si>
+    <t>salt shaker</t>
+  </si>
+  <si>
     <t>alarm clock</t>
   </si>
   <si>
@@ -2397,9 +2406,6 @@
     <t>faucet</t>
   </si>
   <si>
-    <t>Water tap</t>
-  </si>
-  <si>
     <t>Toilet</t>
   </si>
   <si>
@@ -2451,16 +2457,10 @@
     <t xml:space="preserve">sandal </t>
   </si>
   <si>
-    <t>doughtnut</t>
-  </si>
-  <si>
     <t>microwave oven</t>
   </si>
   <si>
-    <t>lightbulb</t>
-  </si>
-  <si>
-    <t>Cup</t>
+    <t>orange (fruit)</t>
   </si>
   <si>
     <t>swimsuit</t>
@@ -2490,9 +2490,6 @@
     <t>shower curtain</t>
   </si>
   <si>
-    <t>salt shaker</t>
-  </si>
-  <si>
     <t>bath towel</t>
   </si>
   <si>
@@ -2506,9 +2503,6 @@
   </si>
   <si>
     <t>pan</t>
-  </si>
-  <si>
-    <t>coffee maker</t>
   </si>
   <si>
     <t>life jacket</t>
@@ -2826,7 +2820,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3028,6 +3022,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -19849,7 +19846,9 @@
       <c r="D125" s="1">
         <v>20.0</v>
       </c>
-      <c r="E125" s="6"/>
+      <c r="E125" s="72" t="s">
+        <v>785</v>
+      </c>
       <c r="F125" s="9">
         <v>1.0</v>
       </c>
@@ -23225,7 +23224,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>371</v>
+        <v>786</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -25432,7 +25431,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>500</v>
+        <v>787</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -28544,11 +28543,11 @@
     </row>
     <row r="603" ht="14.25" customHeight="1"/>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="72"/>
+      <c r="A604" s="73"/>
       <c r="D604" s="57"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="73"/>
+      <c r="A605" s="74"/>
       <c r="D605" s="65"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
@@ -28556,23 +28555,23 @@
       <c r="D606" s="66"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="72"/>
+      <c r="A607" s="73"/>
       <c r="D607" s="65"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="72"/>
+      <c r="A608" s="73"/>
       <c r="D608" s="62"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="72"/>
+      <c r="A609" s="73"/>
       <c r="D609" s="57"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="72"/>
+      <c r="A610" s="73"/>
       <c r="D610" s="57"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="74"/>
+      <c r="A611" s="75"/>
       <c r="D611" s="57"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
@@ -28580,38 +28579,38 @@
       <c r="D612" s="65"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="72"/>
+      <c r="A613" s="73"/>
       <c r="D613" s="62"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="75"/>
+      <c r="A614" s="76"/>
       <c r="D614" s="55"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="D615" s="57"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="75"/>
+      <c r="A616" s="76"/>
       <c r="D616" s="55"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="76"/>
+      <c r="A617" s="77"/>
       <c r="D617" s="65"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="73"/>
       <c r="D618" s="65"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="72"/>
+      <c r="A619" s="73"/>
       <c r="D619" s="65"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="76"/>
+      <c r="A620" s="77"/>
       <c r="D620" s="65"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="72"/>
+      <c r="A621" s="73"/>
       <c r="D621" s="61"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
@@ -28626,11 +28625,11 @@
       <c r="D624" s="57"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="77"/>
+      <c r="A625" s="78"/>
       <c r="D625" s="57"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="78"/>
+      <c r="A626" s="79"/>
       <c r="D626" s="61"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
@@ -28647,16 +28646,16 @@
       <c r="D630" s="70"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="74"/>
+      <c r="A631" s="75"/>
       <c r="D631" s="70"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="77"/>
-      <c r="D632" s="79"/>
+      <c r="A632" s="78"/>
+      <c r="D632" s="80"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="69"/>
-      <c r="D633" s="79"/>
+      <c r="D633" s="80"/>
     </row>
     <row r="634" ht="14.25" customHeight="1"/>
     <row r="635" ht="14.25" customHeight="1"/>
@@ -29085,13 +29084,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="80">
+      <c r="A2" s="81" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" s="81">
         <v>164.0</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="82" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -29102,13 +29101,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="80" t="s">
-        <v>786</v>
-      </c>
-      <c r="B3" s="80">
+      <c r="A3" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="B3" s="81">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="82" t="s">
         <v>481</v>
       </c>
       <c r="J3" s="3">
@@ -29116,91 +29115,91 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="81">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="83"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="81" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="81">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="83"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="81">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="83"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="81">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="83"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="83"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="81">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="81">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="83"/>
       <c r="E10" s="19"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>636</v>
       </c>
-      <c r="B11" s="80">
+      <c r="B11" s="81">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="83"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -29209,25 +29208,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="81" t="s">
         <v>653</v>
       </c>
-      <c r="B12" s="80">
+      <c r="B12" s="81">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="80">
+      <c r="B13" s="81">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -29239,1843 +29238,1843 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="81" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" s="81">
+        <v>2190.0</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="84" t="s">
+        <v>791</v>
+      </c>
+      <c r="B15" s="81">
+        <v>2188.0</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>792</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="81">
+        <v>2182.0</v>
+      </c>
+      <c r="C16" s="83"/>
+      <c r="G16" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="B17" s="81">
+        <v>2178.0</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="G17" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="81" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="81">
+        <v>2174.0</v>
+      </c>
+      <c r="C18" s="83"/>
+      <c r="G18" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="81">
+        <v>2171.0</v>
+      </c>
+      <c r="C19" s="83"/>
+      <c r="J19" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="A20" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="81">
+        <v>2167.0</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="81">
+        <v>2163.0</v>
+      </c>
+      <c r="C21" s="83"/>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="81" t="s">
+        <v>459</v>
+      </c>
+      <c r="B22" s="81">
+        <v>2163.0</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="H22" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="81" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23" s="81">
+        <v>2162.0</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>593</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="81">
+        <v>2157.0</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="84" t="s">
+        <v>698</v>
+      </c>
+      <c r="B25" s="81">
+        <v>2155.0</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B26" s="81">
+        <v>2152.0</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="G26" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="81" t="s">
+        <v>794</v>
+      </c>
+      <c r="B27" s="81">
+        <v>2152.0</v>
+      </c>
+      <c r="C27" s="83"/>
+      <c r="D27" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="81" t="s">
+        <v>639</v>
+      </c>
+      <c r="B28" s="81">
+        <v>2138.0</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="81">
+        <v>2140.0</v>
+      </c>
+      <c r="C29" s="83"/>
+      <c r="D29" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="81" t="s">
+        <v>795</v>
+      </c>
+      <c r="B30" s="81">
+        <v>2133.0</v>
+      </c>
+      <c r="C30" s="83"/>
+      <c r="G30" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="81" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31" s="81">
+        <v>2132.0</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="84" t="s">
+        <v>796</v>
+      </c>
+      <c r="B32" s="81">
+        <v>2129.0</v>
+      </c>
+      <c r="C32" s="83"/>
+      <c r="E32" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="81" t="s">
+        <v>577</v>
+      </c>
+      <c r="B33" s="81">
+        <v>2127.0</v>
+      </c>
+      <c r="C33" s="83"/>
+      <c r="J33" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="81" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="81">
+        <v>2125.0</v>
+      </c>
+      <c r="C34" s="83"/>
+      <c r="D34" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="81">
+        <v>2115.0</v>
+      </c>
+      <c r="C35" s="83"/>
+      <c r="I35" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="81">
+        <v>2114.0</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="81">
+        <v>2113.0</v>
+      </c>
+      <c r="C37" s="83"/>
+      <c r="I37" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="81">
+        <v>2106.0</v>
+      </c>
+      <c r="C38" s="83"/>
+      <c r="D38" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="84" t="s">
+        <v>703</v>
+      </c>
+      <c r="B39" s="81">
+        <v>2088.0</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="G39" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="81">
+        <v>2067.0</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="81">
+        <v>1997.0</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="H41" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="81">
+        <v>1997.0</v>
+      </c>
+      <c r="C42" s="83"/>
+      <c r="D42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="81" t="s">
+        <v>797</v>
+      </c>
+      <c r="B43" s="81">
+        <v>1995.0</v>
+      </c>
+      <c r="C43" s="83"/>
+      <c r="J43" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="81">
+        <v>1948.0</v>
+      </c>
+      <c r="C44" s="83"/>
+      <c r="D44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="81" t="s">
+        <v>798</v>
+      </c>
+      <c r="B45" s="81">
+        <v>1920.0</v>
+      </c>
+      <c r="C45" s="83"/>
+      <c r="D45" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="81" t="s">
+        <v>675</v>
+      </c>
+      <c r="B46" s="81">
+        <v>1902.0</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="I46" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="84" t="s">
+        <v>710</v>
+      </c>
+      <c r="B47" s="81">
+        <v>1877.0</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="G47" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="81" t="s">
+        <v>530</v>
+      </c>
+      <c r="B48" s="81">
+        <v>1869.0</v>
+      </c>
+      <c r="C48" s="83"/>
+      <c r="D48" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="81" t="s">
+        <v>574</v>
+      </c>
+      <c r="B49" s="81">
+        <v>1831.0</v>
+      </c>
+      <c r="C49" s="83"/>
+      <c r="D49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="84" t="s">
+        <v>799</v>
+      </c>
+      <c r="B50" s="81">
+        <v>1784.0</v>
+      </c>
+      <c r="C50" s="83"/>
+      <c r="G50" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="81">
+        <v>1709.0</v>
+      </c>
+      <c r="C51" s="83"/>
+      <c r="H51" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="81">
+        <v>1698.0</v>
+      </c>
+      <c r="C52" s="83"/>
+      <c r="D52" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="81">
+        <v>1664.0</v>
+      </c>
+      <c r="C53" s="83"/>
+      <c r="G53" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="81" t="s">
+        <v>487</v>
+      </c>
+      <c r="B54" s="81">
+        <v>1655.0</v>
+      </c>
+      <c r="C54" s="83"/>
+      <c r="D54" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="B55" s="81">
+        <v>1640.0</v>
+      </c>
+      <c r="C55" s="83"/>
+      <c r="D55" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="84" t="s">
+        <v>801</v>
+      </c>
+      <c r="B56" s="81">
+        <v>1639.0</v>
+      </c>
+      <c r="C56" s="83"/>
+      <c r="G56" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="81">
+        <v>1611.0</v>
+      </c>
+      <c r="C57" s="83"/>
+      <c r="I57" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="81">
+        <v>1578.0</v>
+      </c>
+      <c r="C58" s="83"/>
+      <c r="G58" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="81">
+        <v>1520.0</v>
+      </c>
+      <c r="C59" s="83"/>
+      <c r="H59" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="81" t="s">
+        <v>802</v>
+      </c>
+      <c r="B60" s="81">
+        <v>1482.0</v>
+      </c>
+      <c r="C60" s="83"/>
+      <c r="J60" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="81" t="s">
+        <v>803</v>
+      </c>
+      <c r="B61" s="81">
+        <v>1383.0</v>
+      </c>
+      <c r="C61" s="83"/>
+      <c r="H61" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="81">
+        <v>1382.0</v>
+      </c>
+      <c r="C62" s="83"/>
+      <c r="H62" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="81">
+        <v>1339.0</v>
+      </c>
+      <c r="C63" s="83"/>
+      <c r="H63" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="81" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" s="81">
+        <v>1287.0</v>
+      </c>
+      <c r="C64" s="83"/>
+      <c r="D64" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="81" t="s">
+        <v>804</v>
+      </c>
+      <c r="B65" s="81">
+        <v>1273.0</v>
+      </c>
+      <c r="C65" s="83"/>
+      <c r="D65" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="81">
+        <v>1257.0</v>
+      </c>
+      <c r="C66" s="83"/>
+      <c r="D66" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="84" t="s">
+        <v>723</v>
+      </c>
+      <c r="B67" s="81">
+        <v>1247.0</v>
+      </c>
+      <c r="C67" s="83"/>
+      <c r="E67" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="86" t="s">
+        <v>805</v>
+      </c>
+      <c r="B68" s="81">
+        <v>1227.0</v>
+      </c>
+      <c r="C68" s="83"/>
+      <c r="G68" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B69" s="81">
+        <v>1170.0</v>
+      </c>
+      <c r="C69" s="83"/>
+      <c r="D69" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="81" t="s">
+        <v>806</v>
+      </c>
+      <c r="B70" s="81">
+        <v>1164.0</v>
+      </c>
+      <c r="C70" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="84" t="s">
+        <v>728</v>
+      </c>
+      <c r="B71" s="81">
+        <v>1130.0</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>808</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="B72" s="81">
+        <v>1129.0</v>
+      </c>
+      <c r="C72" s="83"/>
+      <c r="E72" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="B73" s="81">
+        <v>1124.0</v>
+      </c>
+      <c r="C73" s="83"/>
+      <c r="G73" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="81">
+        <v>1102.0</v>
+      </c>
+      <c r="C74" s="83"/>
+      <c r="H74" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="B75" s="81">
+        <v>1097.0</v>
+      </c>
+      <c r="C75" s="83"/>
+      <c r="D75" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="84" t="s">
+        <v>729</v>
+      </c>
+      <c r="B76" s="81">
+        <v>1089.0</v>
+      </c>
+      <c r="C76" s="83"/>
+      <c r="G76" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B77" s="81">
+        <v>1075.0</v>
+      </c>
+      <c r="C77" s="83"/>
+      <c r="I77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="B78" s="81">
+        <v>1033.0</v>
+      </c>
+      <c r="C78" s="83"/>
+      <c r="D78" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="81" t="s">
+        <v>786</v>
+      </c>
+      <c r="B79" s="81">
+        <v>991.0</v>
+      </c>
+      <c r="C79" s="83"/>
+      <c r="D79" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="84" t="s">
+        <v>730</v>
+      </c>
+      <c r="B80" s="81">
+        <v>978.0</v>
+      </c>
+      <c r="C80" s="83"/>
+      <c r="G80" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="81" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="81">
+        <v>933.0</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="81">
+        <v>929.0</v>
+      </c>
+      <c r="C82" s="83"/>
+      <c r="D82" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="B83" s="81">
+        <v>921.0</v>
+      </c>
+      <c r="C83" s="83"/>
+      <c r="H83" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="81">
+        <v>918.0</v>
+      </c>
+      <c r="C84" s="83"/>
+      <c r="H84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="81" t="s">
+        <v>813</v>
+      </c>
+      <c r="B85" s="81">
+        <v>892.0</v>
+      </c>
+      <c r="C85" s="83"/>
+      <c r="G85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="87" t="s">
+        <v>506</v>
+      </c>
+      <c r="B86" s="81">
+        <v>863.0</v>
+      </c>
+      <c r="C86" s="83"/>
+      <c r="G86" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="81">
+        <v>831.0</v>
+      </c>
+      <c r="C87" s="83"/>
+      <c r="G87" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="81" t="s">
+        <v>616</v>
+      </c>
+      <c r="B88" s="81">
+        <v>831.0</v>
+      </c>
+      <c r="C88" s="83"/>
+      <c r="D88" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" s="81">
+        <v>804.0</v>
+      </c>
+      <c r="C89" s="83"/>
+      <c r="D89" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="84" t="s">
+        <v>731</v>
+      </c>
+      <c r="B90" s="81">
+        <v>801.0</v>
+      </c>
+      <c r="C90" s="83"/>
+      <c r="D90" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="81">
+        <v>776.0</v>
+      </c>
+      <c r="C91" s="83"/>
+      <c r="D91" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="84" t="s">
+        <v>814</v>
+      </c>
+      <c r="B92" s="81">
+        <v>772.0</v>
+      </c>
+      <c r="C92" s="83"/>
+      <c r="G92" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="81" t="s">
+        <v>815</v>
+      </c>
+      <c r="B93" s="81">
+        <v>770.0</v>
+      </c>
+      <c r="C93" s="82" t="s">
+        <v>498</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="81" t="s">
+        <v>816</v>
+      </c>
+      <c r="B94" s="81">
+        <v>739.0</v>
+      </c>
+      <c r="C94" s="83"/>
+      <c r="H94" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="81">
+        <v>735.0</v>
+      </c>
+      <c r="C95" s="83"/>
+      <c r="I95" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="81" t="s">
+        <v>817</v>
+      </c>
+      <c r="B96" s="81">
+        <v>732.0</v>
+      </c>
+      <c r="C96" s="83"/>
+      <c r="D96" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="84" t="s">
+        <v>734</v>
+      </c>
+      <c r="B97" s="81">
+        <v>727.0</v>
+      </c>
+      <c r="C97" s="83"/>
+      <c r="E97" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="81" t="s">
+        <v>619</v>
+      </c>
+      <c r="B98" s="81">
+        <v>719.0</v>
+      </c>
+      <c r="C98" s="83"/>
+      <c r="D98" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="81">
+        <v>710.0</v>
+      </c>
+      <c r="C99" s="83"/>
+      <c r="D99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="84" t="s">
+        <v>736</v>
+      </c>
+      <c r="B100" s="81">
+        <v>696.0</v>
+      </c>
+      <c r="C100" s="83"/>
+      <c r="H100" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="84" t="s">
+        <v>738</v>
+      </c>
+      <c r="B101" s="81">
+        <v>695.0</v>
+      </c>
+      <c r="C101" s="83"/>
+      <c r="E101" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="81">
+        <v>674.0</v>
+      </c>
+      <c r="C102" s="83"/>
+      <c r="D102" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="84" t="s">
+        <v>740</v>
+      </c>
+      <c r="B103" s="81">
+        <v>653.0</v>
+      </c>
+      <c r="C103" s="83"/>
+      <c r="G103" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="81">
+        <v>603.0</v>
+      </c>
+      <c r="C104" s="83"/>
+      <c r="D104" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="84" t="s">
+        <v>742</v>
+      </c>
+      <c r="B105" s="81">
+        <v>598.0</v>
+      </c>
+      <c r="C105" s="83"/>
+      <c r="D105" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="84" t="s">
+        <v>744</v>
+      </c>
+      <c r="B106" s="81">
+        <v>588.0</v>
+      </c>
+      <c r="C106" s="83"/>
+      <c r="J106" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="86" t="s">
+        <v>746</v>
+      </c>
+      <c r="B107" s="81">
+        <v>588.0</v>
+      </c>
+      <c r="C107" s="83"/>
+      <c r="E107" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="84" t="s">
+        <v>748</v>
+      </c>
+      <c r="B108" s="81">
+        <v>565.0</v>
+      </c>
+      <c r="C108" s="83"/>
+      <c r="G108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="84" t="s">
+        <v>750</v>
+      </c>
+      <c r="B109" s="81">
+        <v>561.0</v>
+      </c>
+      <c r="C109" s="83"/>
+      <c r="D109" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="81" t="s">
+        <v>818</v>
+      </c>
+      <c r="B110" s="81">
+        <v>546.0</v>
+      </c>
+      <c r="C110" s="83"/>
+      <c r="D110" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="B111" s="81">
+        <v>502.0</v>
+      </c>
+      <c r="C111" s="82" t="s">
+        <v>609</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="84" t="s">
+        <v>753</v>
+      </c>
+      <c r="B112" s="81">
+        <v>480.0</v>
+      </c>
+      <c r="C112" s="83"/>
+      <c r="D112" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="81" t="s">
+        <v>409</v>
+      </c>
+      <c r="B113" s="81">
+        <v>473.0</v>
+      </c>
+      <c r="C113" s="83"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="81" t="s">
+        <v>820</v>
+      </c>
+      <c r="B114" s="81">
+        <v>432.0</v>
+      </c>
+      <c r="C114" s="82" t="s">
+        <v>528</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="B115" s="81">
+        <v>424.0</v>
+      </c>
+      <c r="C115" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="81" t="s">
         <v>787</v>
       </c>
-      <c r="B14" s="80">
-        <v>2190.0</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>788</v>
-      </c>
-      <c r="B15" s="80">
-        <v>2188.0</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>789</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="80">
-        <v>2182.0</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="G16" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="83" t="s">
-        <v>694</v>
-      </c>
-      <c r="B17" s="80">
-        <v>2178.0</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="G17" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="80">
-        <v>2174.0</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="G18" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="B19" s="80">
-        <v>2171.0</v>
-      </c>
-      <c r="C19" s="82"/>
-      <c r="J19" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="80">
-        <v>2167.0</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="G20" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="80">
-        <v>2163.0</v>
-      </c>
-      <c r="C21" s="82"/>
-      <c r="D21" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="B22" s="80">
-        <v>2163.0</v>
-      </c>
-      <c r="C22" s="82"/>
-      <c r="H22" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="80" t="s">
-        <v>790</v>
-      </c>
-      <c r="B23" s="80">
-        <v>2162.0</v>
-      </c>
-      <c r="C23" s="81" t="s">
-        <v>791</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" s="80">
-        <v>2157.0</v>
-      </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="83" t="s">
-        <v>698</v>
-      </c>
-      <c r="B25" s="80">
-        <v>2155.0</v>
-      </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" s="80">
-        <v>2152.0</v>
-      </c>
-      <c r="C26" s="82"/>
-      <c r="G26" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="80" t="s">
-        <v>792</v>
-      </c>
-      <c r="B27" s="80">
-        <v>2152.0</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="80" t="s">
-        <v>639</v>
-      </c>
-      <c r="B28" s="80">
-        <v>2138.0</v>
-      </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="80">
-        <v>2140.0</v>
-      </c>
-      <c r="C29" s="82"/>
-      <c r="D29" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="80" t="s">
-        <v>793</v>
-      </c>
-      <c r="B30" s="80">
-        <v>2133.0</v>
-      </c>
-      <c r="C30" s="82"/>
-      <c r="G30" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="B31" s="80">
-        <v>2132.0</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="83" t="s">
-        <v>794</v>
-      </c>
-      <c r="B32" s="80">
-        <v>2129.0</v>
-      </c>
-      <c r="C32" s="82"/>
-      <c r="E32" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="80" t="s">
-        <v>577</v>
-      </c>
-      <c r="B33" s="80">
-        <v>2127.0</v>
-      </c>
-      <c r="C33" s="82"/>
-      <c r="J33" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="80" t="s">
-        <v>355</v>
-      </c>
-      <c r="B34" s="80">
-        <v>2125.0</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" s="80">
-        <v>2115.0</v>
-      </c>
-      <c r="C35" s="82"/>
-      <c r="I35" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="80" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="80">
-        <v>2114.0</v>
-      </c>
-      <c r="C36" s="82"/>
-      <c r="D36" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="B37" s="80">
-        <v>2113.0</v>
-      </c>
-      <c r="C37" s="82"/>
-      <c r="I37" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="80">
-        <v>2106.0</v>
-      </c>
-      <c r="C38" s="82"/>
-      <c r="D38" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="B39" s="80">
-        <v>2088.0</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="G39" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" s="80">
-        <v>2067.0</v>
-      </c>
-      <c r="C40" s="82"/>
-      <c r="D40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="80">
-        <v>1997.0</v>
-      </c>
-      <c r="C41" s="82"/>
-      <c r="H41" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="80" t="s">
+      <c r="B116" s="81">
+        <v>418.0</v>
+      </c>
+      <c r="C116" s="83"/>
+      <c r="D116" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="84" t="s">
+        <v>822</v>
+      </c>
+      <c r="B117" s="81">
+        <v>405.0</v>
+      </c>
+      <c r="C117" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="81">
+        <v>393.0</v>
+      </c>
+      <c r="C118" s="83"/>
+      <c r="H118" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="81" t="s">
+        <v>440</v>
+      </c>
+      <c r="B119" s="81">
+        <v>382.0</v>
+      </c>
+      <c r="C119" s="83"/>
+      <c r="D119" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="81">
+        <v>379.0</v>
+      </c>
+      <c r="C120" s="83"/>
+      <c r="H120" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="81" t="s">
+        <v>823</v>
+      </c>
+      <c r="B121" s="81">
+        <v>359.0</v>
+      </c>
+      <c r="C121" s="83"/>
+      <c r="H121" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="B122" s="81">
+        <v>353.0</v>
+      </c>
+      <c r="C122" s="83"/>
+      <c r="D122" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="81">
+        <v>348.0</v>
+      </c>
+      <c r="C123" s="83"/>
+      <c r="H123" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="B124" s="81">
+        <v>344.0</v>
+      </c>
+      <c r="C124" s="83"/>
+      <c r="D124" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="81" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="81">
+        <v>315.0</v>
+      </c>
+      <c r="C125" s="83"/>
+      <c r="D125" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="81" t="s">
+        <v>824</v>
+      </c>
+      <c r="B126" s="81">
+        <v>309.0</v>
+      </c>
+      <c r="C126" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="81">
+        <v>283.0</v>
+      </c>
+      <c r="C127" s="83"/>
+      <c r="D127" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="81" t="s">
+        <v>825</v>
+      </c>
+      <c r="B128" s="81">
+        <v>279.0</v>
+      </c>
+      <c r="C128" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="80">
-        <v>1997.0</v>
-      </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="80" t="s">
-        <v>795</v>
-      </c>
-      <c r="B43" s="80">
-        <v>1995.0</v>
-      </c>
-      <c r="C43" s="82"/>
-      <c r="J43" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="80">
-        <v>1948.0</v>
-      </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="80" t="s">
-        <v>796</v>
-      </c>
-      <c r="B45" s="80">
-        <v>1920.0</v>
-      </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="80" t="s">
-        <v>675</v>
-      </c>
-      <c r="B46" s="80">
-        <v>1902.0</v>
-      </c>
-      <c r="C46" s="82"/>
-      <c r="I46" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="83" t="s">
-        <v>710</v>
-      </c>
-      <c r="B47" s="80">
-        <v>1877.0</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="G47" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="B48" s="80">
-        <v>1869.0</v>
-      </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="B49" s="80">
-        <v>1831.0</v>
-      </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="83" t="s">
-        <v>797</v>
-      </c>
-      <c r="B50" s="80">
-        <v>1784.0</v>
-      </c>
-      <c r="C50" s="82"/>
-      <c r="G50" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="80">
-        <v>1709.0</v>
-      </c>
-      <c r="C51" s="82"/>
-      <c r="H51" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="80">
-        <v>1698.0</v>
-      </c>
-      <c r="C52" s="82"/>
-      <c r="D52" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="80">
-        <v>1664.0</v>
-      </c>
-      <c r="C53" s="82"/>
-      <c r="G53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="80" t="s">
-        <v>487</v>
-      </c>
-      <c r="B54" s="80">
-        <v>1655.0</v>
-      </c>
-      <c r="C54" s="82"/>
-      <c r="D54" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="80" t="s">
-        <v>798</v>
-      </c>
-      <c r="B55" s="80">
-        <v>1640.0</v>
-      </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="83" t="s">
-        <v>799</v>
-      </c>
-      <c r="B56" s="80">
-        <v>1639.0</v>
-      </c>
-      <c r="C56" s="82"/>
-      <c r="G56" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" s="80">
-        <v>1611.0</v>
-      </c>
-      <c r="C57" s="82"/>
-      <c r="I57" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="80">
-        <v>1578.0</v>
-      </c>
-      <c r="C58" s="82"/>
-      <c r="G58" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="80">
-        <v>1520.0</v>
-      </c>
-      <c r="C59" s="82"/>
-      <c r="H59" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="80" t="s">
-        <v>800</v>
-      </c>
-      <c r="B60" s="80">
-        <v>1482.0</v>
-      </c>
-      <c r="C60" s="82"/>
-      <c r="J60" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="80" t="s">
-        <v>801</v>
-      </c>
-      <c r="B61" s="80">
-        <v>1383.0</v>
-      </c>
-      <c r="C61" s="82"/>
-      <c r="H61" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="80">
-        <v>1382.0</v>
-      </c>
-      <c r="C62" s="82"/>
-      <c r="H62" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="80">
-        <v>1339.0</v>
-      </c>
-      <c r="C63" s="82"/>
-      <c r="H63" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="B64" s="80">
-        <v>1287.0</v>
-      </c>
-      <c r="C64" s="82"/>
-      <c r="D64" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="80" t="s">
-        <v>802</v>
-      </c>
-      <c r="B65" s="80">
-        <v>1273.0</v>
-      </c>
-      <c r="C65" s="82"/>
-      <c r="D65" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" s="80">
-        <v>1257.0</v>
-      </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="83" t="s">
-        <v>723</v>
-      </c>
-      <c r="B67" s="80">
-        <v>1247.0</v>
-      </c>
-      <c r="C67" s="82"/>
-      <c r="E67" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="85" t="s">
-        <v>803</v>
-      </c>
-      <c r="B68" s="80">
-        <v>1227.0</v>
-      </c>
-      <c r="C68" s="82"/>
-      <c r="G68" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="B69" s="80">
-        <v>1170.0</v>
-      </c>
-      <c r="C69" s="82"/>
-      <c r="D69" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="80" t="s">
-        <v>804</v>
-      </c>
-      <c r="B70" s="80">
-        <v>1164.0</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>805</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="83" t="s">
-        <v>728</v>
-      </c>
-      <c r="B71" s="80">
-        <v>1130.0</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>806</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="80" t="s">
-        <v>807</v>
-      </c>
-      <c r="B72" s="80">
-        <v>1129.0</v>
-      </c>
-      <c r="C72" s="82"/>
-      <c r="E72" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="80" t="s">
-        <v>808</v>
-      </c>
-      <c r="B73" s="80">
-        <v>1124.0</v>
-      </c>
-      <c r="C73" s="82"/>
-      <c r="G73" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="80" t="s">
-        <v>809</v>
-      </c>
-      <c r="B74" s="80">
-        <v>1102.0</v>
-      </c>
-      <c r="C74" s="82"/>
-      <c r="H74" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="80" t="s">
-        <v>810</v>
-      </c>
-      <c r="B75" s="80">
-        <v>1097.0</v>
-      </c>
-      <c r="C75" s="82"/>
-      <c r="D75" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="83" t="s">
-        <v>729</v>
-      </c>
-      <c r="B76" s="80">
-        <v>1089.0</v>
-      </c>
-      <c r="C76" s="82"/>
-      <c r="G76" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="80" t="s">
-        <v>522</v>
-      </c>
-      <c r="B77" s="80">
-        <v>1075.0</v>
-      </c>
-      <c r="C77" s="82"/>
-      <c r="I77" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="80" t="s">
-        <v>519</v>
-      </c>
-      <c r="B78" s="80">
-        <v>1033.0</v>
-      </c>
-      <c r="C78" s="82"/>
-      <c r="D78" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="80" t="s">
-        <v>811</v>
-      </c>
-      <c r="B79" s="80">
-        <v>991.0</v>
-      </c>
-      <c r="C79" s="82"/>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="83" t="s">
-        <v>730</v>
-      </c>
-      <c r="B80" s="80">
-        <v>978.0</v>
-      </c>
-      <c r="C80" s="82"/>
-      <c r="G80" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="B81" s="80">
-        <v>933.0</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>812</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="80">
-        <v>929.0</v>
-      </c>
-      <c r="C82" s="82"/>
-      <c r="D82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="B83" s="80">
-        <v>921.0</v>
-      </c>
-      <c r="C83" s="82"/>
-      <c r="H83" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="80">
-        <v>918.0</v>
-      </c>
-      <c r="C84" s="82"/>
-      <c r="H84" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="80" t="s">
-        <v>813</v>
-      </c>
-      <c r="B85" s="80">
-        <v>892.0</v>
-      </c>
-      <c r="C85" s="82"/>
-      <c r="G85" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="86" t="s">
-        <v>506</v>
-      </c>
-      <c r="B86" s="80">
-        <v>863.0</v>
-      </c>
-      <c r="C86" s="82"/>
-      <c r="G86" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="80">
-        <v>831.0</v>
-      </c>
-      <c r="C87" s="82"/>
-      <c r="G87" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="80" t="s">
-        <v>616</v>
-      </c>
-      <c r="B88" s="80">
-        <v>831.0</v>
-      </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="B89" s="80">
-        <v>804.0</v>
-      </c>
-      <c r="C89" s="82"/>
-      <c r="D89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="83" t="s">
-        <v>731</v>
-      </c>
-      <c r="B90" s="80">
-        <v>801.0</v>
-      </c>
-      <c r="C90" s="82"/>
-      <c r="D90" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="B91" s="80">
-        <v>776.0</v>
-      </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="83" t="s">
-        <v>814</v>
-      </c>
-      <c r="B92" s="80">
-        <v>772.0</v>
-      </c>
-      <c r="C92" s="82"/>
-      <c r="G92" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="80" t="s">
-        <v>815</v>
-      </c>
-      <c r="B93" s="80">
-        <v>770.0</v>
-      </c>
-      <c r="C93" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="H93" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="80" t="s">
-        <v>816</v>
-      </c>
-      <c r="B94" s="80">
-        <v>739.0</v>
-      </c>
-      <c r="C94" s="82"/>
-      <c r="H94" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="80">
-        <v>735.0</v>
-      </c>
-      <c r="C95" s="82"/>
-      <c r="I95" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="80" t="s">
-        <v>817</v>
-      </c>
-      <c r="B96" s="80">
-        <v>732.0</v>
-      </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="83" t="s">
-        <v>734</v>
-      </c>
-      <c r="B97" s="80">
-        <v>727.0</v>
-      </c>
-      <c r="C97" s="82"/>
-      <c r="E97" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="80" t="s">
+      <c r="D128" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="81">
+        <v>278.0</v>
+      </c>
+      <c r="C129" s="83"/>
+      <c r="D129" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="81" t="s">
+        <v>826</v>
+      </c>
+      <c r="B130" s="81">
+        <v>276.0</v>
+      </c>
+      <c r="C130" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="81">
+        <v>274.0</v>
+      </c>
+      <c r="C131" s="83"/>
+      <c r="H131" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="81" t="s">
+        <v>785</v>
+      </c>
+      <c r="B132" s="81">
+        <v>264.0</v>
+      </c>
+      <c r="C132" s="83"/>
+      <c r="D132" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="81">
+        <v>262.0</v>
+      </c>
+      <c r="C133" s="83"/>
+      <c r="H133" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="81" t="s">
+        <v>827</v>
+      </c>
+      <c r="B134" s="81">
+        <v>250.0</v>
+      </c>
+      <c r="C134" s="83"/>
+      <c r="G134" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="81">
+        <v>247.0</v>
+      </c>
+      <c r="C135" s="83"/>
+      <c r="E135" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="81" t="s">
+        <v>828</v>
+      </c>
+      <c r="B136" s="81">
+        <v>229.0</v>
+      </c>
+      <c r="C136" s="82" t="s">
         <v>619</v>
       </c>
-      <c r="B98" s="80">
-        <v>719.0</v>
-      </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="80" t="s">
-        <v>360</v>
-      </c>
-      <c r="B99" s="80">
-        <v>710.0</v>
-      </c>
-      <c r="C99" s="82"/>
-      <c r="D99" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="83" t="s">
-        <v>736</v>
-      </c>
-      <c r="B100" s="80">
-        <v>696.0</v>
-      </c>
-      <c r="C100" s="82"/>
-      <c r="H100" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="83" t="s">
-        <v>738</v>
-      </c>
-      <c r="B101" s="80">
-        <v>695.0</v>
-      </c>
-      <c r="C101" s="82"/>
-      <c r="E101" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="B102" s="80">
-        <v>674.0</v>
-      </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="83" t="s">
-        <v>740</v>
-      </c>
-      <c r="B103" s="80">
-        <v>653.0</v>
-      </c>
-      <c r="C103" s="82"/>
-      <c r="G103" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="80">
-        <v>603.0</v>
-      </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="83" t="s">
-        <v>742</v>
-      </c>
-      <c r="B105" s="80">
-        <v>598.0</v>
-      </c>
-      <c r="C105" s="82"/>
-      <c r="D105" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="83" t="s">
-        <v>744</v>
-      </c>
-      <c r="B106" s="80">
-        <v>588.0</v>
-      </c>
-      <c r="C106" s="82"/>
-      <c r="J106" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="85" t="s">
-        <v>746</v>
-      </c>
-      <c r="B107" s="80">
-        <v>588.0</v>
-      </c>
-      <c r="C107" s="82"/>
-      <c r="E107" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="83" t="s">
-        <v>748</v>
-      </c>
-      <c r="B108" s="80">
-        <v>565.0</v>
-      </c>
-      <c r="C108" s="82"/>
-      <c r="G108" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="B109" s="80">
-        <v>561.0</v>
-      </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="80" t="s">
-        <v>818</v>
-      </c>
-      <c r="B110" s="80">
-        <v>546.0</v>
-      </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="80" t="s">
-        <v>819</v>
-      </c>
-      <c r="B111" s="80">
-        <v>502.0</v>
-      </c>
-      <c r="C111" s="81" t="s">
+      <c r="D136" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="81" t="s">
+        <v>829</v>
+      </c>
+      <c r="B137" s="81">
+        <v>226.0</v>
+      </c>
+      <c r="C137" s="83"/>
+      <c r="H137" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="81">
+        <v>221.0</v>
+      </c>
+      <c r="C138" s="83"/>
+      <c r="D138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="81">
+        <v>210.0</v>
+      </c>
+      <c r="C139" s="83"/>
+      <c r="I139" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="B140" s="81">
+        <v>209.0</v>
+      </c>
+      <c r="C140" s="83"/>
+      <c r="H140" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="81">
+        <v>181.0</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="H141" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="81" t="s">
+        <v>466</v>
+      </c>
+      <c r="B142" s="81">
+        <v>175.0</v>
+      </c>
+      <c r="C142" s="83"/>
+      <c r="I142" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="81" t="s">
+        <v>597</v>
+      </c>
+      <c r="B143" s="81">
+        <v>151.0</v>
+      </c>
+      <c r="C143" s="83"/>
+      <c r="D143" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" s="81">
+        <v>141.0</v>
+      </c>
+      <c r="C144" s="83"/>
+      <c r="D144" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="81">
+        <v>128.0</v>
+      </c>
+      <c r="C145" s="83"/>
+      <c r="H145" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="81" t="s">
+        <v>655</v>
+      </c>
+      <c r="B146" s="81">
+        <v>125.0</v>
+      </c>
+      <c r="C146" s="83"/>
+      <c r="H146" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="81" t="s">
+        <v>658</v>
+      </c>
+      <c r="B147" s="81">
+        <v>90.0</v>
+      </c>
+      <c r="C147" s="83"/>
+      <c r="D147" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="81">
+        <v>22.0</v>
+      </c>
+      <c r="C148" s="83"/>
+      <c r="E148" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="81" t="s">
+        <v>830</v>
+      </c>
+      <c r="B149" s="81">
+        <v>26.0</v>
+      </c>
+      <c r="C149" s="82" t="s">
+        <v>472</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="81">
+        <v>29.0</v>
+      </c>
+      <c r="C150" s="83"/>
+      <c r="H150" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="81" t="s">
+        <v>831</v>
+      </c>
+      <c r="B151" s="81">
+        <v>34.0</v>
+      </c>
+      <c r="C151" s="83"/>
+      <c r="H151" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="B152" s="81">
+        <v>35.0</v>
+      </c>
+      <c r="C152" s="83"/>
+      <c r="E152" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="81" t="s">
+        <v>583</v>
+      </c>
+      <c r="B153" s="81">
+        <v>61.0</v>
+      </c>
+      <c r="C153" s="83"/>
+      <c r="D153" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="81" t="s">
         <v>609</v>
       </c>
-      <c r="D111" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="83" t="s">
-        <v>753</v>
-      </c>
-      <c r="B112" s="80">
-        <v>480.0</v>
-      </c>
-      <c r="C112" s="82"/>
-      <c r="D112" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="B113" s="80">
-        <v>473.0</v>
-      </c>
-      <c r="C113" s="82"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="80" t="s">
-        <v>820</v>
-      </c>
-      <c r="B114" s="80">
-        <v>432.0</v>
-      </c>
-      <c r="C114" s="81" t="s">
-        <v>528</v>
-      </c>
-      <c r="D114" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="80" t="s">
-        <v>821</v>
-      </c>
-      <c r="B115" s="80">
-        <v>424.0</v>
-      </c>
-      <c r="C115" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="80" t="s">
-        <v>822</v>
-      </c>
-      <c r="B116" s="80">
-        <v>418.0</v>
-      </c>
-      <c r="C116" s="82"/>
-      <c r="D116" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="83" t="s">
-        <v>823</v>
-      </c>
-      <c r="B117" s="80">
-        <v>405.0</v>
-      </c>
-      <c r="C117" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="B118" s="80">
-        <v>393.0</v>
-      </c>
-      <c r="C118" s="82"/>
-      <c r="H118" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="80" t="s">
-        <v>440</v>
-      </c>
-      <c r="B119" s="80">
-        <v>382.0</v>
-      </c>
-      <c r="C119" s="82"/>
-      <c r="D119" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="80" t="s">
-        <v>567</v>
-      </c>
-      <c r="B120" s="80">
-        <v>379.0</v>
-      </c>
-      <c r="C120" s="82"/>
-      <c r="H120" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="80" t="s">
-        <v>824</v>
-      </c>
-      <c r="B121" s="80">
-        <v>359.0</v>
-      </c>
-      <c r="C121" s="82"/>
-      <c r="H121" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="80" t="s">
-        <v>550</v>
-      </c>
-      <c r="B122" s="80">
-        <v>353.0</v>
-      </c>
-      <c r="C122" s="82"/>
-      <c r="D122" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="80" t="s">
-        <v>472</v>
-      </c>
-      <c r="B123" s="80">
-        <v>348.0</v>
-      </c>
-      <c r="C123" s="82"/>
-      <c r="H123" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="B124" s="80">
-        <v>344.0</v>
-      </c>
-      <c r="C124" s="82"/>
-      <c r="D124" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="B125" s="80">
-        <v>315.0</v>
-      </c>
-      <c r="C125" s="82"/>
-      <c r="D125" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="80" t="s">
-        <v>825</v>
-      </c>
-      <c r="B126" s="80">
-        <v>309.0</v>
-      </c>
-      <c r="C126" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="D126" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="80">
-        <v>283.0</v>
-      </c>
-      <c r="C127" s="82"/>
-      <c r="D127" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="80" t="s">
-        <v>826</v>
-      </c>
-      <c r="B128" s="80">
-        <v>279.0</v>
-      </c>
-      <c r="C128" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="80" t="s">
-        <v>503</v>
-      </c>
-      <c r="B129" s="80">
-        <v>278.0</v>
-      </c>
-      <c r="C129" s="82"/>
-      <c r="D129" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E129" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="80" t="s">
-        <v>827</v>
-      </c>
-      <c r="B130" s="80">
-        <v>276.0</v>
-      </c>
-      <c r="C130" s="81" t="s">
-        <v>253</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E130" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="80" t="s">
-        <v>182</v>
-      </c>
-      <c r="B131" s="80">
-        <v>274.0</v>
-      </c>
-      <c r="C131" s="82"/>
-      <c r="H131" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="80" t="s">
-        <v>828</v>
-      </c>
-      <c r="B132" s="80">
-        <v>264.0</v>
-      </c>
-      <c r="C132" s="82"/>
-      <c r="D132" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="B133" s="80">
-        <v>262.0</v>
-      </c>
-      <c r="C133" s="82"/>
-      <c r="H133" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="80" t="s">
-        <v>829</v>
-      </c>
-      <c r="B134" s="80">
-        <v>250.0</v>
-      </c>
-      <c r="C134" s="82"/>
-      <c r="G134" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" s="80">
-        <v>247.0</v>
-      </c>
-      <c r="C135" s="82"/>
-      <c r="E135" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="80" t="s">
-        <v>830</v>
-      </c>
-      <c r="B136" s="80">
-        <v>229.0</v>
-      </c>
-      <c r="C136" s="81" t="s">
-        <v>619</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="80" t="s">
-        <v>831</v>
-      </c>
-      <c r="B137" s="80">
-        <v>226.0</v>
-      </c>
-      <c r="C137" s="82"/>
-      <c r="H137" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="80">
-        <v>221.0</v>
-      </c>
-      <c r="C138" s="82"/>
-      <c r="D138" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="B139" s="80">
-        <v>210.0</v>
-      </c>
-      <c r="C139" s="82"/>
-      <c r="I139" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="80" t="s">
-        <v>456</v>
-      </c>
-      <c r="B140" s="80">
-        <v>209.0</v>
-      </c>
-      <c r="C140" s="82"/>
-      <c r="H140" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="80">
-        <v>181.0</v>
-      </c>
-      <c r="C141" s="82"/>
-      <c r="H141" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="80" t="s">
-        <v>466</v>
-      </c>
-      <c r="B142" s="80">
-        <v>175.0</v>
-      </c>
-      <c r="C142" s="82"/>
-      <c r="I142" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="80" t="s">
-        <v>597</v>
-      </c>
-      <c r="B143" s="80">
-        <v>151.0</v>
-      </c>
-      <c r="C143" s="82"/>
-      <c r="D143" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="B144" s="80">
-        <v>141.0</v>
-      </c>
-      <c r="C144" s="82"/>
-      <c r="D144" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="80" t="s">
-        <v>439</v>
-      </c>
-      <c r="B145" s="80">
-        <v>128.0</v>
-      </c>
-      <c r="C145" s="82"/>
-      <c r="H145" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="80" t="s">
-        <v>655</v>
-      </c>
-      <c r="B146" s="80">
-        <v>125.0</v>
-      </c>
-      <c r="C146" s="82"/>
-      <c r="H146" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="80" t="s">
-        <v>658</v>
-      </c>
-      <c r="B147" s="80">
-        <v>90.0</v>
-      </c>
-      <c r="C147" s="82"/>
-      <c r="D147" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="80">
-        <v>22.0</v>
-      </c>
-      <c r="C148" s="82"/>
-      <c r="E148" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="80" t="s">
+      <c r="B154" s="81">
+        <v>59.0</v>
+      </c>
+      <c r="C154" s="83"/>
+      <c r="H154" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="81" t="s">
         <v>832</v>
       </c>
-      <c r="B149" s="80">
-        <v>26.0</v>
-      </c>
-      <c r="C149" s="81" t="s">
-        <v>472</v>
-      </c>
-      <c r="H149" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="80">
-        <v>29.0</v>
-      </c>
-      <c r="C150" s="82"/>
-      <c r="H150" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="80" t="s">
-        <v>833</v>
-      </c>
-      <c r="B151" s="80">
-        <v>34.0</v>
-      </c>
-      <c r="C151" s="82"/>
-      <c r="H151" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="80" t="s">
-        <v>542</v>
-      </c>
-      <c r="B152" s="80">
-        <v>35.0</v>
-      </c>
-      <c r="C152" s="82"/>
-      <c r="E152" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="80" t="s">
-        <v>583</v>
-      </c>
-      <c r="B153" s="80">
-        <v>61.0</v>
-      </c>
-      <c r="C153" s="82"/>
-      <c r="D153" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E153" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="80" t="s">
-        <v>609</v>
-      </c>
-      <c r="B154" s="80">
-        <v>59.0</v>
-      </c>
-      <c r="C154" s="82"/>
-      <c r="H154" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="80" t="s">
-        <v>834</v>
-      </c>
-      <c r="B155" s="80">
+      <c r="B155" s="81">
         <v>74.0</v>
       </c>
-      <c r="C155" s="82"/>
+      <c r="C155" s="83"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="80" t="s">
+      <c r="A156" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="80">
+      <c r="B156" s="81">
         <v>12.0</v>
       </c>
-      <c r="C156" s="82"/>
+      <c r="C156" s="83"/>
       <c r="H156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="80" t="s">
+      <c r="A157" s="81" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="80">
+      <c r="B157" s="81">
         <v>80.0</v>
       </c>
-      <c r="C157" s="82"/>
+      <c r="C157" s="83"/>
       <c r="H157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="80"/>
-      <c r="B158" s="80"/>
-      <c r="C158" s="82"/>
+      <c r="A158" s="81"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="83"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="84"/>
-      <c r="B159" s="84"/>
-      <c r="C159" s="82"/>
+      <c r="A159" s="85"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="83"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="84"/>
-      <c r="B160" s="84"/>
-      <c r="C160" s="82"/>
+      <c r="A160" s="85"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="83"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="84"/>
-      <c r="B161" s="84"/>
-      <c r="C161" s="82"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="83"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="84"/>
-      <c r="B162" s="84"/>
-      <c r="C162" s="82"/>
+      <c r="A162" s="85"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="83"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>
@@ -31952,7 +31951,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32016,7 +32015,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>307</v>
@@ -32027,7 +32026,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>327</v>
@@ -32038,7 +32037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>307</v>
@@ -32049,7 +32048,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>327</v>
@@ -32084,7 +32083,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>311</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="842">
   <si>
     <t>class</t>
   </si>
@@ -2382,6 +2382,9 @@
     <t>coffee maker</t>
   </si>
   <si>
+    <t>doorknob</t>
+  </si>
+  <si>
     <t>lightbulb</t>
   </si>
   <si>
@@ -2478,6 +2481,12 @@
     <t>chopping board</t>
   </si>
   <si>
+    <t>bow (decorative ribbons)</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
     <t>pot</t>
   </si>
   <si>
@@ -2502,7 +2511,7 @@
     <t>crate</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>pan (for cooking)</t>
   </si>
   <si>
     <t>life jacket</t>
@@ -2545,7 +2554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2686,6 +2695,10 @@
       <name val="Docs-Calibri"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2820,7 +2833,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3026,25 +3039,28 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3061,7 +3077,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -20606,8 +20622,8 @@
       <c r="D167" s="1">
         <v>30.0</v>
       </c>
-      <c r="E167" s="15" t="s">
-        <v>202</v>
+      <c r="E167" s="73" t="s">
+        <v>786</v>
       </c>
       <c r="F167" s="8">
         <v>1.0</v>
@@ -23224,7 +23240,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -25431,7 +25447,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -28543,11 +28559,11 @@
     </row>
     <row r="603" ht="14.25" customHeight="1"/>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="73"/>
+      <c r="A604" s="74"/>
       <c r="D604" s="57"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="74"/>
+      <c r="A605" s="75"/>
       <c r="D605" s="65"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
@@ -28555,23 +28571,23 @@
       <c r="D606" s="66"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="73"/>
+      <c r="A607" s="74"/>
       <c r="D607" s="65"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="73"/>
+      <c r="A608" s="74"/>
       <c r="D608" s="62"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="73"/>
+      <c r="A609" s="74"/>
       <c r="D609" s="57"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="73"/>
+      <c r="A610" s="74"/>
       <c r="D610" s="57"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="75"/>
+      <c r="A611" s="76"/>
       <c r="D611" s="57"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
@@ -28579,38 +28595,38 @@
       <c r="D612" s="65"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="73"/>
+      <c r="A613" s="74"/>
       <c r="D613" s="62"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="76"/>
+      <c r="A614" s="77"/>
       <c r="D614" s="55"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="D615" s="57"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="76"/>
+      <c r="A616" s="77"/>
       <c r="D616" s="55"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="77"/>
+      <c r="A617" s="78"/>
       <c r="D617" s="65"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="73"/>
+      <c r="A618" s="74"/>
       <c r="D618" s="65"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="73"/>
+      <c r="A619" s="74"/>
       <c r="D619" s="65"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="77"/>
+      <c r="A620" s="78"/>
       <c r="D620" s="65"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="73"/>
+      <c r="A621" s="74"/>
       <c r="D621" s="61"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
@@ -28625,11 +28641,11 @@
       <c r="D624" s="57"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="78"/>
+      <c r="A625" s="79"/>
       <c r="D625" s="57"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="79"/>
+      <c r="A626" s="80"/>
       <c r="D626" s="61"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
@@ -28646,16 +28662,16 @@
       <c r="D630" s="70"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="75"/>
+      <c r="A631" s="76"/>
       <c r="D631" s="70"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="78"/>
-      <c r="D632" s="80"/>
+      <c r="A632" s="79"/>
+      <c r="D632" s="81"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="69"/>
-      <c r="D633" s="80"/>
+      <c r="D633" s="81"/>
     </row>
     <row r="634" ht="14.25" customHeight="1"/>
     <row r="635" ht="14.25" customHeight="1"/>
@@ -29084,13 +29100,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="81" t="s">
-        <v>788</v>
-      </c>
-      <c r="B2" s="81">
+      <c r="A2" s="82" t="s">
+        <v>789</v>
+      </c>
+      <c r="B2" s="82">
         <v>164.0</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -29101,13 +29117,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="81" t="s">
-        <v>789</v>
-      </c>
-      <c r="B3" s="81">
+      <c r="A3" s="82" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" s="82">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="83" t="s">
         <v>481</v>
       </c>
       <c r="J3" s="3">
@@ -29115,91 +29131,91 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="82">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="84"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="82">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="84"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="85" t="s">
         <v>685</v>
       </c>
-      <c r="B6" s="81">
+      <c r="B6" s="82">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="83"/>
+      <c r="C6" s="84"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="81">
+      <c r="B7" s="82">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="84"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="84"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="82">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="82">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="84"/>
       <c r="E10" s="19"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="82">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -29208,25 +29224,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="82" t="s">
         <v>653</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="82">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="84"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="82">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="83"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -29238,13 +29254,13 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="81" t="s">
-        <v>790</v>
-      </c>
-      <c r="B14" s="81">
+      <c r="A14" s="82" t="s">
+        <v>791</v>
+      </c>
+      <c r="B14" s="82">
         <v>2190.0</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="83" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="3">
@@ -29252,111 +29268,111 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="84" t="s">
-        <v>791</v>
-      </c>
-      <c r="B15" s="81">
+      <c r="A15" s="85" t="s">
+        <v>792</v>
+      </c>
+      <c r="B15" s="82">
         <v>2188.0</v>
       </c>
-      <c r="C15" s="82" t="s">
-        <v>792</v>
+      <c r="C15" s="83" t="s">
+        <v>793</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="81">
+      <c r="B16" s="82">
         <v>2182.0</v>
       </c>
-      <c r="C16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="85" t="s">
         <v>694</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="82">
         <v>2178.0</v>
       </c>
-      <c r="C17" s="83"/>
+      <c r="C17" s="84"/>
       <c r="G17" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="81">
+      <c r="B18" s="82">
         <v>2174.0</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="84"/>
       <c r="G18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="82" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="81">
+      <c r="B19" s="82">
         <v>2171.0</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="84"/>
       <c r="J19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="82" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B20" s="82">
         <v>2167.0</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="84"/>
       <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="81">
+      <c r="B21" s="82">
         <v>2163.0</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="82" t="s">
         <v>459</v>
       </c>
-      <c r="B22" s="81">
+      <c r="B22" s="82">
         <v>2163.0</v>
       </c>
-      <c r="C22" s="83"/>
+      <c r="C22" s="84"/>
       <c r="H22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="81" t="s">
-        <v>793</v>
-      </c>
-      <c r="B23" s="81">
+      <c r="A23" s="82" t="s">
+        <v>794</v>
+      </c>
+      <c r="B23" s="82">
         <v>2162.0</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="83" t="s">
         <v>593</v>
       </c>
       <c r="D23" s="3">
@@ -29364,25 +29380,25 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="81">
+      <c r="B24" s="82">
         <v>2157.0</v>
       </c>
-      <c r="C24" s="83"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="85" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="82">
         <v>2155.0</v>
       </c>
-      <c r="C25" s="83"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
@@ -29391,205 +29407,205 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="82">
         <v>2152.0</v>
       </c>
-      <c r="C26" s="83"/>
+      <c r="C26" s="84"/>
       <c r="G26" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="81" t="s">
-        <v>794</v>
-      </c>
-      <c r="B27" s="81">
+      <c r="A27" s="82" t="s">
+        <v>795</v>
+      </c>
+      <c r="B27" s="82">
         <v>2152.0</v>
       </c>
-      <c r="C27" s="83"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="82" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="82">
         <v>2138.0</v>
       </c>
-      <c r="C28" s="83"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="82" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="82">
         <v>2140.0</v>
       </c>
-      <c r="C29" s="83"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="81" t="s">
-        <v>795</v>
-      </c>
-      <c r="B30" s="81">
+      <c r="A30" s="82" t="s">
+        <v>796</v>
+      </c>
+      <c r="B30" s="82">
         <v>2133.0</v>
       </c>
-      <c r="C30" s="83"/>
+      <c r="C30" s="84"/>
       <c r="G30" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="82">
         <v>2132.0</v>
       </c>
-      <c r="C31" s="83"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="84" t="s">
-        <v>796</v>
-      </c>
-      <c r="B32" s="81">
+      <c r="A32" s="85" t="s">
+        <v>797</v>
+      </c>
+      <c r="B32" s="82">
         <v>2129.0</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="84"/>
       <c r="E32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="82" t="s">
         <v>577</v>
       </c>
-      <c r="B33" s="81">
+      <c r="B33" s="82">
         <v>2127.0</v>
       </c>
-      <c r="C33" s="83"/>
+      <c r="C33" s="84"/>
       <c r="J33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="82" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="81">
+      <c r="B34" s="82">
         <v>2125.0</v>
       </c>
-      <c r="C34" s="83"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="81">
+      <c r="B35" s="82">
         <v>2115.0</v>
       </c>
-      <c r="C35" s="83"/>
+      <c r="C35" s="84"/>
       <c r="I35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="82">
         <v>2114.0</v>
       </c>
-      <c r="C36" s="83"/>
+      <c r="C36" s="84"/>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="B37" s="81">
+      <c r="B37" s="82">
         <v>2113.0</v>
       </c>
-      <c r="C37" s="83"/>
+      <c r="C37" s="84"/>
       <c r="I37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="81">
+      <c r="B38" s="82">
         <v>2106.0</v>
       </c>
-      <c r="C38" s="83"/>
+      <c r="C38" s="84"/>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="85" t="s">
         <v>703</v>
       </c>
-      <c r="B39" s="81">
+      <c r="B39" s="82">
         <v>2088.0</v>
       </c>
-      <c r="C39" s="83"/>
+      <c r="C39" s="84"/>
       <c r="G39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="81">
+      <c r="B40" s="82">
         <v>2067.0</v>
       </c>
-      <c r="C40" s="83"/>
+      <c r="C40" s="84"/>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="81">
+      <c r="B41" s="82">
         <v>1997.0</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="84"/>
       <c r="H41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="81">
+      <c r="B42" s="82">
         <v>1997.0</v>
       </c>
-      <c r="C42" s="83"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
@@ -29598,25 +29614,25 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="81" t="s">
-        <v>797</v>
-      </c>
-      <c r="B43" s="81">
+      <c r="A43" s="82" t="s">
+        <v>798</v>
+      </c>
+      <c r="B43" s="82">
         <v>1995.0</v>
       </c>
-      <c r="C43" s="83"/>
+      <c r="C43" s="84"/>
       <c r="J43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="81">
+      <c r="A44" s="85" t="s">
+        <v>786</v>
+      </c>
+      <c r="B44" s="82">
         <v>1948.0</v>
       </c>
-      <c r="C44" s="83"/>
+      <c r="C44" s="84"/>
       <c r="D44" s="3">
         <v>1.0</v>
       </c>
@@ -29625,61 +29641,61 @@
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="81" t="s">
-        <v>798</v>
-      </c>
-      <c r="B45" s="81">
+      <c r="A45" s="82" t="s">
+        <v>799</v>
+      </c>
+      <c r="B45" s="82">
         <v>1920.0</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="82" t="s">
         <v>675</v>
       </c>
-      <c r="B46" s="81">
+      <c r="B46" s="82">
         <v>1902.0</v>
       </c>
-      <c r="C46" s="83"/>
+      <c r="C46" s="84"/>
       <c r="I46" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="85" t="s">
         <v>710</v>
       </c>
-      <c r="B47" s="81">
+      <c r="B47" s="82">
         <v>1877.0</v>
       </c>
-      <c r="C47" s="83"/>
+      <c r="C47" s="84"/>
       <c r="G47" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="82" t="s">
         <v>530</v>
       </c>
-      <c r="B48" s="81">
+      <c r="B48" s="82">
         <v>1869.0</v>
       </c>
-      <c r="C48" s="83"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="82" t="s">
         <v>574</v>
       </c>
-      <c r="B49" s="81">
+      <c r="B49" s="82">
         <v>1831.0</v>
       </c>
-      <c r="C49" s="83"/>
+      <c r="C49" s="84"/>
       <c r="D49" s="3">
         <v>1.0</v>
       </c>
@@ -29688,85 +29704,85 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="84" t="s">
-        <v>799</v>
-      </c>
-      <c r="B50" s="81">
+      <c r="A50" s="85" t="s">
+        <v>800</v>
+      </c>
+      <c r="B50" s="82">
         <v>1784.0</v>
       </c>
-      <c r="C50" s="83"/>
+      <c r="C50" s="84"/>
       <c r="G50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="81">
+      <c r="B51" s="82">
         <v>1709.0</v>
       </c>
-      <c r="C51" s="83"/>
+      <c r="C51" s="84"/>
       <c r="H51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="81">
+      <c r="B52" s="82">
         <v>1698.0</v>
       </c>
-      <c r="C52" s="83"/>
+      <c r="C52" s="84"/>
       <c r="D52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="81">
+      <c r="B53" s="82">
         <v>1664.0</v>
       </c>
-      <c r="C53" s="83"/>
+      <c r="C53" s="84"/>
       <c r="G53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="81">
+      <c r="B54" s="82">
         <v>1655.0</v>
       </c>
-      <c r="C54" s="83"/>
+      <c r="C54" s="84"/>
       <c r="D54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="81" t="s">
-        <v>800</v>
-      </c>
-      <c r="B55" s="81">
+      <c r="A55" s="82" t="s">
+        <v>801</v>
+      </c>
+      <c r="B55" s="82">
         <v>1640.0</v>
       </c>
-      <c r="C55" s="83"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="84" t="s">
-        <v>801</v>
-      </c>
-      <c r="B56" s="81">
+      <c r="A56" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B56" s="82">
         <v>1639.0</v>
       </c>
-      <c r="C56" s="83"/>
+      <c r="C56" s="84"/>
       <c r="G56" s="3">
         <v>1.0</v>
       </c>
@@ -29775,197 +29791,197 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="81">
+      <c r="B57" s="82">
         <v>1611.0</v>
       </c>
-      <c r="C57" s="83"/>
+      <c r="C57" s="84"/>
       <c r="I57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="81">
+      <c r="B58" s="82">
         <v>1578.0</v>
       </c>
-      <c r="C58" s="83"/>
+      <c r="C58" s="84"/>
       <c r="G58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="81">
+      <c r="B59" s="82">
         <v>1520.0</v>
       </c>
-      <c r="C59" s="83"/>
+      <c r="C59" s="84"/>
       <c r="H59" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="81" t="s">
-        <v>802</v>
-      </c>
-      <c r="B60" s="81">
+      <c r="A60" s="82" t="s">
+        <v>803</v>
+      </c>
+      <c r="B60" s="82">
         <v>1482.0</v>
       </c>
-      <c r="C60" s="83"/>
+      <c r="C60" s="84"/>
       <c r="J60" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="81" t="s">
-        <v>803</v>
-      </c>
-      <c r="B61" s="81">
+      <c r="A61" s="82" t="s">
+        <v>804</v>
+      </c>
+      <c r="B61" s="82">
         <v>1383.0</v>
       </c>
-      <c r="C61" s="83"/>
+      <c r="C61" s="84"/>
       <c r="H61" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="81">
+      <c r="B62" s="82">
         <v>1382.0</v>
       </c>
-      <c r="C62" s="83"/>
+      <c r="C62" s="84"/>
       <c r="H62" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="81">
+      <c r="B63" s="82">
         <v>1339.0</v>
       </c>
-      <c r="C63" s="83"/>
+      <c r="C63" s="84"/>
       <c r="H63" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="82" t="s">
         <v>553</v>
       </c>
-      <c r="B64" s="81">
+      <c r="B64" s="82">
         <v>1287.0</v>
       </c>
-      <c r="C64" s="83"/>
+      <c r="C64" s="84"/>
       <c r="D64" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="81" t="s">
-        <v>804</v>
-      </c>
-      <c r="B65" s="81">
+      <c r="A65" s="82" t="s">
+        <v>805</v>
+      </c>
+      <c r="B65" s="82">
         <v>1273.0</v>
       </c>
-      <c r="C65" s="83"/>
+      <c r="C65" s="84"/>
       <c r="D65" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="81" t="s">
+      <c r="A66" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="81">
+      <c r="B66" s="82">
         <v>1257.0</v>
       </c>
-      <c r="C66" s="83"/>
+      <c r="C66" s="84"/>
       <c r="D66" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="85" t="s">
         <v>723</v>
       </c>
-      <c r="B67" s="81">
+      <c r="B67" s="82">
         <v>1247.0</v>
       </c>
-      <c r="C67" s="83"/>
+      <c r="C67" s="84"/>
       <c r="E67" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="86" t="s">
-        <v>805</v>
-      </c>
-      <c r="B68" s="81">
+      <c r="A68" s="87" t="s">
+        <v>806</v>
+      </c>
+      <c r="B68" s="82">
         <v>1227.0</v>
       </c>
-      <c r="C68" s="83"/>
+      <c r="C68" s="84"/>
       <c r="G68" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="81" t="s">
+      <c r="A69" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="81">
+      <c r="B69" s="82">
         <v>1170.0</v>
       </c>
-      <c r="C69" s="83"/>
+      <c r="C69" s="84"/>
       <c r="D69" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="81" t="s">
-        <v>806</v>
-      </c>
-      <c r="B70" s="81">
+      <c r="A70" s="82" t="s">
+        <v>807</v>
+      </c>
+      <c r="B70" s="82">
         <v>1164.0</v>
       </c>
-      <c r="C70" s="82" t="s">
-        <v>807</v>
+      <c r="C70" s="83" t="s">
+        <v>808</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="84" t="s">
+      <c r="A71" s="85" t="s">
         <v>728</v>
       </c>
-      <c r="B71" s="81">
+      <c r="B71" s="82">
         <v>1130.0</v>
       </c>
-      <c r="C71" s="82" t="s">
-        <v>808</v>
+      <c r="C71" s="83" t="s">
+        <v>809</v>
       </c>
       <c r="D71" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="81" t="s">
-        <v>809</v>
-      </c>
-      <c r="B72" s="81">
+      <c r="A72" s="82" t="s">
+        <v>810</v>
+      </c>
+      <c r="B72" s="82">
         <v>1129.0</v>
       </c>
-      <c r="C72" s="83"/>
+      <c r="C72" s="84"/>
       <c r="E72" s="3">
         <v>1.0</v>
       </c>
@@ -29974,109 +29990,109 @@
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="81" t="s">
-        <v>810</v>
-      </c>
-      <c r="B73" s="81">
+      <c r="A73" s="82" t="s">
+        <v>811</v>
+      </c>
+      <c r="B73" s="82">
         <v>1124.0</v>
       </c>
-      <c r="C73" s="83"/>
+      <c r="C73" s="84"/>
       <c r="G73" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="81" t="s">
+      <c r="A74" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="81">
+      <c r="B74" s="82">
         <v>1102.0</v>
       </c>
-      <c r="C74" s="83"/>
+      <c r="C74" s="84"/>
       <c r="H74" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="81" t="s">
-        <v>811</v>
-      </c>
-      <c r="B75" s="81">
+      <c r="A75" s="82" t="s">
+        <v>812</v>
+      </c>
+      <c r="B75" s="82">
         <v>1097.0</v>
       </c>
-      <c r="C75" s="83"/>
+      <c r="C75" s="84"/>
       <c r="D75" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="84" t="s">
+      <c r="A76" s="85" t="s">
         <v>729</v>
       </c>
-      <c r="B76" s="81">
+      <c r="B76" s="82">
         <v>1089.0</v>
       </c>
-      <c r="C76" s="83"/>
+      <c r="C76" s="84"/>
       <c r="G76" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="81" t="s">
+      <c r="A77" s="82" t="s">
         <v>522</v>
       </c>
-      <c r="B77" s="81">
+      <c r="B77" s="82">
         <v>1075.0</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="84"/>
       <c r="I77" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="81" t="s">
+      <c r="A78" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="B78" s="81">
+      <c r="B78" s="82">
         <v>1033.0</v>
       </c>
-      <c r="C78" s="83"/>
+      <c r="C78" s="84"/>
       <c r="D78" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="81" t="s">
-        <v>786</v>
-      </c>
-      <c r="B79" s="81">
+      <c r="A79" s="82" t="s">
+        <v>787</v>
+      </c>
+      <c r="B79" s="82">
         <v>991.0</v>
       </c>
-      <c r="C79" s="83"/>
+      <c r="C79" s="84"/>
       <c r="D79" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="84" t="s">
+      <c r="A80" s="85" t="s">
         <v>730</v>
       </c>
-      <c r="B80" s="81">
+      <c r="B80" s="82">
         <v>978.0</v>
       </c>
-      <c r="C80" s="83"/>
+      <c r="C80" s="84"/>
       <c r="G80" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="82" t="s">
         <v>407</v>
       </c>
-      <c r="B81" s="81">
+      <c r="B81" s="82">
         <v>933.0</v>
       </c>
-      <c r="C81" s="82" t="s">
+      <c r="C81" s="83" t="s">
         <v>151</v>
       </c>
       <c r="D81" s="3">
@@ -30084,109 +30100,109 @@
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="81">
+      <c r="B82" s="82">
         <v>929.0</v>
       </c>
-      <c r="C82" s="83"/>
+      <c r="C82" s="84"/>
       <c r="D82" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="81" t="s">
-        <v>812</v>
-      </c>
-      <c r="B83" s="81">
+      <c r="A83" s="82" t="s">
+        <v>813</v>
+      </c>
+      <c r="B83" s="82">
         <v>921.0</v>
       </c>
-      <c r="C83" s="83"/>
+      <c r="C83" s="84"/>
       <c r="H83" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="81" t="s">
+      <c r="A84" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="81">
+      <c r="B84" s="82">
         <v>918.0</v>
       </c>
-      <c r="C84" s="83"/>
+      <c r="C84" s="84"/>
       <c r="H84" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="81" t="s">
-        <v>813</v>
-      </c>
-      <c r="B85" s="81">
+      <c r="A85" s="82" t="s">
+        <v>814</v>
+      </c>
+      <c r="B85" s="82">
         <v>892.0</v>
       </c>
-      <c r="C85" s="83"/>
+      <c r="C85" s="84"/>
       <c r="G85" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="87" t="s">
+      <c r="A86" s="88" t="s">
         <v>506</v>
       </c>
-      <c r="B86" s="81">
+      <c r="B86" s="82">
         <v>863.0</v>
       </c>
-      <c r="C86" s="83"/>
+      <c r="C86" s="84"/>
       <c r="G86" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="81" t="s">
+      <c r="A87" s="82" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="81">
+      <c r="B87" s="82">
         <v>831.0</v>
       </c>
-      <c r="C87" s="83"/>
+      <c r="C87" s="84"/>
       <c r="G87" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="81" t="s">
+      <c r="A88" s="82" t="s">
         <v>616</v>
       </c>
-      <c r="B88" s="81">
+      <c r="B88" s="82">
         <v>831.0</v>
       </c>
-      <c r="C88" s="83"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="81" t="s">
+      <c r="A89" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="B89" s="81">
+      <c r="B89" s="82">
         <v>804.0</v>
       </c>
-      <c r="C89" s="83"/>
+      <c r="C89" s="84"/>
       <c r="D89" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="85" t="s">
         <v>731</v>
       </c>
-      <c r="B90" s="81">
+      <c r="B90" s="82">
         <v>801.0</v>
       </c>
-      <c r="C90" s="83"/>
+      <c r="C90" s="84"/>
       <c r="D90" s="3">
         <v>1.0</v>
       </c>
@@ -30195,37 +30211,37 @@
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="81" t="s">
+      <c r="A91" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="B91" s="81">
+      <c r="B91" s="82">
         <v>776.0</v>
       </c>
-      <c r="C91" s="83"/>
+      <c r="C91" s="84"/>
       <c r="D91" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="84" t="s">
-        <v>814</v>
-      </c>
-      <c r="B92" s="81">
+      <c r="A92" s="85" t="s">
+        <v>815</v>
+      </c>
+      <c r="B92" s="82">
         <v>772.0</v>
       </c>
-      <c r="C92" s="83"/>
+      <c r="C92" s="84"/>
       <c r="G92" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="81" t="s">
-        <v>815</v>
-      </c>
-      <c r="B93" s="81">
+      <c r="A93" s="82" t="s">
+        <v>816</v>
+      </c>
+      <c r="B93" s="82">
         <v>770.0</v>
       </c>
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="83" t="s">
         <v>498</v>
       </c>
       <c r="H93" s="3">
@@ -30233,61 +30249,61 @@
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="81" t="s">
-        <v>816</v>
-      </c>
-      <c r="B94" s="81">
+      <c r="A94" s="82" t="s">
+        <v>817</v>
+      </c>
+      <c r="B94" s="82">
         <v>739.0</v>
       </c>
-      <c r="C94" s="83"/>
+      <c r="C94" s="84"/>
       <c r="H94" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="81" t="s">
+      <c r="A95" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="81">
+      <c r="B95" s="82">
         <v>735.0</v>
       </c>
-      <c r="C95" s="83"/>
+      <c r="C95" s="84"/>
       <c r="I95" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="81" t="s">
-        <v>817</v>
-      </c>
-      <c r="B96" s="81">
+      <c r="A96" s="82" t="s">
+        <v>818</v>
+      </c>
+      <c r="B96" s="82">
         <v>732.0</v>
       </c>
-      <c r="C96" s="83"/>
+      <c r="C96" s="84"/>
       <c r="D96" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="84" t="s">
+      <c r="A97" s="85" t="s">
         <v>734</v>
       </c>
-      <c r="B97" s="81">
+      <c r="B97" s="82">
         <v>727.0</v>
       </c>
-      <c r="C97" s="83"/>
+      <c r="C97" s="84"/>
       <c r="E97" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="82" t="s">
         <v>619</v>
       </c>
-      <c r="B98" s="81">
+      <c r="B98" s="82">
         <v>719.0</v>
       </c>
-      <c r="C98" s="83"/>
+      <c r="C98" s="84"/>
       <c r="D98" s="3">
         <v>1.0</v>
       </c>
@@ -30296,13 +30312,13 @@
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="81" t="s">
+      <c r="A99" s="82" t="s">
         <v>360</v>
       </c>
-      <c r="B99" s="81">
+      <c r="B99" s="82">
         <v>710.0</v>
       </c>
-      <c r="C99" s="83"/>
+      <c r="C99" s="84"/>
       <c r="D99" s="3">
         <v>1.0</v>
       </c>
@@ -30311,109 +30327,109 @@
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="84" t="s">
+      <c r="A100" s="85" t="s">
         <v>736</v>
       </c>
-      <c r="B100" s="81">
+      <c r="B100" s="82">
         <v>696.0</v>
       </c>
-      <c r="C100" s="83"/>
+      <c r="C100" s="84"/>
       <c r="H100" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="85" t="s">
         <v>738</v>
       </c>
-      <c r="B101" s="81">
+      <c r="B101" s="82">
         <v>695.0</v>
       </c>
-      <c r="C101" s="83"/>
+      <c r="C101" s="84"/>
       <c r="E101" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="81" t="s">
+      <c r="A102" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="81">
+      <c r="B102" s="82">
         <v>674.0</v>
       </c>
-      <c r="C102" s="83"/>
+      <c r="C102" s="84"/>
       <c r="D102" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="84" t="s">
+      <c r="A103" s="85" t="s">
         <v>740</v>
       </c>
-      <c r="B103" s="81">
+      <c r="B103" s="82">
         <v>653.0</v>
       </c>
-      <c r="C103" s="83"/>
+      <c r="C103" s="84"/>
       <c r="G103" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="81" t="s">
+      <c r="A104" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="B104" s="81">
+      <c r="B104" s="82">
         <v>603.0</v>
       </c>
-      <c r="C104" s="83"/>
+      <c r="C104" s="84"/>
       <c r="D104" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="84" t="s">
+      <c r="A105" s="85" t="s">
         <v>742</v>
       </c>
-      <c r="B105" s="81">
+      <c r="B105" s="82">
         <v>598.0</v>
       </c>
-      <c r="C105" s="83"/>
+      <c r="C105" s="84"/>
       <c r="D105" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="84" t="s">
+      <c r="A106" s="85" t="s">
         <v>744</v>
       </c>
-      <c r="B106" s="81">
+      <c r="B106" s="82">
         <v>588.0</v>
       </c>
-      <c r="C106" s="83"/>
+      <c r="C106" s="84"/>
       <c r="J106" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="86" t="s">
+      <c r="A107" s="87" t="s">
         <v>746</v>
       </c>
-      <c r="B107" s="81">
+      <c r="B107" s="82">
         <v>588.0</v>
       </c>
-      <c r="C107" s="83"/>
+      <c r="C107" s="84"/>
       <c r="E107" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="84" t="s">
+      <c r="A108" s="85" t="s">
         <v>748</v>
       </c>
-      <c r="B108" s="81">
+      <c r="B108" s="82">
         <v>565.0</v>
       </c>
-      <c r="C108" s="83"/>
+      <c r="C108" s="84"/>
       <c r="G108" s="3">
         <v>1.0</v>
       </c>
@@ -30422,13 +30438,15 @@
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="84" t="s">
-        <v>750</v>
-      </c>
-      <c r="B109" s="81">
+      <c r="A109" s="85" t="s">
+        <v>819</v>
+      </c>
+      <c r="B109" s="82">
         <v>561.0</v>
       </c>
-      <c r="C109" s="83"/>
+      <c r="C109" s="83" t="s">
+        <v>820</v>
+      </c>
       <c r="D109" s="3">
         <v>1.0</v>
       </c>
@@ -30437,25 +30455,25 @@
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="81" t="s">
-        <v>818</v>
-      </c>
-      <c r="B110" s="81">
+      <c r="A110" s="82" t="s">
+        <v>821</v>
+      </c>
+      <c r="B110" s="82">
         <v>546.0</v>
       </c>
-      <c r="C110" s="83"/>
+      <c r="C110" s="84"/>
       <c r="D110" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="81" t="s">
-        <v>819</v>
-      </c>
-      <c r="B111" s="81">
+      <c r="A111" s="82" t="s">
+        <v>822</v>
+      </c>
+      <c r="B111" s="82">
         <v>502.0</v>
       </c>
-      <c r="C111" s="82" t="s">
+      <c r="C111" s="83" t="s">
         <v>609</v>
       </c>
       <c r="D111" s="3">
@@ -30463,13 +30481,13 @@
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="84" t="s">
+      <c r="A112" s="85" t="s">
         <v>753</v>
       </c>
-      <c r="B112" s="81">
+      <c r="B112" s="82">
         <v>480.0</v>
       </c>
-      <c r="C112" s="83"/>
+      <c r="C112" s="84"/>
       <c r="D112" s="3">
         <v>1.0</v>
       </c>
@@ -30478,22 +30496,22 @@
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="81" t="s">
+      <c r="A113" s="82" t="s">
         <v>409</v>
       </c>
-      <c r="B113" s="81">
+      <c r="B113" s="82">
         <v>473.0</v>
       </c>
-      <c r="C113" s="83"/>
+      <c r="C113" s="84"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="81" t="s">
-        <v>820</v>
-      </c>
-      <c r="B114" s="81">
+      <c r="A114" s="82" t="s">
+        <v>823</v>
+      </c>
+      <c r="B114" s="82">
         <v>432.0</v>
       </c>
-      <c r="C114" s="82" t="s">
+      <c r="C114" s="83" t="s">
         <v>528</v>
       </c>
       <c r="D114" s="3">
@@ -30501,13 +30519,13 @@
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="B115" s="81">
+      <c r="A115" s="82" t="s">
+        <v>824</v>
+      </c>
+      <c r="B115" s="82">
         <v>424.0</v>
       </c>
-      <c r="C115" s="82" t="s">
+      <c r="C115" s="83" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="3">
@@ -30515,25 +30533,27 @@
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="81" t="s">
-        <v>787</v>
-      </c>
-      <c r="B116" s="81">
+      <c r="A116" s="82" t="s">
+        <v>500</v>
+      </c>
+      <c r="B116" s="82">
         <v>418.0</v>
       </c>
-      <c r="C116" s="83"/>
+      <c r="C116" s="83" t="s">
+        <v>788</v>
+      </c>
       <c r="D116" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="84" t="s">
-        <v>822</v>
-      </c>
-      <c r="B117" s="81">
+      <c r="A117" s="85" t="s">
+        <v>825</v>
+      </c>
+      <c r="B117" s="82">
         <v>405.0</v>
       </c>
-      <c r="C117" s="82" t="s">
+      <c r="C117" s="83" t="s">
         <v>619</v>
       </c>
       <c r="D117" s="3">
@@ -30544,109 +30564,109 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="81" t="s">
+      <c r="A118" s="82" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="81">
+      <c r="B118" s="82">
         <v>393.0</v>
       </c>
-      <c r="C118" s="83"/>
+      <c r="C118" s="84"/>
       <c r="H118" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="81" t="s">
+      <c r="A119" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="B119" s="81">
+      <c r="B119" s="82">
         <v>382.0</v>
       </c>
-      <c r="C119" s="83"/>
+      <c r="C119" s="84"/>
       <c r="D119" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="81" t="s">
+      <c r="A120" s="82" t="s">
         <v>567</v>
       </c>
-      <c r="B120" s="81">
+      <c r="B120" s="82">
         <v>379.0</v>
       </c>
-      <c r="C120" s="83"/>
+      <c r="C120" s="84"/>
       <c r="H120" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="81" t="s">
-        <v>823</v>
-      </c>
-      <c r="B121" s="81">
+      <c r="A121" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="B121" s="82">
         <v>359.0</v>
       </c>
-      <c r="C121" s="83"/>
+      <c r="C121" s="84"/>
       <c r="H121" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="81" t="s">
+      <c r="A122" s="82" t="s">
         <v>550</v>
       </c>
-      <c r="B122" s="81">
+      <c r="B122" s="82">
         <v>353.0</v>
       </c>
-      <c r="C122" s="83"/>
+      <c r="C122" s="84"/>
       <c r="D122" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="81" t="s">
+      <c r="A123" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="B123" s="81">
+      <c r="B123" s="82">
         <v>348.0</v>
       </c>
-      <c r="C123" s="83"/>
+      <c r="C123" s="84"/>
       <c r="H123" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="81" t="s">
+      <c r="A124" s="82" t="s">
         <v>565</v>
       </c>
-      <c r="B124" s="81">
+      <c r="B124" s="82">
         <v>344.0</v>
       </c>
-      <c r="C124" s="83"/>
+      <c r="C124" s="84"/>
       <c r="D124" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="81" t="s">
+      <c r="A125" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="81">
+      <c r="B125" s="82">
         <v>315.0</v>
       </c>
-      <c r="C125" s="83"/>
+      <c r="C125" s="84"/>
       <c r="D125" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="81" t="s">
-        <v>824</v>
-      </c>
-      <c r="B126" s="81">
+      <c r="A126" s="82" t="s">
+        <v>827</v>
+      </c>
+      <c r="B126" s="82">
         <v>309.0</v>
       </c>
-      <c r="C126" s="82" t="s">
+      <c r="C126" s="83" t="s">
         <v>458</v>
       </c>
       <c r="D126" s="3">
@@ -30654,25 +30674,25 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="81" t="s">
+      <c r="A127" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="81">
+      <c r="B127" s="82">
         <v>283.0</v>
       </c>
-      <c r="C127" s="83"/>
+      <c r="C127" s="84"/>
       <c r="D127" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="81" t="s">
-        <v>825</v>
-      </c>
-      <c r="B128" s="81">
+      <c r="A128" s="82" t="s">
+        <v>828</v>
+      </c>
+      <c r="B128" s="82">
         <v>279.0</v>
       </c>
-      <c r="C128" s="82" t="s">
+      <c r="C128" s="83" t="s">
         <v>84</v>
       </c>
       <c r="D128" s="3">
@@ -30683,13 +30703,13 @@
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="81" t="s">
+      <c r="A129" s="82" t="s">
         <v>503</v>
       </c>
-      <c r="B129" s="81">
+      <c r="B129" s="82">
         <v>278.0</v>
       </c>
-      <c r="C129" s="83"/>
+      <c r="C129" s="84"/>
       <c r="D129" s="3">
         <v>1.0</v>
       </c>
@@ -30698,13 +30718,13 @@
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="81" t="s">
-        <v>826</v>
-      </c>
-      <c r="B130" s="81">
+      <c r="A130" s="82" t="s">
+        <v>829</v>
+      </c>
+      <c r="B130" s="82">
         <v>276.0</v>
       </c>
-      <c r="C130" s="82" t="s">
+      <c r="C130" s="83" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="3">
@@ -30715,73 +30735,73 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="81" t="s">
+      <c r="A131" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="81">
+      <c r="B131" s="82">
         <v>274.0</v>
       </c>
-      <c r="C131" s="83"/>
+      <c r="C131" s="84"/>
       <c r="H131" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="81" t="s">
+      <c r="A132" s="82" t="s">
         <v>785</v>
       </c>
-      <c r="B132" s="81">
+      <c r="B132" s="82">
         <v>264.0</v>
       </c>
-      <c r="C132" s="83"/>
+      <c r="C132" s="84"/>
       <c r="D132" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="81" t="s">
+      <c r="A133" s="82" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="81">
+      <c r="B133" s="82">
         <v>262.0</v>
       </c>
-      <c r="C133" s="83"/>
+      <c r="C133" s="84"/>
       <c r="H133" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="81" t="s">
-        <v>827</v>
-      </c>
-      <c r="B134" s="81">
+      <c r="A134" s="82" t="s">
+        <v>830</v>
+      </c>
+      <c r="B134" s="82">
         <v>250.0</v>
       </c>
-      <c r="C134" s="83"/>
+      <c r="C134" s="84"/>
       <c r="G134" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="81" t="s">
+      <c r="A135" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="81">
+      <c r="B135" s="82">
         <v>247.0</v>
       </c>
-      <c r="C135" s="83"/>
+      <c r="C135" s="84"/>
       <c r="E135" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="81" t="s">
-        <v>828</v>
-      </c>
-      <c r="B136" s="81">
+      <c r="A136" s="82" t="s">
+        <v>831</v>
+      </c>
+      <c r="B136" s="82">
         <v>229.0</v>
       </c>
-      <c r="C136" s="82" t="s">
+      <c r="C136" s="83" t="s">
         <v>619</v>
       </c>
       <c r="D136" s="3">
@@ -30789,25 +30809,25 @@
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="81" t="s">
-        <v>829</v>
-      </c>
-      <c r="B137" s="81">
+      <c r="A137" s="82" t="s">
+        <v>832</v>
+      </c>
+      <c r="B137" s="82">
         <v>226.0</v>
       </c>
-      <c r="C137" s="83"/>
+      <c r="C137" s="84"/>
       <c r="H137" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="81" t="s">
+      <c r="A138" s="82" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="81">
+      <c r="B138" s="82">
         <v>221.0</v>
       </c>
-      <c r="C138" s="83"/>
+      <c r="C138" s="84"/>
       <c r="D138" s="3">
         <v>1.0</v>
       </c>
@@ -30816,109 +30836,109 @@
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="81" t="s">
+      <c r="A139" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="81">
+      <c r="B139" s="82">
         <v>210.0</v>
       </c>
-      <c r="C139" s="83"/>
+      <c r="C139" s="84"/>
       <c r="I139" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="81" t="s">
+      <c r="A140" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="B140" s="81">
+      <c r="B140" s="82">
         <v>209.0</v>
       </c>
-      <c r="C140" s="83"/>
+      <c r="C140" s="84"/>
       <c r="H140" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="81" t="s">
+      <c r="A141" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="B141" s="81">
+      <c r="B141" s="82">
         <v>181.0</v>
       </c>
-      <c r="C141" s="83"/>
+      <c r="C141" s="84"/>
       <c r="H141" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="81" t="s">
+      <c r="A142" s="82" t="s">
         <v>466</v>
       </c>
-      <c r="B142" s="81">
+      <c r="B142" s="82">
         <v>175.0</v>
       </c>
-      <c r="C142" s="83"/>
+      <c r="C142" s="84"/>
       <c r="I142" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="81" t="s">
+      <c r="A143" s="82" t="s">
         <v>597</v>
       </c>
-      <c r="B143" s="81">
+      <c r="B143" s="82">
         <v>151.0</v>
       </c>
-      <c r="C143" s="83"/>
+      <c r="C143" s="84"/>
       <c r="D143" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="81" t="s">
+      <c r="A144" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="B144" s="81">
+      <c r="B144" s="82">
         <v>141.0</v>
       </c>
-      <c r="C144" s="83"/>
+      <c r="C144" s="84"/>
       <c r="D144" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="81" t="s">
+      <c r="A145" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="81">
+      <c r="B145" s="82">
         <v>128.0</v>
       </c>
-      <c r="C145" s="83"/>
+      <c r="C145" s="84"/>
       <c r="H145" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="81" t="s">
+      <c r="A146" s="82" t="s">
         <v>655</v>
       </c>
-      <c r="B146" s="81">
+      <c r="B146" s="82">
         <v>125.0</v>
       </c>
-      <c r="C146" s="83"/>
+      <c r="C146" s="84"/>
       <c r="H146" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="81" t="s">
+      <c r="A147" s="82" t="s">
         <v>658</v>
       </c>
-      <c r="B147" s="81">
+      <c r="B147" s="82">
         <v>90.0</v>
       </c>
-      <c r="C147" s="83"/>
+      <c r="C147" s="84"/>
       <c r="D147" s="3">
         <v>1.0</v>
       </c>
@@ -30927,25 +30947,25 @@
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="81" t="s">
+      <c r="A148" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="81">
+      <c r="B148" s="82">
         <v>22.0</v>
       </c>
-      <c r="C148" s="83"/>
+      <c r="C148" s="84"/>
       <c r="E148" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="81" t="s">
-        <v>830</v>
-      </c>
-      <c r="B149" s="81">
+      <c r="A149" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="B149" s="82">
         <v>26.0</v>
       </c>
-      <c r="C149" s="82" t="s">
+      <c r="C149" s="83" t="s">
         <v>472</v>
       </c>
       <c r="H149" s="3">
@@ -30953,49 +30973,49 @@
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="81" t="s">
+      <c r="A150" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="81">
+      <c r="B150" s="82">
         <v>29.0</v>
       </c>
-      <c r="C150" s="83"/>
+      <c r="C150" s="84"/>
       <c r="H150" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="81" t="s">
-        <v>831</v>
-      </c>
-      <c r="B151" s="81">
+      <c r="A151" s="82" t="s">
+        <v>834</v>
+      </c>
+      <c r="B151" s="82">
         <v>34.0</v>
       </c>
-      <c r="C151" s="83"/>
+      <c r="C151" s="84"/>
       <c r="H151" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="81" t="s">
+      <c r="A152" s="82" t="s">
         <v>542</v>
       </c>
-      <c r="B152" s="81">
+      <c r="B152" s="82">
         <v>35.0</v>
       </c>
-      <c r="C152" s="83"/>
+      <c r="C152" s="84"/>
       <c r="E152" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="81" t="s">
+      <c r="A153" s="82" t="s">
         <v>583</v>
       </c>
-      <c r="B153" s="81">
+      <c r="B153" s="82">
         <v>61.0</v>
       </c>
-      <c r="C153" s="83"/>
+      <c r="C153" s="84"/>
       <c r="D153" s="3">
         <v>1.0</v>
       </c>
@@ -31004,77 +31024,77 @@
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="81" t="s">
+      <c r="A154" s="82" t="s">
         <v>609</v>
       </c>
-      <c r="B154" s="81">
+      <c r="B154" s="82">
         <v>59.0</v>
       </c>
-      <c r="C154" s="83"/>
+      <c r="C154" s="84"/>
       <c r="H154" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="81" t="s">
-        <v>832</v>
-      </c>
-      <c r="B155" s="81">
+      <c r="A155" s="82" t="s">
+        <v>835</v>
+      </c>
+      <c r="B155" s="82">
         <v>74.0</v>
       </c>
-      <c r="C155" s="83"/>
+      <c r="C155" s="84"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="81" t="s">
+      <c r="A156" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="81">
+      <c r="B156" s="82">
         <v>12.0</v>
       </c>
-      <c r="C156" s="83"/>
+      <c r="C156" s="84"/>
       <c r="H156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="81" t="s">
+      <c r="A157" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="81">
+      <c r="B157" s="82">
         <v>80.0</v>
       </c>
-      <c r="C157" s="83"/>
+      <c r="C157" s="84"/>
       <c r="H157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="81"/>
-      <c r="B158" s="81"/>
-      <c r="C158" s="83"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="84"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="85"/>
-      <c r="B159" s="85"/>
-      <c r="C159" s="83"/>
+      <c r="A159" s="86"/>
+      <c r="B159" s="86"/>
+      <c r="C159" s="84"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="85"/>
-      <c r="B160" s="85"/>
-      <c r="C160" s="83"/>
+      <c r="A160" s="86"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="84"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="85"/>
-      <c r="B161" s="85"/>
-      <c r="C161" s="83"/>
+      <c r="A161" s="86"/>
+      <c r="B161" s="86"/>
+      <c r="C161" s="84"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="85"/>
-      <c r="B162" s="85"/>
-      <c r="C162" s="83"/>
+      <c r="A162" s="86"/>
+      <c r="B162" s="86"/>
+      <c r="C162" s="84"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>
@@ -31951,7 +31971,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32015,7 +32035,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>307</v>
@@ -32026,7 +32046,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>327</v>
@@ -32037,7 +32057,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>307</v>
@@ -32048,7 +32068,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>327</v>
@@ -32083,7 +32103,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>311</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="842">
   <si>
     <t>class</t>
   </si>
@@ -2385,6 +2385,9 @@
     <t>doorknob</t>
   </si>
   <si>
+    <t>egg</t>
+  </si>
+  <si>
     <t>lightbulb</t>
   </si>
   <si>
@@ -2518,9 +2521,6 @@
   </si>
   <si>
     <t>hand towel</t>
-  </si>
-  <si>
-    <t>egg</t>
   </si>
   <si>
     <t>sweet potato</t>
@@ -2833,7 +2833,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3042,6 +3042,7 @@
     <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -19699,6 +19700,7 @@
       <c r="F116" s="3">
         <v>1.0</v>
       </c>
+      <c r="H116" s="19"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="5" t="s">
@@ -20852,7 +20854,9 @@
       <c r="D180" s="1">
         <v>72.0</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="E180" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="J180" s="3">
         <v>1.0</v>
       </c>
@@ -21810,6 +21814,7 @@
       <c r="G232" s="3">
         <v>1.0</v>
       </c>
+      <c r="J232" s="19"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="A233" s="5" t="s">
@@ -23240,7 +23245,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -23847,6 +23852,7 @@
         <v>45.0</v>
       </c>
       <c r="E345" s="1"/>
+      <c r="F345" s="19"/>
       <c r="K345" s="3">
         <v>1.0</v>
       </c>
@@ -24288,6 +24294,7 @@
         <v>2.0</v>
       </c>
       <c r="E370" s="1"/>
+      <c r="G370" s="19"/>
       <c r="M370" s="3"/>
       <c r="N370" s="3"/>
       <c r="O370" s="3"/>
@@ -25447,7 +25454,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -26391,7 +26398,7 @@
       <c r="C484" s="1">
         <v>225.0</v>
       </c>
-      <c r="D484" s="1">
+      <c r="D484" s="74">
         <v>62.0</v>
       </c>
       <c r="E484" s="1"/>
@@ -27119,6 +27126,7 @@
         <v>72.0</v>
       </c>
       <c r="E523" s="1"/>
+      <c r="H523" s="19"/>
       <c r="J523" s="3">
         <v>1.0</v>
       </c>
@@ -28559,11 +28567,11 @@
     </row>
     <row r="603" ht="14.25" customHeight="1"/>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="74"/>
+      <c r="A604" s="75"/>
       <c r="D604" s="57"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="75"/>
+      <c r="A605" s="76"/>
       <c r="D605" s="65"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
@@ -28571,23 +28579,23 @@
       <c r="D606" s="66"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="74"/>
+      <c r="A607" s="75"/>
       <c r="D607" s="65"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="74"/>
+      <c r="A608" s="75"/>
       <c r="D608" s="62"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="74"/>
+      <c r="A609" s="75"/>
       <c r="D609" s="57"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="74"/>
+      <c r="A610" s="75"/>
       <c r="D610" s="57"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="76"/>
+      <c r="A611" s="77"/>
       <c r="D611" s="57"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
@@ -28595,38 +28603,38 @@
       <c r="D612" s="65"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="74"/>
+      <c r="A613" s="75"/>
       <c r="D613" s="62"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="77"/>
+      <c r="A614" s="78"/>
       <c r="D614" s="55"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="D615" s="57"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="77"/>
+      <c r="A616" s="78"/>
       <c r="D616" s="55"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="78"/>
+      <c r="A617" s="79"/>
       <c r="D617" s="65"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="74"/>
+      <c r="A618" s="75"/>
       <c r="D618" s="65"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="74"/>
+      <c r="A619" s="75"/>
       <c r="D619" s="65"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="78"/>
+      <c r="A620" s="79"/>
       <c r="D620" s="65"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="74"/>
+      <c r="A621" s="75"/>
       <c r="D621" s="61"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
@@ -28641,11 +28649,11 @@
       <c r="D624" s="57"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="79"/>
+      <c r="A625" s="80"/>
       <c r="D625" s="57"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="80"/>
+      <c r="A626" s="81"/>
       <c r="D626" s="61"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
@@ -28662,16 +28670,16 @@
       <c r="D630" s="70"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="76"/>
+      <c r="A631" s="77"/>
       <c r="D631" s="70"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="79"/>
-      <c r="D632" s="81"/>
+      <c r="A632" s="80"/>
+      <c r="D632" s="82"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="69"/>
-      <c r="D633" s="81"/>
+      <c r="D633" s="82"/>
     </row>
     <row r="634" ht="14.25" customHeight="1"/>
     <row r="635" ht="14.25" customHeight="1"/>
@@ -29100,13 +29108,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="82" t="s">
-        <v>789</v>
-      </c>
-      <c r="B2" s="82">
+      <c r="A2" s="83" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="83">
         <v>164.0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -29117,13 +29125,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="82" t="s">
-        <v>790</v>
-      </c>
-      <c r="B3" s="82">
+      <c r="A3" s="83" t="s">
+        <v>791</v>
+      </c>
+      <c r="B3" s="83">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>481</v>
       </c>
       <c r="J3" s="3">
@@ -29131,91 +29139,91 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>546</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="83">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="85"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="83">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="86" t="s">
         <v>685</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="83">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="85"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="83">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="85"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="85"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="83" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="83">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="83">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="85"/>
       <c r="E10" s="19"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="83" t="s">
         <v>636</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="83">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -29224,25 +29232,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="83">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="85"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="83">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -29254,13 +29262,13 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="82" t="s">
-        <v>791</v>
-      </c>
-      <c r="B14" s="82">
+      <c r="A14" s="83" t="s">
+        <v>792</v>
+      </c>
+      <c r="B14" s="83">
         <v>2190.0</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="84" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="3">
@@ -29268,111 +29276,112 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="85" t="s">
-        <v>792</v>
-      </c>
-      <c r="B15" s="82">
+      <c r="A15" s="86" t="s">
+        <v>793</v>
+      </c>
+      <c r="B15" s="83">
         <v>2188.0</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>793</v>
+      <c r="C15" s="84" t="s">
+        <v>794</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="83">
         <v>2182.0</v>
       </c>
-      <c r="C16" s="84"/>
+      <c r="C16" s="85"/>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="86" t="s">
         <v>694</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="83">
         <v>2178.0</v>
       </c>
-      <c r="C17" s="84"/>
+      <c r="C17" s="85"/>
       <c r="G17" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="83" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="83">
         <v>2174.0</v>
       </c>
-      <c r="C18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="19"/>
       <c r="G18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="82" t="s">
+      <c r="A19" s="83" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="83">
         <v>2171.0</v>
       </c>
-      <c r="C19" s="84"/>
+      <c r="C19" s="85"/>
       <c r="J19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="83" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="83">
         <v>2167.0</v>
       </c>
-      <c r="C20" s="84"/>
+      <c r="C20" s="85"/>
       <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="83">
         <v>2163.0</v>
       </c>
-      <c r="C21" s="84"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="83">
         <v>2163.0</v>
       </c>
-      <c r="C22" s="84"/>
+      <c r="C22" s="85"/>
       <c r="H22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="82" t="s">
-        <v>794</v>
-      </c>
-      <c r="B23" s="82">
+      <c r="A23" s="83" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23" s="83">
         <v>2162.0</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="84" t="s">
         <v>593</v>
       </c>
       <c r="D23" s="3">
@@ -29380,25 +29389,25 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="B24" s="82">
+      <c r="B24" s="83">
         <v>2157.0</v>
       </c>
-      <c r="C24" s="84"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="86" t="s">
         <v>698</v>
       </c>
-      <c r="B25" s="82">
+      <c r="B25" s="83">
         <v>2155.0</v>
       </c>
-      <c r="C25" s="84"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
@@ -29407,205 +29416,205 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="82">
+      <c r="B26" s="83">
         <v>2152.0</v>
       </c>
-      <c r="C26" s="84"/>
+      <c r="C26" s="85"/>
       <c r="G26" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="82" t="s">
-        <v>795</v>
-      </c>
-      <c r="B27" s="82">
+      <c r="A27" s="83" t="s">
+        <v>796</v>
+      </c>
+      <c r="B27" s="83">
         <v>2152.0</v>
       </c>
-      <c r="C27" s="84"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="83" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="82">
+      <c r="B28" s="83">
         <v>2138.0</v>
       </c>
-      <c r="C28" s="84"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="82">
+      <c r="B29" s="83">
         <v>2140.0</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="82" t="s">
-        <v>796</v>
-      </c>
-      <c r="B30" s="82">
+      <c r="A30" s="83" t="s">
+        <v>797</v>
+      </c>
+      <c r="B30" s="83">
         <v>2133.0</v>
       </c>
-      <c r="C30" s="84"/>
+      <c r="C30" s="85"/>
       <c r="G30" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="B31" s="82">
+      <c r="B31" s="83">
         <v>2132.0</v>
       </c>
-      <c r="C31" s="84"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="85" t="s">
-        <v>797</v>
-      </c>
-      <c r="B32" s="82">
+      <c r="A32" s="86" t="s">
+        <v>798</v>
+      </c>
+      <c r="B32" s="83">
         <v>2129.0</v>
       </c>
-      <c r="C32" s="84"/>
+      <c r="C32" s="85"/>
       <c r="E32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="83" t="s">
         <v>577</v>
       </c>
-      <c r="B33" s="82">
+      <c r="B33" s="83">
         <v>2127.0</v>
       </c>
-      <c r="C33" s="84"/>
+      <c r="C33" s="85"/>
       <c r="J33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="82">
+      <c r="B34" s="83">
         <v>2125.0</v>
       </c>
-      <c r="C34" s="84"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="B35" s="82">
+      <c r="B35" s="83">
         <v>2115.0</v>
       </c>
-      <c r="C35" s="84"/>
+      <c r="C35" s="85"/>
       <c r="I35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="82" t="s">
+      <c r="A36" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="82">
+      <c r="B36" s="83">
         <v>2114.0</v>
       </c>
-      <c r="C36" s="84"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="82" t="s">
+      <c r="A37" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="B37" s="82">
+      <c r="B37" s="83">
         <v>2113.0</v>
       </c>
-      <c r="C37" s="84"/>
+      <c r="C37" s="85"/>
       <c r="I37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="82">
+      <c r="B38" s="83">
         <v>2106.0</v>
       </c>
-      <c r="C38" s="84"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="86" t="s">
         <v>703</v>
       </c>
-      <c r="B39" s="82">
+      <c r="B39" s="83">
         <v>2088.0</v>
       </c>
-      <c r="C39" s="84"/>
+      <c r="C39" s="85"/>
       <c r="G39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="82" t="s">
+      <c r="A40" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="82">
+      <c r="B40" s="83">
         <v>2067.0</v>
       </c>
-      <c r="C40" s="84"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="82">
+      <c r="B41" s="83">
         <v>1997.0</v>
       </c>
-      <c r="C41" s="84"/>
+      <c r="C41" s="85"/>
       <c r="H41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="82">
+      <c r="B42" s="83">
         <v>1997.0</v>
       </c>
-      <c r="C42" s="84"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
@@ -29614,25 +29623,25 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="82" t="s">
-        <v>798</v>
-      </c>
-      <c r="B43" s="82">
+      <c r="A43" s="83" t="s">
+        <v>799</v>
+      </c>
+      <c r="B43" s="83">
         <v>1995.0</v>
       </c>
-      <c r="C43" s="84"/>
+      <c r="C43" s="85"/>
       <c r="J43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="86" t="s">
         <v>786</v>
       </c>
-      <c r="B44" s="82">
+      <c r="B44" s="83">
         <v>1948.0</v>
       </c>
-      <c r="C44" s="84"/>
+      <c r="C44" s="85"/>
       <c r="D44" s="3">
         <v>1.0</v>
       </c>
@@ -29641,61 +29650,61 @@
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="82" t="s">
-        <v>799</v>
-      </c>
-      <c r="B45" s="82">
+      <c r="A45" s="83" t="s">
+        <v>800</v>
+      </c>
+      <c r="B45" s="83">
         <v>1920.0</v>
       </c>
-      <c r="C45" s="84"/>
+      <c r="C45" s="85"/>
       <c r="D45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="83" t="s">
         <v>675</v>
       </c>
-      <c r="B46" s="82">
+      <c r="B46" s="83">
         <v>1902.0</v>
       </c>
-      <c r="C46" s="84"/>
+      <c r="C46" s="85"/>
       <c r="I46" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="86" t="s">
         <v>710</v>
       </c>
-      <c r="B47" s="82">
+      <c r="B47" s="83">
         <v>1877.0</v>
       </c>
-      <c r="C47" s="84"/>
+      <c r="C47" s="85"/>
       <c r="G47" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="83" t="s">
         <v>530</v>
       </c>
-      <c r="B48" s="82">
+      <c r="B48" s="83">
         <v>1869.0</v>
       </c>
-      <c r="C48" s="84"/>
+      <c r="C48" s="85"/>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="83" t="s">
         <v>574</v>
       </c>
-      <c r="B49" s="82">
+      <c r="B49" s="83">
         <v>1831.0</v>
       </c>
-      <c r="C49" s="84"/>
+      <c r="C49" s="85"/>
       <c r="D49" s="3">
         <v>1.0</v>
       </c>
@@ -29704,85 +29713,85 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="85" t="s">
-        <v>800</v>
-      </c>
-      <c r="B50" s="82">
+      <c r="A50" s="86" t="s">
+        <v>801</v>
+      </c>
+      <c r="B50" s="83">
         <v>1784.0</v>
       </c>
-      <c r="C50" s="84"/>
+      <c r="C50" s="85"/>
       <c r="G50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B51" s="82">
+      <c r="B51" s="83">
         <v>1709.0</v>
       </c>
-      <c r="C51" s="84"/>
+      <c r="C51" s="85"/>
       <c r="H51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="82">
+      <c r="B52" s="83">
         <v>1698.0</v>
       </c>
-      <c r="C52" s="84"/>
+      <c r="C52" s="85"/>
       <c r="D52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="82">
+      <c r="B53" s="83">
         <v>1664.0</v>
       </c>
-      <c r="C53" s="84"/>
+      <c r="C53" s="85"/>
       <c r="G53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="B54" s="82">
+      <c r="B54" s="83">
         <v>1655.0</v>
       </c>
-      <c r="C54" s="84"/>
+      <c r="C54" s="85"/>
       <c r="D54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="82" t="s">
-        <v>801</v>
-      </c>
-      <c r="B55" s="82">
+      <c r="A55" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="B55" s="83">
         <v>1640.0</v>
       </c>
-      <c r="C55" s="84"/>
+      <c r="C55" s="85"/>
       <c r="D55" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="85" t="s">
-        <v>802</v>
-      </c>
-      <c r="B56" s="82">
+      <c r="A56" s="86" t="s">
+        <v>803</v>
+      </c>
+      <c r="B56" s="83">
         <v>1639.0</v>
       </c>
-      <c r="C56" s="84"/>
+      <c r="C56" s="85"/>
       <c r="G56" s="3">
         <v>1.0</v>
       </c>
@@ -29791,197 +29800,197 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="82" t="s">
+      <c r="A57" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="82">
+      <c r="B57" s="83">
         <v>1611.0</v>
       </c>
-      <c r="C57" s="84"/>
+      <c r="C57" s="85"/>
       <c r="I57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="82" t="s">
+      <c r="A58" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="82">
+      <c r="B58" s="83">
         <v>1578.0</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="85"/>
       <c r="G58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="82">
+      <c r="B59" s="83">
         <v>1520.0</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="85"/>
       <c r="H59" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="82" t="s">
-        <v>803</v>
-      </c>
-      <c r="B60" s="82">
+      <c r="A60" s="83" t="s">
+        <v>804</v>
+      </c>
+      <c r="B60" s="83">
         <v>1482.0</v>
       </c>
-      <c r="C60" s="84"/>
+      <c r="C60" s="85"/>
       <c r="J60" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="82" t="s">
-        <v>804</v>
-      </c>
-      <c r="B61" s="82">
+      <c r="A61" s="83" t="s">
+        <v>805</v>
+      </c>
+      <c r="B61" s="83">
         <v>1383.0</v>
       </c>
-      <c r="C61" s="84"/>
+      <c r="C61" s="85"/>
       <c r="H61" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="82" t="s">
+      <c r="A62" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="82">
+      <c r="B62" s="83">
         <v>1382.0</v>
       </c>
-      <c r="C62" s="84"/>
+      <c r="C62" s="85"/>
       <c r="H62" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="82" t="s">
+      <c r="A63" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="82">
+      <c r="B63" s="83">
         <v>1339.0</v>
       </c>
-      <c r="C63" s="84"/>
+      <c r="C63" s="85"/>
       <c r="H63" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="82" t="s">
+      <c r="A64" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="B64" s="82">
+      <c r="B64" s="83">
         <v>1287.0</v>
       </c>
-      <c r="C64" s="84"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="82" t="s">
-        <v>805</v>
-      </c>
-      <c r="B65" s="82">
+      <c r="A65" s="83" t="s">
+        <v>806</v>
+      </c>
+      <c r="B65" s="83">
         <v>1273.0</v>
       </c>
-      <c r="C65" s="84"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="82" t="s">
+      <c r="A66" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="82">
+      <c r="B66" s="83">
         <v>1257.0</v>
       </c>
-      <c r="C66" s="84"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="85" t="s">
+      <c r="A67" s="86" t="s">
         <v>723</v>
       </c>
-      <c r="B67" s="82">
+      <c r="B67" s="83">
         <v>1247.0</v>
       </c>
-      <c r="C67" s="84"/>
+      <c r="C67" s="85"/>
       <c r="E67" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="87" t="s">
-        <v>806</v>
-      </c>
-      <c r="B68" s="82">
+      <c r="A68" s="88" t="s">
+        <v>807</v>
+      </c>
+      <c r="B68" s="83">
         <v>1227.0</v>
       </c>
-      <c r="C68" s="84"/>
+      <c r="C68" s="85"/>
       <c r="G68" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="82" t="s">
+      <c r="A69" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="B69" s="82">
+      <c r="B69" s="83">
         <v>1170.0</v>
       </c>
-      <c r="C69" s="84"/>
+      <c r="C69" s="85"/>
       <c r="D69" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="82" t="s">
-        <v>807</v>
-      </c>
-      <c r="B70" s="82">
+      <c r="A70" s="83" t="s">
+        <v>808</v>
+      </c>
+      <c r="B70" s="83">
         <v>1164.0</v>
       </c>
-      <c r="C70" s="83" t="s">
-        <v>808</v>
+      <c r="C70" s="84" t="s">
+        <v>809</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="86" t="s">
         <v>728</v>
       </c>
-      <c r="B71" s="82">
+      <c r="B71" s="83">
         <v>1130.0</v>
       </c>
-      <c r="C71" s="83" t="s">
-        <v>809</v>
+      <c r="C71" s="84" t="s">
+        <v>810</v>
       </c>
       <c r="D71" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="82" t="s">
-        <v>810</v>
-      </c>
-      <c r="B72" s="82">
+      <c r="A72" s="83" t="s">
+        <v>811</v>
+      </c>
+      <c r="B72" s="83">
         <v>1129.0</v>
       </c>
-      <c r="C72" s="84"/>
+      <c r="C72" s="85"/>
       <c r="E72" s="3">
         <v>1.0</v>
       </c>
@@ -29990,1044 +29999,1048 @@
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="82" t="s">
-        <v>811</v>
-      </c>
-      <c r="B73" s="82">
+      <c r="A73" s="83" t="s">
+        <v>812</v>
+      </c>
+      <c r="B73" s="83">
         <v>1124.0</v>
       </c>
-      <c r="C73" s="84"/>
+      <c r="C73" s="85"/>
       <c r="G73" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="82" t="s">
+      <c r="A74" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="82">
+      <c r="B74" s="83">
         <v>1102.0</v>
       </c>
-      <c r="C74" s="84"/>
+      <c r="C74" s="85"/>
       <c r="H74" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="82" t="s">
-        <v>812</v>
-      </c>
-      <c r="B75" s="82">
+      <c r="A75" s="83" t="s">
+        <v>813</v>
+      </c>
+      <c r="B75" s="83">
         <v>1097.0</v>
       </c>
-      <c r="C75" s="84"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="86" t="s">
         <v>729</v>
       </c>
-      <c r="B76" s="82">
+      <c r="B76" s="83">
         <v>1089.0</v>
       </c>
-      <c r="C76" s="84"/>
+      <c r="C76" s="85"/>
       <c r="G76" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="83" t="s">
         <v>522</v>
       </c>
-      <c r="B77" s="82">
+      <c r="B77" s="83">
         <v>1075.0</v>
       </c>
-      <c r="C77" s="84"/>
+      <c r="C77" s="85"/>
       <c r="I77" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="82" t="s">
+      <c r="A78" s="83" t="s">
         <v>519</v>
       </c>
-      <c r="B78" s="82">
+      <c r="B78" s="83">
         <v>1033.0</v>
       </c>
-      <c r="C78" s="84"/>
+      <c r="C78" s="85"/>
       <c r="D78" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="82" t="s">
+      <c r="A79" s="83" t="s">
+        <v>788</v>
+      </c>
+      <c r="B79" s="83">
+        <v>991.0</v>
+      </c>
+      <c r="C79" s="85"/>
+      <c r="D79" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="86" t="s">
+        <v>730</v>
+      </c>
+      <c r="B80" s="83">
+        <v>978.0</v>
+      </c>
+      <c r="C80" s="85"/>
+      <c r="G80" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="83">
+        <v>933.0</v>
+      </c>
+      <c r="C81" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="83">
+        <v>929.0</v>
+      </c>
+      <c r="C82" s="85"/>
+      <c r="D82" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="83" t="s">
+        <v>814</v>
+      </c>
+      <c r="B83" s="83">
+        <v>921.0</v>
+      </c>
+      <c r="C83" s="84" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="83">
+        <v>918.0</v>
+      </c>
+      <c r="C84" s="85"/>
+      <c r="H84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="83" t="s">
+        <v>815</v>
+      </c>
+      <c r="B85" s="83">
+        <v>892.0</v>
+      </c>
+      <c r="C85" s="85"/>
+      <c r="G85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="89" t="s">
+        <v>506</v>
+      </c>
+      <c r="B86" s="83">
+        <v>863.0</v>
+      </c>
+      <c r="C86" s="85"/>
+      <c r="G86" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="83">
+        <v>831.0</v>
+      </c>
+      <c r="C87" s="85"/>
+      <c r="G87" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="83" t="s">
+        <v>616</v>
+      </c>
+      <c r="B88" s="83">
+        <v>831.0</v>
+      </c>
+      <c r="C88" s="85"/>
+      <c r="D88" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="83" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" s="83">
+        <v>804.0</v>
+      </c>
+      <c r="C89" s="85"/>
+      <c r="D89" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="86" t="s">
+        <v>731</v>
+      </c>
+      <c r="B90" s="83">
+        <v>801.0</v>
+      </c>
+      <c r="C90" s="85"/>
+      <c r="D90" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="83" t="s">
+        <v>423</v>
+      </c>
+      <c r="B91" s="83">
+        <v>776.0</v>
+      </c>
+      <c r="C91" s="85"/>
+      <c r="D91" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="86" t="s">
+        <v>816</v>
+      </c>
+      <c r="B92" s="83">
+        <v>772.0</v>
+      </c>
+      <c r="C92" s="85"/>
+      <c r="G92" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="83" t="s">
+        <v>817</v>
+      </c>
+      <c r="B93" s="83">
+        <v>770.0</v>
+      </c>
+      <c r="C93" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="H93" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="83" t="s">
+        <v>818</v>
+      </c>
+      <c r="B94" s="83">
+        <v>739.0</v>
+      </c>
+      <c r="C94" s="85"/>
+      <c r="H94" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="83">
+        <v>735.0</v>
+      </c>
+      <c r="C95" s="85"/>
+      <c r="I95" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="83" t="s">
+        <v>819</v>
+      </c>
+      <c r="B96" s="83">
+        <v>732.0</v>
+      </c>
+      <c r="C96" s="85"/>
+      <c r="D96" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="86" t="s">
+        <v>734</v>
+      </c>
+      <c r="B97" s="83">
+        <v>727.0</v>
+      </c>
+      <c r="C97" s="85"/>
+      <c r="E97" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="83" t="s">
+        <v>619</v>
+      </c>
+      <c r="B98" s="83">
+        <v>719.0</v>
+      </c>
+      <c r="C98" s="85"/>
+      <c r="D98" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="83">
+        <v>710.0</v>
+      </c>
+      <c r="C99" s="85"/>
+      <c r="D99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="86" t="s">
+        <v>736</v>
+      </c>
+      <c r="B100" s="83">
+        <v>696.0</v>
+      </c>
+      <c r="C100" s="85"/>
+      <c r="H100" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="86" t="s">
+        <v>738</v>
+      </c>
+      <c r="B101" s="83">
+        <v>695.0</v>
+      </c>
+      <c r="C101" s="85"/>
+      <c r="E101" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="83">
+        <v>674.0</v>
+      </c>
+      <c r="C102" s="85"/>
+      <c r="D102" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="86" t="s">
+        <v>740</v>
+      </c>
+      <c r="B103" s="83">
+        <v>653.0</v>
+      </c>
+      <c r="C103" s="85"/>
+      <c r="G103" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="83">
+        <v>603.0</v>
+      </c>
+      <c r="C104" s="85"/>
+      <c r="D104" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="86" t="s">
+        <v>742</v>
+      </c>
+      <c r="B105" s="83">
+        <v>598.0</v>
+      </c>
+      <c r="C105" s="85"/>
+      <c r="D105" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="86" t="s">
+        <v>744</v>
+      </c>
+      <c r="B106" s="83">
+        <v>588.0</v>
+      </c>
+      <c r="C106" s="85"/>
+      <c r="J106" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="88" t="s">
+        <v>746</v>
+      </c>
+      <c r="B107" s="83">
+        <v>588.0</v>
+      </c>
+      <c r="C107" s="85"/>
+      <c r="E107" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="86" t="s">
+        <v>748</v>
+      </c>
+      <c r="B108" s="83">
+        <v>565.0</v>
+      </c>
+      <c r="C108" s="85"/>
+      <c r="G108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="86" t="s">
+        <v>820</v>
+      </c>
+      <c r="B109" s="83">
+        <v>561.0</v>
+      </c>
+      <c r="C109" s="84" t="s">
+        <v>821</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="83" t="s">
+        <v>822</v>
+      </c>
+      <c r="B110" s="83">
+        <v>546.0</v>
+      </c>
+      <c r="C110" s="85"/>
+      <c r="D110" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="83" t="s">
+        <v>823</v>
+      </c>
+      <c r="B111" s="83">
+        <v>502.0</v>
+      </c>
+      <c r="C111" s="84" t="s">
+        <v>609</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="86" t="s">
+        <v>753</v>
+      </c>
+      <c r="B112" s="83">
+        <v>480.0</v>
+      </c>
+      <c r="C112" s="85"/>
+      <c r="D112" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="B113" s="83">
+        <v>473.0</v>
+      </c>
+      <c r="C113" s="85"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="83" t="s">
+        <v>824</v>
+      </c>
+      <c r="B114" s="83">
+        <v>432.0</v>
+      </c>
+      <c r="C114" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="83" t="s">
+        <v>825</v>
+      </c>
+      <c r="B115" s="83">
+        <v>424.0</v>
+      </c>
+      <c r="C115" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="83" t="s">
+        <v>500</v>
+      </c>
+      <c r="B116" s="83">
+        <v>418.0</v>
+      </c>
+      <c r="C116" s="84" t="s">
+        <v>789</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="86" t="s">
+        <v>826</v>
+      </c>
+      <c r="B117" s="83">
+        <v>405.0</v>
+      </c>
+      <c r="C117" s="84" t="s">
+        <v>619</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="83">
+        <v>393.0</v>
+      </c>
+      <c r="C118" s="85"/>
+      <c r="H118" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B119" s="83">
+        <v>382.0</v>
+      </c>
+      <c r="C119" s="85"/>
+      <c r="D119" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="83" t="s">
+        <v>567</v>
+      </c>
+      <c r="B120" s="83">
+        <v>379.0</v>
+      </c>
+      <c r="C120" s="85"/>
+      <c r="H120" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="83" t="s">
+        <v>827</v>
+      </c>
+      <c r="B121" s="83">
+        <v>359.0</v>
+      </c>
+      <c r="C121" s="85"/>
+      <c r="H121" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="83" t="s">
+        <v>550</v>
+      </c>
+      <c r="B122" s="83">
+        <v>353.0</v>
+      </c>
+      <c r="C122" s="85"/>
+      <c r="D122" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="83" t="s">
+        <v>472</v>
+      </c>
+      <c r="B123" s="83">
+        <v>348.0</v>
+      </c>
+      <c r="C123" s="85"/>
+      <c r="H123" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="83" t="s">
+        <v>565</v>
+      </c>
+      <c r="B124" s="83">
+        <v>344.0</v>
+      </c>
+      <c r="C124" s="85"/>
+      <c r="D124" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="83" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="83">
+        <v>315.0</v>
+      </c>
+      <c r="C125" s="85"/>
+      <c r="D125" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="83" t="s">
+        <v>828</v>
+      </c>
+      <c r="B126" s="83">
+        <v>309.0</v>
+      </c>
+      <c r="C126" s="84" t="s">
+        <v>458</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="83">
+        <v>283.0</v>
+      </c>
+      <c r="C127" s="85"/>
+      <c r="D127" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="83" t="s">
+        <v>829</v>
+      </c>
+      <c r="B128" s="83">
+        <v>279.0</v>
+      </c>
+      <c r="C128" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I128" s="19"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="83" t="s">
+        <v>503</v>
+      </c>
+      <c r="B129" s="83">
+        <v>278.0</v>
+      </c>
+      <c r="C129" s="85"/>
+      <c r="D129" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="83" t="s">
+        <v>830</v>
+      </c>
+      <c r="B130" s="83">
+        <v>276.0</v>
+      </c>
+      <c r="C130" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="83">
+        <v>274.0</v>
+      </c>
+      <c r="C131" s="85"/>
+      <c r="H131" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="83" t="s">
+        <v>785</v>
+      </c>
+      <c r="B132" s="83">
+        <v>264.0</v>
+      </c>
+      <c r="C132" s="85"/>
+      <c r="D132" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" s="83">
+        <v>262.0</v>
+      </c>
+      <c r="C133" s="85"/>
+      <c r="H133" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="83" t="s">
+        <v>831</v>
+      </c>
+      <c r="B134" s="83">
+        <v>250.0</v>
+      </c>
+      <c r="C134" s="85"/>
+      <c r="G134" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="83">
+        <v>247.0</v>
+      </c>
+      <c r="C135" s="85"/>
+      <c r="E135" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="83" t="s">
+        <v>832</v>
+      </c>
+      <c r="B136" s="83">
+        <v>229.0</v>
+      </c>
+      <c r="C136" s="84" t="s">
+        <v>619</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="83" t="s">
         <v>787</v>
       </c>
-      <c r="B79" s="82">
-        <v>991.0</v>
-      </c>
-      <c r="C79" s="84"/>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="85" t="s">
-        <v>730</v>
-      </c>
-      <c r="B80" s="82">
-        <v>978.0</v>
-      </c>
-      <c r="C80" s="84"/>
-      <c r="G80" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="82" t="s">
-        <v>407</v>
-      </c>
-      <c r="B81" s="82">
-        <v>933.0</v>
-      </c>
-      <c r="C81" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="B82" s="82">
-        <v>929.0</v>
-      </c>
-      <c r="C82" s="84"/>
-      <c r="D82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="82" t="s">
-        <v>813</v>
-      </c>
-      <c r="B83" s="82">
-        <v>921.0</v>
-      </c>
-      <c r="C83" s="84"/>
-      <c r="H83" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="82">
-        <v>918.0</v>
-      </c>
-      <c r="C84" s="84"/>
-      <c r="H84" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="82" t="s">
-        <v>814</v>
-      </c>
-      <c r="B85" s="82">
-        <v>892.0</v>
-      </c>
-      <c r="C85" s="84"/>
-      <c r="G85" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="B86" s="82">
-        <v>863.0</v>
-      </c>
-      <c r="C86" s="84"/>
-      <c r="G86" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="B87" s="82">
-        <v>831.0</v>
-      </c>
-      <c r="C87" s="84"/>
-      <c r="G87" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="82" t="s">
-        <v>616</v>
-      </c>
-      <c r="B88" s="82">
-        <v>831.0</v>
-      </c>
-      <c r="C88" s="84"/>
-      <c r="D88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="82" t="s">
-        <v>507</v>
-      </c>
-      <c r="B89" s="82">
-        <v>804.0</v>
-      </c>
-      <c r="C89" s="84"/>
-      <c r="D89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="85" t="s">
-        <v>731</v>
-      </c>
-      <c r="B90" s="82">
-        <v>801.0</v>
-      </c>
-      <c r="C90" s="84"/>
-      <c r="D90" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="82" t="s">
-        <v>423</v>
-      </c>
-      <c r="B91" s="82">
-        <v>776.0</v>
-      </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="85" t="s">
-        <v>815</v>
-      </c>
-      <c r="B92" s="82">
-        <v>772.0</v>
-      </c>
-      <c r="C92" s="84"/>
-      <c r="G92" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="82" t="s">
-        <v>816</v>
-      </c>
-      <c r="B93" s="82">
-        <v>770.0</v>
-      </c>
-      <c r="C93" s="83" t="s">
-        <v>498</v>
-      </c>
-      <c r="H93" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="82" t="s">
-        <v>817</v>
-      </c>
-      <c r="B94" s="82">
-        <v>739.0</v>
-      </c>
-      <c r="C94" s="84"/>
-      <c r="H94" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="B95" s="82">
-        <v>735.0</v>
-      </c>
-      <c r="C95" s="84"/>
-      <c r="I95" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="82" t="s">
-        <v>818</v>
-      </c>
-      <c r="B96" s="82">
-        <v>732.0</v>
-      </c>
-      <c r="C96" s="84"/>
-      <c r="D96" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="85" t="s">
-        <v>734</v>
-      </c>
-      <c r="B97" s="82">
-        <v>727.0</v>
-      </c>
-      <c r="C97" s="84"/>
-      <c r="E97" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="B98" s="82">
-        <v>719.0</v>
-      </c>
-      <c r="C98" s="84"/>
-      <c r="D98" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="B99" s="82">
-        <v>710.0</v>
-      </c>
-      <c r="C99" s="84"/>
-      <c r="D99" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="85" t="s">
-        <v>736</v>
-      </c>
-      <c r="B100" s="82">
-        <v>696.0</v>
-      </c>
-      <c r="C100" s="84"/>
-      <c r="H100" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="85" t="s">
-        <v>738</v>
-      </c>
-      <c r="B101" s="82">
-        <v>695.0</v>
-      </c>
-      <c r="C101" s="84"/>
-      <c r="E101" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="B102" s="82">
-        <v>674.0</v>
-      </c>
-      <c r="C102" s="84"/>
-      <c r="D102" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="85" t="s">
-        <v>740</v>
-      </c>
-      <c r="B103" s="82">
-        <v>653.0</v>
-      </c>
-      <c r="C103" s="84"/>
-      <c r="G103" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="82" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="82">
-        <v>603.0</v>
-      </c>
-      <c r="C104" s="84"/>
-      <c r="D104" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="85" t="s">
-        <v>742</v>
-      </c>
-      <c r="B105" s="82">
-        <v>598.0</v>
-      </c>
-      <c r="C105" s="84"/>
-      <c r="D105" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="85" t="s">
-        <v>744</v>
-      </c>
-      <c r="B106" s="82">
-        <v>588.0</v>
-      </c>
-      <c r="C106" s="84"/>
-      <c r="J106" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="87" t="s">
-        <v>746</v>
-      </c>
-      <c r="B107" s="82">
-        <v>588.0</v>
-      </c>
-      <c r="C107" s="84"/>
-      <c r="E107" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="85" t="s">
-        <v>748</v>
-      </c>
-      <c r="B108" s="82">
-        <v>565.0</v>
-      </c>
-      <c r="C108" s="84"/>
-      <c r="G108" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="85" t="s">
-        <v>819</v>
-      </c>
-      <c r="B109" s="82">
-        <v>561.0</v>
-      </c>
-      <c r="C109" s="83" t="s">
-        <v>820</v>
-      </c>
-      <c r="D109" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="82" t="s">
-        <v>821</v>
-      </c>
-      <c r="B110" s="82">
-        <v>546.0</v>
-      </c>
-      <c r="C110" s="84"/>
-      <c r="D110" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="82" t="s">
-        <v>822</v>
-      </c>
-      <c r="B111" s="82">
-        <v>502.0</v>
-      </c>
-      <c r="C111" s="83" t="s">
+      <c r="B137" s="83">
+        <v>226.0</v>
+      </c>
+      <c r="C137" s="85"/>
+      <c r="H137" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="83">
+        <v>221.0</v>
+      </c>
+      <c r="C138" s="85"/>
+      <c r="D138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="B139" s="83">
+        <v>210.0</v>
+      </c>
+      <c r="C139" s="85"/>
+      <c r="I139" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="B140" s="83">
+        <v>209.0</v>
+      </c>
+      <c r="C140" s="85"/>
+      <c r="H140" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B141" s="83">
+        <v>181.0</v>
+      </c>
+      <c r="C141" s="85"/>
+      <c r="H141" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="B142" s="83">
+        <v>175.0</v>
+      </c>
+      <c r="C142" s="85"/>
+      <c r="I142" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="83" t="s">
+        <v>597</v>
+      </c>
+      <c r="B143" s="83">
+        <v>151.0</v>
+      </c>
+      <c r="C143" s="85"/>
+      <c r="D143" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" s="83">
+        <v>141.0</v>
+      </c>
+      <c r="C144" s="85"/>
+      <c r="D144" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="83">
+        <v>128.0</v>
+      </c>
+      <c r="C145" s="85"/>
+      <c r="H145" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="83" t="s">
+        <v>655</v>
+      </c>
+      <c r="B146" s="83">
+        <v>125.0</v>
+      </c>
+      <c r="C146" s="85"/>
+      <c r="H146" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="83" t="s">
+        <v>658</v>
+      </c>
+      <c r="B147" s="83">
+        <v>90.0</v>
+      </c>
+      <c r="C147" s="85"/>
+      <c r="D147" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="83">
+        <v>22.0</v>
+      </c>
+      <c r="C148" s="85"/>
+      <c r="E148" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="83" t="s">
+        <v>833</v>
+      </c>
+      <c r="B149" s="83">
+        <v>26.0</v>
+      </c>
+      <c r="C149" s="84" t="s">
+        <v>472</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" s="83">
+        <v>29.0</v>
+      </c>
+      <c r="C150" s="85"/>
+      <c r="H150" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="83" t="s">
+        <v>834</v>
+      </c>
+      <c r="B151" s="83">
+        <v>34.0</v>
+      </c>
+      <c r="C151" s="85"/>
+      <c r="H151" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="83" t="s">
+        <v>542</v>
+      </c>
+      <c r="B152" s="83">
+        <v>35.0</v>
+      </c>
+      <c r="C152" s="85"/>
+      <c r="E152" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="83" t="s">
+        <v>583</v>
+      </c>
+      <c r="B153" s="83">
+        <v>61.0</v>
+      </c>
+      <c r="C153" s="85"/>
+      <c r="D153" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="83" t="s">
         <v>609</v>
       </c>
-      <c r="D111" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="85" t="s">
-        <v>753</v>
-      </c>
-      <c r="B112" s="82">
-        <v>480.0</v>
-      </c>
-      <c r="C112" s="84"/>
-      <c r="D112" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="B113" s="82">
-        <v>473.0</v>
-      </c>
-      <c r="C113" s="84"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="82" t="s">
-        <v>823</v>
-      </c>
-      <c r="B114" s="82">
-        <v>432.0</v>
-      </c>
-      <c r="C114" s="83" t="s">
-        <v>528</v>
-      </c>
-      <c r="D114" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="82" t="s">
-        <v>824</v>
-      </c>
-      <c r="B115" s="82">
-        <v>424.0</v>
-      </c>
-      <c r="C115" s="83" t="s">
-        <v>183</v>
-      </c>
-      <c r="D115" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="82" t="s">
-        <v>500</v>
-      </c>
-      <c r="B116" s="82">
-        <v>418.0</v>
-      </c>
-      <c r="C116" s="83" t="s">
-        <v>788</v>
-      </c>
-      <c r="D116" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="85" t="s">
-        <v>825</v>
-      </c>
-      <c r="B117" s="82">
-        <v>405.0</v>
-      </c>
-      <c r="C117" s="83" t="s">
-        <v>619</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="B118" s="82">
-        <v>393.0</v>
-      </c>
-      <c r="C118" s="84"/>
-      <c r="H118" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="B119" s="82">
-        <v>382.0</v>
-      </c>
-      <c r="C119" s="84"/>
-      <c r="D119" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="82" t="s">
-        <v>567</v>
-      </c>
-      <c r="B120" s="82">
-        <v>379.0</v>
-      </c>
-      <c r="C120" s="84"/>
-      <c r="H120" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="82" t="s">
-        <v>826</v>
-      </c>
-      <c r="B121" s="82">
-        <v>359.0</v>
-      </c>
-      <c r="C121" s="84"/>
-      <c r="H121" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="82" t="s">
-        <v>550</v>
-      </c>
-      <c r="B122" s="82">
-        <v>353.0</v>
-      </c>
-      <c r="C122" s="84"/>
-      <c r="D122" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="82" t="s">
-        <v>472</v>
-      </c>
-      <c r="B123" s="82">
-        <v>348.0</v>
-      </c>
-      <c r="C123" s="84"/>
-      <c r="H123" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="82" t="s">
-        <v>565</v>
-      </c>
-      <c r="B124" s="82">
-        <v>344.0</v>
-      </c>
-      <c r="C124" s="84"/>
-      <c r="D124" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="82" t="s">
-        <v>394</v>
-      </c>
-      <c r="B125" s="82">
-        <v>315.0</v>
-      </c>
-      <c r="C125" s="84"/>
-      <c r="D125" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="B126" s="82">
-        <v>309.0</v>
-      </c>
-      <c r="C126" s="83" t="s">
-        <v>458</v>
-      </c>
-      <c r="D126" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="B127" s="82">
-        <v>283.0</v>
-      </c>
-      <c r="C127" s="84"/>
-      <c r="D127" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="B128" s="82">
-        <v>279.0</v>
-      </c>
-      <c r="C128" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D128" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="82" t="s">
-        <v>503</v>
-      </c>
-      <c r="B129" s="82">
-        <v>278.0</v>
-      </c>
-      <c r="C129" s="84"/>
-      <c r="D129" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E129" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="82" t="s">
-        <v>829</v>
-      </c>
-      <c r="B130" s="82">
-        <v>276.0</v>
-      </c>
-      <c r="C130" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E130" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="B131" s="82">
-        <v>274.0</v>
-      </c>
-      <c r="C131" s="84"/>
-      <c r="H131" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="82" t="s">
-        <v>785</v>
-      </c>
-      <c r="B132" s="82">
-        <v>264.0</v>
-      </c>
-      <c r="C132" s="84"/>
-      <c r="D132" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="B133" s="82">
-        <v>262.0</v>
-      </c>
-      <c r="C133" s="84"/>
-      <c r="H133" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="82" t="s">
-        <v>830</v>
-      </c>
-      <c r="B134" s="82">
-        <v>250.0</v>
-      </c>
-      <c r="C134" s="84"/>
-      <c r="G134" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" s="82">
-        <v>247.0</v>
-      </c>
-      <c r="C135" s="84"/>
-      <c r="E135" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="82" t="s">
-        <v>831</v>
-      </c>
-      <c r="B136" s="82">
-        <v>229.0</v>
-      </c>
-      <c r="C136" s="83" t="s">
-        <v>619</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="82" t="s">
-        <v>832</v>
-      </c>
-      <c r="B137" s="82">
-        <v>226.0</v>
-      </c>
-      <c r="C137" s="84"/>
-      <c r="H137" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="82" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138" s="82">
-        <v>221.0</v>
-      </c>
-      <c r="C138" s="84"/>
-      <c r="D138" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E138" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="B139" s="82">
-        <v>210.0</v>
-      </c>
-      <c r="C139" s="84"/>
-      <c r="I139" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="82" t="s">
-        <v>456</v>
-      </c>
-      <c r="B140" s="82">
-        <v>209.0</v>
-      </c>
-      <c r="C140" s="84"/>
-      <c r="H140" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="B141" s="82">
-        <v>181.0</v>
-      </c>
-      <c r="C141" s="84"/>
-      <c r="H141" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="82" t="s">
-        <v>466</v>
-      </c>
-      <c r="B142" s="82">
-        <v>175.0</v>
-      </c>
-      <c r="C142" s="84"/>
-      <c r="I142" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="82" t="s">
-        <v>597</v>
-      </c>
-      <c r="B143" s="82">
-        <v>151.0</v>
-      </c>
-      <c r="C143" s="84"/>
-      <c r="D143" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="B144" s="82">
-        <v>141.0</v>
-      </c>
-      <c r="C144" s="84"/>
-      <c r="D144" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="82" t="s">
-        <v>439</v>
-      </c>
-      <c r="B145" s="82">
-        <v>128.0</v>
-      </c>
-      <c r="C145" s="84"/>
-      <c r="H145" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="82" t="s">
-        <v>655</v>
-      </c>
-      <c r="B146" s="82">
-        <v>125.0</v>
-      </c>
-      <c r="C146" s="84"/>
-      <c r="H146" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="82" t="s">
-        <v>658</v>
-      </c>
-      <c r="B147" s="82">
-        <v>90.0</v>
-      </c>
-      <c r="C147" s="84"/>
-      <c r="D147" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="82">
-        <v>22.0</v>
-      </c>
-      <c r="C148" s="84"/>
-      <c r="E148" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="82" t="s">
-        <v>833</v>
-      </c>
-      <c r="B149" s="82">
-        <v>26.0</v>
-      </c>
-      <c r="C149" s="83" t="s">
-        <v>472</v>
-      </c>
-      <c r="H149" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="82">
-        <v>29.0</v>
-      </c>
-      <c r="C150" s="84"/>
-      <c r="H150" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="82" t="s">
-        <v>834</v>
-      </c>
-      <c r="B151" s="82">
-        <v>34.0</v>
-      </c>
-      <c r="C151" s="84"/>
-      <c r="H151" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="82" t="s">
-        <v>542</v>
-      </c>
-      <c r="B152" s="82">
-        <v>35.0</v>
-      </c>
-      <c r="C152" s="84"/>
-      <c r="E152" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="B153" s="82">
-        <v>61.0</v>
-      </c>
-      <c r="C153" s="84"/>
-      <c r="D153" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E153" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="B154" s="82">
+      <c r="B154" s="83">
         <v>59.0</v>
       </c>
       <c r="C154" s="84"/>
@@ -31036,65 +31049,65 @@
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="82" t="s">
+      <c r="A155" s="83" t="s">
         <v>835</v>
       </c>
-      <c r="B155" s="82">
+      <c r="B155" s="83">
         <v>74.0</v>
       </c>
-      <c r="C155" s="84"/>
+      <c r="C155" s="85"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="82" t="s">
+      <c r="A156" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="B156" s="82">
+      <c r="B156" s="83">
         <v>12.0</v>
       </c>
-      <c r="C156" s="84"/>
+      <c r="C156" s="85"/>
       <c r="H156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="82" t="s">
+      <c r="A157" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="B157" s="82">
+      <c r="B157" s="83">
         <v>80.0</v>
       </c>
-      <c r="C157" s="84"/>
+      <c r="C157" s="85"/>
       <c r="H157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="82"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="84"/>
+      <c r="A158" s="83"/>
+      <c r="B158" s="83"/>
+      <c r="C158" s="85"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="86"/>
-      <c r="B159" s="86"/>
-      <c r="C159" s="84"/>
+      <c r="A159" s="87"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="85"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="86"/>
-      <c r="B160" s="86"/>
-      <c r="C160" s="84"/>
+      <c r="A160" s="87"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="85"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="86"/>
-      <c r="B161" s="86"/>
-      <c r="C161" s="84"/>
+      <c r="A161" s="87"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="85"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="86"/>
-      <c r="B162" s="86"/>
-      <c r="C162" s="84"/>
+      <c r="A162" s="87"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="85"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="843">
   <si>
     <t>class</t>
   </si>
@@ -2482,6 +2482,9 @@
   </si>
   <si>
     <t>chopping board</t>
+  </si>
+  <si>
+    <t>statue (sculpture)</t>
   </si>
   <si>
     <t>bow (decorative ribbons)</t>
@@ -29211,7 +29214,6 @@
         <v>2203.0</v>
       </c>
       <c r="C10" s="85"/>
-      <c r="E10" s="19"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
@@ -30298,12 +30300,14 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="86" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
       <c r="B97" s="83">
         <v>727.0</v>
       </c>
-      <c r="C97" s="85"/>
+      <c r="C97" s="84" t="s">
+        <v>734</v>
+      </c>
       <c r="E97" s="3">
         <v>1.0</v>
       </c>
@@ -30451,13 +30455,13 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="86" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B109" s="83">
         <v>561.0</v>
       </c>
       <c r="C109" s="84" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D109" s="3">
         <v>1.0</v>
@@ -30468,7 +30472,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="83" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B110" s="83">
         <v>546.0</v>
@@ -30480,7 +30484,7 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="83" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B111" s="83">
         <v>502.0</v>
@@ -30518,7 +30522,7 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="83" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B114" s="83">
         <v>432.0</v>
@@ -30532,7 +30536,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="83" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B115" s="83">
         <v>424.0</v>
@@ -30560,7 +30564,7 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="86" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B117" s="83">
         <v>405.0</v>
@@ -30613,7 +30617,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="83" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B121" s="83">
         <v>359.0</v>
@@ -30673,7 +30677,7 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="83" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B126" s="83">
         <v>309.0</v>
@@ -30699,7 +30703,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="83" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B128" s="83">
         <v>279.0</v>
@@ -30732,7 +30736,7 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="83" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B130" s="83">
         <v>276.0</v>
@@ -30785,7 +30789,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="83" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B134" s="83">
         <v>250.0</v>
@@ -30809,7 +30813,7 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="83" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B136" s="83">
         <v>229.0</v>
@@ -30973,7 +30977,7 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="83" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B149" s="83">
         <v>26.0</v>
@@ -30999,7 +31003,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="83" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B151" s="83">
         <v>34.0</v>
@@ -31050,7 +31054,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="83" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B155" s="83">
         <v>74.0</v>
@@ -31984,7 +31988,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32048,7 +32052,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>307</v>
@@ -32059,7 +32063,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>327</v>
@@ -32070,7 +32074,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>307</v>
@@ -32081,7 +32085,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>327</v>
@@ -32116,7 +32120,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>311</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="835">
   <si>
     <t>class</t>
   </si>
@@ -1212,6 +1212,9 @@
     <t>microwave_oven</t>
   </si>
   <si>
+    <t>microwave</t>
+  </si>
+  <si>
     <t>milk</t>
   </si>
   <si>
@@ -1731,6 +1734,9 @@
     <t>street_light</t>
   </si>
   <si>
+    <t>street light</t>
+  </si>
+  <si>
     <t>stretcher</t>
   </si>
   <si>
@@ -1768,6 +1774,9 @@
   </si>
   <si>
     <t>swimming_pool</t>
+  </si>
+  <si>
+    <t>Swimming pool</t>
   </si>
   <si>
     <t>swimwear</t>
@@ -10084,7 +10093,9 @@
       <c r="D334" s="1">
         <v>25.0</v>
       </c>
-      <c r="E334" s="2"/>
+      <c r="E334" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="F334" s="3">
         <v>1.0</v>
       </c>
@@ -10092,7 +10103,7 @@
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B335" s="1">
         <v>156.0</v>
@@ -10108,7 +10119,7 @@
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B336" s="1">
         <v>746.0</v>
@@ -10127,7 +10138,7 @@
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B337" s="1">
         <v>1146.0</v>
@@ -10146,7 +10157,7 @@
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B338" s="1">
         <v>432.0</v>
@@ -10169,7 +10180,7 @@
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B339" s="1">
         <v>181.0</v>
@@ -10188,7 +10199,7 @@
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B340" s="1">
         <v>597.0</v>
@@ -10209,7 +10220,7 @@
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B341" s="1">
         <v>4312.0</v>
@@ -10231,7 +10242,7 @@
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B342" s="1">
         <v>2143.0</v>
@@ -10250,7 +10261,7 @@
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B343" s="1">
         <v>1697.0</v>
@@ -10269,7 +10280,7 @@
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B344" s="1">
         <v>6944.0</v>
@@ -10307,7 +10318,7 @@
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B346" s="1">
         <v>1364.0</v>
@@ -10326,7 +10337,7 @@
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B347" s="1">
         <v>1598.0</v>
@@ -10347,7 +10358,7 @@
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B348" s="1">
         <v>584.0</v>
@@ -10366,7 +10377,7 @@
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B349" s="1">
         <v>1782.0</v>
@@ -10385,7 +10396,7 @@
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B350" s="1">
         <v>5253.0</v>
@@ -10404,7 +10415,7 @@
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B351" s="1">
         <v>1505.0</v>
@@ -10422,7 +10433,7 @@
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B352" s="1">
         <v>124.0</v>
@@ -10441,7 +10452,7 @@
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B353" s="1">
         <v>2200.0</v>
@@ -10460,7 +10471,7 @@
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B354" s="1">
         <v>773.0</v>
@@ -10481,7 +10492,7 @@
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B355" s="1">
         <v>93.0</v>
@@ -10500,7 +10511,7 @@
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B356" s="1">
         <v>4942.0</v>
@@ -10519,7 +10530,7 @@
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B357" s="1">
         <v>1280.0</v>
@@ -10538,7 +10549,7 @@
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B358" s="1">
         <v>900.0</v>
@@ -10557,7 +10568,7 @@
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B359" s="1">
         <v>377.0</v>
@@ -10569,13 +10580,13 @@
         <v>29.0</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O359" s="4"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B360" s="1">
         <v>364.0</v>
@@ -10594,7 +10605,7 @@
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B361" s="1">
         <v>487.0</v>
@@ -10613,7 +10624,7 @@
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B362" s="1">
         <v>509.0</v>
@@ -10632,7 +10643,7 @@
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B363" s="1">
         <v>1362.0</v>
@@ -10651,7 +10662,7 @@
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B364" s="1">
         <v>495.0</v>
@@ -10663,9 +10674,6 @@
         <v>41.0</v>
       </c>
       <c r="E364" s="2"/>
-      <c r="F364" s="3">
-        <v>1.0</v>
-      </c>
       <c r="J364" s="3">
         <v>1.0</v>
       </c>
@@ -10676,7 +10684,7 @@
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B365" s="1">
         <v>2244.0</v>
@@ -10697,7 +10705,7 @@
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B366" s="1">
         <v>10378.0</v>
@@ -10709,13 +10717,13 @@
         <v>122.0</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O366" s="4"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B367" s="1">
         <v>362.0</v>
@@ -10734,7 +10742,7 @@
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B368" s="1">
         <v>574.0</v>
@@ -10753,7 +10761,7 @@
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B369" s="1">
         <v>3.0</v>
@@ -10776,7 +10784,7 @@
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B370" s="1">
         <v>146.0</v>
@@ -10799,7 +10807,7 @@
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B371" s="1">
         <v>1047.0</v>
@@ -10820,7 +10828,7 @@
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B372" s="1">
         <v>177.0</v>
@@ -10843,7 +10851,7 @@
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B373" s="1">
         <v>1414.0</v>
@@ -10862,7 +10870,7 @@
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B374" s="1">
         <v>734.0</v>
@@ -10881,7 +10889,7 @@
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B375" s="1">
         <v>1141.0</v>
@@ -10904,7 +10912,7 @@
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B376" s="1">
         <v>220.0</v>
@@ -10921,7 +10929,7 @@
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B377" s="1">
         <v>263.0</v>
@@ -10940,7 +10948,7 @@
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B378" s="1">
         <v>1011.0</v>
@@ -10959,7 +10967,7 @@
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B379" s="1">
         <v>95.0</v>
@@ -10982,7 +10990,7 @@
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B380" s="1">
         <v>13.0</v>
@@ -11005,7 +11013,7 @@
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B381" s="1">
         <v>894.0</v>
@@ -11024,7 +11032,7 @@
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B382" s="1">
         <v>208.0</v>
@@ -11047,7 +11055,7 @@
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B383" s="1">
         <v>248384.0</v>
@@ -11069,7 +11077,7 @@
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B384" s="1">
         <v>128.0</v>
@@ -11088,7 +11096,7 @@
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B385" s="1">
         <v>1222.0</v>
@@ -11100,7 +11108,7 @@
         <v>48.0</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I385" s="3">
         <v>1.0</v>
@@ -11114,7 +11122,7 @@
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B386" s="1">
         <v>1246.0</v>
@@ -11133,7 +11141,7 @@
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B387" s="1">
         <v>284.0</v>
@@ -11145,7 +11153,7 @@
         <v>13.0</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G387" s="7">
         <v>1.0</v>
@@ -11154,7 +11162,7 @@
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B388" s="1">
         <v>5536.0</v>
@@ -11166,7 +11174,7 @@
         <v>45.0</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F388" s="3">
         <v>1.0</v>
@@ -11175,7 +11183,7 @@
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B389" s="1">
         <v>811.0</v>
@@ -11194,7 +11202,7 @@
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B390" s="1">
         <v>1249.0</v>
@@ -11213,7 +11221,7 @@
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B391" s="1">
         <v>310.0</v>
@@ -11232,7 +11240,7 @@
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B392" s="1">
         <v>288.0</v>
@@ -11244,7 +11252,7 @@
         <v>20.0</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F392" s="3">
         <v>1.0</v>
@@ -11260,7 +11268,7 @@
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B393" s="1">
         <v>1251.0</v>
@@ -11279,7 +11287,7 @@
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B394" s="1">
         <v>19.0</v>
@@ -11317,7 +11325,7 @@
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B396" s="1">
         <v>517.0</v>
@@ -11339,7 +11347,7 @@
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B397" s="1">
         <v>2023.0</v>
@@ -11358,7 +11366,7 @@
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B398" s="1">
         <v>1358.0</v>
@@ -11381,7 +11389,7 @@
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B399" s="1">
         <v>264.0</v>
@@ -11400,7 +11408,7 @@
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B400" s="1">
         <v>490.0</v>
@@ -11412,7 +11420,7 @@
         <v>29.0</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K400" s="3">
         <v>1.0</v>
@@ -11421,7 +11429,7 @@
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B401" s="1">
         <v>225.0</v>
@@ -11442,7 +11450,7 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B402" s="1">
         <v>194.0</v>
@@ -11461,7 +11469,7 @@
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B403" s="1">
         <v>2774.0</v>
@@ -11484,7 +11492,7 @@
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B404" s="1">
         <v>203.0</v>
@@ -11505,7 +11513,7 @@
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B405" s="1">
         <v>16152.0</v>
@@ -11517,7 +11525,7 @@
         <v>199.0</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F405" s="3">
         <v>1.0</v>
@@ -11526,7 +11534,7 @@
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B406" s="1">
         <v>304.0</v>
@@ -11545,7 +11553,7 @@
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B407" s="1">
         <v>147.0</v>
@@ -11568,7 +11576,7 @@
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B408" s="1">
         <v>13.0</v>
@@ -11591,7 +11599,7 @@
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B409" s="1">
         <v>168.0</v>
@@ -11612,7 +11620,7 @@
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B410" s="1">
         <v>210.0</v>
@@ -11635,7 +11643,7 @@
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B411" s="1">
         <v>1705.0</v>
@@ -11654,7 +11662,7 @@
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B412" s="1">
         <v>121.0</v>
@@ -11676,7 +11684,7 @@
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B413" s="1">
         <v>1179.0</v>
@@ -11695,7 +11703,7 @@
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B414" s="1">
         <v>310.0</v>
@@ -11714,7 +11722,7 @@
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B415" s="1">
         <v>240.0</v>
@@ -11735,7 +11743,7 @@
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B416" s="1">
         <v>264.0</v>
@@ -11754,7 +11762,7 @@
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B417" s="1">
         <v>43.0</v>
@@ -11777,7 +11785,7 @@
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B418" s="1">
         <v>429.0</v>
@@ -11796,7 +11804,7 @@
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B419" s="1">
         <v>324.0</v>
@@ -11815,7 +11823,7 @@
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B420" s="1">
         <v>328.0</v>
@@ -11827,7 +11835,7 @@
         <v>12.0</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K420" s="7">
         <v>1.0</v>
@@ -11839,7 +11847,7 @@
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B421" s="1">
         <v>549.0</v>
@@ -11858,7 +11866,7 @@
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B422" s="1">
         <v>192.0</v>
@@ -11877,7 +11885,7 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B423" s="1">
         <v>481.0</v>
@@ -11896,7 +11904,7 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B424" s="1">
         <v>526.0</v>
@@ -11915,7 +11923,7 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B425" s="1">
         <v>1752.0</v>
@@ -11937,7 +11945,7 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B426" s="1">
         <v>48.0</v>
@@ -11953,7 +11961,7 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B427" s="1">
         <v>638.0</v>
@@ -11972,7 +11980,7 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B428" s="1">
         <v>739.0</v>
@@ -11996,7 +12004,7 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B429" s="1">
         <v>5407.0</v>
@@ -12015,7 +12023,7 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B430" s="1">
         <v>270.0</v>
@@ -12036,7 +12044,7 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B431" s="1">
         <v>235.0</v>
@@ -12056,7 +12064,7 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B432" s="1">
         <v>2654.0</v>
@@ -12075,7 +12083,7 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B433" s="1">
         <v>96.0</v>
@@ -12087,7 +12095,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -12099,7 +12107,7 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B434" s="1">
         <v>1298.0</v>
@@ -12118,7 +12126,7 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B435" s="1">
         <v>795.0</v>
@@ -12137,7 +12145,7 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B436" s="1">
         <v>1582.0</v>
@@ -12156,7 +12164,7 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B437" s="1">
         <v>854.0</v>
@@ -12178,7 +12186,7 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B438" s="1">
         <v>131.0</v>
@@ -12201,7 +12209,7 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B439" s="1">
         <v>2003.0</v>
@@ -12220,7 +12228,7 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B440" s="1">
         <v>292.0</v>
@@ -12239,7 +12247,7 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B441" s="1">
         <v>466.0</v>
@@ -12262,7 +12270,7 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B442" s="1">
         <v>157.0</v>
@@ -12283,7 +12291,7 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B443" s="1">
         <v>46.0</v>
@@ -12321,7 +12329,7 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B445" s="1">
         <v>936.0</v>
@@ -12340,7 +12348,7 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B446" s="1">
         <v>745.0</v>
@@ -12352,7 +12360,7 @@
         <v>32.0</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K446" s="3">
         <v>1.0</v>
@@ -12361,7 +12369,7 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B447" s="1">
         <v>1824.0</v>
@@ -12384,7 +12392,7 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B448" s="1">
         <v>230.0</v>
@@ -12403,7 +12411,7 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B449" s="1">
         <v>318.0</v>
@@ -12426,7 +12434,7 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B450" s="1">
         <v>273.0</v>
@@ -12446,7 +12454,7 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B451" s="1">
         <v>106.0</v>
@@ -12458,7 +12466,7 @@
         <v>7.0</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F451" s="8">
         <v>1.0</v>
@@ -12474,7 +12482,7 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B452" s="1">
         <v>362.0</v>
@@ -12493,7 +12501,7 @@
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B453" s="1">
         <v>496.0</v>
@@ -12512,7 +12520,7 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B454" s="1">
         <v>1188.0</v>
@@ -12531,7 +12539,7 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B455" s="1">
         <v>6011.0</v>
@@ -12550,7 +12558,7 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B456" s="1">
         <v>397.0</v>
@@ -12572,7 +12580,7 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B457" s="1">
         <v>5217.0</v>
@@ -12591,7 +12599,7 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B458" s="1">
         <v>6833.0</v>
@@ -12610,7 +12618,7 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B459" s="1">
         <v>429.0</v>
@@ -12626,7 +12634,7 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B460" s="1">
         <v>206.0</v>
@@ -12645,7 +12653,7 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B461" s="1">
         <v>617.0</v>
@@ -12664,7 +12672,7 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B462" s="1">
         <v>1442.0</v>
@@ -12683,7 +12691,7 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B463" s="1">
         <v>1103.0</v>
@@ -12707,7 +12715,7 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B464" s="1">
         <v>1361.0</v>
@@ -12728,7 +12736,7 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B465" s="1">
         <v>974.0</v>
@@ -12747,7 +12755,7 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B466" s="1">
         <v>1501.0</v>
@@ -12769,7 +12777,7 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B467" s="1">
         <v>39.0</v>
@@ -12792,7 +12800,7 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B468" s="1">
         <v>21029.0</v>
@@ -12811,7 +12819,7 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B469" s="1">
         <v>103.0</v>
@@ -12827,7 +12835,7 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B470" s="1">
         <v>10313.0</v>
@@ -12846,7 +12854,7 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B471" s="1">
         <v>615.0</v>
@@ -12865,7 +12873,7 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B472" s="1">
         <v>1188.0</v>
@@ -12884,7 +12892,7 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B473" s="1">
         <v>574.0</v>
@@ -12905,7 +12913,7 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B474" s="1">
         <v>538.0</v>
@@ -12924,7 +12932,7 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B475" s="1">
         <v>197.0</v>
@@ -12947,7 +12955,7 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B476" s="1">
         <v>224.0</v>
@@ -12970,7 +12978,7 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B477" s="1">
         <v>58.0</v>
@@ -12993,7 +13001,7 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B478" s="1">
         <v>682.0</v>
@@ -13012,7 +13020,7 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B479" s="1">
         <v>1132.0</v>
@@ -13033,7 +13041,7 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B480" s="1">
         <v>505.0</v>
@@ -13054,7 +13062,7 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B481" s="1">
         <v>1157.0</v>
@@ -13073,7 +13081,7 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B482" s="1">
         <v>38.0</v>
@@ -13099,7 +13107,7 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B483" s="1">
         <v>66.0</v>
@@ -13122,7 +13130,7 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B484" s="1">
         <v>1702.0</v>
@@ -13141,7 +13149,7 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B485" s="1">
         <v>1044.0</v>
@@ -13160,7 +13168,7 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B486" s="1">
         <v>10056.0</v>
@@ -13179,7 +13187,7 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B487" s="1">
         <v>6531.0</v>
@@ -13191,7 +13199,7 @@
         <v>227.0</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I487" s="3">
         <v>1.0</v>
@@ -13205,7 +13213,7 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B488" s="1">
         <v>122.0</v>
@@ -13228,7 +13236,7 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B489" s="1">
         <v>97.0</v>
@@ -13247,7 +13255,7 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B490" s="1">
         <v>1810.0</v>
@@ -13269,7 +13277,7 @@
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B491" s="1">
         <v>4533.0</v>
@@ -13288,7 +13296,7 @@
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B492" s="1">
         <v>49.0</v>
@@ -13311,7 +13319,7 @@
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B493" s="1">
         <v>436.0</v>
@@ -13330,7 +13338,7 @@
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B494" s="1">
         <v>110.0</v>
@@ -13353,7 +13361,7 @@
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B495" s="1">
         <v>75.0</v>
@@ -13376,7 +13384,7 @@
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B496" s="1">
         <v>576.0</v>
@@ -13395,7 +13403,7 @@
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B497" s="1">
         <v>375.0</v>
@@ -13414,7 +13422,7 @@
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B498" s="1">
         <v>1257.0</v>
@@ -13433,7 +13441,7 @@
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B499" s="1">
         <v>11226.0</v>
@@ -13444,7 +13452,9 @@
       <c r="D499" s="1">
         <v>30.0</v>
       </c>
-      <c r="E499" s="1"/>
+      <c r="E499" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="G499" s="3">
         <v>1.0</v>
       </c>
@@ -13452,7 +13462,7 @@
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B500" s="1">
         <v>122.0</v>
@@ -13471,7 +13481,7 @@
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B501" s="1">
         <v>1133.0</v>
@@ -13492,7 +13502,7 @@
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B502" s="1">
         <v>75.0</v>
@@ -13508,7 +13518,7 @@
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B503" s="1">
         <v>233.0</v>
@@ -13520,7 +13530,7 @@
         <v>36.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F503" s="3"/>
       <c r="J503" s="3">
@@ -13530,7 +13540,7 @@
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B504" s="1">
         <v>43922.0</v>
@@ -13549,7 +13559,7 @@
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B505" s="1">
         <v>408.0</v>
@@ -13571,7 +13581,7 @@
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B506" s="1">
         <v>4296.0</v>
@@ -13592,7 +13602,7 @@
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B507" s="1">
         <v>15125.0</v>
@@ -13614,7 +13624,7 @@
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B508" s="1">
         <v>1691.0</v>
@@ -13635,7 +13645,7 @@
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B509" s="1">
         <v>681.0</v>
@@ -13654,7 +13664,7 @@
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B510" s="1">
         <v>1365.0</v>
@@ -13673,7 +13683,7 @@
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B511" s="1">
         <v>330.0</v>
@@ -13696,7 +13706,7 @@
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B512" s="1">
         <v>3618.0</v>
@@ -13707,7 +13717,9 @@
       <c r="D512" s="1">
         <v>156.0</v>
       </c>
-      <c r="E512" s="1"/>
+      <c r="E512" s="2" t="s">
+        <v>584</v>
+      </c>
       <c r="G512" s="3">
         <v>1.0</v>
       </c>
@@ -13715,7 +13727,7 @@
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B513" s="1">
         <v>3365.0</v>
@@ -13737,7 +13749,7 @@
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="5" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B514" s="1">
         <v>391.0</v>
@@ -13759,7 +13771,7 @@
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="5" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B515" s="1">
         <v>94.0</v>
@@ -13801,7 +13813,7 @@
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B517" s="1">
         <v>589.0</v>
@@ -13813,7 +13825,7 @@
         <v>29.0</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L517" s="3">
         <v>1.0</v>
@@ -13824,7 +13836,7 @@
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B518" s="1">
         <v>784.0</v>
@@ -13836,7 +13848,7 @@
         <v>11.0</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F518" s="3">
         <v>1.0</v>
@@ -13845,7 +13857,7 @@
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B519" s="1">
         <v>6084.0</v>
@@ -13864,7 +13876,7 @@
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B520" s="1">
         <v>352.0</v>
@@ -13883,7 +13895,7 @@
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B521" s="1">
         <v>1062.0</v>
@@ -13902,7 +13914,7 @@
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B522" s="1">
         <v>1170.0</v>
@@ -13914,7 +13926,7 @@
         <v>40.0</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F522" s="3">
         <v>1.0</v>
@@ -13923,7 +13935,7 @@
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B523" s="1">
         <v>412.0</v>
@@ -13942,7 +13954,7 @@
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B524" s="1">
         <v>1434.0</v>
@@ -13965,7 +13977,7 @@
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B525" s="1">
         <v>1068.0</v>
@@ -13984,7 +13996,7 @@
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B526" s="1">
         <v>496.0</v>
@@ -14003,7 +14015,7 @@
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B527" s="1">
         <v>1020.0</v>
@@ -14022,7 +14034,7 @@
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B528" s="1">
         <v>221.0</v>
@@ -14045,7 +14057,7 @@
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B529" s="1">
         <v>2789.0</v>
@@ -14066,7 +14078,7 @@
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B530" s="1">
         <v>385.0</v>
@@ -14087,7 +14099,7 @@
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B531" s="1">
         <v>807.0</v>
@@ -14099,7 +14111,7 @@
         <v>24.0</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L531" s="8">
         <v>1.0</v>
@@ -14110,7 +14122,7 @@
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B532" s="1">
         <v>3508.0</v>
@@ -14129,7 +14141,7 @@
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B533" s="1">
         <v>367.0</v>
@@ -14148,7 +14160,7 @@
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B534" s="1">
         <v>107.0</v>
@@ -14171,7 +14183,7 @@
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B535" s="1">
         <v>7733.0</v>
@@ -14190,7 +14202,7 @@
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B536" s="1">
         <v>1039.0</v>
@@ -14209,7 +14221,7 @@
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B537" s="1">
         <v>1307.0</v>
@@ -14221,7 +14233,7 @@
         <v>36.0</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F537" s="3">
         <v>1.0</v>
@@ -14233,7 +14245,7 @@
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B538" s="1">
         <v>30815.0</v>
@@ -14252,7 +14264,7 @@
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="5" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B539" s="1">
         <v>60.0</v>
@@ -14275,7 +14287,7 @@
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B540" s="1">
         <v>862.0</v>
@@ -14294,7 +14306,7 @@
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B541" s="1">
         <v>226.0</v>
@@ -14313,7 +14325,7 @@
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B542" s="1">
         <v>1283.0</v>
@@ -14332,7 +14344,7 @@
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B543" s="1">
         <v>793.0</v>
@@ -14351,7 +14363,7 @@
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B544" s="1">
         <v>113.0</v>
@@ -14370,7 +14382,7 @@
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B545" s="1">
         <v>18.0</v>
@@ -14393,7 +14405,7 @@
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B546" s="1">
         <v>1324.0</v>
@@ -14412,7 +14424,7 @@
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B547" s="1">
         <v>144.0</v>
@@ -14431,7 +14443,7 @@
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B548" s="1">
         <v>21806.0</v>
@@ -14450,7 +14462,7 @@
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B549" s="1">
         <v>17481.0</v>
@@ -14469,7 +14481,7 @@
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B550" s="1">
         <v>1774.0</v>
@@ -14481,7 +14493,7 @@
         <v>22.0</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G550" s="3">
         <v>1.0</v>
@@ -14490,7 +14502,7 @@
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B551" s="1">
         <v>2817.0</v>
@@ -14502,7 +14514,7 @@
         <v>27.0</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G551" s="3">
         <v>1.0</v>
@@ -14530,7 +14542,7 @@
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B553" s="1">
         <v>100.0</v>
@@ -14553,7 +14565,7 @@
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B554" s="1">
         <v>106.0</v>
@@ -14575,7 +14587,7 @@
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B555" s="1">
         <v>289999.0</v>
@@ -14594,7 +14606,7 @@
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B556" s="1">
         <v>107.0</v>
@@ -14610,7 +14622,7 @@
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B557" s="1">
         <v>1196.0</v>
@@ -14632,7 +14644,7 @@
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B558" s="1">
         <v>451.0</v>
@@ -14648,7 +14660,7 @@
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B559" s="1">
         <v>4858.0</v>
@@ -14667,7 +14679,7 @@
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B560" s="1">
         <v>8078.0</v>
@@ -14686,7 +14698,7 @@
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B561" s="1">
         <v>835.0</v>
@@ -14702,7 +14714,7 @@
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B562" s="1">
         <v>367.0</v>
@@ -14721,7 +14733,7 @@
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B563" s="1">
         <v>130.0</v>
@@ -14745,7 +14757,7 @@
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B564" s="1">
         <v>3357.0</v>
@@ -14767,7 +14779,7 @@
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B565" s="1">
         <v>127.0</v>
@@ -14790,7 +14802,7 @@
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B566" s="1">
         <v>5378.0</v>
@@ -14809,7 +14821,7 @@
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B567" s="1">
         <v>1561.0</v>
@@ -14828,7 +14840,7 @@
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B568" s="1">
         <v>5254.0</v>
@@ -14844,7 +14856,7 @@
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B569" s="1">
         <v>15736.0</v>
@@ -14863,7 +14875,7 @@
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B570" s="1">
         <v>5368.0</v>
@@ -14875,7 +14887,7 @@
         <v>724.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G570" s="3">
         <v>1.0</v>
@@ -14884,7 +14896,7 @@
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B571" s="1">
         <v>1307.0</v>
@@ -14900,7 +14912,7 @@
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B572" s="1">
         <v>579.0</v>
@@ -14921,7 +14933,7 @@
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B573" s="1">
         <v>378.0</v>
@@ -14941,7 +14953,7 @@
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B574" s="1">
         <v>23.0</v>
@@ -14957,7 +14969,7 @@
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B575" s="1">
         <v>854.0</v>
@@ -14978,7 +14990,7 @@
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B576" s="1">
         <v>208.0</v>
@@ -14999,7 +15011,7 @@
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B577" s="1">
         <v>326.0</v>
@@ -15015,7 +15027,7 @@
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B578" s="1">
         <v>1020.0</v>
@@ -15027,7 +15039,7 @@
         <v>19.0</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G578" s="3">
         <v>1.0</v>
@@ -15036,7 +15048,7 @@
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B579" s="1">
         <v>1434.0</v>
@@ -15055,7 +15067,7 @@
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B580" s="1">
         <v>2481.0</v>
@@ -15073,7 +15085,7 @@
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B581" s="1">
         <v>409.0</v>
@@ -15092,7 +15104,7 @@
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B582" s="1">
         <v>1646.0</v>
@@ -15111,7 +15123,7 @@
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B583" s="1">
         <v>713.0</v>
@@ -15149,7 +15161,7 @@
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B585" s="1">
         <v>882.0</v>
@@ -15171,7 +15183,7 @@
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B586" s="1">
         <v>157.0</v>
@@ -15191,7 +15203,7 @@
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B587" s="1">
         <v>899.0</v>
@@ -15210,7 +15222,7 @@
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B588" s="1">
         <v>193.0</v>
@@ -15233,7 +15245,7 @@
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B589" s="1">
         <v>59833.0</v>
@@ -15252,7 +15264,7 @@
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B590" s="1">
         <v>397.0</v>
@@ -15271,7 +15283,7 @@
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="5" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B591" s="1">
         <v>4878.0</v>
@@ -15293,7 +15305,7 @@
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B592" s="1">
         <v>4894.0</v>
@@ -15305,7 +15317,7 @@
         <v>90.0</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F592" s="3">
         <v>1.0</v>
@@ -15314,7 +15326,7 @@
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="5" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B593" s="1">
         <v>140.0</v>
@@ -15337,7 +15349,7 @@
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B594" s="1">
         <v>37.0</v>
@@ -15365,7 +15377,7 @@
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B595" s="1">
         <v>470.0</v>
@@ -15386,7 +15398,7 @@
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B596" s="1">
         <v>265635.0</v>
@@ -15402,7 +15414,7 @@
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B597" s="1">
         <v>287.0</v>
@@ -15425,7 +15437,7 @@
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B598" s="1">
         <v>425.0</v>
@@ -15444,7 +15456,7 @@
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="5" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B599" s="1">
         <v>201.0</v>
@@ -15472,7 +15484,7 @@
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B600" s="1">
         <v>62.0</v>
@@ -15495,7 +15507,7 @@
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B601" s="1">
         <v>621.0</v>
@@ -15514,7 +15526,7 @@
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="5" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B602" s="1">
         <v>287.0</v>
@@ -15540,11 +15552,11 @@
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="F604" s="19">
         <f t="shared" ref="F604:L604" si="1">SUM(F2:F602)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G604" s="19">
         <f t="shared" si="1"/>
@@ -15571,17 +15583,17 @@
         <v>31</v>
       </c>
       <c r="M604" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N604" s="19">
         <f t="shared" ref="N604:N605" si="2">SUM(F604:L604)</f>
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O604" s="11"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="E605" s="3" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="F605" s="3">
         <v>8.0</v>
@@ -15605,7 +15617,7 @@
         <v>6.0</v>
       </c>
       <c r="M605" s="3" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N605" s="3">
         <f t="shared" si="2"/>
@@ -15623,11 +15635,11 @@
       <c r="K606" s="19"/>
       <c r="L606" s="19"/>
       <c r="M606" s="20" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="N606" s="19">
         <f>SUM(N604:N605)</f>
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O606" s="11"/>
       <c r="P606" s="21">
@@ -15647,60 +15659,60 @@
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="22" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D609" s="10"/>
       <c r="E609" s="23" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="H609" s="24" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="I609" s="25" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J609" s="24" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="K609" s="24"/>
       <c r="L609" s="24"/>
       <c r="M609" s="26"/>
       <c r="N609" s="24" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="O609" s="4"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="27" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B610" s="3">
         <v>1.0</v>
       </c>
       <c r="D610" s="28"/>
       <c r="E610" s="3" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H610" s="24" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="I610" s="24"/>
       <c r="J610" s="29"/>
       <c r="K610" s="30" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L610" s="31" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="M610" s="32" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="N610" s="29"/>
       <c r="O610" s="4"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="33" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B611" s="3">
         <v>1.0</v>
@@ -15713,10 +15725,10 @@
         <v>0.0</v>
       </c>
       <c r="I611" s="36" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J611" s="37" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K611" s="38"/>
       <c r="L611" s="38"/>
@@ -15726,7 +15738,7 @@
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="33" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B612" s="3">
         <v>1.0</v>
@@ -15738,68 +15750,68 @@
         <v>1.0</v>
       </c>
       <c r="I612" s="36" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J612" s="39" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K612" s="40"/>
       <c r="L612" s="41" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="M612" s="40" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="N612" s="42"/>
       <c r="O612" s="4"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="33" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B613" s="3">
         <v>1.0</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H613" s="35">
         <v>2.0</v>
       </c>
       <c r="I613" s="36" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="J613" s="43" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="K613" s="38"/>
       <c r="L613" s="38"/>
       <c r="M613" s="44" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="N613" s="45" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="O613" s="4"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="33" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B614" s="3">
         <v>1.0</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H614" s="35">
         <v>3.0</v>
       </c>
       <c r="I614" s="36" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J614" s="41" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="K614" s="40"/>
       <c r="L614" s="40"/>
@@ -15815,99 +15827,99 @@
         <v>1.0</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H615" s="35">
         <v>4.0</v>
       </c>
       <c r="I615" s="36" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J615" s="47" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="K615" s="38"/>
       <c r="L615" s="38"/>
       <c r="M615" s="48" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="N615" s="38"/>
       <c r="O615" s="4"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="33" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B616" s="3">
         <v>1.0</v>
       </c>
       <c r="D616" s="49"/>
       <c r="E616" s="3" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H616" s="35">
         <v>5.0</v>
       </c>
       <c r="I616" s="36" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J616" s="50" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="K616" s="40"/>
       <c r="L616" s="40"/>
       <c r="M616" s="40" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="N616" s="40"/>
       <c r="O616" s="4"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="51" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B617" s="3">
         <v>1.0</v>
       </c>
       <c r="D617" s="52"/>
       <c r="E617" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H617" s="35">
         <v>6.0</v>
       </c>
       <c r="I617" s="36" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="J617" s="37" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="K617" s="38"/>
       <c r="L617" s="38"/>
       <c r="M617" s="48" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="N617" s="38"/>
       <c r="O617" s="4"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="33" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B618" s="3">
         <v>1.0</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H618" s="53" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="I618" s="36" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J618" s="54" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K618" s="40"/>
       <c r="L618" s="40"/>
@@ -15917,29 +15929,29 @@
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="33" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B619" s="3">
         <v>1.0</v>
       </c>
       <c r="D619" s="55"/>
       <c r="E619" s="3" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H619" s="3">
         <v>7.0</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="J619" s="56" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="O619" s="4"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="33" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B620" s="3">
         <v>1.0</v>
@@ -15949,7 +15961,7 @@
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="33" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B621" s="3">
         <v>1.0</v>
@@ -15959,7 +15971,7 @@
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="46" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B622" s="3">
         <v>1.0</v>
@@ -15969,7 +15981,7 @@
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="33" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B623" s="3">
         <v>1.0</v>
@@ -15979,7 +15991,7 @@
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="46" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B624" s="3">
         <v>1.0</v>
@@ -15989,291 +16001,291 @@
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="58" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B625" s="3">
         <v>1.0</v>
       </c>
       <c r="D625" s="59" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="O625" s="4"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="33" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B626" s="3">
         <v>1.0</v>
       </c>
       <c r="D626" s="60" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E626" s="57"/>
       <c r="O626" s="4"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="46" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B627" s="3">
         <v>1.0</v>
       </c>
       <c r="D627" s="61" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E627" s="57"/>
       <c r="O627" s="4"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="46" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B628" s="3">
         <v>1.0</v>
       </c>
       <c r="D628" s="62" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E628" s="57"/>
       <c r="O628" s="4"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="33" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B629" s="3">
         <v>1.0</v>
       </c>
       <c r="D629" s="57" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E629" s="57"/>
       <c r="O629" s="4"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="33" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B630" s="3">
         <v>1.0</v>
       </c>
       <c r="D630" s="57" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E630" s="57"/>
       <c r="O630" s="4"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="33" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B631" s="3">
         <v>1.0</v>
       </c>
       <c r="D631" s="62" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E631" s="57"/>
       <c r="O631" s="4"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="33" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B632" s="3">
         <v>1.0</v>
       </c>
       <c r="D632" s="63" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E632" s="57"/>
       <c r="O632" s="4"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="33" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B633" s="3">
         <v>1.0</v>
       </c>
       <c r="D633" s="60" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E633" s="57"/>
       <c r="O633" s="4"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="33" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B634" s="3">
         <v>1.0</v>
       </c>
       <c r="D634" s="57" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E634" s="57"/>
       <c r="O634" s="4"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="33" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B635" s="3">
         <v>1.0</v>
       </c>
       <c r="D635" s="55" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E635" s="57"/>
       <c r="O635" s="4"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="33" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B636" s="3">
         <v>1.0</v>
       </c>
       <c r="D636" s="57" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E636" s="57"/>
       <c r="O636" s="4"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="64" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B637" s="3">
         <v>1.0</v>
       </c>
       <c r="D637" s="65" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="E637" s="57"/>
       <c r="O637" s="4"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="64" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B638" s="3">
         <v>1.0</v>
       </c>
       <c r="D638" s="66" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E638" s="57"/>
       <c r="O638" s="4"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="33" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B639" s="3">
         <v>1.0</v>
       </c>
       <c r="D639" s="66" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E639" s="57"/>
       <c r="O639" s="4"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="33" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B640" s="3">
         <v>1.0</v>
       </c>
       <c r="D640" s="66" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E640" s="57"/>
       <c r="O640" s="4"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
       <c r="D641" s="66" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E641" s="57"/>
       <c r="O641" s="4"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="3" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B642" s="21">
         <f>SUM(B610:B640)</f>
         <v>31</v>
       </c>
       <c r="D642" s="67" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E642" s="57"/>
       <c r="O642" s="4"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="D643" s="57" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E643" s="57"/>
       <c r="O643" s="4"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
       <c r="D644" s="62" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E644" s="57"/>
       <c r="O644" s="4"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
       <c r="D645" s="57" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E645" s="57"/>
       <c r="O645" s="4"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="D646" s="66" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E646" s="57"/>
       <c r="O646" s="4"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
       <c r="D647" s="68" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="E647" s="57"/>
       <c r="O647" s="4"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
       <c r="D648" s="66" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="E648" s="57"/>
       <c r="O648" s="4"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
       <c r="D649" s="67" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E649" s="57"/>
       <c r="O649" s="4"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
       <c r="D650" s="69" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="E650" s="57"/>
       <c r="O650" s="4"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="D651" s="68" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E651" s="57"/>
       <c r="O651" s="4"/>
@@ -17583,6 +17595,7 @@
         <v>24.0</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -19838,7 +19851,7 @@
         <v>20.0</v>
       </c>
       <c r="E125" s="73" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="F125" s="9">
         <v>1.0</v>
@@ -20598,7 +20611,7 @@
         <v>30.0</v>
       </c>
       <c r="E167" s="74" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="F167" s="8">
         <v>1.0</v>
@@ -20828,7 +20841,7 @@
         <v>72.0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="J180" s="3">
         <v>1.0</v>
@@ -22128,6 +22141,9 @@
       <c r="I250" s="3">
         <v>1.0</v>
       </c>
+      <c r="L250" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="5" t="s">
@@ -23218,7 +23234,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -23633,7 +23649,7 @@
     </row>
     <row r="335" ht="14.25" customHeight="1">
       <c r="A335" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B335" s="1">
         <v>156.0</v>
@@ -23648,7 +23664,7 @@
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B336" s="1">
         <v>746.0</v>
@@ -23666,7 +23682,7 @@
     </row>
     <row r="337" ht="14.25" customHeight="1">
       <c r="A337" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B337" s="1">
         <v>1146.0</v>
@@ -23684,7 +23700,7 @@
     </row>
     <row r="338" ht="14.25" customHeight="1">
       <c r="A338" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B338" s="1">
         <v>432.0</v>
@@ -23703,7 +23719,7 @@
     </row>
     <row r="339" ht="14.25" customHeight="1">
       <c r="A339" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B339" s="1">
         <v>181.0</v>
@@ -23721,7 +23737,7 @@
     </row>
     <row r="340" ht="14.25" customHeight="1">
       <c r="A340" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B340" s="1">
         <v>597.0</v>
@@ -23741,7 +23757,7 @@
     </row>
     <row r="341" ht="14.25" customHeight="1">
       <c r="A341" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B341" s="1">
         <v>4312.0</v>
@@ -23762,7 +23778,7 @@
     </row>
     <row r="342" ht="14.25" customHeight="1">
       <c r="A342" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B342" s="1">
         <v>2143.0</v>
@@ -23780,7 +23796,7 @@
     </row>
     <row r="343" ht="14.25" customHeight="1">
       <c r="A343" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B343" s="1">
         <v>1697.0</v>
@@ -23795,7 +23811,7 @@
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B344" s="1">
         <v>6944.0</v>
@@ -23832,7 +23848,7 @@
     </row>
     <row r="346" ht="14.25" customHeight="1">
       <c r="A346" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B346" s="1">
         <v>1364.0</v>
@@ -23850,7 +23866,7 @@
     </row>
     <row r="347" ht="14.25" customHeight="1">
       <c r="A347" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B347" s="1">
         <v>1598.0</v>
@@ -23870,7 +23886,7 @@
     </row>
     <row r="348" ht="14.25" customHeight="1">
       <c r="A348" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B348" s="1">
         <v>584.0</v>
@@ -23888,7 +23904,7 @@
     </row>
     <row r="349" ht="14.25" customHeight="1">
       <c r="A349" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B349" s="1">
         <v>1782.0</v>
@@ -23906,7 +23922,7 @@
     </row>
     <row r="350" ht="14.25" customHeight="1">
       <c r="A350" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B350" s="1">
         <v>5253.0</v>
@@ -23921,7 +23937,7 @@
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B351" s="1">
         <v>1505.0</v>
@@ -23936,7 +23952,7 @@
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B352" s="1">
         <v>124.0</v>
@@ -23951,7 +23967,7 @@
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B353" s="1">
         <v>2200.0</v>
@@ -23969,7 +23985,7 @@
     </row>
     <row r="354" ht="14.25" customHeight="1">
       <c r="A354" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B354" s="1">
         <v>773.0</v>
@@ -23989,7 +24005,7 @@
     </row>
     <row r="355" ht="14.25" customHeight="1">
       <c r="A355" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B355" s="1">
         <v>93.0</v>
@@ -24004,7 +24020,7 @@
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B356" s="1">
         <v>4942.0</v>
@@ -24019,7 +24035,7 @@
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B357" s="1">
         <v>1280.0</v>
@@ -24034,7 +24050,7 @@
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B358" s="1">
         <v>900.0</v>
@@ -24052,7 +24068,7 @@
     </row>
     <row r="359" ht="14.25" customHeight="1">
       <c r="A359" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B359" s="1">
         <v>377.0</v>
@@ -24064,12 +24080,12 @@
         <v>29.0</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B360" s="1">
         <v>364.0</v>
@@ -24087,7 +24103,7 @@
     </row>
     <row r="361" ht="14.25" customHeight="1">
       <c r="A361" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B361" s="1">
         <v>487.0</v>
@@ -24105,7 +24121,7 @@
     </row>
     <row r="362" ht="14.25" customHeight="1">
       <c r="A362" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B362" s="1">
         <v>509.0</v>
@@ -24123,7 +24139,7 @@
     </row>
     <row r="363" ht="14.25" customHeight="1">
       <c r="A363" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B363" s="1">
         <v>1362.0</v>
@@ -24141,7 +24157,7 @@
     </row>
     <row r="364" ht="14.25" customHeight="1">
       <c r="A364" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B364" s="1">
         <v>495.0</v>
@@ -24165,7 +24181,7 @@
     </row>
     <row r="365" ht="14.25" customHeight="1">
       <c r="A365" s="5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B365" s="1">
         <v>2244.0</v>
@@ -24183,7 +24199,7 @@
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B366" s="1">
         <v>10378.0</v>
@@ -24195,12 +24211,12 @@
         <v>122.0</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B367" s="1">
         <v>362.0</v>
@@ -24218,7 +24234,7 @@
     </row>
     <row r="368" ht="14.25" customHeight="1">
       <c r="A368" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B368" s="1">
         <v>574.0</v>
@@ -24236,7 +24252,7 @@
     </row>
     <row r="369" ht="14.25" customHeight="1">
       <c r="A369" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B369" s="1">
         <v>3.0</v>
@@ -24255,7 +24271,7 @@
     </row>
     <row r="370" ht="14.25" customHeight="1">
       <c r="A370" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B370" s="1">
         <v>146.0</v>
@@ -24275,7 +24291,7 @@
     </row>
     <row r="371" ht="14.25" customHeight="1">
       <c r="A371" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B371" s="1">
         <v>1047.0</v>
@@ -24293,7 +24309,7 @@
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="5" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B372" s="1">
         <v>177.0</v>
@@ -24312,7 +24328,7 @@
     </row>
     <row r="373" ht="14.25" customHeight="1">
       <c r="A373" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B373" s="1">
         <v>1414.0</v>
@@ -24330,7 +24346,7 @@
     </row>
     <row r="374" ht="14.25" customHeight="1">
       <c r="A374" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B374" s="1">
         <v>734.0</v>
@@ -24348,7 +24364,7 @@
     </row>
     <row r="375" ht="14.25" customHeight="1">
       <c r="A375" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B375" s="1">
         <v>1141.0</v>
@@ -24367,7 +24383,7 @@
     </row>
     <row r="376" ht="14.25" customHeight="1">
       <c r="A376" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B376" s="1">
         <v>220.0</v>
@@ -24383,7 +24399,7 @@
     </row>
     <row r="377" ht="14.25" customHeight="1">
       <c r="A377" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B377" s="1">
         <v>263.0</v>
@@ -24401,7 +24417,7 @@
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B378" s="1">
         <v>1011.0</v>
@@ -24419,7 +24435,7 @@
     </row>
     <row r="379" ht="14.25" customHeight="1">
       <c r="A379" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B379" s="1">
         <v>95.0</v>
@@ -24438,7 +24454,7 @@
     </row>
     <row r="380" ht="14.25" customHeight="1">
       <c r="A380" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B380" s="1">
         <v>13.0</v>
@@ -24457,7 +24473,7 @@
     </row>
     <row r="381" ht="14.25" customHeight="1">
       <c r="A381" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B381" s="1">
         <v>894.0</v>
@@ -24475,7 +24491,7 @@
     </row>
     <row r="382" ht="14.25" customHeight="1">
       <c r="A382" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B382" s="1">
         <v>208.0</v>
@@ -24494,7 +24510,7 @@
     </row>
     <row r="383" ht="14.25" customHeight="1">
       <c r="A383" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B383" s="1">
         <v>248384.0</v>
@@ -24515,7 +24531,7 @@
     </row>
     <row r="384" ht="14.25" customHeight="1">
       <c r="A384" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B384" s="1">
         <v>128.0</v>
@@ -24530,7 +24546,7 @@
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B385" s="1">
         <v>1222.0</v>
@@ -24542,7 +24558,7 @@
         <v>48.0</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I385" s="3">
         <v>1.0</v>
@@ -24553,7 +24569,7 @@
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B386" s="1">
         <v>1246.0</v>
@@ -24571,7 +24587,7 @@
     </row>
     <row r="387" ht="14.25" customHeight="1">
       <c r="A387" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B387" s="1">
         <v>284.0</v>
@@ -24583,7 +24599,7 @@
         <v>13.0</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G387" s="7">
         <v>1.0</v>
@@ -24591,7 +24607,7 @@
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B388" s="1">
         <v>5536.0</v>
@@ -24603,7 +24619,7 @@
         <v>45.0</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F388" s="3">
         <v>1.0</v>
@@ -24611,7 +24627,7 @@
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B389" s="1">
         <v>811.0</v>
@@ -24629,7 +24645,7 @@
     </row>
     <row r="390" ht="14.25" customHeight="1">
       <c r="A390" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B390" s="1">
         <v>1249.0</v>
@@ -24647,7 +24663,7 @@
     </row>
     <row r="391" ht="14.25" customHeight="1">
       <c r="A391" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B391" s="1">
         <v>310.0</v>
@@ -24665,7 +24681,7 @@
     </row>
     <row r="392" ht="14.25" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B392" s="1">
         <v>288.0</v>
@@ -24677,7 +24693,7 @@
         <v>20.0</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F392" s="3">
         <v>1.0</v>
@@ -24689,7 +24705,7 @@
     </row>
     <row r="393" ht="14.25" customHeight="1">
       <c r="A393" s="5" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B393" s="1">
         <v>1251.0</v>
@@ -24707,7 +24723,7 @@
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B394" s="1">
         <v>19.0</v>
@@ -24743,7 +24759,7 @@
     </row>
     <row r="396" ht="14.25" customHeight="1">
       <c r="A396" s="5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B396" s="1">
         <v>517.0</v>
@@ -24764,7 +24780,7 @@
     </row>
     <row r="397" ht="14.25" customHeight="1">
       <c r="A397" s="5" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B397" s="1">
         <v>2023.0</v>
@@ -24782,7 +24798,7 @@
     </row>
     <row r="398" ht="14.25" customHeight="1">
       <c r="A398" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B398" s="1">
         <v>1358.0</v>
@@ -24801,7 +24817,7 @@
     </row>
     <row r="399" ht="14.25" customHeight="1">
       <c r="A399" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B399" s="1">
         <v>264.0</v>
@@ -24816,7 +24832,7 @@
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="5" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B400" s="1">
         <v>490.0</v>
@@ -24828,7 +24844,7 @@
         <v>29.0</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K400" s="3">
         <v>1.0</v>
@@ -24836,7 +24852,7 @@
     </row>
     <row r="401" ht="14.25" customHeight="1">
       <c r="A401" s="5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B401" s="1">
         <v>225.0</v>
@@ -24856,7 +24872,7 @@
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B402" s="1">
         <v>194.0</v>
@@ -24874,7 +24890,7 @@
     </row>
     <row r="403" ht="14.25" customHeight="1">
       <c r="A403" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B403" s="1">
         <v>2774.0</v>
@@ -24893,7 +24909,7 @@
     </row>
     <row r="404" ht="14.25" customHeight="1">
       <c r="A404" s="5" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B404" s="1">
         <v>203.0</v>
@@ -24913,7 +24929,7 @@
     </row>
     <row r="405" ht="14.25" customHeight="1">
       <c r="A405" s="5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B405" s="1">
         <v>16152.0</v>
@@ -24925,7 +24941,7 @@
         <v>199.0</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F405" s="3">
         <v>1.0</v>
@@ -24933,7 +24949,7 @@
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B406" s="1">
         <v>304.0</v>
@@ -24951,7 +24967,7 @@
     </row>
     <row r="407" ht="14.25" customHeight="1">
       <c r="A407" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B407" s="1">
         <v>147.0</v>
@@ -24970,7 +24986,7 @@
     </row>
     <row r="408" ht="14.25" customHeight="1">
       <c r="A408" s="5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B408" s="1">
         <v>13.0</v>
@@ -24989,7 +25005,7 @@
     </row>
     <row r="409" ht="14.25" customHeight="1">
       <c r="A409" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B409" s="1">
         <v>168.0</v>
@@ -25006,7 +25022,7 @@
     </row>
     <row r="410" ht="14.25" customHeight="1">
       <c r="A410" s="5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B410" s="1">
         <v>210.0</v>
@@ -25025,7 +25041,7 @@
     </row>
     <row r="411" ht="14.25" customHeight="1">
       <c r="A411" s="5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B411" s="1">
         <v>1705.0</v>
@@ -25043,7 +25059,7 @@
     </row>
     <row r="412" ht="14.25" customHeight="1">
       <c r="A412" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B412" s="1">
         <v>121.0</v>
@@ -25059,7 +25075,7 @@
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B413" s="1">
         <v>1179.0</v>
@@ -25077,7 +25093,7 @@
     </row>
     <row r="414" ht="14.25" customHeight="1">
       <c r="A414" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B414" s="1">
         <v>310.0</v>
@@ -25095,7 +25111,7 @@
     </row>
     <row r="415" ht="14.25" customHeight="1">
       <c r="A415" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B415" s="1">
         <v>240.0</v>
@@ -25113,7 +25129,7 @@
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B416" s="1">
         <v>264.0</v>
@@ -25131,7 +25147,7 @@
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B417" s="1">
         <v>43.0</v>
@@ -25150,7 +25166,7 @@
     </row>
     <row r="418" ht="14.25" customHeight="1">
       <c r="A418" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B418" s="1">
         <v>429.0</v>
@@ -25168,7 +25184,7 @@
     </row>
     <row r="419" ht="14.25" customHeight="1">
       <c r="A419" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B419" s="1">
         <v>324.0</v>
@@ -25183,7 +25199,7 @@
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B420" s="1">
         <v>328.0</v>
@@ -25195,7 +25211,7 @@
         <v>12.0</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K420" s="7">
         <v>1.0</v>
@@ -25204,7 +25220,7 @@
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B421" s="1">
         <v>549.0</v>
@@ -25222,7 +25238,7 @@
     </row>
     <row r="422" ht="14.25" customHeight="1">
       <c r="A422" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B422" s="1">
         <v>192.0</v>
@@ -25240,7 +25256,7 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B423" s="1">
         <v>481.0</v>
@@ -25255,7 +25271,7 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B424" s="1">
         <v>526.0</v>
@@ -25273,7 +25289,7 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B425" s="1">
         <v>1752.0</v>
@@ -25291,7 +25307,7 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B426" s="1">
         <v>48.0</v>
@@ -25306,7 +25322,7 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B427" s="1">
         <v>638.0</v>
@@ -25324,7 +25340,7 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B428" s="1">
         <v>739.0</v>
@@ -25345,7 +25361,7 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B429" s="1">
         <v>5407.0</v>
@@ -25363,7 +25379,7 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B430" s="1">
         <v>270.0</v>
@@ -25381,7 +25397,7 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B431" s="1">
         <v>235.0</v>
@@ -25397,7 +25413,7 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B432" s="1">
         <v>2654.0</v>
@@ -25415,7 +25431,7 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B433" s="1">
         <v>96.0</v>
@@ -25427,7 +25443,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -25438,7 +25454,7 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B434" s="1">
         <v>1298.0</v>
@@ -25456,7 +25472,7 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B435" s="1">
         <v>795.0</v>
@@ -25474,7 +25490,7 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B436" s="1">
         <v>1582.0</v>
@@ -25492,7 +25508,7 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B437" s="1">
         <v>854.0</v>
@@ -25513,7 +25529,7 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B438" s="1">
         <v>131.0</v>
@@ -25532,7 +25548,7 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B439" s="1">
         <v>2003.0</v>
@@ -25550,7 +25566,7 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B440" s="1">
         <v>292.0</v>
@@ -25568,7 +25584,7 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B441" s="1">
         <v>466.0</v>
@@ -25587,7 +25603,7 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B442" s="1">
         <v>157.0</v>
@@ -25607,7 +25623,7 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B443" s="1">
         <v>46.0</v>
@@ -25643,7 +25659,7 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B445" s="1">
         <v>936.0</v>
@@ -25661,7 +25677,7 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B446" s="1">
         <v>745.0</v>
@@ -25673,7 +25689,7 @@
         <v>32.0</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K446" s="3">
         <v>1.0</v>
@@ -25681,7 +25697,7 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B447" s="1">
         <v>1824.0</v>
@@ -25700,7 +25716,7 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B448" s="1">
         <v>230.0</v>
@@ -25718,7 +25734,7 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B449" s="1">
         <v>318.0</v>
@@ -25737,7 +25753,7 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B450" s="1">
         <v>273.0</v>
@@ -25753,7 +25769,7 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B451" s="1">
         <v>106.0</v>
@@ -25765,7 +25781,7 @@
         <v>7.0</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F451" s="8">
         <v>1.0</v>
@@ -25777,7 +25793,7 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B452" s="1">
         <v>362.0</v>
@@ -25795,7 +25811,7 @@
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B453" s="1">
         <v>496.0</v>
@@ -25813,7 +25829,7 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B454" s="1">
         <v>1188.0</v>
@@ -25831,7 +25847,7 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B455" s="1">
         <v>6011.0</v>
@@ -25849,7 +25865,7 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B456" s="1">
         <v>397.0</v>
@@ -25870,7 +25886,7 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="5" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B457" s="1">
         <v>5217.0</v>
@@ -25888,7 +25904,7 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B458" s="1">
         <v>6833.0</v>
@@ -25906,7 +25922,7 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B459" s="1">
         <v>429.0</v>
@@ -25921,7 +25937,7 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B460" s="1">
         <v>206.0</v>
@@ -25939,7 +25955,7 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B461" s="1">
         <v>617.0</v>
@@ -25957,7 +25973,7 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="5" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B462" s="1">
         <v>1442.0</v>
@@ -25975,7 +25991,7 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B463" s="1">
         <v>1103.0</v>
@@ -25996,7 +26012,7 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B464" s="1">
         <v>1361.0</v>
@@ -26014,7 +26030,7 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B465" s="1">
         <v>974.0</v>
@@ -26032,7 +26048,7 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="5" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B466" s="1">
         <v>1501.0</v>
@@ -26053,7 +26069,7 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B467" s="1">
         <v>39.0</v>
@@ -26072,7 +26088,7 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="5" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B468" s="1">
         <v>21029.0</v>
@@ -26087,7 +26103,7 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B469" s="1">
         <v>103.0</v>
@@ -26102,7 +26118,7 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B470" s="1">
         <v>10313.0</v>
@@ -26117,7 +26133,7 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B471" s="1">
         <v>615.0</v>
@@ -26135,7 +26151,7 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="5" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B472" s="1">
         <v>1188.0</v>
@@ -26153,7 +26169,7 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B473" s="1">
         <v>574.0</v>
@@ -26171,7 +26187,7 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B474" s="1">
         <v>538.0</v>
@@ -26189,7 +26205,7 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B475" s="1">
         <v>197.0</v>
@@ -26208,7 +26224,7 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B476" s="1">
         <v>224.0</v>
@@ -26227,7 +26243,7 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B477" s="1">
         <v>58.0</v>
@@ -26246,7 +26262,7 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B478" s="1">
         <v>682.0</v>
@@ -26264,7 +26280,7 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B479" s="1">
         <v>1132.0</v>
@@ -26284,7 +26300,7 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B480" s="1">
         <v>505.0</v>
@@ -26304,7 +26320,7 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B481" s="1">
         <v>1157.0</v>
@@ -26322,7 +26338,7 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="5" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B482" s="1">
         <v>38.0</v>
@@ -26344,7 +26360,7 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B483" s="1">
         <v>66.0</v>
@@ -26363,7 +26379,7 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B484" s="1">
         <v>1702.0</v>
@@ -26381,7 +26397,7 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B485" s="1">
         <v>1044.0</v>
@@ -26399,7 +26415,7 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B486" s="1">
         <v>10056.0</v>
@@ -26414,7 +26430,7 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B487" s="1">
         <v>6531.0</v>
@@ -26426,7 +26442,7 @@
         <v>227.0</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I487" s="3">
         <v>1.0</v>
@@ -26437,7 +26453,7 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B488" s="1">
         <v>122.0</v>
@@ -26456,7 +26472,7 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B489" s="1">
         <v>97.0</v>
@@ -26474,7 +26490,7 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B490" s="1">
         <v>1810.0</v>
@@ -26492,7 +26508,7 @@
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="5" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B491" s="1">
         <v>4533.0</v>
@@ -26510,7 +26526,7 @@
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B492" s="1">
         <v>49.0</v>
@@ -26529,7 +26545,7 @@
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B493" s="1">
         <v>436.0</v>
@@ -26547,7 +26563,7 @@
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B494" s="1">
         <v>110.0</v>
@@ -26566,7 +26582,7 @@
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B495" s="1">
         <v>75.0</v>
@@ -26585,7 +26601,7 @@
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="5" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B496" s="1">
         <v>576.0</v>
@@ -26603,7 +26619,7 @@
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="5" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B497" s="1">
         <v>375.0</v>
@@ -26621,7 +26637,7 @@
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B498" s="1">
         <v>1257.0</v>
@@ -26639,7 +26655,7 @@
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="5" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B499" s="1">
         <v>11226.0</v>
@@ -26657,7 +26673,7 @@
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B500" s="1">
         <v>122.0</v>
@@ -26673,7 +26689,7 @@
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B501" s="1">
         <v>1133.0</v>
@@ -26693,7 +26709,7 @@
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B502" s="1">
         <v>75.0</v>
@@ -26708,7 +26724,7 @@
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B503" s="1">
         <v>233.0</v>
@@ -26720,7 +26736,7 @@
         <v>36.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F503" s="3"/>
       <c r="J503" s="3">
@@ -26729,7 +26745,7 @@
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B504" s="1">
         <v>43922.0</v>
@@ -26747,7 +26763,7 @@
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B505" s="1">
         <v>408.0</v>
@@ -26768,7 +26784,7 @@
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B506" s="1">
         <v>4296.0</v>
@@ -26788,7 +26804,7 @@
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B507" s="1">
         <v>15125.0</v>
@@ -26809,7 +26825,7 @@
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B508" s="1">
         <v>1691.0</v>
@@ -26827,7 +26843,7 @@
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B509" s="1">
         <v>681.0</v>
@@ -26845,7 +26861,7 @@
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B510" s="1">
         <v>1365.0</v>
@@ -26863,7 +26879,7 @@
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B511" s="1">
         <v>330.0</v>
@@ -26882,7 +26898,7 @@
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B512" s="1">
         <v>3618.0</v>
@@ -26900,7 +26916,7 @@
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B513" s="1">
         <v>3365.0</v>
@@ -26921,7 +26937,7 @@
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="5" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B514" s="1">
         <v>391.0</v>
@@ -26939,7 +26955,7 @@
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="5" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B515" s="1">
         <v>94.0</v>
@@ -26976,7 +26992,7 @@
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B517" s="1">
         <v>589.0</v>
@@ -26988,7 +27004,7 @@
         <v>29.0</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L517" s="3">
         <v>1.0</v>
@@ -26996,7 +27012,7 @@
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B518" s="1">
         <v>784.0</v>
@@ -27008,7 +27024,7 @@
         <v>11.0</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F518" s="3">
         <v>1.0</v>
@@ -27016,7 +27032,7 @@
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="5" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B519" s="1">
         <v>6084.0</v>
@@ -27031,7 +27047,7 @@
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B520" s="1">
         <v>352.0</v>
@@ -27049,7 +27065,7 @@
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B521" s="1">
         <v>1062.0</v>
@@ -27067,7 +27083,7 @@
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B522" s="1">
         <v>1170.0</v>
@@ -27079,7 +27095,7 @@
         <v>40.0</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F522" s="3">
         <v>1.0</v>
@@ -27087,7 +27103,7 @@
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="5" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B523" s="1">
         <v>412.0</v>
@@ -27106,7 +27122,7 @@
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B524" s="1">
         <v>1434.0</v>
@@ -27125,7 +27141,7 @@
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B525" s="1">
         <v>1068.0</v>
@@ -27143,7 +27159,7 @@
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B526" s="1">
         <v>496.0</v>
@@ -27161,7 +27177,7 @@
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="5" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B527" s="1">
         <v>1020.0</v>
@@ -27179,7 +27195,7 @@
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="5" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B528" s="1">
         <v>221.0</v>
@@ -27198,7 +27214,7 @@
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="5" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B529" s="1">
         <v>2789.0</v>
@@ -27218,7 +27234,7 @@
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B530" s="1">
         <v>385.0</v>
@@ -27236,7 +27252,7 @@
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B531" s="1">
         <v>807.0</v>
@@ -27248,7 +27264,7 @@
         <v>24.0</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L531" s="8">
         <v>1.0</v>
@@ -27256,7 +27272,7 @@
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B532" s="1">
         <v>3508.0</v>
@@ -27274,7 +27290,7 @@
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B533" s="1">
         <v>367.0</v>
@@ -27292,7 +27308,7 @@
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B534" s="1">
         <v>107.0</v>
@@ -27311,7 +27327,7 @@
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B535" s="1">
         <v>7733.0</v>
@@ -27329,7 +27345,7 @@
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B536" s="1">
         <v>1039.0</v>
@@ -27347,7 +27363,7 @@
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B537" s="1">
         <v>1307.0</v>
@@ -27359,7 +27375,7 @@
         <v>36.0</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F537" s="3">
         <v>1.0</v>
@@ -27370,7 +27386,7 @@
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B538" s="1">
         <v>30815.0</v>
@@ -27388,7 +27404,7 @@
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="5" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B539" s="1">
         <v>60.0</v>
@@ -27407,7 +27423,7 @@
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B540" s="1">
         <v>862.0</v>
@@ -27425,7 +27441,7 @@
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B541" s="1">
         <v>226.0</v>
@@ -27443,7 +27459,7 @@
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B542" s="1">
         <v>1283.0</v>
@@ -27461,7 +27477,7 @@
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B543" s="1">
         <v>793.0</v>
@@ -27476,7 +27492,7 @@
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B544" s="1">
         <v>113.0</v>
@@ -27494,7 +27510,7 @@
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B545" s="1">
         <v>18.0</v>
@@ -27513,7 +27529,7 @@
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B546" s="1">
         <v>1324.0</v>
@@ -27531,7 +27547,7 @@
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B547" s="1">
         <v>144.0</v>
@@ -27549,7 +27565,7 @@
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B548" s="1">
         <v>21806.0</v>
@@ -27567,7 +27583,7 @@
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B549" s="1">
         <v>17481.0</v>
@@ -27585,7 +27601,7 @@
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B550" s="1">
         <v>1774.0</v>
@@ -27597,7 +27613,7 @@
         <v>22.0</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G550" s="3">
         <v>1.0</v>
@@ -27605,7 +27621,7 @@
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="5" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B551" s="1">
         <v>2817.0</v>
@@ -27617,7 +27633,7 @@
         <v>27.0</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="G551" s="3">
         <v>1.0</v>
@@ -27643,7 +27659,7 @@
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B553" s="1">
         <v>100.0</v>
@@ -27662,7 +27678,7 @@
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="5" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B554" s="1">
         <v>106.0</v>
@@ -27678,7 +27694,7 @@
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B555" s="1">
         <v>289999.0</v>
@@ -27696,7 +27712,7 @@
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="5" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B556" s="1">
         <v>107.0</v>
@@ -27711,7 +27727,7 @@
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B557" s="1">
         <v>1196.0</v>
@@ -27732,7 +27748,7 @@
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B558" s="1">
         <v>451.0</v>
@@ -27747,7 +27763,7 @@
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B559" s="1">
         <v>4858.0</v>
@@ -27765,7 +27781,7 @@
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="5" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B560" s="1">
         <v>8078.0</v>
@@ -27783,7 +27799,7 @@
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="5" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B561" s="1">
         <v>835.0</v>
@@ -27798,7 +27814,7 @@
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B562" s="1">
         <v>367.0</v>
@@ -27816,7 +27832,7 @@
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B563" s="1">
         <v>130.0</v>
@@ -27836,7 +27852,7 @@
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="5" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B564" s="1">
         <v>3357.0</v>
@@ -27857,7 +27873,7 @@
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="5" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B565" s="1">
         <v>127.0</v>
@@ -27876,7 +27892,7 @@
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="5" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B566" s="1">
         <v>5378.0</v>
@@ -27894,7 +27910,7 @@
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="5" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B567" s="1">
         <v>1561.0</v>
@@ -27912,7 +27928,7 @@
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="5" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B568" s="1">
         <v>5254.0</v>
@@ -27927,7 +27943,7 @@
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B569" s="1">
         <v>15736.0</v>
@@ -27942,7 +27958,7 @@
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B570" s="1">
         <v>5368.0</v>
@@ -27954,7 +27970,7 @@
         <v>724.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G570" s="3">
         <v>1.0</v>
@@ -27962,7 +27978,7 @@
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="5" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B571" s="1">
         <v>1307.0</v>
@@ -27977,7 +27993,7 @@
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B572" s="1">
         <v>579.0</v>
@@ -27995,7 +28011,7 @@
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B573" s="1">
         <v>378.0</v>
@@ -28011,7 +28027,7 @@
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B574" s="1">
         <v>23.0</v>
@@ -28026,7 +28042,7 @@
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B575" s="1">
         <v>854.0</v>
@@ -28046,7 +28062,7 @@
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="5" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B576" s="1">
         <v>208.0</v>
@@ -28066,7 +28082,7 @@
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B577" s="1">
         <v>326.0</v>
@@ -28081,7 +28097,7 @@
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B578" s="1">
         <v>1020.0</v>
@@ -28093,7 +28109,7 @@
         <v>19.0</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G578" s="3">
         <v>1.0</v>
@@ -28101,7 +28117,7 @@
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="5" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B579" s="1">
         <v>1434.0</v>
@@ -28119,7 +28135,7 @@
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="5" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B580" s="1">
         <v>2481.0</v>
@@ -28134,7 +28150,7 @@
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B581" s="1">
         <v>409.0</v>
@@ -28152,7 +28168,7 @@
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="5" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B582" s="1">
         <v>1646.0</v>
@@ -28167,7 +28183,7 @@
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B583" s="1">
         <v>713.0</v>
@@ -28203,7 +28219,7 @@
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="5" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B585" s="1">
         <v>882.0</v>
@@ -28224,7 +28240,7 @@
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B586" s="1">
         <v>157.0</v>
@@ -28240,7 +28256,7 @@
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B587" s="1">
         <v>899.0</v>
@@ -28258,7 +28274,7 @@
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="5" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B588" s="1">
         <v>193.0</v>
@@ -28277,7 +28293,7 @@
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="5" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B589" s="1">
         <v>59833.0</v>
@@ -28295,7 +28311,7 @@
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="5" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B590" s="1">
         <v>397.0</v>
@@ -28313,7 +28329,7 @@
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="5" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B591" s="1">
         <v>4878.0</v>
@@ -28334,7 +28350,7 @@
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="5" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B592" s="1">
         <v>4894.0</v>
@@ -28346,7 +28362,7 @@
         <v>90.0</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F592" s="3">
         <v>1.0</v>
@@ -28354,7 +28370,7 @@
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="5" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B593" s="1">
         <v>140.0</v>
@@ -28373,7 +28389,7 @@
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="5" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B594" s="1">
         <v>37.0</v>
@@ -28392,7 +28408,7 @@
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="5" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B595" s="1">
         <v>470.0</v>
@@ -28412,7 +28428,7 @@
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="5" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B596" s="1">
         <v>265635.0</v>
@@ -28427,7 +28443,7 @@
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B597" s="1">
         <v>287.0</v>
@@ -28446,7 +28462,7 @@
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="5" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B598" s="1">
         <v>425.0</v>
@@ -28464,7 +28480,7 @@
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="5" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B599" s="1">
         <v>201.0</v>
@@ -28484,7 +28500,7 @@
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="5" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B600" s="1">
         <v>62.0</v>
@@ -28503,7 +28519,7 @@
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="5" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B601" s="1">
         <v>621.0</v>
@@ -28521,7 +28537,7 @@
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="5" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B602" s="1">
         <v>287.0</v>
@@ -29082,7 +29098,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="84" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B2" s="84">
         <v>164.0</v>
@@ -29093,19 +29109,16 @@
       <c r="D2" s="3">
         <v>1.0</v>
       </c>
-      <c r="H2" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="84" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B3" s="84">
         <v>2246.0</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J3" s="3">
         <v>1.0</v>
@@ -29113,7 +29126,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="84" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" s="84">
         <v>2231.0</v>
@@ -29125,7 +29138,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="84" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B5" s="84">
         <v>2216.0</v>
@@ -29137,7 +29150,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="87" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B6" s="84">
         <v>2215.0</v>
@@ -29166,7 +29179,7 @@
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="84" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B9" s="84">
         <v>2213.0</v>
@@ -29190,7 +29203,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="84" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B11" s="84">
         <v>2203.0</v>
@@ -29205,7 +29218,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="84" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B12" s="84">
         <v>2193.0</v>
@@ -29235,7 +29248,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B14" s="84">
         <v>2190.0</v>
@@ -29249,13 +29262,13 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B15" s="84">
         <v>2188.0</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
@@ -29275,7 +29288,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="87" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B17" s="84">
         <v>2178.0</v>
@@ -29287,7 +29300,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="84" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B18" s="84">
         <v>2174.0</v>
@@ -29300,7 +29313,7 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="84" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B19" s="84">
         <v>2171.0</v>
@@ -29312,7 +29325,7 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="84" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B20" s="84">
         <v>2167.0</v>
@@ -29336,7 +29349,7 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="84" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B22" s="84">
         <v>2163.0</v>
@@ -29348,13 +29361,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B23" s="84">
         <v>2162.0</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
@@ -29374,7 +29387,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="87" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B25" s="84">
         <v>2155.0</v>
@@ -29401,7 +29414,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="84" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B27" s="84">
         <v>2152.0</v>
@@ -29413,7 +29426,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="84" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B28" s="84">
         <v>2138.0</v>
@@ -29437,7 +29450,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="84" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B30" s="84">
         <v>2133.0</v>
@@ -29451,7 +29464,7 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="84" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B31" s="84">
         <v>2132.0</v>
@@ -29463,7 +29476,7 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="87" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B32" s="84">
         <v>2129.0</v>
@@ -29475,7 +29488,7 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="84" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B33" s="84">
         <v>2127.0</v>
@@ -29547,7 +29560,7 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B39" s="84">
         <v>2088.0</v>
@@ -29598,7 +29611,7 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="84" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B43" s="84">
         <v>1995.0</v>
@@ -29610,7 +29623,7 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="87" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B44" s="84">
         <v>1948.0</v>
@@ -29625,7 +29638,7 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="84" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B45" s="84">
         <v>1920.0</v>
@@ -29637,7 +29650,7 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="84" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B46" s="84">
         <v>1902.0</v>
@@ -29649,7 +29662,7 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="87" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B47" s="84">
         <v>1877.0</v>
@@ -29661,7 +29674,7 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="84" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B48" s="84">
         <v>1869.0</v>
@@ -29673,7 +29686,7 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="84" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B49" s="84">
         <v>1831.0</v>
@@ -29688,7 +29701,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="87" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B50" s="84">
         <v>1784.0</v>
@@ -29736,7 +29749,7 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="84" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B54" s="84">
         <v>1655.0</v>
@@ -29748,7 +29761,7 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="84" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B55" s="84">
         <v>1640.0</v>
@@ -29760,7 +29773,7 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="87" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B56" s="84">
         <v>1639.0</v>
@@ -29811,7 +29824,7 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="84" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B60" s="84">
         <v>1482.0</v>
@@ -29823,7 +29836,7 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="84" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B61" s="84">
         <v>1383.0</v>
@@ -29859,7 +29872,7 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="84" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B64" s="84">
         <v>1287.0</v>
@@ -29871,7 +29884,7 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="84" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B65" s="84">
         <v>1273.0</v>
@@ -29895,7 +29908,7 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="87" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B67" s="84">
         <v>1247.0</v>
@@ -29907,7 +29920,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="89" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B68" s="84">
         <v>1227.0</v>
@@ -29931,13 +29944,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="84" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B70" s="84">
         <v>1164.0</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
@@ -29945,13 +29958,13 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="87" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B71" s="84">
         <v>1130.0</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D71" s="3">
         <v>1.0</v>
@@ -29959,7 +29972,7 @@
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="84" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B72" s="84">
         <v>1129.0</v>
@@ -29974,13 +29987,13 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="84" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B73" s="84">
         <v>1124.0</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G73" s="3">
         <v>1.0</v>
@@ -30000,7 +30013,7 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="84" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B75" s="84">
         <v>1097.0</v>
@@ -30012,7 +30025,7 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="87" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B76" s="84">
         <v>1089.0</v>
@@ -30024,7 +30037,7 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="84" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B77" s="84">
         <v>1075.0</v>
@@ -30036,7 +30049,7 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="84" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B78" s="84">
         <v>1033.0</v>
@@ -30048,7 +30061,7 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="84" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B79" s="84">
         <v>991.0</v>
@@ -30060,7 +30073,7 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="87" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B80" s="84">
         <v>978.0</v>
@@ -30072,7 +30085,7 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="84" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B81" s="84">
         <v>933.0</v>
@@ -30098,13 +30111,13 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="84" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B83" s="84">
         <v>921.0</v>
       </c>
       <c r="C83" s="85" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H83" s="3">
         <v>1.0</v>
@@ -30124,13 +30137,13 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="84" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B85" s="84">
         <v>892.0</v>
       </c>
       <c r="C85" s="85" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G85" s="3">
         <v>1.0</v>
@@ -30138,7 +30151,7 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B86" s="84">
         <v>863.0</v>
@@ -30162,7 +30175,7 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="84" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B88" s="84">
         <v>831.0</v>
@@ -30174,7 +30187,7 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B89" s="84">
         <v>804.0</v>
@@ -30186,7 +30199,7 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="87" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B90" s="84">
         <v>801.0</v>
@@ -30201,7 +30214,7 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B91" s="84">
         <v>776.0</v>
@@ -30213,7 +30226,7 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="87" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B92" s="84">
         <v>772.0</v>
@@ -30225,13 +30238,13 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="84" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B93" s="84">
         <v>770.0</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E93" s="19"/>
       <c r="H93" s="3">
@@ -30240,7 +30253,7 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="84" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B94" s="84">
         <v>739.0</v>
@@ -30264,7 +30277,7 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="84" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B96" s="84">
         <v>732.0</v>
@@ -30276,13 +30289,13 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="87" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B97" s="84">
         <v>727.0</v>
       </c>
       <c r="C97" s="85" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E97" s="3">
         <v>1.0</v>
@@ -30290,7 +30303,7 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="84" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B98" s="84">
         <v>719.0</v>
@@ -30320,7 +30333,7 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="87" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B100" s="84">
         <v>696.0</v>
@@ -30332,7 +30345,7 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="87" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B101" s="84">
         <v>695.0</v>
@@ -30356,7 +30369,7 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="87" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B103" s="84">
         <v>653.0</v>
@@ -30380,7 +30393,7 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="87" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B105" s="84">
         <v>598.0</v>
@@ -30392,7 +30405,7 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="87" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B106" s="84">
         <v>588.0</v>
@@ -30404,7 +30417,7 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="89" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B107" s="84">
         <v>588.0</v>
@@ -30416,7 +30429,7 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="87" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B108" s="84">
         <v>565.0</v>
@@ -30431,13 +30444,13 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="87" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B109" s="84">
         <v>561.0</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D109" s="3">
         <v>1.0</v>
@@ -30448,7 +30461,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="84" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B110" s="84">
         <v>546.0</v>
@@ -30460,13 +30473,13 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="84" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B111" s="84">
         <v>502.0</v>
       </c>
       <c r="C111" s="85" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D111" s="3">
         <v>1.0</v>
@@ -30474,7 +30487,7 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="87" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B112" s="84">
         <v>480.0</v>
@@ -30489,7 +30502,7 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="84" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B113" s="84">
         <v>473.0</v>
@@ -30498,13 +30511,13 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="84" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B114" s="84">
         <v>432.0</v>
       </c>
       <c r="C114" s="85" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D114" s="3">
         <v>1.0</v>
@@ -30512,7 +30525,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="84" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B115" s="84">
         <v>424.0</v>
@@ -30526,13 +30539,13 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B116" s="84">
         <v>418.0</v>
       </c>
       <c r="C116" s="85" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D116" s="3">
         <v>1.0</v>
@@ -30540,13 +30553,13 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="87" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B117" s="84">
         <v>405.0</v>
       </c>
       <c r="C117" s="85" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D117" s="3">
         <v>1.0</v>
@@ -30569,7 +30582,7 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="84" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B119" s="84">
         <v>382.0</v>
@@ -30581,7 +30594,7 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="84" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B120" s="84">
         <v>379.0</v>
@@ -30593,7 +30606,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="84" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B121" s="84">
         <v>359.0</v>
@@ -30605,7 +30618,7 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="84" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B122" s="84">
         <v>353.0</v>
@@ -30617,7 +30630,7 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B123" s="84">
         <v>348.0</v>
@@ -30629,7 +30642,7 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="84" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B124" s="84">
         <v>344.0</v>
@@ -30653,13 +30666,13 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="84" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B126" s="84">
         <v>309.0</v>
       </c>
       <c r="C126" s="85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D126" s="3">
         <v>1.0</v>
@@ -30679,7 +30692,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="84" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B128" s="84">
         <v>279.0</v>
@@ -30697,7 +30710,7 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="84" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B129" s="84">
         <v>278.0</v>
@@ -30712,7 +30725,7 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="84" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B130" s="84">
         <v>276.0</v>
@@ -30741,7 +30754,7 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="84" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B132" s="84">
         <v>264.0</v>
@@ -30765,7 +30778,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="84" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B134" s="84">
         <v>250.0</v>
@@ -30789,13 +30802,13 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="84" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B136" s="84">
         <v>229.0</v>
       </c>
       <c r="C136" s="85" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D136" s="3">
         <v>1.0</v>
@@ -30803,7 +30816,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="84" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B137" s="84">
         <v>226.0</v>
@@ -30842,7 +30855,7 @@
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="84" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B140" s="84">
         <v>209.0</v>
@@ -30866,7 +30879,7 @@
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="84" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B142" s="84">
         <v>175.0</v>
@@ -30878,7 +30891,7 @@
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="84" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B143" s="84">
         <v>151.0</v>
@@ -30902,7 +30915,7 @@
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="84" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B145" s="84">
         <v>128.0</v>
@@ -30914,7 +30927,7 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="84" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B146" s="84">
         <v>125.0</v>
@@ -30926,7 +30939,7 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="84" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B147" s="84">
         <v>90.0</v>
@@ -30953,13 +30966,13 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="84" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B149" s="84">
         <v>26.0</v>
       </c>
       <c r="C149" s="85" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H149" s="3">
         <v>1.0</v>
@@ -30979,7 +30992,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="84" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B151" s="84">
         <v>34.0</v>
@@ -30991,7 +31004,7 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="84" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B152" s="84">
         <v>35.0</v>
@@ -31003,7 +31016,7 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="84" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B153" s="84">
         <v>61.0</v>
@@ -31018,7 +31031,7 @@
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="84" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B154" s="84">
         <v>59.0</v>
@@ -31030,7 +31043,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="84" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B155" s="84">
         <v>74.0</v>
@@ -31964,7 +31977,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32004,7 +32017,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F6" s="3">
         <v>1.0</v>
@@ -32028,7 +32041,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>308</v>
@@ -32039,7 +32052,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>328</v>
@@ -32050,7 +32063,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>308</v>
@@ -32061,7 +32074,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>328</v>
@@ -32080,7 +32093,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F14" s="3">
         <v>1.0</v>
@@ -32096,7 +32109,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>312</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="838">
   <si>
     <t>class</t>
   </si>
@@ -1494,6 +1494,9 @@
     <t>remote_control</t>
   </si>
   <si>
+    <t>remote control</t>
+  </si>
+  <si>
     <t>reptile</t>
   </si>
   <si>
@@ -1590,6 +1593,9 @@
     <t>sewing_machine</t>
   </si>
   <si>
+    <t>sewing machine</t>
+  </si>
+  <si>
     <t>shark</t>
   </si>
   <si>
@@ -1962,414 +1968,417 @@
     <t>vehicle_registration_plate</t>
   </si>
   <si>
+    <t>registration plate</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>volleyball_(ball)</t>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>waffle_iron</t>
+  </si>
+  <si>
+    <t>wall_clock</t>
+  </si>
+  <si>
+    <t>wardrobe</t>
+  </si>
+  <si>
+    <t>washing_machine</t>
+  </si>
+  <si>
+    <t>waste_container</t>
+  </si>
+  <si>
+    <t>waste bin</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>watercraft</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>whale</t>
+  </si>
+  <si>
+    <t>wheelchair</t>
+  </si>
+  <si>
+    <t>whisk</t>
+  </si>
+  <si>
+    <t>whiteboard</t>
+  </si>
+  <si>
+    <t>willow</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>window_blind</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>wine_glass</t>
+  </si>
+  <si>
+    <t>wine glass</t>
+  </si>
+  <si>
+    <t>wine_rack</t>
+  </si>
+  <si>
+    <t>winter_melon</t>
+  </si>
+  <si>
+    <t>wok</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>wood-burning_stove</t>
+  </si>
+  <si>
+    <t>woodpecker</t>
+  </si>
+  <si>
+    <t>worm</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>zucchini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I ALT </t>
+  </si>
+  <si>
+    <t>i alt</t>
+  </si>
+  <si>
+    <t>Ekstra fra Lvis og krop data,</t>
+  </si>
+  <si>
+    <t>nye fra Lvis + krop data</t>
+  </si>
+  <si>
+    <t>ting som er slettet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datasets from </t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2021/05/top-10-open-source-datasets-for-object-detection-machine-learning-in-2021/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ski pole</t>
+  </si>
+  <si>
+    <t>12 fra musik.</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Visual relationship anotation</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Cifar</t>
+  </si>
+  <si>
+    <t>https://www.cs.toronto.edu/~kriz/cifar.html</t>
+  </si>
+  <si>
+    <t>jersey</t>
+  </si>
+  <si>
+    <t>Coco explorer</t>
+  </si>
+  <si>
+    <t>https://cocodataset.org/#explore</t>
+  </si>
+  <si>
+    <t>https://blog.roboflow.com/coco-dataset/</t>
+  </si>
+  <si>
+    <t>Trash can</t>
+  </si>
+  <si>
+    <t>Open images V6</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/openimages/web/visualizer/index.html?set=train&amp;type=segmentation&amp;r=false&amp;c=%2Fm%2F03m3vtv</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/openimages/2018_04/bbox_labels_600_hierarchy_visualizer/circle.html</t>
+  </si>
+  <si>
+    <t>napkin</t>
+  </si>
+  <si>
+    <t>Arcordian</t>
+  </si>
+  <si>
+    <t>Something-something V2</t>
+  </si>
+  <si>
+    <t>https://developer.qualcomm.com/software/ai-datasets/something-something</t>
+  </si>
+  <si>
+    <t>Cello</t>
+  </si>
+  <si>
+    <t>ImageNet</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/competitions/imagenet-object-localization-challenge/overview</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>keyboard ( musical)</t>
+  </si>
+  <si>
+    <t>BDD100k</t>
+  </si>
+  <si>
+    <t>https://doc.bdd100k.com/format.html</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>Organ</t>
+  </si>
+  <si>
+    <t>DOTA</t>
+  </si>
+  <si>
+    <t>https://captain-whu.github.io/DOTA/dataset.html</t>
+  </si>
+  <si>
+    <t>Wet Suit</t>
+  </si>
+  <si>
+    <t>Trombone</t>
+  </si>
+  <si>
+    <t>grøntsager</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/misrakahmed/vegetable-image-dataset</t>
+  </si>
+  <si>
+    <t>rearview mirror</t>
+  </si>
+  <si>
+    <t>Trumpet</t>
+  </si>
+  <si>
+    <t>LVIS</t>
+  </si>
+  <si>
+    <t>https://www.lvisdataset.org/explore</t>
+  </si>
+  <si>
+    <t>Tank top</t>
+  </si>
+  <si>
+    <t>speaker (stero equipment)</t>
+  </si>
+  <si>
+    <t>sweater</t>
+  </si>
+  <si>
+    <t>headband</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>Vest</t>
+  </si>
+  <si>
+    <t>Objekter RK gerne vil have.</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>crane: 4</t>
+  </si>
+  <si>
+    <t>bun</t>
+  </si>
+  <si>
+    <t>lawn mower, mower: 4</t>
+  </si>
+  <si>
+    <t>lamppost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bridge: 5, 6, 0, 1, 2 </t>
+  </si>
+  <si>
+    <t>beanie</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>corn: 4</t>
+  </si>
+  <si>
+    <t>saddle</t>
+  </si>
+  <si>
+    <t>spider web, spider's web: 4</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>crutch: 4</t>
+  </si>
+  <si>
+    <t>apron</t>
+  </si>
+  <si>
+    <t>tractor: 4</t>
+  </si>
+  <si>
+    <t>bow ribbon</t>
+  </si>
+  <si>
+    <t>acorn: 4</t>
+  </si>
+  <si>
+    <t>swing: 4</t>
+  </si>
+  <si>
+    <t>newspaper</t>
+  </si>
+  <si>
+    <t>birdhouse: 4</t>
+  </si>
+  <si>
+    <t>eyebrow</t>
+  </si>
+  <si>
+    <t>apron: 4</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>bikini: 4</t>
+  </si>
+  <si>
+    <t>licence plate</t>
+  </si>
+  <si>
+    <t>bucket: 4</t>
+  </si>
+  <si>
+    <t>bath towel  (towel)</t>
+  </si>
+  <si>
+    <t>chain: 4</t>
+  </si>
+  <si>
+    <t>diaper: 2</t>
+  </si>
+  <si>
+    <t>i alt nye</t>
+  </si>
+  <si>
+    <t>nail: 4 ( negle</t>
+  </si>
+  <si>
+    <t>purse: 4</t>
+  </si>
+  <si>
+    <t>wallet, billfold, notecase, pocketbook: 4</t>
+  </si>
+  <si>
+    <t>snorkel: 4</t>
+  </si>
+  <si>
+    <t>barometer: 4</t>
+  </si>
+  <si>
+    <t>broom 4</t>
+  </si>
+  <si>
+    <t>scuba diver: 4</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>coffee maker</t>
+  </si>
+  <si>
+    <t>doorknob</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>lightbulb</t>
+  </si>
+  <si>
+    <t>salt shaker</t>
+  </si>
+  <si>
     <t>vehicle registration plate</t>
   </si>
   <si>
-    <t>violin</t>
-  </si>
-  <si>
-    <t>volleyball_(ball)</t>
-  </si>
-  <si>
-    <t>waffle</t>
-  </si>
-  <si>
-    <t>waffle_iron</t>
-  </si>
-  <si>
-    <t>wall_clock</t>
-  </si>
-  <si>
-    <t>wardrobe</t>
-  </si>
-  <si>
-    <t>washing_machine</t>
-  </si>
-  <si>
-    <t>waste_container</t>
-  </si>
-  <si>
-    <t>waste bin</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>watercraft</t>
-  </si>
-  <si>
-    <t>watermelon</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>whale</t>
-  </si>
-  <si>
-    <t>wheelchair</t>
-  </si>
-  <si>
-    <t>whisk</t>
-  </si>
-  <si>
-    <t>whiteboard</t>
-  </si>
-  <si>
-    <t>willow</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>window_blind</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>wine_glass</t>
-  </si>
-  <si>
-    <t>wine glass</t>
-  </si>
-  <si>
-    <t>wine_rack</t>
-  </si>
-  <si>
-    <t>winter_melon</t>
-  </si>
-  <si>
-    <t>wok</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>wood-burning_stove</t>
-  </si>
-  <si>
-    <t>woodpecker</t>
-  </si>
-  <si>
-    <t>worm</t>
-  </si>
-  <si>
-    <t>wrench</t>
-  </si>
-  <si>
-    <t>zebra</t>
-  </si>
-  <si>
-    <t>zucchini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I ALT </t>
-  </si>
-  <si>
-    <t>i alt</t>
-  </si>
-  <si>
-    <t>Ekstra fra Lvis og krop data,</t>
-  </si>
-  <si>
-    <t>nye fra Lvis + krop data</t>
-  </si>
-  <si>
-    <t>ting som er slettet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datasets from </t>
-  </si>
-  <si>
-    <t>https://www.analyticsvidhya.com/blog/2021/05/top-10-open-source-datasets-for-object-detection-machine-learning-in-2021/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>ski pole</t>
-  </si>
-  <si>
-    <t>12 fra musik.</t>
-  </si>
-  <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>Important</t>
-  </si>
-  <si>
-    <t>Visual relationship anotation</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Cifar</t>
-  </si>
-  <si>
-    <t>https://www.cs.toronto.edu/~kriz/cifar.html</t>
-  </si>
-  <si>
-    <t>jersey</t>
-  </si>
-  <si>
-    <t>Coco explorer</t>
-  </si>
-  <si>
-    <t>https://cocodataset.org/#explore</t>
-  </si>
-  <si>
-    <t>https://blog.roboflow.com/coco-dataset/</t>
-  </si>
-  <si>
-    <t>Trash can</t>
-  </si>
-  <si>
-    <t>Open images V6</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/openimages/web/visualizer/index.html?set=train&amp;type=segmentation&amp;r=false&amp;c=%2Fm%2F03m3vtv</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>https://storage.googleapis.com/openimages/2018_04/bbox_labels_600_hierarchy_visualizer/circle.html</t>
-  </si>
-  <si>
-    <t>napkin</t>
-  </si>
-  <si>
-    <t>Arcordian</t>
-  </si>
-  <si>
-    <t>Something-something V2</t>
-  </si>
-  <si>
-    <t>https://developer.qualcomm.com/software/ai-datasets/something-something</t>
-  </si>
-  <si>
-    <t>Cello</t>
-  </si>
-  <si>
-    <t>ImageNet</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/competitions/imagenet-object-localization-challenge/overview</t>
-  </si>
-  <si>
-    <t>bracelet</t>
-  </si>
-  <si>
-    <t>keyboard ( musical)</t>
-  </si>
-  <si>
-    <t>BDD100k</t>
-  </si>
-  <si>
-    <t>https://doc.bdd100k.com/format.html</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>Organ</t>
-  </si>
-  <si>
-    <t>DOTA</t>
-  </si>
-  <si>
-    <t>https://captain-whu.github.io/DOTA/dataset.html</t>
-  </si>
-  <si>
-    <t>Wet Suit</t>
-  </si>
-  <si>
-    <t>Trombone</t>
-  </si>
-  <si>
-    <t>grøntsager</t>
-  </si>
-  <si>
-    <t>Kaggle</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/misrakahmed/vegetable-image-dataset</t>
-  </si>
-  <si>
-    <t>rearview mirror</t>
-  </si>
-  <si>
-    <t>Trumpet</t>
-  </si>
-  <si>
-    <t>LVIS</t>
-  </si>
-  <si>
-    <t>https://www.lvisdataset.org/explore</t>
-  </si>
-  <si>
-    <t>Tank top</t>
-  </si>
-  <si>
-    <t>speaker (stero equipment)</t>
-  </si>
-  <si>
-    <t>sweater</t>
-  </si>
-  <si>
-    <t>headband</t>
-  </si>
-  <si>
-    <t>bucket</t>
-  </si>
-  <si>
-    <t>Vest</t>
-  </si>
-  <si>
-    <t>Objekter RK gerne vil have.</t>
-  </si>
-  <si>
-    <t>statue</t>
-  </si>
-  <si>
-    <t>crane: 4</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>lawn mower, mower: 4</t>
-  </si>
-  <si>
-    <t>lamppost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bridge: 5, 6, 0, 1, 2 </t>
-  </si>
-  <si>
-    <t>beanie</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>soap</t>
-  </si>
-  <si>
-    <t>corn: 4</t>
-  </si>
-  <si>
-    <t>saddle</t>
-  </si>
-  <si>
-    <t>spider web, spider's web: 4</t>
-  </si>
-  <si>
-    <t>straw</t>
-  </si>
-  <si>
-    <t>crutch: 4</t>
-  </si>
-  <si>
-    <t>apron</t>
-  </si>
-  <si>
-    <t>tractor: 4</t>
-  </si>
-  <si>
-    <t>bow ribbon</t>
-  </si>
-  <si>
-    <t>acorn: 4</t>
-  </si>
-  <si>
-    <t>swing: 4</t>
-  </si>
-  <si>
-    <t>newspaper</t>
-  </si>
-  <si>
-    <t>birdhouse: 4</t>
-  </si>
-  <si>
-    <t>eyebrow</t>
-  </si>
-  <si>
-    <t>apron: 4</t>
-  </si>
-  <si>
-    <t>neck</t>
-  </si>
-  <si>
-    <t>bikini: 4</t>
-  </si>
-  <si>
-    <t>licence plate</t>
-  </si>
-  <si>
-    <t>bucket: 4</t>
-  </si>
-  <si>
-    <t>bath towel  (towel)</t>
-  </si>
-  <si>
-    <t>chain: 4</t>
-  </si>
-  <si>
-    <t>diaper: 2</t>
-  </si>
-  <si>
-    <t>i alt nye</t>
-  </si>
-  <si>
-    <t>nail: 4 ( negle</t>
-  </si>
-  <si>
-    <t>purse: 4</t>
-  </si>
-  <si>
-    <t>wallet, billfold, notecase, pocketbook: 4</t>
-  </si>
-  <si>
-    <t>snorkel: 4</t>
-  </si>
-  <si>
-    <t>barometer: 4</t>
-  </si>
-  <si>
-    <t>broom 4</t>
-  </si>
-  <si>
-    <t>scuba diver: 4</t>
-  </si>
-  <si>
-    <t>fence</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>coffee maker</t>
-  </si>
-  <si>
-    <t>doorknob</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>lightbulb</t>
-  </si>
-  <si>
-    <t>salt shaker</t>
-  </si>
-  <si>
     <t>alarm clock</t>
   </si>
   <si>
@@ -2418,9 +2427,6 @@
     <t>Tomato</t>
   </si>
   <si>
-    <t>remote control</t>
-  </si>
-  <si>
     <t>tank top (clothing)</t>
   </si>
   <si>
@@ -2461,6 +2467,9 @@
   </si>
   <si>
     <t>statue (sculpture)</t>
+  </si>
+  <si>
+    <t>saddle (on an animal)</t>
   </si>
   <si>
     <t>bow (decorative ribbons)</t>
@@ -5285,6 +5294,12 @@
         <v>5095.0</v>
       </c>
       <c r="E92" s="1"/>
+      <c r="F92" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1.0</v>
+      </c>
       <c r="O92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -8249,9 +8264,6 @@
       <c r="E240" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F240" s="3">
-        <v>1.0</v>
-      </c>
       <c r="G240" s="3">
         <v>1.0</v>
       </c>
@@ -9329,7 +9341,7 @@
       <c r="E294" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F294" s="3">
+      <c r="F294" s="8">
         <v>1.0</v>
       </c>
       <c r="O294" s="4"/>
@@ -9830,6 +9842,9 @@
         <v>283</v>
       </c>
       <c r="F320" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G320" s="3">
         <v>1.0</v>
       </c>
       <c r="I320" s="3">
@@ -11877,7 +11892,9 @@
       <c r="D422" s="1">
         <v>6.0</v>
       </c>
-      <c r="E422" s="6"/>
+      <c r="E422" s="12" t="s">
+        <v>490</v>
+      </c>
       <c r="F422" s="9">
         <v>1.0</v>
       </c>
@@ -11885,7 +11902,7 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B423" s="1">
         <v>481.0</v>
@@ -11904,7 +11921,7 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B424" s="1">
         <v>526.0</v>
@@ -11923,7 +11940,7 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B425" s="1">
         <v>1752.0</v>
@@ -11945,7 +11962,7 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B426" s="1">
         <v>48.0</v>
@@ -11961,7 +11978,7 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B427" s="1">
         <v>638.0</v>
@@ -11980,7 +11997,7 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B428" s="1">
         <v>739.0</v>
@@ -12004,7 +12021,7 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B429" s="1">
         <v>5407.0</v>
@@ -12023,7 +12040,7 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B430" s="1">
         <v>270.0</v>
@@ -12044,7 +12061,7 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B431" s="1">
         <v>235.0</v>
@@ -12064,7 +12081,7 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B432" s="1">
         <v>2654.0</v>
@@ -12083,7 +12100,7 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B433" s="1">
         <v>96.0</v>
@@ -12095,7 +12112,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -12107,7 +12124,7 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B434" s="1">
         <v>1298.0</v>
@@ -12126,7 +12143,7 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B435" s="1">
         <v>795.0</v>
@@ -12145,7 +12162,7 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B436" s="1">
         <v>1582.0</v>
@@ -12164,7 +12181,7 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B437" s="1">
         <v>854.0</v>
@@ -12186,7 +12203,7 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B438" s="1">
         <v>131.0</v>
@@ -12209,7 +12226,7 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B439" s="1">
         <v>2003.0</v>
@@ -12228,7 +12245,7 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B440" s="1">
         <v>292.0</v>
@@ -12247,7 +12264,7 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B441" s="1">
         <v>466.0</v>
@@ -12270,7 +12287,7 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B442" s="1">
         <v>157.0</v>
@@ -12291,7 +12308,7 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B443" s="1">
         <v>46.0</v>
@@ -12329,7 +12346,7 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B445" s="1">
         <v>936.0</v>
@@ -12348,7 +12365,7 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B446" s="1">
         <v>745.0</v>
@@ -12360,7 +12377,7 @@
         <v>32.0</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K446" s="3">
         <v>1.0</v>
@@ -12369,7 +12386,7 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B447" s="1">
         <v>1824.0</v>
@@ -12392,7 +12409,7 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B448" s="1">
         <v>230.0</v>
@@ -12411,7 +12428,7 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B449" s="1">
         <v>318.0</v>
@@ -12434,7 +12451,7 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B450" s="1">
         <v>273.0</v>
@@ -12454,7 +12471,7 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B451" s="1">
         <v>106.0</v>
@@ -12466,7 +12483,7 @@
         <v>7.0</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F451" s="8">
         <v>1.0</v>
@@ -12482,7 +12499,7 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B452" s="1">
         <v>362.0</v>
@@ -12493,15 +12510,20 @@
       <c r="D452" s="1">
         <v>24.0</v>
       </c>
-      <c r="E452" s="2"/>
+      <c r="E452" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="F452" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L452" s="3">
         <v>1.0</v>
       </c>
       <c r="O452" s="4"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B453" s="1">
         <v>496.0</v>
@@ -12520,7 +12542,7 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B454" s="1">
         <v>1188.0</v>
@@ -12539,7 +12561,7 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B455" s="1">
         <v>6011.0</v>
@@ -12558,7 +12580,7 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B456" s="1">
         <v>397.0</v>
@@ -12580,7 +12602,7 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B457" s="1">
         <v>5217.0</v>
@@ -12599,7 +12621,7 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B458" s="1">
         <v>6833.0</v>
@@ -12618,7 +12640,7 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B459" s="1">
         <v>429.0</v>
@@ -12634,7 +12656,7 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B460" s="1">
         <v>206.0</v>
@@ -12653,7 +12675,7 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B461" s="1">
         <v>617.0</v>
@@ -12672,7 +12694,7 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B462" s="1">
         <v>1442.0</v>
@@ -12691,7 +12713,7 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B463" s="1">
         <v>1103.0</v>
@@ -12715,7 +12737,7 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B464" s="1">
         <v>1361.0</v>
@@ -12736,7 +12758,7 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B465" s="1">
         <v>974.0</v>
@@ -12755,7 +12777,7 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B466" s="1">
         <v>1501.0</v>
@@ -12777,7 +12799,7 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B467" s="1">
         <v>39.0</v>
@@ -12800,7 +12822,7 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B468" s="1">
         <v>21029.0</v>
@@ -12819,7 +12841,7 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B469" s="1">
         <v>103.0</v>
@@ -12835,7 +12857,7 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B470" s="1">
         <v>10313.0</v>
@@ -12854,7 +12876,7 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B471" s="1">
         <v>615.0</v>
@@ -12873,7 +12895,7 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B472" s="1">
         <v>1188.0</v>
@@ -12892,7 +12914,7 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B473" s="1">
         <v>574.0</v>
@@ -12913,7 +12935,7 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B474" s="1">
         <v>538.0</v>
@@ -12932,7 +12954,7 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B475" s="1">
         <v>197.0</v>
@@ -12955,7 +12977,7 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B476" s="1">
         <v>224.0</v>
@@ -12978,7 +13000,7 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B477" s="1">
         <v>58.0</v>
@@ -13001,7 +13023,7 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B478" s="1">
         <v>682.0</v>
@@ -13020,7 +13042,7 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B479" s="1">
         <v>1132.0</v>
@@ -13041,7 +13063,7 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B480" s="1">
         <v>505.0</v>
@@ -13062,7 +13084,7 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B481" s="1">
         <v>1157.0</v>
@@ -13081,7 +13103,7 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B482" s="1">
         <v>38.0</v>
@@ -13107,7 +13129,7 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B483" s="1">
         <v>66.0</v>
@@ -13130,7 +13152,7 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B484" s="1">
         <v>1702.0</v>
@@ -13149,7 +13171,7 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B485" s="1">
         <v>1044.0</v>
@@ -13168,7 +13190,7 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B486" s="1">
         <v>10056.0</v>
@@ -13187,7 +13209,7 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B487" s="1">
         <v>6531.0</v>
@@ -13199,7 +13221,7 @@
         <v>227.0</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I487" s="3">
         <v>1.0</v>
@@ -13213,7 +13235,7 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B488" s="1">
         <v>122.0</v>
@@ -13236,7 +13258,7 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B489" s="1">
         <v>97.0</v>
@@ -13255,7 +13277,7 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B490" s="1">
         <v>1810.0</v>
@@ -13277,7 +13299,7 @@
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B491" s="1">
         <v>4533.0</v>
@@ -13296,7 +13318,7 @@
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B492" s="1">
         <v>49.0</v>
@@ -13319,7 +13341,7 @@
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B493" s="1">
         <v>436.0</v>
@@ -13338,7 +13360,7 @@
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B494" s="1">
         <v>110.0</v>
@@ -13361,7 +13383,7 @@
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B495" s="1">
         <v>75.0</v>
@@ -13384,7 +13406,7 @@
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B496" s="1">
         <v>576.0</v>
@@ -13403,7 +13425,7 @@
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B497" s="1">
         <v>375.0</v>
@@ -13422,7 +13444,7 @@
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B498" s="1">
         <v>1257.0</v>
@@ -13441,7 +13463,7 @@
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B499" s="1">
         <v>11226.0</v>
@@ -13453,7 +13475,7 @@
         <v>30.0</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G499" s="3">
         <v>1.0</v>
@@ -13462,7 +13484,7 @@
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B500" s="1">
         <v>122.0</v>
@@ -13481,7 +13503,7 @@
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B501" s="1">
         <v>1133.0</v>
@@ -13502,7 +13524,7 @@
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B502" s="1">
         <v>75.0</v>
@@ -13518,7 +13540,7 @@
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B503" s="1">
         <v>233.0</v>
@@ -13530,7 +13552,7 @@
         <v>36.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F503" s="3"/>
       <c r="J503" s="3">
@@ -13540,7 +13562,7 @@
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B504" s="1">
         <v>43922.0</v>
@@ -13559,7 +13581,7 @@
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B505" s="1">
         <v>408.0</v>
@@ -13581,7 +13603,7 @@
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B506" s="1">
         <v>4296.0</v>
@@ -13602,7 +13624,7 @@
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B507" s="1">
         <v>15125.0</v>
@@ -13624,7 +13646,7 @@
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B508" s="1">
         <v>1691.0</v>
@@ -13645,7 +13667,7 @@
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B509" s="1">
         <v>681.0</v>
@@ -13664,7 +13686,7 @@
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B510" s="1">
         <v>1365.0</v>
@@ -13683,7 +13705,7 @@
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B511" s="1">
         <v>330.0</v>
@@ -13706,7 +13728,7 @@
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B512" s="1">
         <v>3618.0</v>
@@ -13718,7 +13740,7 @@
         <v>156.0</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G512" s="3">
         <v>1.0</v>
@@ -13727,7 +13749,7 @@
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B513" s="1">
         <v>3365.0</v>
@@ -13749,7 +13771,7 @@
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B514" s="1">
         <v>391.0</v>
@@ -13761,9 +13783,7 @@
         <v>25.0</v>
       </c>
       <c r="E514" s="2"/>
-      <c r="F514" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="F514" s="8"/>
       <c r="G514" s="8">
         <v>1.0</v>
       </c>
@@ -13771,7 +13791,7 @@
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B515" s="1">
         <v>94.0</v>
@@ -13813,7 +13833,7 @@
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B517" s="1">
         <v>589.0</v>
@@ -13825,7 +13845,7 @@
         <v>29.0</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L517" s="3">
         <v>1.0</v>
@@ -13836,7 +13856,7 @@
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B518" s="1">
         <v>784.0</v>
@@ -13848,7 +13868,7 @@
         <v>11.0</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F518" s="3">
         <v>1.0</v>
@@ -13857,7 +13877,7 @@
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B519" s="1">
         <v>6084.0</v>
@@ -13876,7 +13896,7 @@
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B520" s="1">
         <v>352.0</v>
@@ -13895,7 +13915,7 @@
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B521" s="1">
         <v>1062.0</v>
@@ -13914,7 +13934,7 @@
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B522" s="1">
         <v>1170.0</v>
@@ -13926,7 +13946,7 @@
         <v>40.0</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F522" s="3">
         <v>1.0</v>
@@ -13935,7 +13955,7 @@
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B523" s="1">
         <v>412.0</v>
@@ -13954,7 +13974,7 @@
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B524" s="1">
         <v>1434.0</v>
@@ -13977,7 +13997,7 @@
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B525" s="1">
         <v>1068.0</v>
@@ -13996,7 +14016,7 @@
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B526" s="1">
         <v>496.0</v>
@@ -14015,7 +14035,7 @@
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B527" s="1">
         <v>1020.0</v>
@@ -14034,7 +14054,7 @@
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B528" s="1">
         <v>221.0</v>
@@ -14057,7 +14077,7 @@
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B529" s="1">
         <v>2789.0</v>
@@ -14078,7 +14098,7 @@
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B530" s="1">
         <v>385.0</v>
@@ -14099,7 +14119,7 @@
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B531" s="1">
         <v>807.0</v>
@@ -14122,7 +14142,7 @@
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B532" s="1">
         <v>3508.0</v>
@@ -14141,7 +14161,7 @@
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B533" s="1">
         <v>367.0</v>
@@ -14160,7 +14180,7 @@
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B534" s="1">
         <v>107.0</v>
@@ -14183,7 +14203,7 @@
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B535" s="1">
         <v>7733.0</v>
@@ -14202,7 +14222,7 @@
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B536" s="1">
         <v>1039.0</v>
@@ -14221,7 +14241,7 @@
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B537" s="1">
         <v>1307.0</v>
@@ -14233,7 +14253,7 @@
         <v>36.0</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F537" s="3">
         <v>1.0</v>
@@ -14245,7 +14265,7 @@
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B538" s="1">
         <v>30815.0</v>
@@ -14264,7 +14284,7 @@
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B539" s="1">
         <v>60.0</v>
@@ -14287,7 +14307,7 @@
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B540" s="1">
         <v>862.0</v>
@@ -14306,7 +14326,7 @@
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B541" s="1">
         <v>226.0</v>
@@ -14325,7 +14345,7 @@
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B542" s="1">
         <v>1283.0</v>
@@ -14344,7 +14364,7 @@
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B543" s="1">
         <v>793.0</v>
@@ -14363,7 +14383,7 @@
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B544" s="1">
         <v>113.0</v>
@@ -14382,7 +14402,7 @@
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B545" s="1">
         <v>18.0</v>
@@ -14405,7 +14425,7 @@
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B546" s="1">
         <v>1324.0</v>
@@ -14424,7 +14444,7 @@
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B547" s="1">
         <v>144.0</v>
@@ -14443,7 +14463,7 @@
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B548" s="1">
         <v>21806.0</v>
@@ -14462,7 +14482,7 @@
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B549" s="1">
         <v>17481.0</v>
@@ -14474,14 +14494,11 @@
         <v>308.0</v>
       </c>
       <c r="E549" s="2"/>
-      <c r="F549" s="3">
-        <v>1.0</v>
-      </c>
       <c r="O549" s="4"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B550" s="1">
         <v>1774.0</v>
@@ -14493,7 +14510,7 @@
         <v>22.0</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G550" s="3">
         <v>1.0</v>
@@ -14502,7 +14519,7 @@
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B551" s="1">
         <v>2817.0</v>
@@ -14514,7 +14531,7 @@
         <v>27.0</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G551" s="3">
         <v>1.0</v>
@@ -14542,7 +14559,7 @@
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B553" s="1">
         <v>100.0</v>
@@ -14565,7 +14582,7 @@
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B554" s="1">
         <v>106.0</v>
@@ -14587,7 +14604,7 @@
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B555" s="1">
         <v>289999.0</v>
@@ -14606,7 +14623,7 @@
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B556" s="1">
         <v>107.0</v>
@@ -14622,7 +14639,7 @@
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B557" s="1">
         <v>1196.0</v>
@@ -14644,7 +14661,7 @@
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B558" s="1">
         <v>451.0</v>
@@ -14660,7 +14677,7 @@
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B559" s="1">
         <v>4858.0</v>
@@ -14679,7 +14696,7 @@
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B560" s="1">
         <v>8078.0</v>
@@ -14698,7 +14715,7 @@
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B561" s="1">
         <v>835.0</v>
@@ -14714,7 +14731,7 @@
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B562" s="1">
         <v>367.0</v>
@@ -14733,7 +14750,7 @@
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B563" s="1">
         <v>130.0</v>
@@ -14757,7 +14774,7 @@
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B564" s="1">
         <v>3357.0</v>
@@ -14779,7 +14796,7 @@
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B565" s="1">
         <v>127.0</v>
@@ -14802,7 +14819,7 @@
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B566" s="1">
         <v>5378.0</v>
@@ -14821,7 +14838,7 @@
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B567" s="1">
         <v>1561.0</v>
@@ -14840,7 +14857,7 @@
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B568" s="1">
         <v>5254.0</v>
@@ -14856,7 +14873,7 @@
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B569" s="1">
         <v>15736.0</v>
@@ -14875,7 +14892,7 @@
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B570" s="1">
         <v>5368.0</v>
@@ -14887,7 +14904,7 @@
         <v>724.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="G570" s="3">
         <v>1.0</v>
@@ -14896,7 +14913,7 @@
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B571" s="1">
         <v>1307.0</v>
@@ -14912,7 +14929,7 @@
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B572" s="1">
         <v>579.0</v>
@@ -14933,7 +14950,7 @@
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B573" s="1">
         <v>378.0</v>
@@ -14953,7 +14970,7 @@
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B574" s="1">
         <v>23.0</v>
@@ -14969,7 +14986,7 @@
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B575" s="1">
         <v>854.0</v>
@@ -14990,7 +15007,7 @@
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B576" s="1">
         <v>208.0</v>
@@ -15011,7 +15028,7 @@
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B577" s="1">
         <v>326.0</v>
@@ -15027,7 +15044,7 @@
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B578" s="1">
         <v>1020.0</v>
@@ -15039,7 +15056,7 @@
         <v>19.0</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G578" s="3">
         <v>1.0</v>
@@ -15048,7 +15065,7 @@
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B579" s="1">
         <v>1434.0</v>
@@ -15067,7 +15084,7 @@
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B580" s="1">
         <v>2481.0</v>
@@ -15085,7 +15102,7 @@
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B581" s="1">
         <v>409.0</v>
@@ -15104,7 +15121,7 @@
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B582" s="1">
         <v>1646.0</v>
@@ -15123,7 +15140,7 @@
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B583" s="1">
         <v>713.0</v>
@@ -15161,7 +15178,7 @@
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B585" s="1">
         <v>882.0</v>
@@ -15183,7 +15200,7 @@
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B586" s="1">
         <v>157.0</v>
@@ -15203,7 +15220,7 @@
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B587" s="1">
         <v>899.0</v>
@@ -15222,7 +15239,7 @@
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B588" s="1">
         <v>193.0</v>
@@ -15245,7 +15262,7 @@
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B589" s="1">
         <v>59833.0</v>
@@ -15264,7 +15281,7 @@
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B590" s="1">
         <v>397.0</v>
@@ -15283,7 +15300,7 @@
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B591" s="1">
         <v>4878.0</v>
@@ -15305,7 +15322,7 @@
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B592" s="1">
         <v>4894.0</v>
@@ -15317,7 +15334,7 @@
         <v>90.0</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F592" s="3">
         <v>1.0</v>
@@ -15326,7 +15343,7 @@
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B593" s="1">
         <v>140.0</v>
@@ -15349,7 +15366,7 @@
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B594" s="1">
         <v>37.0</v>
@@ -15377,7 +15394,7 @@
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B595" s="1">
         <v>470.0</v>
@@ -15398,7 +15415,7 @@
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B596" s="1">
         <v>265635.0</v>
@@ -15414,7 +15431,7 @@
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B597" s="1">
         <v>287.0</v>
@@ -15437,7 +15454,7 @@
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B598" s="1">
         <v>425.0</v>
@@ -15456,7 +15473,7 @@
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B599" s="1">
         <v>201.0</v>
@@ -15484,7 +15501,7 @@
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B600" s="1">
         <v>62.0</v>
@@ -15507,7 +15524,7 @@
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B601" s="1">
         <v>621.0</v>
@@ -15526,7 +15543,7 @@
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B602" s="1">
         <v>287.0</v>
@@ -15552,15 +15569,15 @@
     </row>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F604" s="19">
         <f t="shared" ref="F604:L604" si="1">SUM(F2:F602)</f>
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G604" s="19">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H604" s="19">
         <f t="shared" si="1"/>
@@ -15580,20 +15597,20 @@
       </c>
       <c r="L604" s="19">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M604" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N604" s="19">
         <f t="shared" ref="N604:N605" si="2">SUM(F604:L604)</f>
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O604" s="11"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="E605" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F605" s="3">
         <v>8.0</v>
@@ -15617,7 +15634,7 @@
         <v>6.0</v>
       </c>
       <c r="M605" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N605" s="3">
         <f t="shared" si="2"/>
@@ -15635,11 +15652,11 @@
       <c r="K606" s="19"/>
       <c r="L606" s="19"/>
       <c r="M606" s="20" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N606" s="19">
         <f>SUM(N604:N605)</f>
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O606" s="11"/>
       <c r="P606" s="21">
@@ -15659,60 +15676,60 @@
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="22" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D609" s="10"/>
       <c r="E609" s="23" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H609" s="24" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="I609" s="25" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J609" s="24" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K609" s="24"/>
       <c r="L609" s="24"/>
       <c r="M609" s="26"/>
       <c r="N609" s="24" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="O609" s="4"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="27" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B610" s="3">
         <v>1.0</v>
       </c>
       <c r="D610" s="28"/>
       <c r="E610" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H610" s="24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I610" s="24"/>
       <c r="J610" s="29"/>
       <c r="K610" s="30" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L610" s="31" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M610" s="32" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N610" s="29"/>
       <c r="O610" s="4"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="33" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B611" s="3">
         <v>1.0</v>
@@ -15725,10 +15742,10 @@
         <v>0.0</v>
       </c>
       <c r="I611" s="36" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J611" s="37" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K611" s="38"/>
       <c r="L611" s="38"/>
@@ -15738,7 +15755,7 @@
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="33" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B612" s="3">
         <v>1.0</v>
@@ -15750,68 +15767,68 @@
         <v>1.0</v>
       </c>
       <c r="I612" s="36" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J612" s="39" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="K612" s="40"/>
       <c r="L612" s="41" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M612" s="40" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N612" s="42"/>
       <c r="O612" s="4"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="33" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B613" s="3">
         <v>1.0</v>
       </c>
       <c r="E613" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H613" s="35">
         <v>2.0</v>
       </c>
       <c r="I613" s="36" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J613" s="43" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="K613" s="38"/>
       <c r="L613" s="38"/>
       <c r="M613" s="44" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="N613" s="45" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="O613" s="4"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="33" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B614" s="3">
         <v>1.0</v>
       </c>
       <c r="E614" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H614" s="35">
         <v>3.0</v>
       </c>
       <c r="I614" s="36" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J614" s="41" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="K614" s="40"/>
       <c r="L614" s="40"/>
@@ -15827,99 +15844,99 @@
         <v>1.0</v>
       </c>
       <c r="E615" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H615" s="35">
         <v>4.0</v>
       </c>
       <c r="I615" s="36" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J615" s="47" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K615" s="38"/>
       <c r="L615" s="38"/>
       <c r="M615" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N615" s="38"/>
       <c r="O615" s="4"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="33" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B616" s="3">
         <v>1.0</v>
       </c>
       <c r="D616" s="49"/>
       <c r="E616" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H616" s="35">
         <v>5.0</v>
       </c>
       <c r="I616" s="36" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J616" s="50" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K616" s="40"/>
       <c r="L616" s="40"/>
       <c r="M616" s="40" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N616" s="40"/>
       <c r="O616" s="4"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="51" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B617" s="3">
         <v>1.0</v>
       </c>
       <c r="D617" s="52"/>
       <c r="E617" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H617" s="35">
         <v>6.0</v>
       </c>
       <c r="I617" s="36" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J617" s="37" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K617" s="38"/>
       <c r="L617" s="38"/>
       <c r="M617" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N617" s="38"/>
       <c r="O617" s="4"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="33" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B618" s="3">
         <v>1.0</v>
       </c>
       <c r="E618" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H618" s="53" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I618" s="36" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J618" s="54" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="K618" s="40"/>
       <c r="L618" s="40"/>
@@ -15929,29 +15946,29 @@
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="33" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B619" s="3">
         <v>1.0</v>
       </c>
       <c r="D619" s="55"/>
       <c r="E619" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H619" s="3">
         <v>7.0</v>
       </c>
       <c r="I619" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="J619" s="56" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="O619" s="4"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="33" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B620" s="3">
         <v>1.0</v>
@@ -15961,7 +15978,7 @@
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="33" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B621" s="3">
         <v>1.0</v>
@@ -15971,7 +15988,7 @@
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="46" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B622" s="3">
         <v>1.0</v>
@@ -15981,7 +15998,7 @@
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="33" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B623" s="3">
         <v>1.0</v>
@@ -15991,7 +16008,7 @@
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="A624" s="46" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B624" s="3">
         <v>1.0</v>
@@ -16001,291 +16018,291 @@
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="58" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B625" s="3">
         <v>1.0</v>
       </c>
       <c r="D625" s="59" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="O625" s="4"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="33" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B626" s="3">
         <v>1.0</v>
       </c>
       <c r="D626" s="60" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E626" s="57"/>
       <c r="O626" s="4"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="A627" s="46" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B627" s="3">
         <v>1.0</v>
       </c>
       <c r="D627" s="61" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E627" s="57"/>
       <c r="O627" s="4"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="46" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B628" s="3">
         <v>1.0</v>
       </c>
       <c r="D628" s="62" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E628" s="57"/>
       <c r="O628" s="4"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="A629" s="33" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B629" s="3">
         <v>1.0</v>
       </c>
       <c r="D629" s="57" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E629" s="57"/>
       <c r="O629" s="4"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="A630" s="33" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B630" s="3">
         <v>1.0</v>
       </c>
       <c r="D630" s="57" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E630" s="57"/>
       <c r="O630" s="4"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="33" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B631" s="3">
         <v>1.0</v>
       </c>
       <c r="D631" s="62" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="E631" s="57"/>
       <c r="O631" s="4"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="33" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B632" s="3">
         <v>1.0</v>
       </c>
       <c r="D632" s="63" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E632" s="57"/>
       <c r="O632" s="4"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="33" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B633" s="3">
         <v>1.0</v>
       </c>
       <c r="D633" s="60" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E633" s="57"/>
       <c r="O633" s="4"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
       <c r="A634" s="33" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B634" s="3">
         <v>1.0</v>
       </c>
       <c r="D634" s="57" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E634" s="57"/>
       <c r="O634" s="4"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
       <c r="A635" s="33" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B635" s="3">
         <v>1.0</v>
       </c>
       <c r="D635" s="55" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E635" s="57"/>
       <c r="O635" s="4"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
       <c r="A636" s="33" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B636" s="3">
         <v>1.0</v>
       </c>
       <c r="D636" s="57" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E636" s="57"/>
       <c r="O636" s="4"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
       <c r="A637" s="64" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B637" s="3">
         <v>1.0</v>
       </c>
       <c r="D637" s="65" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E637" s="57"/>
       <c r="O637" s="4"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
       <c r="A638" s="64" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B638" s="3">
         <v>1.0</v>
       </c>
       <c r="D638" s="66" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E638" s="57"/>
       <c r="O638" s="4"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
       <c r="A639" s="33" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B639" s="3">
         <v>1.0</v>
       </c>
       <c r="D639" s="66" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E639" s="57"/>
       <c r="O639" s="4"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
       <c r="A640" s="33" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B640" s="3">
         <v>1.0</v>
       </c>
       <c r="D640" s="66" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E640" s="57"/>
       <c r="O640" s="4"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
       <c r="D641" s="66" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E641" s="57"/>
       <c r="O641" s="4"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
       <c r="A642" s="3" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B642" s="21">
         <f>SUM(B610:B640)</f>
         <v>31</v>
       </c>
       <c r="D642" s="67" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E642" s="57"/>
       <c r="O642" s="4"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
       <c r="D643" s="57" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E643" s="57"/>
       <c r="O643" s="4"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
       <c r="D644" s="62" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E644" s="57"/>
       <c r="O644" s="4"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
       <c r="D645" s="57" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E645" s="57"/>
       <c r="O645" s="4"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
       <c r="D646" s="66" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E646" s="57"/>
       <c r="O646" s="4"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
       <c r="D647" s="68" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E647" s="57"/>
       <c r="O647" s="4"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
       <c r="D648" s="66" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E648" s="57"/>
       <c r="O648" s="4"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
       <c r="D649" s="67" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E649" s="57"/>
       <c r="O649" s="4"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
       <c r="D650" s="69" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E650" s="57"/>
       <c r="O650" s="4"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
       <c r="D651" s="68" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E651" s="57"/>
       <c r="O651" s="4"/>
@@ -19851,7 +19868,7 @@
         <v>20.0</v>
       </c>
       <c r="E125" s="73" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="F125" s="9">
         <v>1.0</v>
@@ -20611,7 +20628,7 @@
         <v>30.0</v>
       </c>
       <c r="E167" s="74" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F167" s="8">
         <v>1.0</v>
@@ -20841,7 +20858,7 @@
         <v>72.0</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="J180" s="3">
         <v>1.0</v>
@@ -23234,7 +23251,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -25256,7 +25273,7 @@
     </row>
     <row r="423" ht="14.25" customHeight="1">
       <c r="A423" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B423" s="1">
         <v>481.0</v>
@@ -25271,7 +25288,7 @@
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B424" s="1">
         <v>526.0</v>
@@ -25289,7 +25306,7 @@
     </row>
     <row r="425" ht="14.25" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B425" s="1">
         <v>1752.0</v>
@@ -25307,7 +25324,7 @@
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B426" s="1">
         <v>48.0</v>
@@ -25322,7 +25339,7 @@
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B427" s="1">
         <v>638.0</v>
@@ -25340,7 +25357,7 @@
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B428" s="1">
         <v>739.0</v>
@@ -25361,7 +25378,7 @@
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B429" s="1">
         <v>5407.0</v>
@@ -25379,7 +25396,7 @@
     </row>
     <row r="430" ht="14.25" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B430" s="1">
         <v>270.0</v>
@@ -25397,7 +25414,7 @@
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B431" s="1">
         <v>235.0</v>
@@ -25413,7 +25430,7 @@
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B432" s="1">
         <v>2654.0</v>
@@ -25431,7 +25448,7 @@
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B433" s="1">
         <v>96.0</v>
@@ -25443,7 +25460,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -25454,7 +25471,7 @@
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B434" s="1">
         <v>1298.0</v>
@@ -25472,7 +25489,7 @@
     </row>
     <row r="435" ht="14.25" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B435" s="1">
         <v>795.0</v>
@@ -25490,7 +25507,7 @@
     </row>
     <row r="436" ht="14.25" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B436" s="1">
         <v>1582.0</v>
@@ -25508,7 +25525,7 @@
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B437" s="1">
         <v>854.0</v>
@@ -25529,7 +25546,7 @@
     </row>
     <row r="438" ht="14.25" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B438" s="1">
         <v>131.0</v>
@@ -25548,7 +25565,7 @@
     </row>
     <row r="439" ht="14.25" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B439" s="1">
         <v>2003.0</v>
@@ -25566,7 +25583,7 @@
     </row>
     <row r="440" ht="14.25" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B440" s="1">
         <v>292.0</v>
@@ -25584,7 +25601,7 @@
     </row>
     <row r="441" ht="14.25" customHeight="1">
       <c r="A441" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B441" s="1">
         <v>466.0</v>
@@ -25603,7 +25620,7 @@
     </row>
     <row r="442" ht="14.25" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B442" s="1">
         <v>157.0</v>
@@ -25623,7 +25640,7 @@
     </row>
     <row r="443" ht="14.25" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B443" s="1">
         <v>46.0</v>
@@ -25659,7 +25676,7 @@
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B445" s="1">
         <v>936.0</v>
@@ -25677,7 +25694,7 @@
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B446" s="1">
         <v>745.0</v>
@@ -25689,7 +25706,7 @@
         <v>32.0</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K446" s="3">
         <v>1.0</v>
@@ -25697,7 +25714,7 @@
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B447" s="1">
         <v>1824.0</v>
@@ -25716,7 +25733,7 @@
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B448" s="1">
         <v>230.0</v>
@@ -25734,7 +25751,7 @@
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B449" s="1">
         <v>318.0</v>
@@ -25753,7 +25770,7 @@
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B450" s="1">
         <v>273.0</v>
@@ -25769,7 +25786,7 @@
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B451" s="1">
         <v>106.0</v>
@@ -25781,7 +25798,7 @@
         <v>7.0</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F451" s="8">
         <v>1.0</v>
@@ -25793,7 +25810,7 @@
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="5" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B452" s="1">
         <v>362.0</v>
@@ -25811,7 +25828,7 @@
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="5" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B453" s="1">
         <v>496.0</v>
@@ -25829,7 +25846,7 @@
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B454" s="1">
         <v>1188.0</v>
@@ -25847,7 +25864,7 @@
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B455" s="1">
         <v>6011.0</v>
@@ -25865,7 +25882,7 @@
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="5" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B456" s="1">
         <v>397.0</v>
@@ -25886,7 +25903,7 @@
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B457" s="1">
         <v>5217.0</v>
@@ -25904,7 +25921,7 @@
     </row>
     <row r="458" ht="14.25" customHeight="1">
       <c r="A458" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B458" s="1">
         <v>6833.0</v>
@@ -25922,7 +25939,7 @@
     </row>
     <row r="459" ht="14.25" customHeight="1">
       <c r="A459" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B459" s="1">
         <v>429.0</v>
@@ -25937,7 +25954,7 @@
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B460" s="1">
         <v>206.0</v>
@@ -25955,7 +25972,7 @@
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B461" s="1">
         <v>617.0</v>
@@ -25973,7 +25990,7 @@
     </row>
     <row r="462" ht="14.25" customHeight="1">
       <c r="A462" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B462" s="1">
         <v>1442.0</v>
@@ -25991,7 +26008,7 @@
     </row>
     <row r="463" ht="14.25" customHeight="1">
       <c r="A463" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B463" s="1">
         <v>1103.0</v>
@@ -26012,7 +26029,7 @@
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B464" s="1">
         <v>1361.0</v>
@@ -26030,7 +26047,7 @@
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B465" s="1">
         <v>974.0</v>
@@ -26048,7 +26065,7 @@
     </row>
     <row r="466" ht="14.25" customHeight="1">
       <c r="A466" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B466" s="1">
         <v>1501.0</v>
@@ -26069,7 +26086,7 @@
     </row>
     <row r="467" ht="14.25" customHeight="1">
       <c r="A467" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B467" s="1">
         <v>39.0</v>
@@ -26088,7 +26105,7 @@
     </row>
     <row r="468" ht="14.25" customHeight="1">
       <c r="A468" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B468" s="1">
         <v>21029.0</v>
@@ -26103,7 +26120,7 @@
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B469" s="1">
         <v>103.0</v>
@@ -26118,7 +26135,7 @@
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B470" s="1">
         <v>10313.0</v>
@@ -26133,7 +26150,7 @@
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B471" s="1">
         <v>615.0</v>
@@ -26151,7 +26168,7 @@
     </row>
     <row r="472" ht="14.25" customHeight="1">
       <c r="A472" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B472" s="1">
         <v>1188.0</v>
@@ -26169,7 +26186,7 @@
     </row>
     <row r="473" ht="14.25" customHeight="1">
       <c r="A473" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B473" s="1">
         <v>574.0</v>
@@ -26187,7 +26204,7 @@
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B474" s="1">
         <v>538.0</v>
@@ -26205,7 +26222,7 @@
     </row>
     <row r="475" ht="14.25" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B475" s="1">
         <v>197.0</v>
@@ -26224,7 +26241,7 @@
     </row>
     <row r="476" ht="14.25" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B476" s="1">
         <v>224.0</v>
@@ -26243,7 +26260,7 @@
     </row>
     <row r="477" ht="14.25" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B477" s="1">
         <v>58.0</v>
@@ -26262,7 +26279,7 @@
     </row>
     <row r="478" ht="14.25" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B478" s="1">
         <v>682.0</v>
@@ -26280,7 +26297,7 @@
     </row>
     <row r="479" ht="14.25" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B479" s="1">
         <v>1132.0</v>
@@ -26300,7 +26317,7 @@
     </row>
     <row r="480" ht="14.25" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B480" s="1">
         <v>505.0</v>
@@ -26320,7 +26337,7 @@
     </row>
     <row r="481" ht="14.25" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B481" s="1">
         <v>1157.0</v>
@@ -26338,7 +26355,7 @@
     </row>
     <row r="482" ht="14.25" customHeight="1">
       <c r="A482" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B482" s="1">
         <v>38.0</v>
@@ -26360,7 +26377,7 @@
     </row>
     <row r="483" ht="14.25" customHeight="1">
       <c r="A483" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B483" s="1">
         <v>66.0</v>
@@ -26379,7 +26396,7 @@
     </row>
     <row r="484" ht="14.25" customHeight="1">
       <c r="A484" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B484" s="1">
         <v>1702.0</v>
@@ -26397,7 +26414,7 @@
     </row>
     <row r="485" ht="14.25" customHeight="1">
       <c r="A485" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B485" s="1">
         <v>1044.0</v>
@@ -26415,7 +26432,7 @@
     </row>
     <row r="486" ht="14.25" customHeight="1">
       <c r="A486" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B486" s="1">
         <v>10056.0</v>
@@ -26430,7 +26447,7 @@
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B487" s="1">
         <v>6531.0</v>
@@ -26442,7 +26459,7 @@
         <v>227.0</v>
       </c>
       <c r="E487" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="I487" s="3">
         <v>1.0</v>
@@ -26453,7 +26470,7 @@
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B488" s="1">
         <v>122.0</v>
@@ -26472,7 +26489,7 @@
     </row>
     <row r="489" ht="14.25" customHeight="1">
       <c r="A489" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B489" s="1">
         <v>97.0</v>
@@ -26490,7 +26507,7 @@
     </row>
     <row r="490" ht="14.25" customHeight="1">
       <c r="A490" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B490" s="1">
         <v>1810.0</v>
@@ -26508,7 +26525,7 @@
     </row>
     <row r="491" ht="14.25" customHeight="1">
       <c r="A491" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B491" s="1">
         <v>4533.0</v>
@@ -26526,7 +26543,7 @@
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B492" s="1">
         <v>49.0</v>
@@ -26545,7 +26562,7 @@
     </row>
     <row r="493" ht="14.25" customHeight="1">
       <c r="A493" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B493" s="1">
         <v>436.0</v>
@@ -26563,7 +26580,7 @@
     </row>
     <row r="494" ht="14.25" customHeight="1">
       <c r="A494" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B494" s="1">
         <v>110.0</v>
@@ -26582,7 +26599,7 @@
     </row>
     <row r="495" ht="14.25" customHeight="1">
       <c r="A495" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B495" s="1">
         <v>75.0</v>
@@ -26601,7 +26618,7 @@
     </row>
     <row r="496" ht="14.25" customHeight="1">
       <c r="A496" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B496" s="1">
         <v>576.0</v>
@@ -26619,7 +26636,7 @@
     </row>
     <row r="497" ht="14.25" customHeight="1">
       <c r="A497" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B497" s="1">
         <v>375.0</v>
@@ -26637,7 +26654,7 @@
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B498" s="1">
         <v>1257.0</v>
@@ -26655,7 +26672,7 @@
     </row>
     <row r="499" ht="14.25" customHeight="1">
       <c r="A499" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B499" s="1">
         <v>11226.0</v>
@@ -26673,7 +26690,7 @@
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B500" s="1">
         <v>122.0</v>
@@ -26689,7 +26706,7 @@
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B501" s="1">
         <v>1133.0</v>
@@ -26709,7 +26726,7 @@
     </row>
     <row r="502" ht="14.25" customHeight="1">
       <c r="A502" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B502" s="1">
         <v>75.0</v>
@@ -26724,7 +26741,7 @@
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B503" s="1">
         <v>233.0</v>
@@ -26736,7 +26753,7 @@
         <v>36.0</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F503" s="3"/>
       <c r="J503" s="3">
@@ -26745,7 +26762,7 @@
     </row>
     <row r="504" ht="14.25" customHeight="1">
       <c r="A504" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B504" s="1">
         <v>43922.0</v>
@@ -26763,7 +26780,7 @@
     </row>
     <row r="505" ht="14.25" customHeight="1">
       <c r="A505" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B505" s="1">
         <v>408.0</v>
@@ -26784,7 +26801,7 @@
     </row>
     <row r="506" ht="14.25" customHeight="1">
       <c r="A506" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B506" s="1">
         <v>4296.0</v>
@@ -26804,7 +26821,7 @@
     </row>
     <row r="507" ht="14.25" customHeight="1">
       <c r="A507" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B507" s="1">
         <v>15125.0</v>
@@ -26825,7 +26842,7 @@
     </row>
     <row r="508" ht="14.25" customHeight="1">
       <c r="A508" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B508" s="1">
         <v>1691.0</v>
@@ -26843,7 +26860,7 @@
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B509" s="1">
         <v>681.0</v>
@@ -26861,7 +26878,7 @@
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B510" s="1">
         <v>1365.0</v>
@@ -26879,7 +26896,7 @@
     </row>
     <row r="511" ht="14.25" customHeight="1">
       <c r="A511" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B511" s="1">
         <v>330.0</v>
@@ -26898,7 +26915,7 @@
     </row>
     <row r="512" ht="14.25" customHeight="1">
       <c r="A512" s="5" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B512" s="1">
         <v>3618.0</v>
@@ -26916,7 +26933,7 @@
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B513" s="1">
         <v>3365.0</v>
@@ -26937,7 +26954,7 @@
     </row>
     <row r="514" ht="14.25" customHeight="1">
       <c r="A514" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B514" s="1">
         <v>391.0</v>
@@ -26955,7 +26972,7 @@
     </row>
     <row r="515" ht="14.25" customHeight="1">
       <c r="A515" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B515" s="1">
         <v>94.0</v>
@@ -26992,7 +27009,7 @@
     </row>
     <row r="517" ht="14.25" customHeight="1">
       <c r="A517" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B517" s="1">
         <v>589.0</v>
@@ -27004,7 +27021,7 @@
         <v>29.0</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L517" s="3">
         <v>1.0</v>
@@ -27012,7 +27029,7 @@
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B518" s="1">
         <v>784.0</v>
@@ -27024,7 +27041,7 @@
         <v>11.0</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="F518" s="3">
         <v>1.0</v>
@@ -27032,7 +27049,7 @@
     </row>
     <row r="519" ht="14.25" customHeight="1">
       <c r="A519" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B519" s="1">
         <v>6084.0</v>
@@ -27047,7 +27064,7 @@
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B520" s="1">
         <v>352.0</v>
@@ -27065,7 +27082,7 @@
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B521" s="1">
         <v>1062.0</v>
@@ -27083,7 +27100,7 @@
     </row>
     <row r="522" ht="14.25" customHeight="1">
       <c r="A522" s="5" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B522" s="1">
         <v>1170.0</v>
@@ -27095,7 +27112,7 @@
         <v>40.0</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F522" s="3">
         <v>1.0</v>
@@ -27103,7 +27120,7 @@
     </row>
     <row r="523" ht="14.25" customHeight="1">
       <c r="A523" s="5" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B523" s="1">
         <v>412.0</v>
@@ -27122,7 +27139,7 @@
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B524" s="1">
         <v>1434.0</v>
@@ -27141,7 +27158,7 @@
     </row>
     <row r="525" ht="14.25" customHeight="1">
       <c r="A525" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B525" s="1">
         <v>1068.0</v>
@@ -27159,7 +27176,7 @@
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B526" s="1">
         <v>496.0</v>
@@ -27177,7 +27194,7 @@
     </row>
     <row r="527" ht="14.25" customHeight="1">
       <c r="A527" s="5" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B527" s="1">
         <v>1020.0</v>
@@ -27195,7 +27212,7 @@
     </row>
     <row r="528" ht="14.25" customHeight="1">
       <c r="A528" s="5" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B528" s="1">
         <v>221.0</v>
@@ -27214,7 +27231,7 @@
     </row>
     <row r="529" ht="14.25" customHeight="1">
       <c r="A529" s="5" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B529" s="1">
         <v>2789.0</v>
@@ -27234,7 +27251,7 @@
     </row>
     <row r="530" ht="14.25" customHeight="1">
       <c r="A530" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B530" s="1">
         <v>385.0</v>
@@ -27252,7 +27269,7 @@
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B531" s="1">
         <v>807.0</v>
@@ -27272,7 +27289,7 @@
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B532" s="1">
         <v>3508.0</v>
@@ -27290,7 +27307,7 @@
     </row>
     <row r="533" ht="14.25" customHeight="1">
       <c r="A533" s="5" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B533" s="1">
         <v>367.0</v>
@@ -27308,7 +27325,7 @@
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B534" s="1">
         <v>107.0</v>
@@ -27327,7 +27344,7 @@
     </row>
     <row r="535" ht="14.25" customHeight="1">
       <c r="A535" s="5" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B535" s="1">
         <v>7733.0</v>
@@ -27345,7 +27362,7 @@
     </row>
     <row r="536" ht="14.25" customHeight="1">
       <c r="A536" s="5" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B536" s="1">
         <v>1039.0</v>
@@ -27363,7 +27380,7 @@
     </row>
     <row r="537" ht="14.25" customHeight="1">
       <c r="A537" s="5" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B537" s="1">
         <v>1307.0</v>
@@ -27375,7 +27392,7 @@
         <v>36.0</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F537" s="3">
         <v>1.0</v>
@@ -27386,7 +27403,7 @@
     </row>
     <row r="538" ht="14.25" customHeight="1">
       <c r="A538" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B538" s="1">
         <v>30815.0</v>
@@ -27404,7 +27421,7 @@
     </row>
     <row r="539" ht="14.25" customHeight="1">
       <c r="A539" s="5" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B539" s="1">
         <v>60.0</v>
@@ -27423,7 +27440,7 @@
     </row>
     <row r="540" ht="14.25" customHeight="1">
       <c r="A540" s="5" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B540" s="1">
         <v>862.0</v>
@@ -27441,7 +27458,7 @@
     </row>
     <row r="541" ht="14.25" customHeight="1">
       <c r="A541" s="5" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B541" s="1">
         <v>226.0</v>
@@ -27459,7 +27476,7 @@
     </row>
     <row r="542" ht="14.25" customHeight="1">
       <c r="A542" s="5" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B542" s="1">
         <v>1283.0</v>
@@ -27477,7 +27494,7 @@
     </row>
     <row r="543" ht="14.25" customHeight="1">
       <c r="A543" s="5" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B543" s="1">
         <v>793.0</v>
@@ -27492,7 +27509,7 @@
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B544" s="1">
         <v>113.0</v>
@@ -27510,7 +27527,7 @@
     </row>
     <row r="545" ht="14.25" customHeight="1">
       <c r="A545" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B545" s="1">
         <v>18.0</v>
@@ -27529,7 +27546,7 @@
     </row>
     <row r="546" ht="14.25" customHeight="1">
       <c r="A546" s="5" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B546" s="1">
         <v>1324.0</v>
@@ -27547,7 +27564,7 @@
     </row>
     <row r="547" ht="14.25" customHeight="1">
       <c r="A547" s="5" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B547" s="1">
         <v>144.0</v>
@@ -27565,7 +27582,7 @@
     </row>
     <row r="548" ht="14.25" customHeight="1">
       <c r="A548" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B548" s="1">
         <v>21806.0</v>
@@ -27583,7 +27600,7 @@
     </row>
     <row r="549" ht="14.25" customHeight="1">
       <c r="A549" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B549" s="1">
         <v>17481.0</v>
@@ -27601,7 +27618,7 @@
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B550" s="1">
         <v>1774.0</v>
@@ -27613,7 +27630,7 @@
         <v>22.0</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G550" s="3">
         <v>1.0</v>
@@ -27621,7 +27638,7 @@
     </row>
     <row r="551" ht="14.25" customHeight="1">
       <c r="A551" s="5" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B551" s="1">
         <v>2817.0</v>
@@ -27633,7 +27650,7 @@
         <v>27.0</v>
       </c>
       <c r="E551" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G551" s="3">
         <v>1.0</v>
@@ -27659,7 +27676,7 @@
     </row>
     <row r="553" ht="14.25" customHeight="1">
       <c r="A553" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B553" s="1">
         <v>100.0</v>
@@ -27678,7 +27695,7 @@
     </row>
     <row r="554" ht="14.25" customHeight="1">
       <c r="A554" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B554" s="1">
         <v>106.0</v>
@@ -27694,7 +27711,7 @@
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B555" s="1">
         <v>289999.0</v>
@@ -27712,7 +27729,7 @@
     </row>
     <row r="556" ht="14.25" customHeight="1">
       <c r="A556" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B556" s="1">
         <v>107.0</v>
@@ -27727,7 +27744,7 @@
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B557" s="1">
         <v>1196.0</v>
@@ -27748,7 +27765,7 @@
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B558" s="1">
         <v>451.0</v>
@@ -27763,7 +27780,7 @@
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B559" s="1">
         <v>4858.0</v>
@@ -27781,7 +27798,7 @@
     </row>
     <row r="560" ht="14.25" customHeight="1">
       <c r="A560" s="5" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B560" s="1">
         <v>8078.0</v>
@@ -27799,7 +27816,7 @@
     </row>
     <row r="561" ht="14.25" customHeight="1">
       <c r="A561" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B561" s="1">
         <v>835.0</v>
@@ -27814,7 +27831,7 @@
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B562" s="1">
         <v>367.0</v>
@@ -27832,7 +27849,7 @@
     </row>
     <row r="563" ht="14.25" customHeight="1">
       <c r="A563" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B563" s="1">
         <v>130.0</v>
@@ -27852,7 +27869,7 @@
     </row>
     <row r="564" ht="14.25" customHeight="1">
       <c r="A564" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B564" s="1">
         <v>3357.0</v>
@@ -27873,7 +27890,7 @@
     </row>
     <row r="565" ht="14.25" customHeight="1">
       <c r="A565" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B565" s="1">
         <v>127.0</v>
@@ -27892,7 +27909,7 @@
     </row>
     <row r="566" ht="14.25" customHeight="1">
       <c r="A566" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B566" s="1">
         <v>5378.0</v>
@@ -27910,7 +27927,7 @@
     </row>
     <row r="567" ht="14.25" customHeight="1">
       <c r="A567" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B567" s="1">
         <v>1561.0</v>
@@ -27928,7 +27945,7 @@
     </row>
     <row r="568" ht="14.25" customHeight="1">
       <c r="A568" s="5" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B568" s="1">
         <v>5254.0</v>
@@ -27943,7 +27960,7 @@
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B569" s="1">
         <v>15736.0</v>
@@ -27958,7 +27975,7 @@
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B570" s="1">
         <v>5368.0</v>
@@ -27970,7 +27987,7 @@
         <v>724.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>646</v>
+        <v>784</v>
       </c>
       <c r="G570" s="3">
         <v>1.0</v>
@@ -27978,7 +27995,7 @@
     </row>
     <row r="571" ht="14.25" customHeight="1">
       <c r="A571" s="5" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B571" s="1">
         <v>1307.0</v>
@@ -27993,7 +28010,7 @@
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B572" s="1">
         <v>579.0</v>
@@ -28011,7 +28028,7 @@
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B573" s="1">
         <v>378.0</v>
@@ -28027,7 +28044,7 @@
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B574" s="1">
         <v>23.0</v>
@@ -28042,7 +28059,7 @@
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B575" s="1">
         <v>854.0</v>
@@ -28062,7 +28079,7 @@
     </row>
     <row r="576" ht="14.25" customHeight="1">
       <c r="A576" s="5" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B576" s="1">
         <v>208.0</v>
@@ -28082,7 +28099,7 @@
     </row>
     <row r="577" ht="14.25" customHeight="1">
       <c r="A577" s="5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B577" s="1">
         <v>326.0</v>
@@ -28097,7 +28114,7 @@
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B578" s="1">
         <v>1020.0</v>
@@ -28109,7 +28126,7 @@
         <v>19.0</v>
       </c>
       <c r="E578" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G578" s="3">
         <v>1.0</v>
@@ -28117,7 +28134,7 @@
     </row>
     <row r="579" ht="14.25" customHeight="1">
       <c r="A579" s="5" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B579" s="1">
         <v>1434.0</v>
@@ -28135,7 +28152,7 @@
     </row>
     <row r="580" ht="14.25" customHeight="1">
       <c r="A580" s="5" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B580" s="1">
         <v>2481.0</v>
@@ -28150,7 +28167,7 @@
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B581" s="1">
         <v>409.0</v>
@@ -28168,7 +28185,7 @@
     </row>
     <row r="582" ht="14.25" customHeight="1">
       <c r="A582" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B582" s="1">
         <v>1646.0</v>
@@ -28183,7 +28200,7 @@
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B583" s="1">
         <v>713.0</v>
@@ -28219,7 +28236,7 @@
     </row>
     <row r="585" ht="14.25" customHeight="1">
       <c r="A585" s="5" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B585" s="1">
         <v>882.0</v>
@@ -28240,7 +28257,7 @@
     </row>
     <row r="586" ht="14.25" customHeight="1">
       <c r="A586" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B586" s="1">
         <v>157.0</v>
@@ -28256,7 +28273,7 @@
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B587" s="1">
         <v>899.0</v>
@@ -28274,7 +28291,7 @@
     </row>
     <row r="588" ht="14.25" customHeight="1">
       <c r="A588" s="5" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B588" s="1">
         <v>193.0</v>
@@ -28293,7 +28310,7 @@
     </row>
     <row r="589" ht="14.25" customHeight="1">
       <c r="A589" s="5" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B589" s="1">
         <v>59833.0</v>
@@ -28311,7 +28328,7 @@
     </row>
     <row r="590" ht="14.25" customHeight="1">
       <c r="A590" s="5" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B590" s="1">
         <v>397.0</v>
@@ -28329,7 +28346,7 @@
     </row>
     <row r="591" ht="14.25" customHeight="1">
       <c r="A591" s="5" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B591" s="1">
         <v>4878.0</v>
@@ -28350,7 +28367,7 @@
     </row>
     <row r="592" ht="14.25" customHeight="1">
       <c r="A592" s="5" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B592" s="1">
         <v>4894.0</v>
@@ -28362,7 +28379,7 @@
         <v>90.0</v>
       </c>
       <c r="E592" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F592" s="3">
         <v>1.0</v>
@@ -28370,7 +28387,7 @@
     </row>
     <row r="593" ht="14.25" customHeight="1">
       <c r="A593" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B593" s="1">
         <v>140.0</v>
@@ -28389,7 +28406,7 @@
     </row>
     <row r="594" ht="14.25" customHeight="1">
       <c r="A594" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B594" s="1">
         <v>37.0</v>
@@ -28408,7 +28425,7 @@
     </row>
     <row r="595" ht="14.25" customHeight="1">
       <c r="A595" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B595" s="1">
         <v>470.0</v>
@@ -28428,7 +28445,7 @@
     </row>
     <row r="596" ht="14.25" customHeight="1">
       <c r="A596" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B596" s="1">
         <v>265635.0</v>
@@ -28443,7 +28460,7 @@
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B597" s="1">
         <v>287.0</v>
@@ -28462,7 +28479,7 @@
     </row>
     <row r="598" ht="14.25" customHeight="1">
       <c r="A598" s="5" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B598" s="1">
         <v>425.0</v>
@@ -28480,7 +28497,7 @@
     </row>
     <row r="599" ht="14.25" customHeight="1">
       <c r="A599" s="5" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B599" s="1">
         <v>201.0</v>
@@ -28500,7 +28517,7 @@
     </row>
     <row r="600" ht="14.25" customHeight="1">
       <c r="A600" s="5" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B600" s="1">
         <v>62.0</v>
@@ -28519,7 +28536,7 @@
     </row>
     <row r="601" ht="14.25" customHeight="1">
       <c r="A601" s="5" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B601" s="1">
         <v>621.0</v>
@@ -28537,7 +28554,7 @@
     </row>
     <row r="602" ht="14.25" customHeight="1">
       <c r="A602" s="5" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B602" s="1">
         <v>287.0</v>
@@ -29098,7 +29115,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="84" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B2" s="84">
         <v>164.0</v>
@@ -29112,7 +29129,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="84" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B3" s="84">
         <v>2246.0</v>
@@ -29126,7 +29143,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="84" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B4" s="84">
         <v>2231.0</v>
@@ -29138,7 +29155,7 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="84" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B5" s="84">
         <v>2216.0</v>
@@ -29150,7 +29167,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="87" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B6" s="84">
         <v>2215.0</v>
@@ -29203,7 +29220,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="84" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B11" s="84">
         <v>2203.0</v>
@@ -29218,7 +29235,7 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="84" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B12" s="84">
         <v>2193.0</v>
@@ -29248,7 +29265,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B14" s="84">
         <v>2190.0</v>
@@ -29262,13 +29279,13 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B15" s="84">
         <v>2188.0</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
@@ -29288,7 +29305,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="87" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B17" s="84">
         <v>2178.0</v>
@@ -29300,7 +29317,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="84" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B18" s="84">
         <v>2174.0</v>
@@ -29313,7 +29330,7 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="84" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B19" s="84">
         <v>2171.0</v>
@@ -29361,13 +29378,13 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B23" s="84">
         <v>2162.0</v>
       </c>
       <c r="C23" s="85" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D23" s="3">
         <v>1.0</v>
@@ -29387,7 +29404,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="87" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B25" s="84">
         <v>2155.0</v>
@@ -29414,7 +29431,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="84" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B27" s="84">
         <v>2152.0</v>
@@ -29426,7 +29443,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="84" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B28" s="84">
         <v>2138.0</v>
@@ -29450,7 +29467,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="84" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B30" s="84">
         <v>2133.0</v>
@@ -29476,7 +29493,7 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="87" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B32" s="84">
         <v>2129.0</v>
@@ -29488,7 +29505,7 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B33" s="84">
         <v>2127.0</v>
@@ -29560,7 +29577,7 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B39" s="84">
         <v>2088.0</v>
@@ -29611,7 +29628,7 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="84" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B43" s="84">
         <v>1995.0</v>
@@ -29623,7 +29640,7 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="87" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B44" s="84">
         <v>1948.0</v>
@@ -29638,19 +29655,19 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="84" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B45" s="84">
         <v>1920.0</v>
       </c>
       <c r="C45" s="86"/>
-      <c r="D45" s="3">
+      <c r="E45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="84" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B46" s="84">
         <v>1902.0</v>
@@ -29662,7 +29679,7 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="87" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B47" s="84">
         <v>1877.0</v>
@@ -29674,7 +29691,7 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="84" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B48" s="84">
         <v>1869.0</v>
@@ -29686,7 +29703,7 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="84" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B49" s="84">
         <v>1831.0</v>
@@ -29701,7 +29718,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="87" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B50" s="84">
         <v>1784.0</v>
@@ -29761,7 +29778,7 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="84" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B55" s="84">
         <v>1640.0</v>
@@ -29773,7 +29790,7 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="87" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B56" s="84">
         <v>1639.0</v>
@@ -29824,7 +29841,7 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="84" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B60" s="84">
         <v>1482.0</v>
@@ -29836,7 +29853,7 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="84" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B61" s="84">
         <v>1383.0</v>
@@ -29872,7 +29889,7 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="84" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B64" s="84">
         <v>1287.0</v>
@@ -29884,7 +29901,7 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="84" t="s">
-        <v>798</v>
+        <v>490</v>
       </c>
       <c r="B65" s="84">
         <v>1273.0</v>
@@ -29908,7 +29925,7 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="87" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B67" s="84">
         <v>1247.0</v>
@@ -29920,7 +29937,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="89" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B68" s="84">
         <v>1227.0</v>
@@ -29944,13 +29961,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="84" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B70" s="84">
         <v>1164.0</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
@@ -29958,21 +29975,18 @@
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="87" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B71" s="84">
         <v>1130.0</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>802</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1.0</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="84" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B72" s="84">
         <v>1129.0</v>
@@ -29987,13 +30001,13 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="84" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B73" s="84">
         <v>1124.0</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G73" s="3">
         <v>1.0</v>
@@ -30013,19 +30027,21 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="84" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B75" s="84">
         <v>1097.0</v>
       </c>
-      <c r="C75" s="86"/>
+      <c r="C75" s="85" t="s">
+        <v>396</v>
+      </c>
       <c r="D75" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="87" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B76" s="84">
         <v>1089.0</v>
@@ -30037,7 +30053,7 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="84" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B77" s="84">
         <v>1075.0</v>
@@ -30049,7 +30065,7 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="84" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="84">
         <v>1033.0</v>
@@ -30061,7 +30077,7 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="84" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B79" s="84">
         <v>991.0</v>
@@ -30073,7 +30089,7 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="87" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B80" s="84">
         <v>978.0</v>
@@ -30111,7 +30127,7 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="84" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B83" s="84">
         <v>921.0</v>
@@ -30137,13 +30153,13 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="84" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B85" s="84">
         <v>892.0</v>
       </c>
       <c r="C85" s="85" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G85" s="3">
         <v>1.0</v>
@@ -30151,7 +30167,7 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B86" s="84">
         <v>863.0</v>
@@ -30175,7 +30191,7 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="84" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B88" s="84">
         <v>831.0</v>
@@ -30187,7 +30203,7 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="84" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B89" s="84">
         <v>804.0</v>
@@ -30199,7 +30215,7 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="87" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B90" s="84">
         <v>801.0</v>
@@ -30226,7 +30242,7 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="87" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B92" s="84">
         <v>772.0</v>
@@ -30238,13 +30254,13 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="84" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B93" s="84">
         <v>770.0</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E93" s="19"/>
       <c r="H93" s="3">
@@ -30253,7 +30269,7 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="84" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B94" s="84">
         <v>739.0</v>
@@ -30277,25 +30293,27 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="84" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B96" s="84">
         <v>732.0</v>
       </c>
-      <c r="C96" s="86"/>
+      <c r="C96" s="85" t="s">
+        <v>186</v>
+      </c>
       <c r="D96" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="87" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B97" s="84">
         <v>727.0</v>
       </c>
       <c r="C97" s="85" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E97" s="3">
         <v>1.0</v>
@@ -30303,7 +30321,7 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="84" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B98" s="84">
         <v>719.0</v>
@@ -30333,7 +30351,7 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="87" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B100" s="84">
         <v>696.0</v>
@@ -30345,7 +30363,7 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="87" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B101" s="84">
         <v>695.0</v>
@@ -30369,7 +30387,7 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="87" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B103" s="84">
         <v>653.0</v>
@@ -30393,7 +30411,7 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="87" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B105" s="84">
         <v>598.0</v>
@@ -30405,19 +30423,21 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="87" t="s">
-        <v>747</v>
+        <v>815</v>
       </c>
       <c r="B106" s="84">
         <v>588.0</v>
       </c>
-      <c r="C106" s="86"/>
+      <c r="C106" s="85" t="s">
+        <v>749</v>
+      </c>
       <c r="J106" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="89" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B107" s="84">
         <v>588.0</v>
@@ -30429,7 +30449,7 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="87" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B108" s="84">
         <v>565.0</v>
@@ -30444,13 +30464,13 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="87" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B109" s="84">
         <v>561.0</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D109" s="3">
         <v>1.0</v>
@@ -30461,7 +30481,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="84" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B110" s="84">
         <v>546.0</v>
@@ -30473,13 +30493,13 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="84" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B111" s="84">
         <v>502.0</v>
       </c>
       <c r="C111" s="85" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D111" s="3">
         <v>1.0</v>
@@ -30487,15 +30507,12 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="87" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B112" s="84">
         <v>480.0</v>
       </c>
       <c r="C112" s="86"/>
-      <c r="D112" s="3">
-        <v>1.0</v>
-      </c>
       <c r="E112" s="3">
         <v>1.0</v>
       </c>
@@ -30511,13 +30528,13 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="84" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B114" s="84">
         <v>432.0</v>
       </c>
       <c r="C114" s="85" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D114" s="3">
         <v>1.0</v>
@@ -30525,7 +30542,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="84" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B115" s="84">
         <v>424.0</v>
@@ -30539,13 +30556,13 @@
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B116" s="84">
         <v>418.0</v>
       </c>
       <c r="C116" s="85" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D116" s="3">
         <v>1.0</v>
@@ -30553,13 +30570,13 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="87" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B117" s="84">
         <v>405.0</v>
       </c>
       <c r="C117" s="85" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D117" s="3">
         <v>1.0</v>
@@ -30594,7 +30611,7 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="84" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B120" s="84">
         <v>379.0</v>
@@ -30606,7 +30623,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="84" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B121" s="84">
         <v>359.0</v>
@@ -30618,15 +30635,12 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="84" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B122" s="84">
         <v>353.0</v>
       </c>
       <c r="C122" s="86"/>
-      <c r="D122" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="84" t="s">
@@ -30642,12 +30656,14 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="84" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B124" s="84">
         <v>344.0</v>
       </c>
-      <c r="C124" s="86"/>
+      <c r="C124" s="85" t="s">
+        <v>132</v>
+      </c>
       <c r="D124" s="3">
         <v>1.0</v>
       </c>
@@ -30666,7 +30682,7 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="84" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B126" s="84">
         <v>309.0</v>
@@ -30692,7 +30708,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="84" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B128" s="84">
         <v>279.0</v>
@@ -30710,7 +30726,7 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="84" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B129" s="84">
         <v>278.0</v>
@@ -30725,7 +30741,7 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="84" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B130" s="84">
         <v>276.0</v>
@@ -30754,7 +30770,7 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="84" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B132" s="84">
         <v>264.0</v>
@@ -30778,7 +30794,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="84" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B134" s="84">
         <v>250.0</v>
@@ -30796,19 +30812,22 @@
         <v>247.0</v>
       </c>
       <c r="C135" s="86"/>
+      <c r="D135" s="3">
+        <v>1.0</v>
+      </c>
       <c r="E135" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="84" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B136" s="84">
         <v>229.0</v>
       </c>
       <c r="C136" s="85" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D136" s="3">
         <v>1.0</v>
@@ -30816,7 +30835,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="84" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B137" s="84">
         <v>226.0</v>
@@ -30891,7 +30910,7 @@
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="84" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B143" s="84">
         <v>151.0</v>
@@ -30927,7 +30946,7 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="84" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B146" s="84">
         <v>125.0</v>
@@ -30939,7 +30958,7 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="84" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B147" s="84">
         <v>90.0</v>
@@ -30966,7 +30985,7 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="84" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B149" s="84">
         <v>26.0</v>
@@ -30992,7 +31011,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="84" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B151" s="84">
         <v>34.0</v>
@@ -31004,7 +31023,7 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="84" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B152" s="84">
         <v>35.0</v>
@@ -31016,22 +31035,19 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="84" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B153" s="84">
         <v>61.0</v>
       </c>
       <c r="C153" s="86"/>
-      <c r="D153" s="3">
-        <v>1.0</v>
-      </c>
       <c r="E153" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="84" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B154" s="84">
         <v>59.0</v>
@@ -31043,7 +31059,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="84" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B155" s="84">
         <v>74.0</v>
@@ -31977,7 +31993,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32017,7 +32033,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F6" s="3">
         <v>1.0</v>
@@ -32041,7 +32057,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>308</v>
@@ -32052,7 +32068,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>328</v>
@@ -32063,7 +32079,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>308</v>
@@ -32074,7 +32090,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>328</v>
@@ -32093,7 +32109,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F14" s="3">
         <v>1.0</v>
@@ -32109,7 +32125,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>312</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjZELlQpS/a0bcCQmRNQOEZ4qE40g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjTJTpMcOKzEw7WREjYE1EGp8jBCw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="851">
   <si>
     <t>class</t>
   </si>
@@ -2328,15 +2328,18 @@
     <t>chain: 4</t>
   </si>
   <si>
+    <t>cone</t>
+  </si>
+  <si>
     <t>diaper: 2</t>
   </si>
   <si>
+    <t>nail: 4 ( negle</t>
+  </si>
+  <si>
     <t>i alt nye</t>
   </si>
   <si>
-    <t>nail: 4 ( negle</t>
-  </si>
-  <si>
     <t>purse: 4</t>
   </si>
   <si>
@@ -2361,156 +2364,150 @@
     <t>Grass</t>
   </si>
   <si>
+    <t>doorknob</t>
+  </si>
+  <si>
+    <t>life jacket</t>
+  </si>
+  <si>
+    <t>salt shaker</t>
+  </si>
+  <si>
+    <t>alarm clock</t>
+  </si>
+  <si>
+    <t>tennis racket</t>
+  </si>
+  <si>
+    <t>Sofa</t>
+  </si>
+  <si>
+    <t>glass (drink container)</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>faucet</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>earring</t>
+  </si>
+  <si>
+    <t>License plate</t>
+  </si>
+  <si>
+    <t>Frisbee</t>
+  </si>
+  <si>
+    <t>Kite</t>
+  </si>
+  <si>
+    <t>Ring</t>
+  </si>
+  <si>
+    <t>plastic bag</t>
+  </si>
+  <si>
+    <t>wet suit</t>
+  </si>
+  <si>
+    <t>tennis ball</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>tank top (clothing)</t>
+  </si>
+  <si>
+    <t>toilet tissue</t>
+  </si>
+  <si>
+    <t>toilet paper</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>sandal (type of shoe)</t>
+  </si>
+  <si>
+    <t>microwave oven</t>
+  </si>
+  <si>
+    <t>lightbulb</t>
+  </si>
+  <si>
+    <t>orange (fruit)</t>
+  </si>
+  <si>
+    <t>swimsuit</t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>chopping board</t>
+  </si>
+  <si>
+    <t>statue (sculpture)</t>
+  </si>
+  <si>
+    <t>saddle (on an animal)</t>
+  </si>
+  <si>
+    <t>bow (decorative ribbons)</t>
+  </si>
+  <si>
+    <t>bow</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>shower head</t>
+  </si>
+  <si>
+    <t>shower curtain</t>
+  </si>
+  <si>
+    <t>bath towel</t>
+  </si>
+  <si>
+    <t>bell pepper</t>
+  </si>
+  <si>
+    <t>pitcher (vessel for liquid)</t>
+  </si>
+  <si>
+    <t>crate</t>
+  </si>
+  <si>
+    <t>pan (for cooking)</t>
+  </si>
+  <si>
     <t>coffee maker</t>
   </si>
   <si>
-    <t>doorknob</t>
+    <t>hand towel</t>
   </si>
   <si>
     <t>egg</t>
   </si>
   <si>
-    <t>lightbulb</t>
-  </si>
-  <si>
-    <t>salt shaker</t>
-  </si>
-  <si>
-    <t>vehicle registration plate</t>
-  </si>
-  <si>
-    <t>alarm clock</t>
-  </si>
-  <si>
-    <t>tennis racket</t>
-  </si>
-  <si>
-    <t>Sofa</t>
-  </si>
-  <si>
-    <t>glass (drink container)</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>faucet</t>
-  </si>
-  <si>
-    <t>Toilet</t>
-  </si>
-  <si>
-    <t>earring</t>
-  </si>
-  <si>
-    <t>License plate</t>
-  </si>
-  <si>
-    <t>Frisbee</t>
-  </si>
-  <si>
-    <t>Kite</t>
-  </si>
-  <si>
-    <t>Ring</t>
-  </si>
-  <si>
-    <t>plastic bag</t>
-  </si>
-  <si>
-    <t>wet suit</t>
-  </si>
-  <si>
-    <t>tennis ball</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>tank top (clothing)</t>
-  </si>
-  <si>
-    <t>toilet tissue</t>
-  </si>
-  <si>
-    <t>toilet paper</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>cone</t>
-  </si>
-  <si>
-    <t>sandal (type of shoe)</t>
-  </si>
-  <si>
-    <t>microwave oven</t>
-  </si>
-  <si>
-    <t>orange (fruit)</t>
-  </si>
-  <si>
-    <t>swimsuit</t>
-  </si>
-  <si>
-    <t>vest</t>
-  </si>
-  <si>
-    <t>lettuce</t>
-  </si>
-  <si>
-    <t>onion</t>
-  </si>
-  <si>
-    <t>chopping board</t>
-  </si>
-  <si>
-    <t>statue (sculpture)</t>
-  </si>
-  <si>
-    <t>saddle (on an animal)</t>
-  </si>
-  <si>
-    <t>bow (decorative ribbons)</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>shower head</t>
-  </si>
-  <si>
-    <t>shower curtain</t>
-  </si>
-  <si>
-    <t>bath towel</t>
-  </si>
-  <si>
-    <t>bell pepper</t>
-  </si>
-  <si>
-    <t>pitcher (vessel for liquid)</t>
-  </si>
-  <si>
-    <t>crate</t>
-  </si>
-  <si>
-    <t>pan (for cooking)</t>
-  </si>
-  <si>
-    <t>life jacket</t>
-  </si>
-  <si>
-    <t>hand towel</t>
-  </si>
-  <si>
     <t>sweet potato</t>
   </si>
   <si>
@@ -2523,16 +2520,58 @@
     <t>musik</t>
   </si>
   <si>
-    <t>lower arm</t>
-  </si>
-  <si>
-    <t>lower leg</t>
-  </si>
-  <si>
-    <t>upper arm</t>
-  </si>
-  <si>
-    <t>upper leg</t>
+    <t>lear</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>reye</t>
+  </si>
+  <si>
+    <t>leye</t>
+  </si>
+  <si>
+    <t>rebrow</t>
+  </si>
+  <si>
+    <t>lebrow</t>
+  </si>
+  <si>
+    <t>rfoot</t>
+  </si>
+  <si>
+    <t>lfoot</t>
+  </si>
+  <si>
+    <t>rhand</t>
+  </si>
+  <si>
+    <t>lhand</t>
+  </si>
+  <si>
+    <t>llarm</t>
+  </si>
+  <si>
+    <t>rlarm</t>
+  </si>
+  <si>
+    <t>ruleg</t>
+  </si>
+  <si>
+    <t>luleg</t>
+  </si>
+  <si>
+    <t>rlleg</t>
+  </si>
+  <si>
+    <t>llleg</t>
+  </si>
+  <si>
+    <t>luarm</t>
+  </si>
+  <si>
+    <t>ruarm</t>
   </si>
   <si>
     <t>torso</t>
@@ -2877,6 +2916,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -3031,9 +3073,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -3636,9 +3675,7 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="K10" s="7"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -15572,7 +15609,7 @@
         <v>682</v>
       </c>
       <c r="F604" s="19">
-        <f t="shared" ref="F604:L604" si="1">SUM(F2:F602)</f>
+        <f t="shared" ref="F604:J604" si="1">SUM(F2:F602)</f>
         <v>125</v>
       </c>
       <c r="G604" s="19">
@@ -15592,19 +15629,19 @@
         <v>64</v>
       </c>
       <c r="K604" s="19">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f>SUM(K2:K601)</f>
+        <v>92</v>
       </c>
       <c r="L604" s="19">
-        <f t="shared" si="1"/>
+        <f>SUM(L2:L602)</f>
         <v>32</v>
       </c>
       <c r="M604" s="3" t="s">
         <v>683</v>
       </c>
       <c r="N604" s="19">
-        <f t="shared" ref="N604:N605" si="2">SUM(F604:L604)</f>
-        <v>453</v>
+        <f t="shared" ref="N604:N606" si="2">SUM(F604:L604)</f>
+        <v>452</v>
       </c>
       <c r="O604" s="11"/>
     </row>
@@ -15615,8 +15652,8 @@
       <c r="F605" s="3">
         <v>8.0</v>
       </c>
-      <c r="G605" s="3">
-        <v>10.0</v>
+      <c r="G605" s="20">
+        <v>11.0</v>
       </c>
       <c r="H605" s="3">
         <v>2.0</v>
@@ -15638,32 +15675,53 @@
       </c>
       <c r="N605" s="3">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O605" s="11"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
       <c r="E606" s="19"/>
-      <c r="F606" s="19"/>
-      <c r="G606" s="19"/>
-      <c r="H606" s="19"/>
-      <c r="I606" s="19"/>
-      <c r="J606" s="19"/>
-      <c r="K606" s="19"/>
-      <c r="L606" s="19"/>
-      <c r="M606" s="20" t="s">
+      <c r="F606" s="19">
+        <f t="shared" ref="F606:L606" si="3">SUM(F604:F605)</f>
+        <v>133</v>
+      </c>
+      <c r="G606" s="19">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="H606" s="19">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I606" s="19">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="J606" s="19">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="K606" s="19">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="L606" s="19">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="M606" s="21" t="s">
         <v>683</v>
       </c>
       <c r="N606" s="19">
-        <f>SUM(N604:N605)</f>
+        <f t="shared" si="2"/>
         <v>492</v>
       </c>
       <c r="O606" s="11"/>
-      <c r="P606" s="21">
+      <c r="P606" s="22">
         <f>SUM(P2:P603)</f>
         <v>33</v>
       </c>
-      <c r="Q606" s="21">
+      <c r="Q606" s="22">
         <f>SUM(Q2:Q601)</f>
         <v>111</v>
       </c>
@@ -15675,86 +15733,86 @@
       <c r="O608" s="11"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="22" t="s">
+      <c r="A609" s="23" t="s">
         <v>685</v>
       </c>
       <c r="D609" s="10"/>
-      <c r="E609" s="23" t="s">
+      <c r="E609" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="H609" s="24" t="s">
+      <c r="H609" s="25" t="s">
         <v>687</v>
       </c>
-      <c r="I609" s="25" t="s">
+      <c r="I609" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="J609" s="24" t="s">
+      <c r="J609" s="25" t="s">
         <v>689</v>
       </c>
-      <c r="K609" s="24"/>
-      <c r="L609" s="24"/>
-      <c r="M609" s="26"/>
-      <c r="N609" s="24" t="s">
+      <c r="K609" s="25"/>
+      <c r="L609" s="25"/>
+      <c r="M609" s="27"/>
+      <c r="N609" s="25" t="s">
         <v>689</v>
       </c>
       <c r="O609" s="4"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="27" t="s">
+      <c r="A610" s="28" t="s">
         <v>690</v>
       </c>
       <c r="B610" s="3">
         <v>1.0</v>
       </c>
-      <c r="D610" s="28"/>
+      <c r="D610" s="29"/>
       <c r="E610" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="H610" s="24" t="s">
+      <c r="H610" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="I610" s="24"/>
-      <c r="J610" s="29"/>
-      <c r="K610" s="30" t="s">
+      <c r="I610" s="25"/>
+      <c r="J610" s="30"/>
+      <c r="K610" s="31" t="s">
         <v>693</v>
       </c>
-      <c r="L610" s="31" t="s">
+      <c r="L610" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="M610" s="32" t="s">
+      <c r="M610" s="33" t="s">
         <v>695</v>
       </c>
-      <c r="N610" s="29"/>
+      <c r="N610" s="30"/>
       <c r="O610" s="4"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="33" t="s">
+      <c r="A611" s="34" t="s">
         <v>696</v>
       </c>
       <c r="B611" s="3">
         <v>1.0</v>
       </c>
-      <c r="D611" s="34"/>
+      <c r="D611" s="35"/>
       <c r="E611" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H611" s="35">
+      <c r="H611" s="36">
         <v>0.0</v>
       </c>
-      <c r="I611" s="36" t="s">
+      <c r="I611" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="J611" s="37" t="s">
+      <c r="J611" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="K611" s="38"/>
-      <c r="L611" s="38"/>
-      <c r="M611" s="38"/>
-      <c r="N611" s="38"/>
+      <c r="K611" s="39"/>
+      <c r="L611" s="39"/>
+      <c r="M611" s="39"/>
+      <c r="N611" s="39"/>
       <c r="O611" s="4"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="A612" s="33" t="s">
+      <c r="A612" s="34" t="s">
         <v>699</v>
       </c>
       <c r="B612" s="3">
@@ -15763,27 +15821,27 @@
       <c r="E612" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H612" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="I612" s="36" t="s">
+      <c r="H612" s="36">
+        <v>1.0</v>
+      </c>
+      <c r="I612" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="J612" s="39" t="s">
+      <c r="J612" s="40" t="s">
         <v>701</v>
       </c>
-      <c r="K612" s="40"/>
-      <c r="L612" s="41" t="s">
+      <c r="K612" s="41"/>
+      <c r="L612" s="42" t="s">
         <v>702</v>
       </c>
-      <c r="M612" s="40" t="s">
+      <c r="M612" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="N612" s="42"/>
+      <c r="N612" s="43"/>
       <c r="O612" s="4"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="33" t="s">
+      <c r="A613" s="34" t="s">
         <v>703</v>
       </c>
       <c r="B613" s="3">
@@ -15792,27 +15850,27 @@
       <c r="E613" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="H613" s="35">
+      <c r="H613" s="36">
         <v>2.0</v>
       </c>
-      <c r="I613" s="36" t="s">
+      <c r="I613" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="J613" s="43" t="s">
+      <c r="J613" s="44" t="s">
         <v>705</v>
       </c>
-      <c r="K613" s="38"/>
-      <c r="L613" s="38"/>
-      <c r="M613" s="44" t="s">
+      <c r="K613" s="39"/>
+      <c r="L613" s="39"/>
+      <c r="M613" s="45" t="s">
         <v>706</v>
       </c>
-      <c r="N613" s="45" t="s">
+      <c r="N613" s="46" t="s">
         <v>707</v>
       </c>
       <c r="O613" s="4"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="33" t="s">
+      <c r="A614" s="34" t="s">
         <v>708</v>
       </c>
       <c r="B614" s="3">
@@ -15821,23 +15879,23 @@
       <c r="E614" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="H614" s="35">
+      <c r="H614" s="36">
         <v>3.0</v>
       </c>
-      <c r="I614" s="36" t="s">
+      <c r="I614" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="J614" s="41" t="s">
+      <c r="J614" s="42" t="s">
         <v>711</v>
       </c>
-      <c r="K614" s="40"/>
-      <c r="L614" s="40"/>
-      <c r="M614" s="40"/>
-      <c r="N614" s="40"/>
+      <c r="K614" s="41"/>
+      <c r="L614" s="41"/>
+      <c r="M614" s="41"/>
+      <c r="N614" s="41"/>
       <c r="O614" s="4"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="A615" s="46" t="s">
+      <c r="A615" s="47" t="s">
         <v>203</v>
       </c>
       <c r="B615" s="3">
@@ -15846,81 +15904,81 @@
       <c r="E615" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="H615" s="35">
+      <c r="H615" s="36">
         <v>4.0</v>
       </c>
-      <c r="I615" s="36" t="s">
+      <c r="I615" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="J615" s="47" t="s">
+      <c r="J615" s="48" t="s">
         <v>714</v>
       </c>
-      <c r="K615" s="38"/>
-      <c r="L615" s="38"/>
-      <c r="M615" s="48" t="s">
+      <c r="K615" s="39"/>
+      <c r="L615" s="39"/>
+      <c r="M615" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="N615" s="38"/>
+      <c r="N615" s="39"/>
       <c r="O615" s="4"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="33" t="s">
+      <c r="A616" s="34" t="s">
         <v>715</v>
       </c>
       <c r="B616" s="3">
         <v>1.0</v>
       </c>
-      <c r="D616" s="49"/>
+      <c r="D616" s="50"/>
       <c r="E616" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="H616" s="35">
+      <c r="H616" s="36">
         <v>5.0</v>
       </c>
-      <c r="I616" s="36" t="s">
+      <c r="I616" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="J616" s="50" t="s">
+      <c r="J616" s="51" t="s">
         <v>718</v>
       </c>
-      <c r="K616" s="40"/>
-      <c r="L616" s="40"/>
-      <c r="M616" s="40" t="s">
+      <c r="K616" s="41"/>
+      <c r="L616" s="41"/>
+      <c r="M616" s="41" t="s">
         <v>689</v>
       </c>
-      <c r="N616" s="40"/>
+      <c r="N616" s="41"/>
       <c r="O616" s="4"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="51" t="s">
+      <c r="A617" s="52" t="s">
         <v>719</v>
       </c>
       <c r="B617" s="3">
         <v>1.0</v>
       </c>
-      <c r="D617" s="52"/>
+      <c r="D617" s="53"/>
       <c r="E617" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="H617" s="35">
+      <c r="H617" s="36">
         <v>6.0</v>
       </c>
-      <c r="I617" s="36" t="s">
+      <c r="I617" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="J617" s="37" t="s">
+      <c r="J617" s="38" t="s">
         <v>722</v>
       </c>
-      <c r="K617" s="38"/>
-      <c r="L617" s="38"/>
-      <c r="M617" s="48" t="s">
+      <c r="K617" s="39"/>
+      <c r="L617" s="39"/>
+      <c r="M617" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="N617" s="38"/>
+      <c r="N617" s="39"/>
       <c r="O617" s="4"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="33" t="s">
+      <c r="A618" s="34" t="s">
         <v>723</v>
       </c>
       <c r="B618" s="3">
@@ -15929,29 +15987,29 @@
       <c r="E618" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="H618" s="53" t="s">
+      <c r="H618" s="54" t="s">
         <v>725</v>
       </c>
-      <c r="I618" s="36" t="s">
+      <c r="I618" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="J618" s="54" t="s">
+      <c r="J618" s="55" t="s">
         <v>727</v>
       </c>
-      <c r="K618" s="40"/>
-      <c r="L618" s="40"/>
-      <c r="M618" s="40"/>
-      <c r="N618" s="40"/>
+      <c r="K618" s="41"/>
+      <c r="L618" s="41"/>
+      <c r="M618" s="41"/>
+      <c r="N618" s="41"/>
       <c r="O618" s="4"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="33" t="s">
+      <c r="A619" s="34" t="s">
         <v>728</v>
       </c>
       <c r="B619" s="3">
         <v>1.0</v>
       </c>
-      <c r="D619" s="55"/>
+      <c r="D619" s="56"/>
       <c r="E619" s="3" t="s">
         <v>729</v>
       </c>
@@ -15961,494 +16019,500 @@
       <c r="I619" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="J619" s="56" t="s">
+      <c r="J619" s="57" t="s">
         <v>731</v>
       </c>
       <c r="O619" s="4"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="33" t="s">
+      <c r="A620" s="34" t="s">
         <v>732</v>
       </c>
       <c r="B620" s="3">
         <v>1.0</v>
       </c>
-      <c r="D620" s="57"/>
+      <c r="D620" s="58"/>
       <c r="O620" s="4"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="33" t="s">
+      <c r="A621" s="34" t="s">
         <v>733</v>
       </c>
       <c r="B621" s="3">
         <v>1.0</v>
       </c>
-      <c r="D621" s="55"/>
+      <c r="D621" s="56"/>
       <c r="O621" s="4"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="A622" s="46" t="s">
+      <c r="A622" s="47" t="s">
         <v>734</v>
       </c>
       <c r="B622" s="3">
         <v>1.0</v>
       </c>
-      <c r="D622" s="57"/>
+      <c r="D622" s="58"/>
       <c r="O622" s="4"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="A623" s="33" t="s">
+      <c r="A623" s="34" t="s">
         <v>735</v>
       </c>
       <c r="B623" s="3">
         <v>1.0</v>
       </c>
-      <c r="D623" s="57"/>
+      <c r="D623" s="58"/>
       <c r="O623" s="4"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="A624" s="46" t="s">
+      <c r="A624" s="47" t="s">
         <v>736</v>
       </c>
       <c r="B624" s="3">
         <v>1.0</v>
       </c>
-      <c r="D624" s="57"/>
+      <c r="D624" s="58"/>
       <c r="O624" s="4"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="58" t="s">
+      <c r="A625" s="59" t="s">
         <v>737</v>
       </c>
       <c r="B625" s="3">
         <v>1.0</v>
       </c>
-      <c r="D625" s="59" t="s">
+      <c r="D625" s="60" t="s">
         <v>738</v>
       </c>
       <c r="O625" s="4"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="33" t="s">
+      <c r="A626" s="34" t="s">
         <v>739</v>
       </c>
       <c r="B626" s="3">
         <v>1.0</v>
       </c>
-      <c r="D626" s="60" t="s">
+      <c r="D626" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="E626" s="57"/>
+      <c r="E626" s="58"/>
       <c r="O626" s="4"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="A627" s="46" t="s">
+      <c r="A627" s="47" t="s">
         <v>741</v>
       </c>
       <c r="B627" s="3">
         <v>1.0</v>
       </c>
-      <c r="D627" s="61" t="s">
+      <c r="D627" s="62" t="s">
         <v>742</v>
       </c>
-      <c r="E627" s="57"/>
+      <c r="E627" s="58"/>
       <c r="O627" s="4"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="A628" s="46" t="s">
+      <c r="A628" s="47" t="s">
         <v>743</v>
       </c>
       <c r="B628" s="3">
         <v>1.0</v>
       </c>
-      <c r="D628" s="62" t="s">
+      <c r="D628" s="63" t="s">
         <v>744</v>
       </c>
-      <c r="E628" s="57"/>
+      <c r="E628" s="58"/>
       <c r="O628" s="4"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="A629" s="33" t="s">
+      <c r="A629" s="34" t="s">
         <v>745</v>
       </c>
       <c r="B629" s="3">
         <v>1.0</v>
       </c>
-      <c r="D629" s="57" t="s">
+      <c r="D629" s="58" t="s">
         <v>746</v>
       </c>
-      <c r="E629" s="57"/>
+      <c r="E629" s="58"/>
       <c r="O629" s="4"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="A630" s="33" t="s">
+      <c r="A630" s="34" t="s">
         <v>747</v>
       </c>
       <c r="B630" s="3">
         <v>1.0</v>
       </c>
-      <c r="D630" s="57" t="s">
+      <c r="D630" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="E630" s="57"/>
+      <c r="E630" s="58"/>
       <c r="O630" s="4"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="33" t="s">
+      <c r="A631" s="34" t="s">
         <v>749</v>
       </c>
       <c r="B631" s="3">
         <v>1.0</v>
       </c>
-      <c r="D631" s="62" t="s">
+      <c r="D631" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="E631" s="57"/>
+      <c r="E631" s="58"/>
       <c r="O631" s="4"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="33" t="s">
+      <c r="A632" s="34" t="s">
         <v>751</v>
       </c>
       <c r="B632" s="3">
         <v>1.0</v>
       </c>
-      <c r="D632" s="63" t="s">
+      <c r="D632" s="64" t="s">
         <v>752</v>
       </c>
-      <c r="E632" s="57"/>
+      <c r="E632" s="58"/>
       <c r="O632" s="4"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="A633" s="33" t="s">
+      <c r="A633" s="34" t="s">
         <v>753</v>
       </c>
       <c r="B633" s="3">
         <v>1.0</v>
       </c>
-      <c r="D633" s="60" t="s">
+      <c r="D633" s="61" t="s">
         <v>754</v>
       </c>
-      <c r="E633" s="57"/>
+      <c r="E633" s="58"/>
       <c r="O633" s="4"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="A634" s="33" t="s">
+      <c r="A634" s="34" t="s">
         <v>755</v>
       </c>
       <c r="B634" s="3">
         <v>1.0</v>
       </c>
-      <c r="D634" s="57" t="s">
+      <c r="D634" s="58" t="s">
         <v>756</v>
       </c>
-      <c r="E634" s="57"/>
+      <c r="E634" s="58"/>
       <c r="O634" s="4"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="A635" s="33" t="s">
+      <c r="A635" s="34" t="s">
         <v>624</v>
       </c>
       <c r="B635" s="3">
         <v>1.0</v>
       </c>
-      <c r="D635" s="55" t="s">
+      <c r="D635" s="56" t="s">
         <v>757</v>
       </c>
-      <c r="E635" s="57"/>
+      <c r="E635" s="58"/>
       <c r="O635" s="4"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="A636" s="33" t="s">
+      <c r="A636" s="34" t="s">
         <v>758</v>
       </c>
       <c r="B636" s="3">
         <v>1.0</v>
       </c>
-      <c r="D636" s="57" t="s">
+      <c r="D636" s="58" t="s">
         <v>759</v>
       </c>
-      <c r="E636" s="57"/>
+      <c r="E636" s="58"/>
       <c r="O636" s="4"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="A637" s="64" t="s">
+      <c r="A637" s="65" t="s">
         <v>760</v>
       </c>
       <c r="B637" s="3">
         <v>1.0</v>
       </c>
-      <c r="D637" s="65" t="s">
+      <c r="D637" s="66" t="s">
         <v>761</v>
       </c>
-      <c r="E637" s="57"/>
+      <c r="E637" s="58"/>
       <c r="O637" s="4"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="A638" s="64" t="s">
+      <c r="A638" s="65" t="s">
         <v>762</v>
       </c>
       <c r="B638" s="3">
         <v>1.0</v>
       </c>
-      <c r="D638" s="66" t="s">
+      <c r="D638" s="67" t="s">
         <v>763</v>
       </c>
-      <c r="E638" s="57"/>
+      <c r="E638" s="58"/>
       <c r="O638" s="4"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="A639" s="33" t="s">
+      <c r="A639" s="34" t="s">
         <v>764</v>
       </c>
       <c r="B639" s="3">
         <v>1.0</v>
       </c>
-      <c r="D639" s="66" t="s">
+      <c r="D639" s="67" t="s">
         <v>765</v>
       </c>
-      <c r="E639" s="57"/>
+      <c r="E639" s="58"/>
       <c r="O639" s="4"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="A640" s="33" t="s">
+      <c r="A640" s="34" t="s">
         <v>766</v>
       </c>
       <c r="B640" s="3">
         <v>1.0</v>
       </c>
-      <c r="D640" s="66" t="s">
+      <c r="D640" s="67" t="s">
         <v>767</v>
       </c>
-      <c r="E640" s="57"/>
+      <c r="E640" s="58"/>
       <c r="O640" s="4"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="D641" s="66" t="s">
+      <c r="A641" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="E641" s="57"/>
+      <c r="B641" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D641" s="67" t="s">
+        <v>769</v>
+      </c>
+      <c r="E641" s="58"/>
       <c r="O641" s="4"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="A642" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="B642" s="21">
-        <f>SUM(B610:B640)</f>
-        <v>31</v>
-      </c>
-      <c r="D642" s="67" t="s">
+      <c r="D642" s="68" t="s">
         <v>770</v>
       </c>
-      <c r="E642" s="57"/>
+      <c r="E642" s="58"/>
       <c r="O642" s="4"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="D643" s="57" t="s">
+      <c r="A643" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="E643" s="57"/>
+      <c r="B643" s="22">
+        <f>SUM(B610:B642)</f>
+        <v>32</v>
+      </c>
+      <c r="D643" s="58" t="s">
+        <v>772</v>
+      </c>
+      <c r="E643" s="58"/>
       <c r="O643" s="4"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="D644" s="62" t="s">
-        <v>772</v>
-      </c>
-      <c r="E644" s="57"/>
+      <c r="D644" s="63" t="s">
+        <v>773</v>
+      </c>
+      <c r="E644" s="58"/>
       <c r="O644" s="4"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="D645" s="57" t="s">
-        <v>773</v>
-      </c>
-      <c r="E645" s="57"/>
+      <c r="D645" s="58" t="s">
+        <v>774</v>
+      </c>
+      <c r="E645" s="58"/>
       <c r="O645" s="4"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="D646" s="66" t="s">
-        <v>774</v>
-      </c>
-      <c r="E646" s="57"/>
+      <c r="D646" s="67" t="s">
+        <v>775</v>
+      </c>
+      <c r="E646" s="58"/>
       <c r="O646" s="4"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="D647" s="68" t="s">
-        <v>775</v>
-      </c>
-      <c r="E647" s="57"/>
+      <c r="D647" s="69" t="s">
+        <v>776</v>
+      </c>
+      <c r="E647" s="58"/>
       <c r="O647" s="4"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="D648" s="66" t="s">
+      <c r="D648" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="E648" s="57"/>
+      <c r="E648" s="58"/>
       <c r="O648" s="4"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="D649" s="67" t="s">
-        <v>776</v>
-      </c>
-      <c r="E649" s="57"/>
+      <c r="D649" s="68" t="s">
+        <v>777</v>
+      </c>
+      <c r="E649" s="58"/>
       <c r="O649" s="4"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="D650" s="69" t="s">
-        <v>777</v>
-      </c>
-      <c r="E650" s="57"/>
+      <c r="D650" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="E650" s="58"/>
       <c r="O650" s="4"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="D651" s="68" t="s">
-        <v>778</v>
-      </c>
-      <c r="E651" s="57"/>
+      <c r="D651" s="69" t="s">
+        <v>779</v>
+      </c>
+      <c r="E651" s="58"/>
       <c r="O651" s="4"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="D652" s="65"/>
-      <c r="E652" s="57"/>
+      <c r="D652" s="66"/>
+      <c r="E652" s="58"/>
       <c r="O652" s="4"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="A653" s="70"/>
-      <c r="D653" s="66"/>
-      <c r="E653" s="57"/>
+      <c r="A653" s="71"/>
+      <c r="D653" s="67"/>
+      <c r="E653" s="58"/>
       <c r="O653" s="4"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="A654" s="52"/>
-      <c r="D654" s="66"/>
-      <c r="E654" s="57"/>
+      <c r="A654" s="53"/>
+      <c r="D654" s="67"/>
+      <c r="E654" s="58"/>
       <c r="O654" s="4"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="A655" s="52"/>
-      <c r="D655" s="57"/>
-      <c r="E655" s="57"/>
+      <c r="A655" s="53"/>
+      <c r="D655" s="58"/>
+      <c r="E655" s="58"/>
       <c r="O655" s="4"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="A656" s="52"/>
-      <c r="D656" s="57"/>
-      <c r="E656" s="57"/>
+      <c r="A656" s="53"/>
+      <c r="D656" s="58"/>
+      <c r="E656" s="58"/>
       <c r="O656" s="4"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="A657" s="52"/>
-      <c r="D657" s="67"/>
-      <c r="E657" s="57"/>
+      <c r="A657" s="53"/>
+      <c r="D657" s="68"/>
+      <c r="E657" s="58"/>
       <c r="O657" s="4"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="A658" s="52"/>
-      <c r="D658" s="57"/>
-      <c r="E658" s="57"/>
+      <c r="A658" s="53"/>
+      <c r="D658" s="58"/>
+      <c r="E658" s="58"/>
       <c r="O658" s="4"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="A659" s="52"/>
-      <c r="D659" s="62"/>
-      <c r="E659" s="57"/>
+      <c r="A659" s="53"/>
+      <c r="D659" s="63"/>
+      <c r="E659" s="58"/>
       <c r="O659" s="4"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="A660" s="52"/>
-      <c r="D660" s="57"/>
-      <c r="E660" s="57"/>
+      <c r="A660" s="53"/>
+      <c r="D660" s="58"/>
+      <c r="E660" s="58"/>
       <c r="O660" s="4"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="A661" s="52"/>
-      <c r="D661" s="57"/>
-      <c r="E661" s="57"/>
+      <c r="A661" s="53"/>
+      <c r="D661" s="58"/>
+      <c r="E661" s="58"/>
       <c r="O661" s="4"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="A662" s="52"/>
-      <c r="D662" s="55"/>
-      <c r="E662" s="57"/>
+      <c r="A662" s="53"/>
+      <c r="D662" s="56"/>
+      <c r="E662" s="58"/>
       <c r="O662" s="4"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="A663" s="52"/>
-      <c r="D663" s="55"/>
-      <c r="E663" s="57"/>
+      <c r="A663" s="53"/>
+      <c r="D663" s="56"/>
+      <c r="E663" s="58"/>
       <c r="O663" s="4"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="A664" s="52"/>
-      <c r="D664" s="67"/>
-      <c r="E664" s="57"/>
+      <c r="A664" s="53"/>
+      <c r="D664" s="68"/>
+      <c r="E664" s="58"/>
       <c r="O664" s="4"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="A665" s="52"/>
-      <c r="D665" s="71"/>
-      <c r="E665" s="57"/>
+      <c r="A665" s="53"/>
+      <c r="D665" s="72"/>
+      <c r="E665" s="58"/>
       <c r="O665" s="4"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="A666" s="52"/>
-      <c r="D666" s="71"/>
-      <c r="E666" s="57"/>
+      <c r="A666" s="53"/>
+      <c r="D666" s="72"/>
+      <c r="E666" s="58"/>
       <c r="O666" s="4"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="D667" s="71"/>
-      <c r="E667" s="57"/>
+      <c r="D667" s="72"/>
+      <c r="E667" s="58"/>
       <c r="O667" s="4"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="D668" s="71"/>
-      <c r="E668" s="57"/>
+      <c r="D668" s="72"/>
+      <c r="E668" s="58"/>
       <c r="O668" s="4"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="D669" s="71"/>
-      <c r="E669" s="57"/>
+      <c r="D669" s="72"/>
+      <c r="E669" s="58"/>
       <c r="O669" s="4"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="D670" s="71"/>
-      <c r="E670" s="57"/>
+      <c r="D670" s="72"/>
+      <c r="E670" s="58"/>
       <c r="O670" s="4"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="D671" s="71"/>
-      <c r="E671" s="57"/>
+      <c r="D671" s="72"/>
+      <c r="E671" s="58"/>
       <c r="O671" s="4"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="D672" s="71"/>
-      <c r="E672" s="57"/>
+      <c r="D672" s="72"/>
+      <c r="E672" s="58"/>
       <c r="O672" s="4"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="D673" s="72"/>
-      <c r="E673" s="57"/>
+      <c r="D673" s="73"/>
+      <c r="E673" s="58"/>
       <c r="O673" s="4"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="D674" s="72"/>
-      <c r="E674" s="57"/>
+      <c r="D674" s="73"/>
+      <c r="E674" s="58"/>
       <c r="O674" s="4"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="D675" s="57"/>
-      <c r="E675" s="57"/>
+      <c r="D675" s="58"/>
+      <c r="E675" s="58"/>
       <c r="O675" s="4"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="D676" s="57"/>
-      <c r="E676" s="57"/>
+      <c r="D676" s="58"/>
+      <c r="E676" s="58"/>
       <c r="O676" s="4"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="D677" s="57"/>
-      <c r="E677" s="57"/>
+      <c r="D677" s="58"/>
+      <c r="E677" s="58"/>
       <c r="O677" s="4"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
@@ -17612,7 +17676,6 @@
         <v>24.0</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="I2" s="19"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -17644,8 +17707,6 @@
         <v>155.0</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -17751,10 +17812,10 @@
       <c r="D10" s="1">
         <v>12.0</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="K10" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -17808,8 +17869,6 @@
       <c r="E13" s="1"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
@@ -17931,8 +17990,6 @@
         <v>11.0</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
@@ -17959,6 +18016,8 @@
       <c r="L21" s="3">
         <v>1.0</v>
       </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="5" t="s">
@@ -18089,6 +18148,8 @@
       <c r="L28" s="3">
         <v>1.0</v>
       </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="s">
@@ -18109,6 +18170,8 @@
       <c r="L29" s="3">
         <v>1.0</v>
       </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="s">
@@ -18440,8 +18503,6 @@
         <v>20.0</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
@@ -18546,8 +18607,6 @@
         <v>28.0</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
@@ -18583,8 +18642,6 @@
         <v>0.0</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
@@ -18680,8 +18737,6 @@
         <v>0.0</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
@@ -18700,6 +18755,8 @@
       </c>
       <c r="E61" s="1"/>
       <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="5" t="s">
@@ -18738,6 +18795,8 @@
       <c r="L63" s="3">
         <v>1.0</v>
       </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="5" t="s">
@@ -18969,8 +19028,6 @@
         <v>25.0</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
@@ -19027,8 +19084,6 @@
       <c r="F79" s="3">
         <v>1.0</v>
       </c>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
@@ -19064,8 +19119,6 @@
         <v>3.0</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
@@ -19230,6 +19283,8 @@
       <c r="L90" s="3">
         <v>1.0</v>
       </c>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="5" t="s">
@@ -19265,6 +19320,9 @@
         <v>5095.0</v>
       </c>
       <c r="E92" s="1"/>
+      <c r="G92" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="5" t="s">
@@ -19331,8 +19389,6 @@
         <v>10.0</v>
       </c>
       <c r="E96" s="1"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
@@ -19386,8 +19442,6 @@
         <v>1.0</v>
       </c>
       <c r="E99" s="1"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
@@ -19606,8 +19660,6 @@
         <v>0.0</v>
       </c>
       <c r="E111" s="1"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
@@ -19625,8 +19677,6 @@
         <v>2.0</v>
       </c>
       <c r="E112" s="1"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
@@ -19703,7 +19753,6 @@
       <c r="F116" s="3">
         <v>1.0</v>
       </c>
-      <c r="H116" s="19"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="5" t="s">
@@ -19772,8 +19821,6 @@
         <v>0.0</v>
       </c>
       <c r="E120" s="1"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
@@ -19867,9 +19914,7 @@
       <c r="D125" s="1">
         <v>20.0</v>
       </c>
-      <c r="E125" s="73" t="s">
-        <v>779</v>
-      </c>
+      <c r="E125" s="6"/>
       <c r="F125" s="9">
         <v>1.0</v>
       </c>
@@ -19925,7 +19970,7 @@
         <v>29.0</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="G128" s="3">
         <v>1.0</v>
@@ -20068,8 +20113,6 @@
         <v>6.0</v>
       </c>
       <c r="E136" s="1"/>
-      <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
@@ -20120,8 +20163,6 @@
         <v>58.0</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
@@ -20177,8 +20218,6 @@
         <v>13.0</v>
       </c>
       <c r="E142" s="1"/>
-      <c r="M142" s="3"/>
-      <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
@@ -20196,8 +20235,6 @@
         <v>3.0</v>
       </c>
       <c r="E143" s="1"/>
-      <c r="M143" s="3"/>
-      <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
@@ -20446,8 +20483,6 @@
         <v>1.0</v>
       </c>
       <c r="E157" s="1"/>
-      <c r="M157" s="3"/>
-      <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
@@ -20466,8 +20501,6 @@
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="7"/>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
@@ -20724,6 +20757,7 @@
       </c>
       <c r="E172" s="12"/>
       <c r="F172" s="10"/>
+      <c r="G172" s="3"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="5" t="s">
@@ -20807,6 +20841,8 @@
       </c>
       <c r="E177" s="1"/>
       <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="5" t="s">
@@ -20857,9 +20893,7 @@
       <c r="D180" s="1">
         <v>72.0</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>781</v>
-      </c>
+      <c r="E180" s="1"/>
       <c r="J180" s="3">
         <v>1.0</v>
       </c>
@@ -20974,8 +21008,6 @@
         <v>999.0</v>
       </c>
       <c r="E187" s="1"/>
-      <c r="M187" s="3"/>
-      <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
@@ -20993,8 +21025,6 @@
         <v>448.0</v>
       </c>
       <c r="E188" s="1"/>
-      <c r="M188" s="3"/>
-      <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
@@ -21047,8 +21077,6 @@
         <v>37.0</v>
       </c>
       <c r="E191" s="1"/>
-      <c r="M191" s="3"/>
-      <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
@@ -21226,6 +21254,8 @@
       <c r="L200" s="9">
         <v>1.0</v>
       </c>
+      <c r="M200" s="7"/>
+      <c r="N200" s="7"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="5" t="s">
@@ -21256,8 +21286,6 @@
         <v>8.0</v>
       </c>
       <c r="E202" s="1"/>
-      <c r="M202" s="3"/>
-      <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
     </row>
@@ -21274,7 +21302,9 @@
       <c r="D203" s="1">
         <v>64.0</v>
       </c>
-      <c r="E203" s="2"/>
+      <c r="E203" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
         <v>1.0</v>
@@ -21282,6 +21312,8 @@
       <c r="L203" s="3">
         <v>1.0</v>
       </c>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="5" t="s">
@@ -21302,6 +21334,8 @@
       <c r="L204" s="3">
         <v>1.0</v>
       </c>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="5" t="s">
@@ -21636,6 +21670,8 @@
       <c r="L222" s="3">
         <v>1.0</v>
       </c>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
       <c r="A223" s="5" t="s">
@@ -21651,8 +21687,6 @@
         <v>20.0</v>
       </c>
       <c r="E223" s="1"/>
-      <c r="M223" s="3"/>
-      <c r="N223" s="3"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
     </row>
@@ -21674,6 +21708,8 @@
       <c r="L224" s="7">
         <v>1.0</v>
       </c>
+      <c r="M224" s="7"/>
+      <c r="N224" s="7"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
       <c r="A225" s="5" t="s">
@@ -21692,6 +21728,8 @@
       <c r="L225" s="7">
         <v>1.0</v>
       </c>
+      <c r="M225" s="7"/>
+      <c r="N225" s="7"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
       <c r="A226" s="5" t="s">
@@ -21792,8 +21830,6 @@
       </c>
       <c r="E231" s="1"/>
       <c r="J231" s="3"/>
-      <c r="M231" s="3"/>
-      <c r="N231" s="3"/>
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
     </row>
@@ -21817,7 +21853,6 @@
       <c r="G232" s="3">
         <v>1.0</v>
       </c>
-      <c r="J232" s="19"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
       <c r="A233" s="5" t="s">
@@ -21833,8 +21868,6 @@
         <v>0.0</v>
       </c>
       <c r="E233" s="1"/>
-      <c r="M233" s="3"/>
-      <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
     </row>
@@ -21852,8 +21885,6 @@
         <v>0.0</v>
       </c>
       <c r="E234" s="1"/>
-      <c r="M234" s="3"/>
-      <c r="N234" s="3"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
     </row>
@@ -21923,8 +21954,6 @@
         <v>0.0</v>
       </c>
       <c r="E238" s="1"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
       <c r="O238" s="3"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
@@ -21946,6 +21975,9 @@
       <c r="F239" s="3">
         <v>1.0</v>
       </c>
+      <c r="G239" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I239" s="3">
         <v>1.0</v>
       </c>
@@ -21967,9 +21999,6 @@
       <c r="E240" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F240" s="3">
-        <v>1.0</v>
-      </c>
       <c r="G240" s="3">
         <v>1.0</v>
       </c>
@@ -22008,8 +22037,6 @@
         <v>0.0</v>
       </c>
       <c r="E242" s="1"/>
-      <c r="M242" s="3"/>
-      <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
     </row>
@@ -22097,8 +22124,6 @@
         <v>9.0</v>
       </c>
       <c r="E247" s="1"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
     </row>
@@ -22158,9 +22183,6 @@
       <c r="I250" s="3">
         <v>1.0</v>
       </c>
-      <c r="L250" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="5" t="s">
@@ -22199,6 +22221,8 @@
       <c r="L252" s="3">
         <v>1.0</v>
       </c>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="5" t="s">
@@ -22646,8 +22670,6 @@
         <v>0.0</v>
       </c>
       <c r="E276" s="1"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
     </row>
@@ -22733,8 +22755,6 @@
         <v>7.0</v>
       </c>
       <c r="E281" s="1"/>
-      <c r="M281" s="3"/>
-      <c r="N281" s="3"/>
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
     </row>
@@ -22845,6 +22865,8 @@
       <c r="L287" s="3">
         <v>1.0</v>
       </c>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
       <c r="A288" s="5" t="s">
@@ -22971,7 +22993,7 @@
       <c r="E294" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F294" s="3">
+      <c r="F294" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -23094,8 +23116,6 @@
         <v>2.0</v>
       </c>
       <c r="E301" s="1"/>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
     </row>
@@ -23251,7 +23271,7 @@
         <v>17.0</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>782</v>
+        <v>371</v>
       </c>
       <c r="F310" s="3">
         <v>1.0</v>
@@ -23271,8 +23291,6 @@
         <v>10.0</v>
       </c>
       <c r="E311" s="1"/>
-      <c r="M311" s="3"/>
-      <c r="N311" s="3"/>
       <c r="O311" s="3"/>
       <c r="P311" s="3"/>
     </row>
@@ -23430,6 +23448,9 @@
       <c r="F320" s="3">
         <v>1.0</v>
       </c>
+      <c r="G320" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I320" s="3">
         <v>1.0</v>
       </c>
@@ -23448,8 +23469,6 @@
         <v>24.0</v>
       </c>
       <c r="E321" s="1"/>
-      <c r="M321" s="3"/>
-      <c r="N321" s="3"/>
       <c r="O321" s="3"/>
       <c r="P321" s="3"/>
     </row>
@@ -23659,7 +23678,9 @@
       <c r="D334" s="1">
         <v>25.0</v>
       </c>
-      <c r="E334" s="2"/>
+      <c r="E334" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="F334" s="3">
         <v>1.0</v>
       </c>
@@ -23729,8 +23750,6 @@
         <v>18.0</v>
       </c>
       <c r="E338" s="1"/>
-      <c r="M338" s="3"/>
-      <c r="N338" s="3"/>
       <c r="O338" s="3"/>
       <c r="P338" s="3"/>
     </row>
@@ -23858,7 +23877,6 @@
         <v>45.0</v>
       </c>
       <c r="E345" s="1"/>
-      <c r="F345" s="19"/>
       <c r="K345" s="3">
         <v>1.0</v>
       </c>
@@ -23965,7 +23983,9 @@
       <c r="D351" s="1">
         <v>50.0</v>
       </c>
-      <c r="E351" s="2"/>
+      <c r="E351" s="2" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="5" t="s">
@@ -24186,9 +24206,6 @@
         <v>41.0</v>
       </c>
       <c r="E364" s="2"/>
-      <c r="F364" s="3">
-        <v>1.0</v>
-      </c>
       <c r="J364" s="3">
         <v>1.0</v>
       </c>
@@ -24213,6 +24230,8 @@
       <c r="L365" s="3">
         <v>1.0</v>
       </c>
+      <c r="M365" s="3"/>
+      <c r="N365" s="3"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
       <c r="A366" s="5" t="s">
@@ -24281,8 +24300,6 @@
         <v>0.0</v>
       </c>
       <c r="E369" s="1"/>
-      <c r="M369" s="3"/>
-      <c r="N369" s="3"/>
       <c r="O369" s="3"/>
       <c r="P369" s="3"/>
     </row>
@@ -24300,9 +24317,6 @@
         <v>2.0</v>
       </c>
       <c r="E370" s="1"/>
-      <c r="G370" s="19"/>
-      <c r="M370" s="3"/>
-      <c r="N370" s="3"/>
       <c r="O370" s="3"/>
       <c r="P370" s="3"/>
     </row>
@@ -24323,6 +24337,8 @@
       <c r="L371" s="3">
         <v>1.0</v>
       </c>
+      <c r="M371" s="3"/>
+      <c r="N371" s="3"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
       <c r="A372" s="5" t="s">
@@ -24338,8 +24354,6 @@
         <v>4.0</v>
       </c>
       <c r="E372" s="1"/>
-      <c r="M372" s="3"/>
-      <c r="N372" s="3"/>
       <c r="O372" s="3"/>
       <c r="P372" s="3"/>
     </row>
@@ -24393,8 +24407,6 @@
         <v>178.0</v>
       </c>
       <c r="E375" s="1"/>
-      <c r="M375" s="3"/>
-      <c r="N375" s="3"/>
       <c r="O375" s="3"/>
       <c r="P375" s="3"/>
     </row>
@@ -24464,8 +24476,6 @@
         <v>3.0</v>
       </c>
       <c r="E379" s="1"/>
-      <c r="M379" s="3"/>
-      <c r="N379" s="3"/>
       <c r="O379" s="3"/>
       <c r="P379" s="3"/>
     </row>
@@ -24483,8 +24493,6 @@
         <v>0.0</v>
       </c>
       <c r="E380" s="1"/>
-      <c r="M380" s="3"/>
-      <c r="N380" s="3"/>
       <c r="O380" s="3"/>
       <c r="P380" s="3"/>
     </row>
@@ -24520,8 +24528,6 @@
         <v>13.0</v>
       </c>
       <c r="E382" s="1"/>
-      <c r="M382" s="3"/>
-      <c r="N382" s="3"/>
       <c r="O382" s="3"/>
       <c r="P382" s="3"/>
     </row>
@@ -24575,7 +24581,7 @@
         <v>48.0</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>449</v>
+        <v>781</v>
       </c>
       <c r="I385" s="3">
         <v>1.0</v>
@@ -24583,6 +24589,8 @@
       <c r="L385" s="3">
         <v>1.0</v>
       </c>
+      <c r="M385" s="3"/>
+      <c r="N385" s="3"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
       <c r="A386" s="5" t="s">
@@ -24715,8 +24723,6 @@
       <c r="F392" s="3">
         <v>1.0</v>
       </c>
-      <c r="M392" s="3"/>
-      <c r="N392" s="3"/>
       <c r="O392" s="3"/>
       <c r="P392" s="3"/>
     </row>
@@ -24827,8 +24833,6 @@
         <v>43.0</v>
       </c>
       <c r="E398" s="1"/>
-      <c r="M398" s="3"/>
-      <c r="N398" s="3"/>
       <c r="O398" s="3"/>
       <c r="P398" s="3"/>
     </row>
@@ -24919,8 +24923,6 @@
         <v>43.0</v>
       </c>
       <c r="E403" s="1"/>
-      <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
       <c r="O403" s="3"/>
       <c r="P403" s="3"/>
     </row>
@@ -24996,8 +24998,6 @@
         <v>16.0</v>
       </c>
       <c r="E407" s="1"/>
-      <c r="M407" s="3"/>
-      <c r="N407" s="3"/>
       <c r="O407" s="3"/>
       <c r="P407" s="3"/>
     </row>
@@ -25015,8 +25015,6 @@
         <v>1.0</v>
       </c>
       <c r="E408" s="1"/>
-      <c r="M408" s="3"/>
-      <c r="N408" s="3"/>
       <c r="O408" s="3"/>
       <c r="P408" s="3"/>
     </row>
@@ -25051,8 +25049,6 @@
         <v>21.0</v>
       </c>
       <c r="E410" s="1"/>
-      <c r="M410" s="3"/>
-      <c r="N410" s="3"/>
       <c r="O410" s="3"/>
       <c r="P410" s="3"/>
     </row>
@@ -25089,6 +25085,8 @@
       </c>
       <c r="E412" s="1"/>
       <c r="L412" s="3"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="3"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
       <c r="A413" s="5" t="s">
@@ -25143,6 +25141,8 @@
       <c r="L415" s="3">
         <v>1.0</v>
       </c>
+      <c r="M415" s="3"/>
+      <c r="N415" s="3"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
       <c r="A416" s="5" t="s">
@@ -25176,8 +25176,6 @@
         <v>0.0</v>
       </c>
       <c r="E417" s="1"/>
-      <c r="M417" s="3"/>
-      <c r="N417" s="3"/>
       <c r="O417" s="3"/>
       <c r="P417" s="3"/>
     </row>
@@ -25234,6 +25232,8 @@
         <v>1.0</v>
       </c>
       <c r="L420" s="7"/>
+      <c r="M420" s="7"/>
+      <c r="N420" s="7"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
       <c r="A421" s="5" t="s">
@@ -25266,7 +25266,9 @@
       <c r="D422" s="1">
         <v>6.0</v>
       </c>
-      <c r="E422" s="6"/>
+      <c r="E422" s="12" t="s">
+        <v>490</v>
+      </c>
       <c r="F422" s="9">
         <v>1.0</v>
       </c>
@@ -25321,6 +25323,9 @@
       <c r="G425" s="3">
         <v>1.0</v>
       </c>
+      <c r="L425" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="426" ht="14.25" customHeight="1">
       <c r="A426" s="5" t="s">
@@ -25375,6 +25380,8 @@
       <c r="L428" s="3">
         <v>1.0</v>
       </c>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
       <c r="A429" s="5" t="s">
@@ -25411,6 +25418,8 @@
       <c r="L430" s="3">
         <v>1.0</v>
       </c>
+      <c r="M430" s="3"/>
+      <c r="N430" s="3"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
       <c r="A431" s="5" t="s">
@@ -25460,7 +25469,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F433" s="8">
         <v>1.0</v>
@@ -25558,8 +25567,6 @@
         <v>5.0</v>
       </c>
       <c r="E438" s="1"/>
-      <c r="M438" s="3"/>
-      <c r="N438" s="3"/>
       <c r="O438" s="3"/>
       <c r="P438" s="3"/>
     </row>
@@ -25613,8 +25620,6 @@
         <v>12.0</v>
       </c>
       <c r="E441" s="1"/>
-      <c r="M441" s="3"/>
-      <c r="N441" s="3"/>
       <c r="O441" s="3"/>
       <c r="P441" s="3"/>
     </row>
@@ -25726,8 +25731,6 @@
         <v>221.0</v>
       </c>
       <c r="E447" s="1"/>
-      <c r="M447" s="3"/>
-      <c r="N447" s="3"/>
       <c r="O447" s="3"/>
       <c r="P447" s="3"/>
     </row>
@@ -25763,8 +25766,6 @@
         <v>6.0</v>
       </c>
       <c r="E449" s="1"/>
-      <c r="M449" s="3"/>
-      <c r="N449" s="3"/>
       <c r="O449" s="3"/>
       <c r="P449" s="3"/>
     </row>
@@ -25803,8 +25804,6 @@
       <c r="F451" s="8">
         <v>1.0</v>
       </c>
-      <c r="M451" s="3"/>
-      <c r="N451" s="3"/>
       <c r="O451" s="3"/>
       <c r="P451" s="3"/>
     </row>
@@ -25821,8 +25820,13 @@
       <c r="D452" s="1">
         <v>24.0</v>
       </c>
-      <c r="E452" s="2"/>
+      <c r="E452" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="F452" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L452" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -26026,6 +26030,8 @@
       <c r="L463" s="3">
         <v>1.0</v>
       </c>
+      <c r="M463" s="3"/>
+      <c r="N463" s="3"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
       <c r="A464" s="5" t="s">
@@ -26044,6 +26050,8 @@
       <c r="L464" s="3">
         <v>1.0</v>
       </c>
+      <c r="M464" s="3"/>
+      <c r="N464" s="3"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
       <c r="A465" s="5" t="s">
@@ -26098,8 +26106,6 @@
         <v>5.0</v>
       </c>
       <c r="E467" s="1"/>
-      <c r="M467" s="3"/>
-      <c r="N467" s="3"/>
       <c r="O467" s="3"/>
       <c r="P467" s="3"/>
     </row>
@@ -26201,6 +26207,8 @@
       <c r="L473" s="3">
         <v>1.0</v>
       </c>
+      <c r="M473" s="3"/>
+      <c r="N473" s="3"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
       <c r="A474" s="5" t="s">
@@ -26234,8 +26242,6 @@
         <v>6.0</v>
       </c>
       <c r="E475" s="1"/>
-      <c r="M475" s="3"/>
-      <c r="N475" s="3"/>
       <c r="O475" s="3"/>
       <c r="P475" s="3"/>
     </row>
@@ -26253,8 +26259,6 @@
         <v>17.0</v>
       </c>
       <c r="E476" s="1"/>
-      <c r="M476" s="3"/>
-      <c r="N476" s="3"/>
       <c r="O476" s="3"/>
       <c r="P476" s="3"/>
     </row>
@@ -26272,8 +26276,6 @@
         <v>1.0</v>
       </c>
       <c r="E477" s="1"/>
-      <c r="M477" s="3"/>
-      <c r="N477" s="3"/>
       <c r="O477" s="3"/>
       <c r="P477" s="3"/>
     </row>
@@ -26370,8 +26372,6 @@
       <c r="F482" s="8">
         <v>1.0</v>
       </c>
-      <c r="M482" s="3"/>
-      <c r="N482" s="3"/>
       <c r="O482" s="3"/>
       <c r="P482" s="3"/>
     </row>
@@ -26389,8 +26389,6 @@
         <v>9.0</v>
       </c>
       <c r="E483" s="1"/>
-      <c r="M483" s="3"/>
-      <c r="N483" s="3"/>
       <c r="O483" s="3"/>
       <c r="P483" s="3"/>
     </row>
@@ -26467,6 +26465,8 @@
       <c r="L487" s="3">
         <v>1.0</v>
       </c>
+      <c r="M487" s="3"/>
+      <c r="N487" s="3"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
       <c r="A488" s="5" t="s">
@@ -26482,8 +26482,6 @@
         <v>32.0</v>
       </c>
       <c r="E488" s="1"/>
-      <c r="M488" s="3"/>
-      <c r="N488" s="3"/>
       <c r="O488" s="3"/>
       <c r="P488" s="3"/>
     </row>
@@ -26540,6 +26538,9 @@
       <c r="F491" s="3">
         <v>1.0</v>
       </c>
+      <c r="G491" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="492" ht="14.25" customHeight="1">
       <c r="A492" s="5" t="s">
@@ -26555,8 +26556,6 @@
         <v>0.0</v>
       </c>
       <c r="E492" s="1"/>
-      <c r="M492" s="3"/>
-      <c r="N492" s="3"/>
       <c r="O492" s="3"/>
       <c r="P492" s="3"/>
     </row>
@@ -26592,8 +26591,6 @@
         <v>4.0</v>
       </c>
       <c r="E494" s="1"/>
-      <c r="M494" s="3"/>
-      <c r="N494" s="3"/>
       <c r="O494" s="3"/>
       <c r="P494" s="3"/>
     </row>
@@ -26611,8 +26608,6 @@
         <v>1.0</v>
       </c>
       <c r="E495" s="1"/>
-      <c r="M495" s="3"/>
-      <c r="N495" s="3"/>
       <c r="O495" s="3"/>
       <c r="P495" s="3"/>
     </row>
@@ -26683,7 +26678,9 @@
       <c r="D499" s="1">
         <v>30.0</v>
       </c>
-      <c r="E499" s="1"/>
+      <c r="E499" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="G499" s="3">
         <v>1.0</v>
       </c>
@@ -26703,6 +26700,8 @@
       </c>
       <c r="E500" s="1"/>
       <c r="L500" s="7"/>
+      <c r="M500" s="7"/>
+      <c r="N500" s="7"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
       <c r="A501" s="5" t="s">
@@ -26857,6 +26856,8 @@
       <c r="L508" s="3">
         <v>1.0</v>
       </c>
+      <c r="M508" s="3"/>
+      <c r="N508" s="3"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
       <c r="A509" s="5" t="s">
@@ -26908,8 +26909,6 @@
         <v>33.0</v>
       </c>
       <c r="E511" s="1"/>
-      <c r="M511" s="3"/>
-      <c r="N511" s="3"/>
       <c r="O511" s="3"/>
       <c r="P511" s="3"/>
     </row>
@@ -26926,9 +26925,8 @@
       <c r="D512" s="1">
         <v>156.0</v>
       </c>
-      <c r="E512" s="1"/>
-      <c r="G512" s="3">
-        <v>1.0</v>
+      <c r="E512" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="513" ht="14.25" customHeight="1">
@@ -26966,7 +26964,8 @@
         <v>25.0</v>
       </c>
       <c r="E514" s="2"/>
-      <c r="F514" s="8">
+      <c r="F514" s="8"/>
+      <c r="G514" s="8">
         <v>1.0</v>
       </c>
     </row>
@@ -26984,8 +26983,6 @@
         <v>0.0</v>
       </c>
       <c r="E515" s="1"/>
-      <c r="M515" s="3"/>
-      <c r="N515" s="3"/>
       <c r="O515" s="3"/>
       <c r="P515" s="3"/>
     </row>
@@ -27026,6 +27023,8 @@
       <c r="L517" s="3">
         <v>1.0</v>
       </c>
+      <c r="M517" s="3"/>
+      <c r="N517" s="3"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
       <c r="A518" s="5" t="s">
@@ -27132,7 +27131,6 @@
         <v>72.0</v>
       </c>
       <c r="E523" s="1"/>
-      <c r="H523" s="19"/>
       <c r="J523" s="3">
         <v>1.0</v>
       </c>
@@ -27151,8 +27149,6 @@
         <v>36.0</v>
       </c>
       <c r="E524" s="1"/>
-      <c r="M524" s="3"/>
-      <c r="N524" s="3"/>
       <c r="O524" s="3"/>
       <c r="P524" s="3"/>
     </row>
@@ -27224,8 +27220,6 @@
         <v>20.0</v>
       </c>
       <c r="E528" s="1"/>
-      <c r="M528" s="3"/>
-      <c r="N528" s="3"/>
       <c r="O528" s="3"/>
       <c r="P528" s="3"/>
     </row>
@@ -27266,6 +27260,8 @@
       <c r="L530" s="3">
         <v>1.0</v>
       </c>
+      <c r="M530" s="3"/>
+      <c r="N530" s="3"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
       <c r="A531" s="5" t="s">
@@ -27286,6 +27282,8 @@
       <c r="L531" s="8">
         <v>1.0</v>
       </c>
+      <c r="M531" s="3"/>
+      <c r="N531" s="3"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
       <c r="A532" s="5" t="s">
@@ -27337,8 +27335,6 @@
         <v>1.0</v>
       </c>
       <c r="E534" s="1"/>
-      <c r="M534" s="3"/>
-      <c r="N534" s="3"/>
       <c r="O534" s="3"/>
       <c r="P534" s="3"/>
     </row>
@@ -27433,8 +27429,6 @@
         <v>1.0</v>
       </c>
       <c r="E539" s="1"/>
-      <c r="M539" s="3"/>
-      <c r="N539" s="3"/>
       <c r="O539" s="3"/>
       <c r="P539" s="3"/>
     </row>
@@ -27539,8 +27533,6 @@
         <v>2.0</v>
       </c>
       <c r="E545" s="1"/>
-      <c r="M545" s="3"/>
-      <c r="N545" s="3"/>
       <c r="O545" s="3"/>
       <c r="P545" s="3"/>
     </row>
@@ -27612,9 +27604,6 @@
         <v>308.0</v>
       </c>
       <c r="E549" s="2"/>
-      <c r="F549" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
@@ -27688,8 +27677,6 @@
         <v>1.0</v>
       </c>
       <c r="E553" s="1"/>
-      <c r="M553" s="3"/>
-      <c r="N553" s="3"/>
       <c r="O553" s="3"/>
       <c r="P553" s="3"/>
     </row>
@@ -27708,6 +27695,8 @@
       </c>
       <c r="E554" s="1"/>
       <c r="L554" s="7"/>
+      <c r="M554" s="7"/>
+      <c r="N554" s="7"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
       <c r="A555" s="5" t="s">
@@ -27862,8 +27851,6 @@
       </c>
       <c r="E563" s="1"/>
       <c r="K563" s="7"/>
-      <c r="M563" s="3"/>
-      <c r="N563" s="3"/>
       <c r="O563" s="3"/>
       <c r="P563" s="3"/>
     </row>
@@ -27902,8 +27889,6 @@
         <v>2.0</v>
       </c>
       <c r="E565" s="1"/>
-      <c r="M565" s="3"/>
-      <c r="N565" s="3"/>
       <c r="O565" s="3"/>
       <c r="P565" s="3"/>
     </row>
@@ -27987,7 +27972,7 @@
         <v>724.0</v>
       </c>
       <c r="E570" s="2" t="s">
-        <v>784</v>
+        <v>648</v>
       </c>
       <c r="G570" s="3">
         <v>1.0</v>
@@ -28025,6 +28010,8 @@
       <c r="L572" s="3">
         <v>1.0</v>
       </c>
+      <c r="M572" s="3"/>
+      <c r="N572" s="3"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
       <c r="A573" s="5" t="s">
@@ -28040,6 +28027,9 @@
         <v>15.0</v>
       </c>
       <c r="E573" s="1"/>
+      <c r="I573" s="3">
+        <v>1.0</v>
+      </c>
       <c r="J573" s="7"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
@@ -28164,6 +28154,8 @@
         <v>130.0</v>
       </c>
       <c r="E580" s="1"/>
+      <c r="M580" s="3"/>
+      <c r="N580" s="3"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
       <c r="A581" s="5" t="s">
@@ -28303,8 +28295,6 @@
         <v>5.0</v>
       </c>
       <c r="E588" s="1"/>
-      <c r="M588" s="3"/>
-      <c r="N588" s="3"/>
       <c r="O588" s="3"/>
       <c r="P588" s="3"/>
     </row>
@@ -28399,8 +28389,6 @@
         <v>11.0</v>
       </c>
       <c r="E593" s="1"/>
-      <c r="M593" s="3"/>
-      <c r="N593" s="3"/>
       <c r="O593" s="3"/>
       <c r="P593" s="3"/>
     </row>
@@ -28417,9 +28405,12 @@
       <c r="D594" s="1">
         <v>9.0</v>
       </c>
-      <c r="E594" s="1"/>
-      <c r="M594" s="3"/>
-      <c r="N594" s="3"/>
+      <c r="E594" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J594" s="3">
+        <v>1.0</v>
+      </c>
       <c r="O594" s="3"/>
       <c r="P594" s="3"/>
     </row>
@@ -28472,8 +28463,6 @@
         <v>28.0</v>
       </c>
       <c r="E597" s="1"/>
-      <c r="M597" s="3"/>
-      <c r="N597" s="3"/>
       <c r="O597" s="3"/>
       <c r="P597" s="3"/>
     </row>
@@ -28490,7 +28479,7 @@
       <c r="D598" s="1">
         <v>25.0</v>
       </c>
-      <c r="E598" s="1"/>
+      <c r="E598" s="2"/>
       <c r="K598" s="3">
         <v>1.0</v>
       </c>
@@ -28508,10 +28497,12 @@
       <c r="D599" s="1">
         <v>16.0</v>
       </c>
-      <c r="E599" s="1"/>
-      <c r="K599" s="7"/>
-      <c r="M599" s="3"/>
-      <c r="N599" s="3"/>
+      <c r="E599" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K599" s="10">
+        <v>1.0</v>
+      </c>
       <c r="O599" s="3"/>
       <c r="P599" s="3"/>
     </row>
@@ -28529,8 +28520,6 @@
         <v>1.0</v>
       </c>
       <c r="E600" s="1"/>
-      <c r="M600" s="3"/>
-      <c r="N600" s="3"/>
       <c r="O600" s="3"/>
       <c r="P600" s="3"/>
     </row>
@@ -28566,125 +28555,123 @@
         <v>39.0</v>
       </c>
       <c r="E602" s="1"/>
-      <c r="M602" s="3"/>
-      <c r="N602" s="3"/>
       <c r="O602" s="3"/>
       <c r="P602" s="3"/>
     </row>
     <row r="603" ht="14.25" customHeight="1"/>
     <row r="604" ht="14.25" customHeight="1">
       <c r="A604" s="76"/>
-      <c r="D604" s="57"/>
+      <c r="D604" s="58"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
       <c r="A605" s="77"/>
-      <c r="D605" s="66"/>
+      <c r="D605" s="67"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="A606" s="70"/>
-      <c r="D606" s="67"/>
+      <c r="A606" s="71"/>
+      <c r="D606" s="68"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
       <c r="A607" s="76"/>
-      <c r="D607" s="66"/>
+      <c r="D607" s="67"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
       <c r="A608" s="76"/>
-      <c r="D608" s="62"/>
+      <c r="D608" s="63"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
       <c r="A609" s="76"/>
-      <c r="D609" s="57"/>
+      <c r="D609" s="58"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
       <c r="A610" s="76"/>
-      <c r="D610" s="57"/>
+      <c r="D610" s="58"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
       <c r="A611" s="78"/>
-      <c r="D611" s="57"/>
+      <c r="D611" s="58"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="A612" s="70"/>
-      <c r="D612" s="66"/>
+      <c r="A612" s="71"/>
+      <c r="D612" s="67"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
       <c r="A613" s="76"/>
-      <c r="D613" s="62"/>
+      <c r="D613" s="63"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
       <c r="A614" s="79"/>
-      <c r="D614" s="55"/>
+      <c r="D614" s="56"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="D615" s="57"/>
+      <c r="D615" s="58"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
       <c r="A616" s="79"/>
-      <c r="D616" s="55"/>
+      <c r="D616" s="56"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
       <c r="A617" s="80"/>
-      <c r="D617" s="66"/>
+      <c r="D617" s="67"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
       <c r="A618" s="76"/>
-      <c r="D618" s="66"/>
+      <c r="D618" s="67"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
       <c r="A619" s="76"/>
-      <c r="D619" s="66"/>
+      <c r="D619" s="67"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
       <c r="A620" s="80"/>
-      <c r="D620" s="66"/>
+      <c r="D620" s="67"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
       <c r="A621" s="76"/>
-      <c r="D621" s="61"/>
+      <c r="D621" s="62"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="7"/>
-      <c r="D622" s="57"/>
+      <c r="D622" s="58"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="7"/>
-      <c r="D623" s="62"/>
+      <c r="D623" s="63"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="D624" s="57"/>
+      <c r="D624" s="58"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
       <c r="A625" s="81"/>
-      <c r="D625" s="57"/>
+      <c r="D625" s="58"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
       <c r="A626" s="82"/>
-      <c r="D626" s="61"/>
+      <c r="D626" s="62"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="D627" s="55"/>
+      <c r="D627" s="56"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="7"/>
-      <c r="D628" s="61"/>
+      <c r="D628" s="62"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="D629" s="71"/>
+      <c r="D629" s="72"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="D630" s="71"/>
+      <c r="D630" s="72"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
       <c r="A631" s="78"/>
-      <c r="D631" s="71"/>
+      <c r="D631" s="72"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
       <c r="A632" s="81"/>
       <c r="D632" s="83"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="A633" s="70"/>
+      <c r="A633" s="71"/>
       <c r="D633" s="83"/>
     </row>
     <row r="634" ht="14.25" customHeight="1"/>
@@ -29115,7 +29102,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="84" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B2" s="84">
         <v>164.0</v>
@@ -29129,7 +29116,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="84" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B3" s="84">
         <v>2246.0</v>
@@ -29265,7 +29252,7 @@
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="84" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B14" s="84">
         <v>2190.0</v>
@@ -29279,13 +29266,13 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="87" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B15" s="84">
         <v>2188.0</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
@@ -29378,7 +29365,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="84" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B23" s="84">
         <v>2162.0</v>
@@ -29431,7 +29418,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="84" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B27" s="84">
         <v>2152.0</v>
@@ -29467,7 +29454,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="84" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B30" s="84">
         <v>2133.0</v>
@@ -29493,7 +29480,7 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="87" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B32" s="84">
         <v>2129.0</v>
@@ -29628,7 +29615,7 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="84" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B43" s="84">
         <v>1995.0</v>
@@ -29655,7 +29642,7 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="84" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B45" s="84">
         <v>1920.0</v>
@@ -29718,7 +29705,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="87" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B50" s="84">
         <v>1784.0</v>
@@ -29778,7 +29765,7 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="84" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B55" s="84">
         <v>1640.0</v>
@@ -29790,7 +29777,7 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="87" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B56" s="84">
         <v>1639.0</v>
@@ -29841,7 +29828,7 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="84" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B60" s="84">
         <v>1482.0</v>
@@ -29853,7 +29840,7 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="84" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B61" s="84">
         <v>1383.0</v>
@@ -29937,7 +29924,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="89" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B68" s="84">
         <v>1227.0</v>
@@ -29961,13 +29948,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="84" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B70" s="84">
         <v>1164.0</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
@@ -29981,12 +29968,12 @@
         <v>1130.0</v>
       </c>
       <c r="C71" s="85" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="84" t="s">
-        <v>805</v>
+        <v>768</v>
       </c>
       <c r="B72" s="84">
         <v>1129.0</v>
@@ -30001,7 +29988,7 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="84" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B73" s="84">
         <v>1124.0</v>
@@ -30027,7 +30014,7 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="84" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B75" s="84">
         <v>1097.0</v>
@@ -30077,7 +30064,7 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="84" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="B79" s="84">
         <v>991.0</v>
@@ -30127,7 +30114,7 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="84" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B83" s="84">
         <v>921.0</v>
@@ -30153,7 +30140,7 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="84" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B85" s="84">
         <v>892.0</v>
@@ -30242,7 +30229,7 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="87" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B92" s="84">
         <v>772.0</v>
@@ -30254,7 +30241,7 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="84" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B93" s="84">
         <v>770.0</v>
@@ -30269,7 +30256,7 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="84" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B94" s="84">
         <v>739.0</v>
@@ -30293,7 +30280,7 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="84" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B96" s="84">
         <v>732.0</v>
@@ -30307,7 +30294,7 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="87" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B97" s="84">
         <v>727.0</v>
@@ -30423,7 +30410,7 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="87" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B106" s="84">
         <v>588.0</v>
@@ -30464,13 +30451,13 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="87" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B109" s="84">
         <v>561.0</v>
       </c>
       <c r="C109" s="85" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D109" s="3">
         <v>1.0</v>
@@ -30481,7 +30468,7 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="84" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B110" s="84">
         <v>546.0</v>
@@ -30493,7 +30480,7 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="84" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B111" s="84">
         <v>502.0</v>
@@ -30528,7 +30515,7 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="84" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B114" s="84">
         <v>432.0</v>
@@ -30542,7 +30529,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="84" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B115" s="84">
         <v>424.0</v>
@@ -30562,7 +30549,7 @@
         <v>418.0</v>
       </c>
       <c r="C116" s="85" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D116" s="3">
         <v>1.0</v>
@@ -30570,7 +30557,7 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="87" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B117" s="84">
         <v>405.0</v>
@@ -30623,7 +30610,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="84" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B121" s="84">
         <v>359.0</v>
@@ -30682,7 +30669,7 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="84" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B126" s="84">
         <v>309.0</v>
@@ -30708,7 +30695,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="84" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B128" s="84">
         <v>279.0</v>
@@ -30741,7 +30728,7 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="84" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B130" s="84">
         <v>276.0</v>
@@ -30770,7 +30757,7 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="84" t="s">
-        <v>779</v>
+        <v>825</v>
       </c>
       <c r="B132" s="84">
         <v>264.0</v>
@@ -30794,7 +30781,7 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="84" t="s">
-        <v>827</v>
+        <v>781</v>
       </c>
       <c r="B134" s="84">
         <v>250.0</v>
@@ -30821,7 +30808,7 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="84" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B136" s="84">
         <v>229.0</v>
@@ -30835,7 +30822,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="84" t="s">
-        <v>781</v>
+        <v>827</v>
       </c>
       <c r="B137" s="84">
         <v>226.0</v>
@@ -30985,7 +30972,7 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="84" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B149" s="84">
         <v>26.0</v>
@@ -31011,7 +30998,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="84" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B151" s="84">
         <v>34.0</v>
@@ -31059,7 +31046,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="84" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B155" s="84">
         <v>74.0</v>
@@ -31993,7 +31980,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -32017,6 +32004,9 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>314</v>
       </c>
       <c r="F4" s="3">
@@ -32025,7 +32015,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>316</v>
+        <v>833</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="F5" s="3">
         <v>1.0</v>
@@ -32033,7 +32026,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>760</v>
+        <v>834</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="F6" s="3">
         <v>1.0</v>
@@ -32041,7 +32037,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>320</v>
+        <v>835</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="F7" s="3">
         <v>1.0</v>
@@ -32049,7 +32048,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>324</v>
+        <v>836</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>760</v>
       </c>
       <c r="F8" s="3">
         <v>1.0</v>
@@ -32057,10 +32059,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>308</v>
+        <v>760</v>
       </c>
       <c r="F9" s="3">
         <v>1.0</v>
@@ -32068,10 +32070,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F10" s="3">
         <v>1.0</v>
@@ -32079,10 +32081,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="F11" s="3">
         <v>1.0</v>
@@ -32090,10 +32092,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F12" s="3">
         <v>1.0</v>
@@ -32101,7 +32103,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>330</v>
+        <v>841</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="F13" s="3">
         <v>1.0</v>
@@ -32109,7 +32114,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>762</v>
+        <v>842</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="F14" s="3">
         <v>1.0</v>
@@ -32117,7 +32125,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>332</v>
+        <v>843</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="F15" s="3">
         <v>1.0</v>
@@ -32125,12 +32136,102 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F25" s="3">
         <v>1.0</v>
       </c>
     </row>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="OID-draft" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="OLD-draft-no-not-update" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="OID" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="LVIS" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="PASCAL-parts" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="EksterneData_1">'OID-draft'!$A$1:$D$602</definedName>
+    <definedName localSheetId="0" name="EksterneData_1">'OLD-draft-no-not-update'!$A$1:$D$602</definedName>
     <definedName localSheetId="1" name="EksterneData_1">OID!$A$1:$D$602</definedName>
   </definedNames>
   <calcPr/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="851">
   <si>
     <t>class</t>
   </si>
@@ -2865,7 +2865,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3074,7 +3074,26 @@
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3163,12 +3182,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="3">
-    <tableStyle count="3" pivot="0" name="OID-draft-style">
+    <tableStyle count="3" pivot="0" name="OLD-draft-no-not-update-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="OID-draft-style 2">
+    <tableStyle count="2" pivot="0" name="OLD-draft-no-not-update-style 2">
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -3206,7 +3225,7 @@
     <tableColumn name="validation" id="4"/>
     <tableColumn name="Rename" id="5"/>
   </tableColumns>
-  <tableStyleInfo name="OID-draft-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="OLD-draft-no-not-update-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -3215,7 +3234,7 @@
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
-  <tableStyleInfo name="OID-draft-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="OLD-draft-no-not-update-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -11514,9 +11533,7 @@
         <v>18.0</v>
       </c>
       <c r="E402" s="1"/>
-      <c r="J402" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="J402" s="7"/>
       <c r="O402" s="4"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
@@ -15626,7 +15643,7 @@
       </c>
       <c r="J604" s="19">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K604" s="19">
         <f>SUM(K2:K601)</f>
@@ -15641,7 +15658,7 @@
       </c>
       <c r="N604" s="19">
         <f t="shared" ref="N604:N606" si="2">SUM(F604:L604)</f>
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O604" s="11"/>
     </row>
@@ -15699,7 +15716,7 @@
       </c>
       <c r="J606" s="19">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K606" s="19">
         <f t="shared" si="3"/>
@@ -15714,7 +15731,7 @@
       </c>
       <c r="N606" s="19">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O606" s="11"/>
       <c r="P606" s="22">
@@ -17636,7 +17653,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -17676,6 +17693,7 @@
         <v>24.0</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="75"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -17691,7 +17709,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
@@ -17707,6 +17725,7 @@
         <v>155.0</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="75"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
@@ -17724,6 +17743,7 @@
         <v>758.0</v>
       </c>
       <c r="E5" s="1"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="3">
         <v>1.0</v>
       </c>
@@ -17744,7 +17764,7 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -17762,6 +17782,7 @@
         <v>27.0</v>
       </c>
       <c r="E7" s="1"/>
+      <c r="F7" s="75"/>
       <c r="K7" s="3">
         <v>1.0</v>
       </c>
@@ -17780,6 +17801,7 @@
         <v>14.0</v>
       </c>
       <c r="E8" s="1"/>
+      <c r="F8" s="75"/>
       <c r="G8" s="9">
         <v>1.0</v>
       </c>
@@ -17798,6 +17820,7 @@
         <v>211.0</v>
       </c>
       <c r="E9" s="1"/>
+      <c r="F9" s="75"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -17815,6 +17838,7 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F10" s="75"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -17831,6 +17855,7 @@
         <v>78.0</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="F11" s="75"/>
       <c r="K11" s="3">
         <v>1.0</v>
       </c>
@@ -17849,6 +17874,7 @@
         <v>54.0</v>
       </c>
       <c r="E12" s="1"/>
+      <c r="F12" s="75"/>
       <c r="J12" s="8">
         <v>1.0</v>
       </c>
@@ -17867,6 +17893,7 @@
         <v>0.0</v>
       </c>
       <c r="E13" s="1"/>
+      <c r="F13" s="75"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="O13" s="3"/>
@@ -17886,6 +17913,7 @@
         <v>18.0</v>
       </c>
       <c r="E14" s="1"/>
+      <c r="F14" s="75"/>
       <c r="J14" s="9">
         <v>1.0</v>
       </c>
@@ -17904,6 +17932,7 @@
         <v>531.0</v>
       </c>
       <c r="E15" s="1"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
@@ -17919,6 +17948,7 @@
         <v>0.0</v>
       </c>
       <c r="E16" s="1"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -17935,7 +17965,7 @@
         <v>24.0</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="3">
+      <c r="F17" s="74">
         <v>1.0</v>
       </c>
       <c r="G17" s="8">
@@ -17959,6 +17989,7 @@
         <v>35.0</v>
       </c>
       <c r="E18" s="1"/>
+      <c r="F18" s="75"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -17975,6 +18006,7 @@
         <v>760.0</v>
       </c>
       <c r="E19" s="1"/>
+      <c r="F19" s="75"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
@@ -17990,6 +18022,7 @@
         <v>11.0</v>
       </c>
       <c r="E20" s="1"/>
+      <c r="F20" s="75"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
@@ -18007,7 +18040,7 @@
         <v>205.0</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="3">
+      <c r="F21" s="74">
         <v>1.0</v>
       </c>
       <c r="G21" s="3">
@@ -18033,7 +18066,7 @@
         <v>51.0</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="3">
+      <c r="F22" s="74">
         <v>1.0</v>
       </c>
       <c r="G22" s="3">
@@ -18054,6 +18087,7 @@
         <v>18.0</v>
       </c>
       <c r="E23" s="1"/>
+      <c r="F23" s="75"/>
       <c r="J23" s="3">
         <v>1.0</v>
       </c>
@@ -18072,7 +18106,7 @@
         <v>0.0</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="74"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -18090,6 +18124,7 @@
         <v>8.0</v>
       </c>
       <c r="E25" s="1"/>
+      <c r="F25" s="75"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="s">
@@ -18107,6 +18142,7 @@
       <c r="E26" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="F26" s="75"/>
       <c r="G26" s="10">
         <v>1.0</v>
       </c>
@@ -18125,6 +18161,7 @@
         <v>41.0</v>
       </c>
       <c r="E27" s="1"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="3">
         <v>1.0</v>
       </c>
@@ -18145,6 +18182,7 @@
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="F28" s="75"/>
       <c r="L28" s="3">
         <v>1.0</v>
       </c>
@@ -18167,6 +18205,7 @@
       <c r="E29" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="F29" s="75"/>
       <c r="L29" s="3">
         <v>1.0</v>
       </c>
@@ -18189,6 +18228,7 @@
       <c r="E30" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="F30" s="75"/>
       <c r="K30" s="3">
         <v>1.0</v>
       </c>
@@ -18207,6 +18247,7 @@
         <v>54.0</v>
       </c>
       <c r="E31" s="1"/>
+      <c r="F31" s="75"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="5" t="s">
@@ -18224,7 +18265,7 @@
       <c r="E32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18242,7 +18283,7 @@
         <v>17.0</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="3">
+      <c r="F33" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18260,6 +18301,7 @@
         <v>0.0</v>
       </c>
       <c r="E34" s="1"/>
+      <c r="F34" s="75"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="5" t="s">
@@ -18275,6 +18317,7 @@
         <v>21.0</v>
       </c>
       <c r="E35" s="1"/>
+      <c r="F35" s="75"/>
       <c r="K35" s="3">
         <v>1.0</v>
       </c>
@@ -18293,7 +18336,7 @@
         <v>103.0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="3">
+      <c r="F36" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18311,6 +18354,7 @@
         <v>73.0</v>
       </c>
       <c r="E37" s="1"/>
+      <c r="F37" s="75"/>
       <c r="K37" s="3">
         <v>1.0</v>
       </c>
@@ -18329,9 +18373,7 @@
         <v>16.0</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="G38" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F38" s="75"/>
       <c r="K38" s="3">
         <v>1.0</v>
       </c>
@@ -18350,6 +18392,7 @@
         <v>95.0</v>
       </c>
       <c r="E39" s="1"/>
+      <c r="F39" s="75"/>
       <c r="J39" s="3">
         <v>1.0</v>
       </c>
@@ -18368,6 +18411,7 @@
         <v>47.0</v>
       </c>
       <c r="E40" s="1"/>
+      <c r="F40" s="75"/>
       <c r="K40" s="3">
         <v>1.0</v>
       </c>
@@ -18386,7 +18430,7 @@
         <v>34.0</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="78"/>
       <c r="J41" s="8">
         <v>1.0</v>
       </c>
@@ -18405,6 +18449,7 @@
         <v>11.0</v>
       </c>
       <c r="E42" s="1"/>
+      <c r="F42" s="75"/>
       <c r="H42" s="7"/>
       <c r="I42" s="9">
         <v>1.0</v>
@@ -18424,6 +18469,7 @@
         <v>6.0</v>
       </c>
       <c r="E43" s="1"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="3">
         <v>1.0</v>
       </c>
@@ -18442,6 +18488,7 @@
         <v>252.0</v>
       </c>
       <c r="E44" s="1"/>
+      <c r="F44" s="75"/>
       <c r="G44" s="3">
         <v>1.0</v>
       </c>
@@ -18462,6 +18509,7 @@
       <c r="E45" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F45" s="75"/>
       <c r="G45" s="3">
         <v>1.0</v>
       </c>
@@ -18485,6 +18533,7 @@
       <c r="E46" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="F46" s="75"/>
       <c r="G46" s="3">
         <v>1.0</v>
       </c>
@@ -18503,6 +18552,7 @@
         <v>20.0</v>
       </c>
       <c r="E47" s="1"/>
+      <c r="F47" s="75"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
@@ -18520,6 +18570,7 @@
         <v>31.0</v>
       </c>
       <c r="E48" s="1"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="3">
         <v>1.0</v>
       </c>
@@ -18538,6 +18589,7 @@
         <v>29.0</v>
       </c>
       <c r="E49" s="1"/>
+      <c r="F49" s="75"/>
       <c r="L49" s="3">
         <v>1.0</v>
       </c>
@@ -18556,6 +18608,7 @@
         <v>7.0</v>
       </c>
       <c r="E50" s="1"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="5" t="s">
@@ -18571,6 +18624,7 @@
         <v>593.0</v>
       </c>
       <c r="E51" s="1"/>
+      <c r="F51" s="75"/>
       <c r="K51" s="3">
         <v>1.0</v>
       </c>
@@ -18589,7 +18643,7 @@
         <v>8.0</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="8">
+      <c r="F52" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -18607,6 +18661,7 @@
         <v>28.0</v>
       </c>
       <c r="E53" s="1"/>
+      <c r="F53" s="75"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
@@ -18624,6 +18679,7 @@
         <v>567.0</v>
       </c>
       <c r="E54" s="1"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="3">
         <v>1.0</v>
       </c>
@@ -18642,6 +18698,7 @@
         <v>0.0</v>
       </c>
       <c r="E55" s="1"/>
+      <c r="F55" s="75"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
@@ -18659,7 +18716,7 @@
         <v>95.0</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="3">
+      <c r="F56" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18677,7 +18734,7 @@
         <v>78.0</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="3">
+      <c r="F57" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18695,6 +18752,7 @@
         <v>102.0</v>
       </c>
       <c r="E58" s="1"/>
+      <c r="F58" s="75"/>
       <c r="I58" s="3">
         <v>1.0</v>
       </c>
@@ -18713,7 +18771,7 @@
         <v>207.0</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="3">
+      <c r="F59" s="74">
         <v>1.0</v>
       </c>
       <c r="G59" s="3">
@@ -18737,6 +18795,7 @@
         <v>0.0</v>
       </c>
       <c r="E60" s="1"/>
+      <c r="F60" s="75"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
@@ -18754,6 +18813,7 @@
         <v>12.0</v>
       </c>
       <c r="E61" s="1"/>
+      <c r="F61" s="75"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
@@ -18772,7 +18832,7 @@
         <v>49.0</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="3">
+      <c r="F62" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -18792,6 +18852,7 @@
       <c r="E63" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="F63" s="75"/>
       <c r="L63" s="3">
         <v>1.0</v>
       </c>
@@ -18812,7 +18873,7 @@
         <v>77.0</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="3">
+      <c r="F64" s="74">
         <v>1.0</v>
       </c>
       <c r="G64" s="3">
@@ -18833,6 +18894,7 @@
         <v>579.0</v>
       </c>
       <c r="E65" s="1"/>
+      <c r="F65" s="75"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="5" t="s">
@@ -18850,6 +18912,7 @@
       <c r="E66" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="F66" s="75"/>
       <c r="I66" s="3">
         <v>1.0</v>
       </c>
@@ -18868,6 +18931,7 @@
         <v>264.0</v>
       </c>
       <c r="E67" s="1"/>
+      <c r="F67" s="75"/>
       <c r="J67" s="3">
         <v>1.0</v>
       </c>
@@ -18886,6 +18950,7 @@
         <v>5.0</v>
       </c>
       <c r="E68" s="2"/>
+      <c r="F68" s="75"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="5" t="s">
@@ -18901,6 +18966,7 @@
         <v>27.0</v>
       </c>
       <c r="E69" s="1"/>
+      <c r="F69" s="75"/>
       <c r="J69" s="8">
         <v>1.0</v>
       </c>
@@ -18921,6 +18987,7 @@
       <c r="E70" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="F70" s="75"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="5" t="s">
@@ -18938,6 +19005,7 @@
       <c r="E71" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="F71" s="75"/>
       <c r="K71" s="3">
         <v>1.0</v>
       </c>
@@ -18956,8 +19024,9 @@
         <v>1884.0</v>
       </c>
       <c r="E72" s="1"/>
+      <c r="F72" s="75"/>
       <c r="G72" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
@@ -18974,6 +19043,7 @@
         <v>73.0</v>
       </c>
       <c r="E73" s="1"/>
+      <c r="F73" s="75"/>
       <c r="K73" s="3">
         <v>1.0</v>
       </c>
@@ -18992,6 +19062,7 @@
         <v>18.0</v>
       </c>
       <c r="E74" s="1"/>
+      <c r="F74" s="75"/>
       <c r="J74" s="13">
         <v>1.0</v>
       </c>
@@ -19010,6 +19081,7 @@
         <v>82.0</v>
       </c>
       <c r="E75" s="1"/>
+      <c r="F75" s="75"/>
       <c r="G75" s="3">
         <v>1.0</v>
       </c>
@@ -19028,6 +19100,7 @@
         <v>25.0</v>
       </c>
       <c r="E76" s="1"/>
+      <c r="F76" s="75"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
@@ -19045,6 +19118,7 @@
         <v>65.0</v>
       </c>
       <c r="E77" s="1"/>
+      <c r="F77" s="75"/>
       <c r="K77" s="3">
         <v>1.0</v>
       </c>
@@ -19063,6 +19137,7 @@
         <v>31.0</v>
       </c>
       <c r="E78" s="1"/>
+      <c r="F78" s="75"/>
       <c r="J78" s="7"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
@@ -19081,7 +19156,7 @@
       <c r="E79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="74">
         <v>1.0</v>
       </c>
       <c r="O79" s="3"/>
@@ -19101,6 +19176,7 @@
         <v>275.0</v>
       </c>
       <c r="E80" s="1"/>
+      <c r="F80" s="75"/>
       <c r="J80" s="3">
         <v>1.0</v>
       </c>
@@ -19119,6 +19195,7 @@
         <v>3.0</v>
       </c>
       <c r="E81" s="1"/>
+      <c r="F81" s="75"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
@@ -19136,7 +19213,7 @@
         <v>9.0</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="76"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="5" t="s">
@@ -19152,6 +19229,7 @@
         <v>25.0</v>
       </c>
       <c r="E83" s="1"/>
+      <c r="F83" s="75"/>
       <c r="K83" s="3">
         <v>1.0</v>
       </c>
@@ -19170,7 +19248,7 @@
         <v>142.0</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="3">
+      <c r="F84" s="74">
         <v>1.0</v>
       </c>
       <c r="G84" s="3">
@@ -19191,6 +19269,7 @@
         <v>0.0</v>
       </c>
       <c r="E85" s="1"/>
+      <c r="F85" s="75"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="5" t="s">
@@ -19208,6 +19287,7 @@
       <c r="E86" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="F86" s="75"/>
       <c r="K86" s="3">
         <v>1.0</v>
       </c>
@@ -19226,7 +19306,7 @@
         <v>55.0</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="8">
+      <c r="F87" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -19244,6 +19324,7 @@
         <v>95.0</v>
       </c>
       <c r="E88" s="1"/>
+      <c r="F88" s="75"/>
       <c r="J88" s="3">
         <v>1.0</v>
       </c>
@@ -19262,6 +19343,7 @@
         <v>18.0</v>
       </c>
       <c r="E89" s="1"/>
+      <c r="F89" s="75"/>
       <c r="G89" s="3">
         <v>1.0</v>
       </c>
@@ -19280,6 +19362,7 @@
         <v>80.0</v>
       </c>
       <c r="E90" s="1"/>
+      <c r="F90" s="75"/>
       <c r="L90" s="3">
         <v>1.0</v>
       </c>
@@ -19302,6 +19385,7 @@
       <c r="E91" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="F91" s="75"/>
       <c r="J91" s="3">
         <v>1.0</v>
       </c>
@@ -19320,8 +19404,9 @@
         <v>5095.0</v>
       </c>
       <c r="E92" s="1"/>
+      <c r="F92" s="75"/>
       <c r="G92" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
@@ -19338,6 +19423,7 @@
         <v>226.0</v>
       </c>
       <c r="E93" s="1"/>
+      <c r="F93" s="75"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="5" t="s">
@@ -19353,6 +19439,7 @@
         <v>35.0</v>
       </c>
       <c r="E94" s="1"/>
+      <c r="F94" s="75"/>
       <c r="J94" s="8">
         <v>1.0</v>
       </c>
@@ -19371,6 +19458,7 @@
         <v>95.0</v>
       </c>
       <c r="E95" s="1"/>
+      <c r="F95" s="75"/>
       <c r="G95" s="3">
         <v>1.0</v>
       </c>
@@ -19389,6 +19477,7 @@
         <v>10.0</v>
       </c>
       <c r="E96" s="1"/>
+      <c r="F96" s="75"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
@@ -19406,6 +19495,7 @@
         <v>32.0</v>
       </c>
       <c r="E97" s="1"/>
+      <c r="F97" s="75"/>
       <c r="G97" s="3">
         <v>1.0</v>
       </c>
@@ -19424,6 +19514,7 @@
         <v>345.0</v>
       </c>
       <c r="E98" s="1"/>
+      <c r="F98" s="75"/>
       <c r="K98" s="3">
         <v>1.0</v>
       </c>
@@ -19442,6 +19533,7 @@
         <v>1.0</v>
       </c>
       <c r="E99" s="1"/>
+      <c r="F99" s="75"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
@@ -19459,6 +19551,7 @@
         <v>22.0</v>
       </c>
       <c r="E100" s="1"/>
+      <c r="F100" s="75"/>
       <c r="K100" s="3">
         <v>1.0</v>
       </c>
@@ -19479,6 +19572,7 @@
       <c r="E101" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="F101" s="75"/>
       <c r="K101" s="3">
         <v>1.0</v>
       </c>
@@ -19499,7 +19593,7 @@
       <c r="E102" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -19517,6 +19611,7 @@
         <v>27.0</v>
       </c>
       <c r="E103" s="1"/>
+      <c r="F103" s="75"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="5" t="s">
@@ -19532,6 +19627,7 @@
         <v>14.0</v>
       </c>
       <c r="E104" s="1"/>
+      <c r="F104" s="75"/>
       <c r="K104" s="3">
         <v>1.0</v>
       </c>
@@ -19550,6 +19646,7 @@
         <v>2.0</v>
       </c>
       <c r="E105" s="1"/>
+      <c r="F105" s="75"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="5" t="s">
@@ -19565,11 +19662,11 @@
         <v>311.0</v>
       </c>
       <c r="E106" s="2"/>
-      <c r="F106" s="3">
-        <v>1.0</v>
+      <c r="F106" s="74">
+        <v>2.0</v>
       </c>
       <c r="G106" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
@@ -19586,6 +19683,7 @@
         <v>95.0</v>
       </c>
       <c r="E107" s="1"/>
+      <c r="F107" s="75"/>
       <c r="J107" s="3">
         <v>1.0</v>
       </c>
@@ -19604,6 +19702,7 @@
         <v>30.0</v>
       </c>
       <c r="E108" s="1"/>
+      <c r="F108" s="75"/>
       <c r="K108" s="3">
         <v>1.0</v>
       </c>
@@ -19624,7 +19723,7 @@
       <c r="E109" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -19642,6 +19741,7 @@
         <v>49.0</v>
       </c>
       <c r="E110" s="1"/>
+      <c r="F110" s="75"/>
       <c r="K110" s="3">
         <v>1.0</v>
       </c>
@@ -19660,6 +19760,7 @@
         <v>0.0</v>
       </c>
       <c r="E111" s="1"/>
+      <c r="F111" s="75"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
@@ -19677,6 +19778,7 @@
         <v>2.0</v>
       </c>
       <c r="E112" s="1"/>
+      <c r="F112" s="75"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
@@ -19694,7 +19796,7 @@
         <v>17.0</v>
       </c>
       <c r="E113" s="2"/>
-      <c r="F113" s="3"/>
+      <c r="F113" s="74"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="5" t="s">
@@ -19712,7 +19814,7 @@
       <c r="E114" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F114" s="8">
+      <c r="F114" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -19730,7 +19832,7 @@
         <v>21.0</v>
       </c>
       <c r="E115" s="2"/>
-      <c r="F115" s="8">
+      <c r="F115" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -19750,7 +19852,7 @@
       <c r="E116" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -19768,6 +19870,7 @@
         <v>6626.0</v>
       </c>
       <c r="E117" s="1"/>
+      <c r="F117" s="75"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="5" t="s">
@@ -19783,6 +19886,7 @@
         <v>84.0</v>
       </c>
       <c r="E118" s="1"/>
+      <c r="F118" s="75"/>
       <c r="I118" s="3">
         <v>1.0</v>
       </c>
@@ -19803,6 +19907,7 @@
       <c r="E119" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="F119" s="75"/>
       <c r="J119" s="3">
         <v>1.0</v>
       </c>
@@ -19821,6 +19926,7 @@
         <v>0.0</v>
       </c>
       <c r="E120" s="1"/>
+      <c r="F120" s="75"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
     </row>
@@ -19838,6 +19944,7 @@
         <v>8.0</v>
       </c>
       <c r="E121" s="1"/>
+      <c r="F121" s="75"/>
       <c r="I121" s="7"/>
       <c r="J121" s="9">
         <v>1.0</v>
@@ -19857,6 +19964,7 @@
         <v>126.0</v>
       </c>
       <c r="E122" s="1"/>
+      <c r="F122" s="75"/>
       <c r="J122" s="3">
         <v>1.0</v>
       </c>
@@ -19877,7 +19985,7 @@
       <c r="E123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -19897,7 +20005,7 @@
       <c r="E124" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -19915,7 +20023,7 @@
         <v>20.0</v>
       </c>
       <c r="E125" s="6"/>
-      <c r="F125" s="9">
+      <c r="F125" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -19933,7 +20041,7 @@
         <v>55.0</v>
       </c>
       <c r="E126" s="2"/>
-      <c r="F126" s="3">
+      <c r="F126" s="74">
         <v>1.0</v>
       </c>
       <c r="G126" s="3">
@@ -19954,6 +20062,7 @@
         <v>7.0</v>
       </c>
       <c r="E127" s="2"/>
+      <c r="F127" s="75"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
@@ -19972,6 +20081,7 @@
       <c r="E128" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="F128" s="75"/>
       <c r="G128" s="3">
         <v>1.0</v>
       </c>
@@ -19992,7 +20102,7 @@
       <c r="E129" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20012,7 +20122,7 @@
       <c r="E130" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20032,7 +20142,7 @@
       <c r="E131" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20050,6 +20160,7 @@
         <v>0.0</v>
       </c>
       <c r="E132" s="1"/>
+      <c r="F132" s="75"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="5" t="s">
@@ -20065,6 +20176,7 @@
         <v>94.0</v>
       </c>
       <c r="E133" s="1"/>
+      <c r="F133" s="75"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="5" t="s">
@@ -20080,6 +20192,7 @@
         <v>111.0</v>
       </c>
       <c r="E134" s="1"/>
+      <c r="F134" s="75"/>
       <c r="J134" s="3">
         <v>1.0</v>
       </c>
@@ -20098,6 +20211,7 @@
         <v>0.0</v>
       </c>
       <c r="E135" s="1"/>
+      <c r="F135" s="75"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="5" t="s">
@@ -20113,6 +20227,7 @@
         <v>6.0</v>
       </c>
       <c r="E136" s="1"/>
+      <c r="F136" s="75"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
     </row>
@@ -20130,6 +20245,7 @@
         <v>46.0</v>
       </c>
       <c r="E137" s="1"/>
+      <c r="F137" s="75"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="5" t="s">
@@ -20145,7 +20261,7 @@
         <v>49.0</v>
       </c>
       <c r="E138" s="2"/>
-      <c r="F138" s="3">
+      <c r="F138" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20163,6 +20279,7 @@
         <v>58.0</v>
       </c>
       <c r="E139" s="1"/>
+      <c r="F139" s="75"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
     </row>
@@ -20182,6 +20299,7 @@
       <c r="E140" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="F140" s="75"/>
       <c r="I140" s="3">
         <v>1.0</v>
       </c>
@@ -20200,6 +20318,7 @@
         <v>66.0</v>
       </c>
       <c r="E141" s="1"/>
+      <c r="F141" s="75"/>
       <c r="K141" s="3">
         <v>1.0</v>
       </c>
@@ -20218,6 +20337,7 @@
         <v>13.0</v>
       </c>
       <c r="E142" s="1"/>
+      <c r="F142" s="75"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
     </row>
@@ -20235,6 +20355,7 @@
         <v>3.0</v>
       </c>
       <c r="E143" s="1"/>
+      <c r="F143" s="75"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
     </row>
@@ -20252,6 +20373,7 @@
         <v>39.0</v>
       </c>
       <c r="E144" s="1"/>
+      <c r="F144" s="75"/>
       <c r="K144" s="3">
         <v>1.0</v>
       </c>
@@ -20270,6 +20392,7 @@
         <v>25.0</v>
       </c>
       <c r="E145" s="2"/>
+      <c r="F145" s="75"/>
       <c r="J145" s="3">
         <v>1.0</v>
       </c>
@@ -20288,6 +20411,7 @@
         <v>21.0</v>
       </c>
       <c r="E146" s="1"/>
+      <c r="F146" s="75"/>
       <c r="I146" s="8">
         <v>1.0</v>
       </c>
@@ -20306,7 +20430,7 @@
         <v>2.0</v>
       </c>
       <c r="E147" s="14"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="74"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="5" t="s">
@@ -20322,6 +20446,7 @@
         <v>54.0</v>
       </c>
       <c r="E148" s="1"/>
+      <c r="F148" s="75"/>
       <c r="J148" s="8">
         <v>1.0</v>
       </c>
@@ -20340,7 +20465,7 @@
         <v>103.0</v>
       </c>
       <c r="E149" s="2"/>
-      <c r="F149" s="8">
+      <c r="F149" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -20358,7 +20483,7 @@
         <v>47.0</v>
       </c>
       <c r="E150" s="2"/>
-      <c r="F150" s="3">
+      <c r="F150" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20378,7 +20503,7 @@
       <c r="E151" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F151" s="8">
+      <c r="F151" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -20396,7 +20521,7 @@
         <v>40.0</v>
       </c>
       <c r="E152" s="6"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="76"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="5" t="s">
@@ -20412,6 +20537,7 @@
         <v>351.0</v>
       </c>
       <c r="E153" s="1"/>
+      <c r="F153" s="75"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="5" t="s">
@@ -20427,6 +20553,7 @@
         <v>92.0</v>
       </c>
       <c r="E154" s="1"/>
+      <c r="F154" s="75"/>
       <c r="K154" s="3">
         <v>1.0</v>
       </c>
@@ -20447,7 +20574,7 @@
       <c r="E155" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20465,6 +20592,7 @@
         <v>642.0</v>
       </c>
       <c r="E156" s="1"/>
+      <c r="F156" s="75"/>
       <c r="J156" s="3">
         <v>1.0</v>
       </c>
@@ -20483,6 +20611,7 @@
         <v>1.0</v>
       </c>
       <c r="E157" s="1"/>
+      <c r="F157" s="75"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
     </row>
@@ -20500,7 +20629,7 @@
         <v>24.0</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="7"/>
+      <c r="F158" s="76"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
     </row>
@@ -20520,7 +20649,7 @@
       <c r="E159" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20538,6 +20667,7 @@
         <v>29.0</v>
       </c>
       <c r="E160" s="1"/>
+      <c r="F160" s="75"/>
       <c r="K160" s="3">
         <v>1.0</v>
       </c>
@@ -20556,6 +20686,7 @@
         <v>3.0</v>
       </c>
       <c r="E161" s="1"/>
+      <c r="F161" s="75"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="5" t="s">
@@ -20571,6 +20702,7 @@
         <v>1586.0</v>
       </c>
       <c r="E162" s="1"/>
+      <c r="F162" s="75"/>
       <c r="K162" s="3">
         <v>1.0</v>
       </c>
@@ -20589,6 +20721,7 @@
         <v>8.0</v>
       </c>
       <c r="E163" s="1"/>
+      <c r="F163" s="75"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="5" t="s">
@@ -20604,7 +20737,7 @@
         <v>67.0</v>
       </c>
       <c r="E164" s="2"/>
-      <c r="F164" s="3">
+      <c r="F164" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -20622,6 +20755,7 @@
         <v>61.0</v>
       </c>
       <c r="E165" s="1"/>
+      <c r="F165" s="75"/>
       <c r="K165" s="3">
         <v>1.0</v>
       </c>
@@ -20640,11 +20774,11 @@
         <v>204.0</v>
       </c>
       <c r="E166" s="2"/>
-      <c r="F166" s="3">
-        <v>1.0</v>
+      <c r="F166" s="74">
+        <v>2.0</v>
       </c>
       <c r="G166" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
@@ -20660,15 +20794,10 @@
       <c r="D167" s="1">
         <v>30.0</v>
       </c>
-      <c r="E167" s="74" t="s">
+      <c r="E167" s="80" t="s">
         <v>780</v>
       </c>
-      <c r="F167" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G167" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F167" s="77"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="5" t="s">
@@ -20684,6 +20813,7 @@
         <v>45.0</v>
       </c>
       <c r="E168" s="1"/>
+      <c r="F168" s="75"/>
       <c r="J168" s="3">
         <v>1.0</v>
       </c>
@@ -20702,6 +20832,7 @@
         <v>17.0</v>
       </c>
       <c r="E169" s="1"/>
+      <c r="F169" s="75"/>
       <c r="K169" s="3">
         <v>1.0</v>
       </c>
@@ -20720,7 +20851,7 @@
         <v>99.0</v>
       </c>
       <c r="E170" s="2"/>
-      <c r="F170" s="8">
+      <c r="F170" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -20738,6 +20869,7 @@
         <v>710.0</v>
       </c>
       <c r="E171" s="1"/>
+      <c r="F171" s="75"/>
       <c r="I171" s="3">
         <v>1.0</v>
       </c>
@@ -20756,7 +20888,7 @@
         <v>1.0</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="10"/>
+      <c r="F172" s="78"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -20773,7 +20905,7 @@
         <v>356.0</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="16"/>
+      <c r="F173" s="81"/>
       <c r="J173" s="3">
         <v>1.0</v>
       </c>
@@ -20792,6 +20924,7 @@
         <v>7.0</v>
       </c>
       <c r="E174" s="1"/>
+      <c r="F174" s="75"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="5" t="s">
@@ -20807,6 +20940,7 @@
         <v>76.0</v>
       </c>
       <c r="E175" s="2"/>
+      <c r="F175" s="75"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="5" t="s">
@@ -20822,6 +20956,7 @@
         <v>68.0</v>
       </c>
       <c r="E176" s="2"/>
+      <c r="F176" s="75"/>
       <c r="K176" s="3">
         <v>1.0</v>
       </c>
@@ -20840,6 +20975,7 @@
         <v>2.0</v>
       </c>
       <c r="E177" s="1"/>
+      <c r="F177" s="75"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3"/>
@@ -20858,6 +20994,7 @@
         <v>53.0</v>
       </c>
       <c r="E178" s="1"/>
+      <c r="F178" s="75"/>
       <c r="K178" s="3">
         <v>1.0</v>
       </c>
@@ -20876,6 +21013,7 @@
         <v>21.0</v>
       </c>
       <c r="E179" s="1"/>
+      <c r="F179" s="75"/>
       <c r="I179" s="3">
         <v>1.0</v>
       </c>
@@ -20894,6 +21032,7 @@
         <v>72.0</v>
       </c>
       <c r="E180" s="1"/>
+      <c r="F180" s="75"/>
       <c r="J180" s="3">
         <v>1.0</v>
       </c>
@@ -20912,6 +21051,7 @@
         <v>33.0</v>
       </c>
       <c r="E181" s="1"/>
+      <c r="F181" s="75"/>
       <c r="K181" s="3">
         <v>1.0</v>
       </c>
@@ -20930,6 +21070,7 @@
         <v>7.0</v>
       </c>
       <c r="E182" s="1"/>
+      <c r="F182" s="75"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="5" t="s">
@@ -20945,6 +21086,7 @@
         <v>0.0</v>
       </c>
       <c r="E183" s="1"/>
+      <c r="F183" s="75"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="5" t="s">
@@ -20960,6 +21102,7 @@
         <v>3.0</v>
       </c>
       <c r="E184" s="1"/>
+      <c r="F184" s="75"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="5" t="s">
@@ -20975,6 +21118,7 @@
         <v>0.0</v>
       </c>
       <c r="E185" s="1"/>
+      <c r="F185" s="75"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="5" t="s">
@@ -20990,6 +21134,7 @@
         <v>50.0</v>
       </c>
       <c r="E186" s="1"/>
+      <c r="F186" s="75"/>
       <c r="K186" s="3">
         <v>1.0</v>
       </c>
@@ -21008,6 +21153,7 @@
         <v>999.0</v>
       </c>
       <c r="E187" s="1"/>
+      <c r="F187" s="75"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
     </row>
@@ -21025,6 +21171,7 @@
         <v>448.0</v>
       </c>
       <c r="E188" s="1"/>
+      <c r="F188" s="75"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
     </row>
@@ -21042,6 +21189,7 @@
         <v>8.0</v>
       </c>
       <c r="E189" s="1"/>
+      <c r="F189" s="75"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="5" t="s">
@@ -21059,6 +21207,7 @@
       <c r="E190" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="F190" s="75"/>
       <c r="I190" s="3">
         <v>1.0</v>
       </c>
@@ -21077,6 +21226,7 @@
         <v>37.0</v>
       </c>
       <c r="E191" s="1"/>
+      <c r="F191" s="75"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
     </row>
@@ -21096,6 +21246,7 @@
       <c r="E192" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="F192" s="75"/>
       <c r="G192" s="3">
         <v>1.0</v>
       </c>
@@ -21114,7 +21265,7 @@
         <v>41.0</v>
       </c>
       <c r="E193" s="2"/>
-      <c r="F193" s="3">
+      <c r="F193" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -21132,6 +21283,7 @@
         <v>356.0</v>
       </c>
       <c r="E194" s="1"/>
+      <c r="F194" s="75"/>
       <c r="K194" s="3">
         <v>1.0</v>
       </c>
@@ -21150,7 +21302,7 @@
         <v>74.0</v>
       </c>
       <c r="E195" s="2"/>
-      <c r="F195" s="3">
+      <c r="F195" s="74">
         <v>1.0</v>
       </c>
       <c r="G195" s="3">
@@ -21171,7 +21323,7 @@
         <v>4.0</v>
       </c>
       <c r="E196" s="6"/>
-      <c r="F196" s="7"/>
+      <c r="F196" s="76"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="5" t="s">
@@ -21187,11 +21339,11 @@
         <v>2336.0</v>
       </c>
       <c r="E197" s="1"/>
-      <c r="F197" s="3">
-        <v>1.0</v>
+      <c r="F197" s="74">
+        <v>2.0</v>
       </c>
       <c r="G197" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
@@ -21208,7 +21360,7 @@
         <v>184.0</v>
       </c>
       <c r="E198" s="2"/>
-      <c r="F198" s="3">
+      <c r="F198" s="74">
         <v>1.0</v>
       </c>
       <c r="G198" s="3">
@@ -21231,6 +21383,7 @@
       <c r="E199" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="F199" s="75"/>
       <c r="J199" s="10">
         <v>1.0</v>
       </c>
@@ -21251,6 +21404,7 @@
       <c r="E200" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="F200" s="75"/>
       <c r="L200" s="9">
         <v>1.0</v>
       </c>
@@ -21271,6 +21425,7 @@
         <v>1696.0</v>
       </c>
       <c r="E201" s="1"/>
+      <c r="F201" s="75"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="5" t="s">
@@ -21286,6 +21441,7 @@
         <v>8.0</v>
       </c>
       <c r="E202" s="1"/>
+      <c r="F202" s="75"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
     </row>
@@ -21305,7 +21461,7 @@
       <c r="E203" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F203" s="3"/>
+      <c r="F203" s="74"/>
       <c r="G203" s="3">
         <v>1.0</v>
       </c>
@@ -21331,6 +21487,7 @@
       <c r="E204" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F204" s="75"/>
       <c r="L204" s="3">
         <v>1.0</v>
       </c>
@@ -21353,6 +21510,7 @@
       <c r="E205" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="F205" s="75"/>
       <c r="I205" s="3">
         <v>1.0</v>
       </c>
@@ -21371,7 +21529,7 @@
         <v>37.0</v>
       </c>
       <c r="E206" s="2"/>
-      <c r="F206" s="8">
+      <c r="F206" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -21389,6 +21547,7 @@
         <v>21.0</v>
       </c>
       <c r="E207" s="1"/>
+      <c r="F207" s="75"/>
       <c r="G207" s="3">
         <v>1.0</v>
       </c>
@@ -21407,6 +21566,7 @@
         <v>41.0</v>
       </c>
       <c r="E208" s="1"/>
+      <c r="F208" s="75"/>
       <c r="K208" s="3">
         <v>1.0</v>
       </c>
@@ -21427,6 +21587,7 @@
       <c r="E209" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="F209" s="75"/>
       <c r="J209" s="3">
         <v>1.0</v>
       </c>
@@ -21447,6 +21608,7 @@
       <c r="E210" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="F210" s="75"/>
       <c r="J210" s="3">
         <v>1.0</v>
       </c>
@@ -21465,6 +21627,7 @@
         <v>39.0</v>
       </c>
       <c r="E211" s="1"/>
+      <c r="F211" s="75"/>
       <c r="K211" s="3">
         <v>1.0</v>
       </c>
@@ -21483,6 +21646,7 @@
         <v>479.0</v>
       </c>
       <c r="E212" s="1"/>
+      <c r="F212" s="75"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
       <c r="A213" s="5" t="s">
@@ -21500,7 +21664,7 @@
       <c r="E213" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F213" s="10">
+      <c r="F213" s="78">
         <v>1.0</v>
       </c>
       <c r="G213" s="17"/>
@@ -21519,6 +21683,7 @@
         <v>626.0</v>
       </c>
       <c r="E214" s="1"/>
+      <c r="F214" s="75"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
       <c r="A215" s="5" t="s">
@@ -21536,6 +21701,7 @@
       <c r="E215" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="F215" s="75"/>
       <c r="J215" s="9">
         <v>1.0</v>
       </c>
@@ -21556,7 +21722,7 @@
       <c r="E216" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F216" s="3">
+      <c r="F216" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -21574,6 +21740,7 @@
         <v>15.0</v>
       </c>
       <c r="E217" s="1"/>
+      <c r="F217" s="75"/>
       <c r="K217" s="3">
         <v>1.0</v>
       </c>
@@ -21592,6 +21759,7 @@
         <v>2135.0</v>
       </c>
       <c r="E218" s="1"/>
+      <c r="F218" s="75"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
       <c r="A219" s="5" t="s">
@@ -21607,7 +21775,7 @@
         <v>258.0</v>
       </c>
       <c r="E219" s="2"/>
-      <c r="F219" s="3">
+      <c r="F219" s="74">
         <v>1.0</v>
       </c>
       <c r="G219" s="3">
@@ -21631,6 +21799,7 @@
         <v>49.0</v>
       </c>
       <c r="E220" s="1"/>
+      <c r="F220" s="75"/>
       <c r="I220" s="3">
         <v>1.0</v>
       </c>
@@ -21649,6 +21818,7 @@
         <v>61.0</v>
       </c>
       <c r="E221" s="1"/>
+      <c r="F221" s="75"/>
       <c r="K221" s="3">
         <v>1.0</v>
       </c>
@@ -21667,6 +21837,7 @@
         <v>112.0</v>
       </c>
       <c r="E222" s="1"/>
+      <c r="F222" s="75"/>
       <c r="L222" s="3">
         <v>1.0</v>
       </c>
@@ -21687,6 +21858,7 @@
         <v>20.0</v>
       </c>
       <c r="E223" s="1"/>
+      <c r="F223" s="75"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
     </row>
@@ -21704,6 +21876,7 @@
         <v>13.0</v>
       </c>
       <c r="E224" s="1"/>
+      <c r="F224" s="75"/>
       <c r="G224" s="7"/>
       <c r="L224" s="7">
         <v>1.0</v>
@@ -21725,6 +21898,7 @@
         <v>7.0</v>
       </c>
       <c r="E225" s="1"/>
+      <c r="F225" s="75"/>
       <c r="L225" s="7">
         <v>1.0</v>
       </c>
@@ -21745,6 +21919,7 @@
         <v>20.0</v>
       </c>
       <c r="E226" s="2"/>
+      <c r="F226" s="75"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
       <c r="A227" s="5" t="s">
@@ -21760,6 +21935,7 @@
         <v>60.0</v>
       </c>
       <c r="E227" s="1"/>
+      <c r="F227" s="75"/>
       <c r="K227" s="3">
         <v>1.0</v>
       </c>
@@ -21778,6 +21954,7 @@
         <v>45.0</v>
       </c>
       <c r="E228" s="1"/>
+      <c r="F228" s="75"/>
       <c r="J228" s="8">
         <v>1.0</v>
       </c>
@@ -21796,6 +21973,7 @@
         <v>58.0</v>
       </c>
       <c r="E229" s="1"/>
+      <c r="F229" s="75"/>
       <c r="J229" s="3">
         <v>1.0</v>
       </c>
@@ -21814,6 +21992,7 @@
         <v>0.0</v>
       </c>
       <c r="E230" s="1"/>
+      <c r="F230" s="75"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
       <c r="A231" s="5" t="s">
@@ -21829,6 +22008,7 @@
         <v>20.0</v>
       </c>
       <c r="E231" s="1"/>
+      <c r="F231" s="75"/>
       <c r="J231" s="3"/>
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
@@ -21847,7 +22027,7 @@
         <v>104.0</v>
       </c>
       <c r="E232" s="2"/>
-      <c r="F232" s="3">
+      <c r="F232" s="74">
         <v>1.0</v>
       </c>
       <c r="G232" s="3">
@@ -21868,6 +22048,7 @@
         <v>0.0</v>
       </c>
       <c r="E233" s="1"/>
+      <c r="F233" s="75"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
     </row>
@@ -21885,6 +22066,7 @@
         <v>0.0</v>
       </c>
       <c r="E234" s="1"/>
+      <c r="F234" s="75"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
     </row>
@@ -21902,6 +22084,7 @@
         <v>86.0</v>
       </c>
       <c r="E235" s="1"/>
+      <c r="F235" s="75"/>
       <c r="J235" s="3">
         <v>1.0</v>
       </c>
@@ -21920,7 +22103,7 @@
         <v>1.0</v>
       </c>
       <c r="E236" s="6"/>
-      <c r="F236" s="7"/>
+      <c r="F236" s="76"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
       <c r="A237" s="5" t="s">
@@ -21936,6 +22119,7 @@
         <v>30.0</v>
       </c>
       <c r="E237" s="1"/>
+      <c r="F237" s="75"/>
       <c r="K237" s="3">
         <v>1.0</v>
       </c>
@@ -21954,6 +22138,7 @@
         <v>0.0</v>
       </c>
       <c r="E238" s="1"/>
+      <c r="F238" s="75"/>
       <c r="O238" s="3"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
@@ -21972,10 +22157,7 @@
       <c r="E239" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F239" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G239" s="3">
+      <c r="F239" s="74">
         <v>1.0</v>
       </c>
       <c r="I239" s="3">
@@ -21999,6 +22181,7 @@
       <c r="E240" s="2" t="s">
         <v>285</v>
       </c>
+      <c r="F240" s="75"/>
       <c r="G240" s="3">
         <v>1.0</v>
       </c>
@@ -22019,6 +22202,7 @@
       <c r="E241" s="2" t="s">
         <v>287</v>
       </c>
+      <c r="F241" s="75"/>
       <c r="K241" s="3">
         <v>1.0</v>
       </c>
@@ -22037,6 +22221,7 @@
         <v>0.0</v>
       </c>
       <c r="E242" s="1"/>
+      <c r="F242" s="75"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
     </row>
@@ -22054,6 +22239,7 @@
         <v>18.0</v>
       </c>
       <c r="E243" s="1"/>
+      <c r="F243" s="75"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="A244" s="5" t="s">
@@ -22069,6 +22255,7 @@
         <v>31.0</v>
       </c>
       <c r="E244" s="1"/>
+      <c r="F244" s="75"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="A245" s="5" t="s">
@@ -22084,6 +22271,7 @@
         <v>145.0</v>
       </c>
       <c r="E245" s="1"/>
+      <c r="F245" s="75"/>
       <c r="G245" s="3"/>
       <c r="I245" s="3">
         <v>1.0</v>
@@ -22103,7 +22291,7 @@
         <v>39.0</v>
       </c>
       <c r="E246" s="2"/>
-      <c r="F246" s="3">
+      <c r="F246" s="74">
         <v>1.0</v>
       </c>
       <c r="I246" s="3">
@@ -22124,6 +22312,7 @@
         <v>9.0</v>
       </c>
       <c r="E247" s="1"/>
+      <c r="F247" s="75"/>
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
     </row>
@@ -22141,6 +22330,7 @@
         <v>24.0</v>
       </c>
       <c r="E248" s="1"/>
+      <c r="F248" s="75"/>
       <c r="K248" s="3">
         <v>1.0</v>
       </c>
@@ -22159,6 +22349,7 @@
         <v>136.0</v>
       </c>
       <c r="E249" s="1"/>
+      <c r="F249" s="75"/>
       <c r="G249" s="3">
         <v>1.0</v>
       </c>
@@ -22177,6 +22368,7 @@
         <v>315.0</v>
       </c>
       <c r="E250" s="1"/>
+      <c r="F250" s="75"/>
       <c r="G250" s="3">
         <v>1.0</v>
       </c>
@@ -22198,6 +22390,7 @@
         <v>109.0</v>
       </c>
       <c r="E251" s="1"/>
+      <c r="F251" s="75"/>
       <c r="I251" s="3">
         <v>1.0</v>
       </c>
@@ -22218,6 +22411,7 @@
       <c r="E252" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="F252" s="75"/>
       <c r="L252" s="3">
         <v>1.0</v>
       </c>
@@ -22238,6 +22432,7 @@
         <v>10.0</v>
       </c>
       <c r="E253" s="1"/>
+      <c r="F253" s="75"/>
       <c r="K253" s="3">
         <v>1.0</v>
       </c>
@@ -22256,6 +22451,7 @@
         <v>96.0</v>
       </c>
       <c r="E254" s="1"/>
+      <c r="F254" s="75"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="5" t="s">
@@ -22271,6 +22467,7 @@
         <v>10.0</v>
       </c>
       <c r="E255" s="1"/>
+      <c r="F255" s="75"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="5" t="s">
@@ -22286,6 +22483,7 @@
         <v>5.0</v>
       </c>
       <c r="E256" s="1"/>
+      <c r="F256" s="75"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="5" t="s">
@@ -22301,6 +22499,7 @@
         <v>277.0</v>
       </c>
       <c r="E257" s="1"/>
+      <c r="F257" s="75"/>
       <c r="K257" s="3">
         <v>1.0</v>
       </c>
@@ -22319,6 +22518,7 @@
         <v>13.0</v>
       </c>
       <c r="E258" s="1"/>
+      <c r="F258" s="75"/>
       <c r="J258" s="3">
         <v>1.0</v>
       </c>
@@ -22337,6 +22537,7 @@
         <v>570.0</v>
       </c>
       <c r="E259" s="1"/>
+      <c r="F259" s="75"/>
       <c r="G259" s="3">
         <v>1.0</v>
       </c>
@@ -22357,7 +22558,7 @@
       <c r="E260" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F260" s="3">
+      <c r="F260" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -22377,6 +22578,7 @@
       <c r="E261" s="3" t="s">
         <v>308</v>
       </c>
+      <c r="F261" s="75"/>
       <c r="H261" s="3">
         <v>1.0</v>
       </c>
@@ -22397,6 +22599,7 @@
       <c r="E262" s="3" t="s">
         <v>310</v>
       </c>
+      <c r="F262" s="75"/>
       <c r="H262" s="3">
         <v>1.0</v>
       </c>
@@ -22417,6 +22620,7 @@
       <c r="E263" s="3" t="s">
         <v>312</v>
       </c>
+      <c r="F263" s="75"/>
       <c r="H263" s="3">
         <v>1.0</v>
       </c>
@@ -22437,6 +22641,7 @@
       <c r="E264" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="F264" s="75"/>
       <c r="H264" s="3">
         <v>1.0</v>
       </c>
@@ -22457,6 +22662,7 @@
       <c r="E265" s="3" t="s">
         <v>316</v>
       </c>
+      <c r="F265" s="75"/>
       <c r="H265" s="3">
         <v>1.0</v>
       </c>
@@ -22477,6 +22683,7 @@
       <c r="E266" s="3" t="s">
         <v>318</v>
       </c>
+      <c r="F266" s="75"/>
       <c r="H266" s="3">
         <v>1.0</v>
       </c>
@@ -22497,6 +22704,7 @@
       <c r="E267" s="3" t="s">
         <v>320</v>
       </c>
+      <c r="F267" s="75"/>
       <c r="H267" s="3">
         <v>1.0</v>
       </c>
@@ -22517,6 +22725,7 @@
       <c r="E268" s="3" t="s">
         <v>322</v>
       </c>
+      <c r="F268" s="75"/>
       <c r="H268" s="3">
         <v>1.0</v>
       </c>
@@ -22537,6 +22746,7 @@
       <c r="E269" s="3" t="s">
         <v>324</v>
       </c>
+      <c r="F269" s="75"/>
       <c r="H269" s="3">
         <v>1.0</v>
       </c>
@@ -22557,6 +22767,7 @@
       <c r="E270" s="3" t="s">
         <v>326</v>
       </c>
+      <c r="F270" s="75"/>
       <c r="H270" s="3">
         <v>1.0</v>
       </c>
@@ -22577,6 +22788,7 @@
       <c r="E271" s="3" t="s">
         <v>328</v>
       </c>
+      <c r="F271" s="75"/>
       <c r="H271" s="3">
         <v>1.0</v>
       </c>
@@ -22597,6 +22809,7 @@
       <c r="E272" s="3" t="s">
         <v>330</v>
       </c>
+      <c r="F272" s="75"/>
       <c r="H272" s="3">
         <v>1.0</v>
       </c>
@@ -22617,6 +22830,7 @@
       <c r="E273" s="3" t="s">
         <v>332</v>
       </c>
+      <c r="F273" s="75"/>
       <c r="H273" s="3">
         <v>1.0</v>
       </c>
@@ -22635,6 +22849,7 @@
         <v>0.0</v>
       </c>
       <c r="E274" s="1"/>
+      <c r="F274" s="75"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="5" t="s">
@@ -22652,6 +22867,7 @@
       <c r="E275" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="F275" s="75"/>
       <c r="J275" s="3">
         <v>1.0</v>
       </c>
@@ -22670,6 +22886,7 @@
         <v>0.0</v>
       </c>
       <c r="E276" s="1"/>
+      <c r="F276" s="75"/>
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
     </row>
@@ -22689,7 +22906,7 @@
       <c r="E277" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F277" s="3">
+      <c r="F277" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -22707,6 +22924,7 @@
         <v>198.0</v>
       </c>
       <c r="E278" s="1"/>
+      <c r="F278" s="75"/>
       <c r="K278" s="3">
         <v>1.0</v>
       </c>
@@ -22725,6 +22943,7 @@
         <v>94.0</v>
       </c>
       <c r="E279" s="1"/>
+      <c r="F279" s="75"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="5" t="s">
@@ -22740,6 +22959,7 @@
         <v>26.0</v>
       </c>
       <c r="E280" s="1"/>
+      <c r="F280" s="75"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
       <c r="A281" s="5" t="s">
@@ -22755,6 +22975,7 @@
         <v>7.0</v>
       </c>
       <c r="E281" s="1"/>
+      <c r="F281" s="75"/>
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
     </row>
@@ -22772,6 +22993,7 @@
         <v>155.0</v>
       </c>
       <c r="E282" s="1"/>
+      <c r="F282" s="75"/>
       <c r="I282" s="3">
         <v>1.0</v>
       </c>
@@ -22790,6 +23012,7 @@
         <v>16.0</v>
       </c>
       <c r="E283" s="1"/>
+      <c r="F283" s="75"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
       <c r="A284" s="5" t="s">
@@ -22805,6 +23028,7 @@
         <v>35.0</v>
       </c>
       <c r="E284" s="1"/>
+      <c r="F284" s="75"/>
       <c r="J284" s="17"/>
       <c r="K284" s="3">
         <v>1.0</v>
@@ -22824,6 +23048,7 @@
         <v>285.0</v>
       </c>
       <c r="E285" s="1"/>
+      <c r="F285" s="75"/>
       <c r="I285" s="3">
         <v>1.0</v>
       </c>
@@ -22842,6 +23067,7 @@
         <v>38.0</v>
       </c>
       <c r="E286" s="1"/>
+      <c r="F286" s="75"/>
       <c r="K286" s="3">
         <v>1.0</v>
       </c>
@@ -22862,6 +23088,7 @@
       <c r="E287" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="F287" s="75"/>
       <c r="L287" s="3">
         <v>1.0</v>
       </c>
@@ -22884,7 +23111,7 @@
       <c r="E288" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F288" s="3">
+      <c r="F288" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -22902,6 +23129,7 @@
         <v>146.0</v>
       </c>
       <c r="E289" s="1"/>
+      <c r="F289" s="75"/>
       <c r="J289" s="3">
         <v>1.0</v>
       </c>
@@ -22920,6 +23148,7 @@
         <v>21.0</v>
       </c>
       <c r="E290" s="1"/>
+      <c r="F290" s="75"/>
       <c r="K290" s="3">
         <v>1.0</v>
       </c>
@@ -22938,7 +23167,7 @@
         <v>30.0</v>
       </c>
       <c r="E291" s="2"/>
-      <c r="F291" s="3">
+      <c r="F291" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -22958,7 +23187,7 @@
       <c r="E292" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F292" s="3">
+      <c r="F292" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -22976,6 +23205,7 @@
         <v>90.0</v>
       </c>
       <c r="E293" s="1"/>
+      <c r="F293" s="75"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
       <c r="A294" s="5" t="s">
@@ -22993,7 +23223,7 @@
       <c r="E294" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F294" s="8">
+      <c r="F294" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -23011,6 +23241,7 @@
         <v>58.0</v>
       </c>
       <c r="E295" s="1"/>
+      <c r="F295" s="75"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
       <c r="A296" s="5" t="s">
@@ -23026,6 +23257,7 @@
         <v>0.0</v>
       </c>
       <c r="E296" s="1"/>
+      <c r="F296" s="75"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
       <c r="A297" s="5" t="s">
@@ -23041,6 +23273,7 @@
         <v>19.0</v>
       </c>
       <c r="E297" s="1"/>
+      <c r="F297" s="75"/>
       <c r="G297" s="13">
         <v>1.0</v>
       </c>
@@ -23059,7 +23292,7 @@
         <v>59.0</v>
       </c>
       <c r="E298" s="2"/>
-      <c r="F298" s="8">
+      <c r="F298" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -23077,6 +23310,7 @@
         <v>14.0</v>
       </c>
       <c r="E299" s="1"/>
+      <c r="F299" s="75"/>
       <c r="K299" s="3">
         <v>1.0</v>
       </c>
@@ -23095,7 +23329,7 @@
         <v>21.0</v>
       </c>
       <c r="E300" s="2"/>
-      <c r="F300" s="8">
+      <c r="F300" s="77">
         <v>1.0</v>
       </c>
       <c r="G300" s="8">
@@ -23116,6 +23350,7 @@
         <v>2.0</v>
       </c>
       <c r="E301" s="1"/>
+      <c r="F301" s="75"/>
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
     </row>
@@ -23133,6 +23368,7 @@
         <v>23.0</v>
       </c>
       <c r="E302" s="1"/>
+      <c r="F302" s="75"/>
       <c r="K302" s="3">
         <v>1.0</v>
       </c>
@@ -23151,7 +23387,7 @@
         <v>40.0</v>
       </c>
       <c r="E303" s="2"/>
-      <c r="F303" s="3">
+      <c r="F303" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23169,6 +23405,7 @@
         <v>1720.0</v>
       </c>
       <c r="E304" s="1"/>
+      <c r="F304" s="75"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
       <c r="A305" s="5" t="s">
@@ -23184,6 +23421,7 @@
         <v>12.0</v>
       </c>
       <c r="E305" s="1"/>
+      <c r="F305" s="75"/>
       <c r="G305" s="3">
         <v>1.0</v>
       </c>
@@ -23202,7 +23440,7 @@
         <v>52.0</v>
       </c>
       <c r="E306" s="2"/>
-      <c r="F306" s="3">
+      <c r="F306" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23220,6 +23458,7 @@
         <v>75.0</v>
       </c>
       <c r="E307" s="1"/>
+      <c r="F307" s="75"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
       <c r="A308" s="5" t="s">
@@ -23235,6 +23474,7 @@
         <v>79.0</v>
       </c>
       <c r="E308" s="1"/>
+      <c r="F308" s="75"/>
       <c r="J308" s="3">
         <v>1.0</v>
       </c>
@@ -23253,6 +23493,7 @@
         <v>42.0</v>
       </c>
       <c r="E309" s="1"/>
+      <c r="F309" s="75"/>
       <c r="K309" s="3">
         <v>1.0</v>
       </c>
@@ -23273,7 +23514,7 @@
       <c r="E310" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F310" s="3">
+      <c r="F310" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23291,6 +23532,7 @@
         <v>10.0</v>
       </c>
       <c r="E311" s="1"/>
+      <c r="F311" s="75"/>
       <c r="O311" s="3"/>
       <c r="P311" s="3"/>
     </row>
@@ -23308,6 +23550,7 @@
         <v>11.0</v>
       </c>
       <c r="E312" s="1"/>
+      <c r="F312" s="75"/>
       <c r="G312" s="3">
         <v>1.0</v>
       </c>
@@ -23326,6 +23569,7 @@
         <v>86.0</v>
       </c>
       <c r="E313" s="2"/>
+      <c r="F313" s="75"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
       <c r="A314" s="5" t="s">
@@ -23341,6 +23585,7 @@
         <v>34.0</v>
       </c>
       <c r="E314" s="1"/>
+      <c r="F314" s="75"/>
       <c r="G314" s="3">
         <v>1.0</v>
       </c>
@@ -23359,6 +23604,7 @@
         <v>57.0</v>
       </c>
       <c r="E315" s="1"/>
+      <c r="F315" s="75"/>
       <c r="K315" s="3">
         <v>1.0</v>
       </c>
@@ -23377,6 +23623,7 @@
         <v>51.0</v>
       </c>
       <c r="E316" s="1"/>
+      <c r="F316" s="75"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
       <c r="A317" s="5" t="s">
@@ -23392,6 +23639,7 @@
         <v>103.0</v>
       </c>
       <c r="E317" s="1"/>
+      <c r="F317" s="75"/>
       <c r="K317" s="3">
         <v>1.0</v>
       </c>
@@ -23410,6 +23658,7 @@
         <v>40.0</v>
       </c>
       <c r="E318" s="1"/>
+      <c r="F318" s="75"/>
       <c r="K318" s="3">
         <v>1.0</v>
       </c>
@@ -23428,6 +23677,7 @@
         <v>20.0</v>
       </c>
       <c r="E319" s="2"/>
+      <c r="F319" s="75"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
       <c r="A320" s="5" t="s">
@@ -23445,7 +23695,7 @@
       <c r="E320" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F320" s="3">
+      <c r="F320" s="74">
         <v>1.0</v>
       </c>
       <c r="G320" s="3">
@@ -23469,6 +23719,7 @@
         <v>24.0</v>
       </c>
       <c r="E321" s="1"/>
+      <c r="F321" s="75"/>
       <c r="O321" s="3"/>
       <c r="P321" s="3"/>
     </row>
@@ -23486,6 +23737,7 @@
         <v>22.0</v>
       </c>
       <c r="E322" s="1"/>
+      <c r="F322" s="75"/>
       <c r="K322" s="3">
         <v>1.0</v>
       </c>
@@ -23504,6 +23756,7 @@
         <v>5811.0</v>
       </c>
       <c r="E323" s="1"/>
+      <c r="F323" s="75"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
       <c r="A324" s="5" t="s">
@@ -23519,6 +23772,7 @@
         <v>3734.0</v>
       </c>
       <c r="E324" s="1"/>
+      <c r="F324" s="75"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
       <c r="A325" s="5" t="s">
@@ -23534,6 +23788,7 @@
         <v>5.0</v>
       </c>
       <c r="E325" s="1"/>
+      <c r="F325" s="75"/>
       <c r="J325" s="7"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
@@ -23550,6 +23805,7 @@
         <v>28.0</v>
       </c>
       <c r="E326" s="1"/>
+      <c r="F326" s="75"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
       <c r="A327" s="5" t="s">
@@ -23565,6 +23821,7 @@
         <v>0.0</v>
       </c>
       <c r="E327" s="1"/>
+      <c r="F327" s="75"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
       <c r="A328" s="5" t="s">
@@ -23580,6 +23837,7 @@
         <v>70.0</v>
       </c>
       <c r="E328" s="1"/>
+      <c r="F328" s="75"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
       <c r="A329" s="5" t="s">
@@ -23595,6 +23853,7 @@
         <v>43.0</v>
       </c>
       <c r="E329" s="1"/>
+      <c r="F329" s="75"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
       <c r="A330" s="5" t="s">
@@ -23610,7 +23869,7 @@
         <v>0.0</v>
       </c>
       <c r="E330" s="2"/>
-      <c r="F330" s="3"/>
+      <c r="F330" s="74"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
       <c r="A331" s="5" t="s">
@@ -23628,7 +23887,7 @@
       <c r="E331" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F331" s="3">
+      <c r="F331" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23646,6 +23905,7 @@
         <v>81.0</v>
       </c>
       <c r="E332" s="1"/>
+      <c r="F332" s="75"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
       <c r="A333" s="5" t="s">
@@ -23661,7 +23921,7 @@
         <v>112.0</v>
       </c>
       <c r="E333" s="2"/>
-      <c r="F333" s="3">
+      <c r="F333" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23681,7 +23941,7 @@
       <c r="E334" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F334" s="3">
+      <c r="F334" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23699,6 +23959,7 @@
         <v>17.0</v>
       </c>
       <c r="E335" s="1"/>
+      <c r="F335" s="75"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
       <c r="A336" s="5" t="s">
@@ -23714,6 +23975,7 @@
         <v>32.0</v>
       </c>
       <c r="E336" s="1"/>
+      <c r="F336" s="75"/>
       <c r="I336" s="3">
         <v>1.0</v>
       </c>
@@ -23732,7 +23994,7 @@
         <v>31.0</v>
       </c>
       <c r="E337" s="2"/>
-      <c r="F337" s="3">
+      <c r="F337" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23750,6 +24012,7 @@
         <v>18.0</v>
       </c>
       <c r="E338" s="1"/>
+      <c r="F338" s="75"/>
       <c r="O338" s="3"/>
       <c r="P338" s="3"/>
     </row>
@@ -23767,7 +24030,7 @@
         <v>11.0</v>
       </c>
       <c r="E339" s="14"/>
-      <c r="F339" s="8">
+      <c r="F339" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -23787,7 +24050,7 @@
       <c r="E340" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F340" s="8">
+      <c r="F340" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -23805,7 +24068,7 @@
         <v>105.0</v>
       </c>
       <c r="E341" s="2"/>
-      <c r="F341" s="3">
+      <c r="F341" s="74">
         <v>1.0</v>
       </c>
       <c r="G341" s="3">
@@ -23826,6 +24089,7 @@
         <v>155.0</v>
       </c>
       <c r="E342" s="1"/>
+      <c r="F342" s="75"/>
       <c r="K342" s="3">
         <v>1.0</v>
       </c>
@@ -23844,6 +24108,7 @@
         <v>19.0</v>
       </c>
       <c r="E343" s="1"/>
+      <c r="F343" s="75"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
       <c r="A344" s="5" t="s">
@@ -23859,6 +24124,7 @@
         <v>151.0</v>
       </c>
       <c r="E344" s="1"/>
+      <c r="F344" s="75"/>
       <c r="G344" s="3">
         <v>1.0</v>
       </c>
@@ -23877,6 +24143,7 @@
         <v>45.0</v>
       </c>
       <c r="E345" s="1"/>
+      <c r="F345" s="75"/>
       <c r="K345" s="3">
         <v>1.0</v>
       </c>
@@ -23895,6 +24162,7 @@
         <v>51.0</v>
       </c>
       <c r="E346" s="1"/>
+      <c r="F346" s="75"/>
       <c r="J346" s="3">
         <v>1.0</v>
       </c>
@@ -23915,7 +24183,7 @@
       <c r="E347" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F347" s="3">
+      <c r="F347" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -23933,6 +24201,7 @@
         <v>48.0</v>
       </c>
       <c r="E348" s="1"/>
+      <c r="F348" s="75"/>
       <c r="K348" s="3">
         <v>1.0</v>
       </c>
@@ -23951,6 +24220,7 @@
         <v>64.0</v>
       </c>
       <c r="E349" s="1"/>
+      <c r="F349" s="75"/>
       <c r="J349" s="3">
         <v>1.0</v>
       </c>
@@ -23969,6 +24239,7 @@
         <v>172.0</v>
       </c>
       <c r="E350" s="1"/>
+      <c r="F350" s="75"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
       <c r="A351" s="5" t="s">
@@ -23986,6 +24257,7 @@
       <c r="E351" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="F351" s="75"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
       <c r="A352" s="5" t="s">
@@ -24001,6 +24273,7 @@
         <v>2.0</v>
       </c>
       <c r="E352" s="14"/>
+      <c r="F352" s="75"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
       <c r="A353" s="5" t="s">
@@ -24016,6 +24289,7 @@
         <v>56.0</v>
       </c>
       <c r="E353" s="1"/>
+      <c r="F353" s="75"/>
       <c r="I353" s="3">
         <v>1.0</v>
       </c>
@@ -24036,7 +24310,7 @@
       <c r="E354" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F354" s="3">
+      <c r="F354" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24054,6 +24328,7 @@
         <v>5.0</v>
       </c>
       <c r="E355" s="1"/>
+      <c r="F355" s="75"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
       <c r="A356" s="5" t="s">
@@ -24069,6 +24344,7 @@
         <v>77.0</v>
       </c>
       <c r="E356" s="1"/>
+      <c r="F356" s="75"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
       <c r="A357" s="5" t="s">
@@ -24084,6 +24360,7 @@
         <v>106.0</v>
       </c>
       <c r="E357" s="1"/>
+      <c r="F357" s="75"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
       <c r="A358" s="5" t="s">
@@ -24099,6 +24376,7 @@
         <v>62.0</v>
       </c>
       <c r="E358" s="1"/>
+      <c r="F358" s="75"/>
       <c r="J358" s="3">
         <v>1.0</v>
       </c>
@@ -24119,6 +24397,7 @@
       <c r="E359" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="F359" s="75"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
       <c r="A360" s="5" t="s">
@@ -24134,6 +24413,7 @@
         <v>26.0</v>
       </c>
       <c r="E360" s="1"/>
+      <c r="F360" s="75"/>
       <c r="K360" s="3">
         <v>1.0</v>
       </c>
@@ -24152,6 +24432,7 @@
         <v>36.0</v>
       </c>
       <c r="E361" s="1"/>
+      <c r="F361" s="75"/>
       <c r="K361" s="3">
         <v>1.0</v>
       </c>
@@ -24170,7 +24451,7 @@
         <v>35.0</v>
       </c>
       <c r="E362" s="2"/>
-      <c r="F362" s="3">
+      <c r="F362" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24188,6 +24469,7 @@
         <v>30.0</v>
       </c>
       <c r="E363" s="1"/>
+      <c r="F363" s="75"/>
       <c r="K363" s="3">
         <v>1.0</v>
       </c>
@@ -24206,6 +24488,7 @@
         <v>41.0</v>
       </c>
       <c r="E364" s="2"/>
+      <c r="F364" s="75"/>
       <c r="J364" s="3">
         <v>1.0</v>
       </c>
@@ -24227,6 +24510,7 @@
         <v>126.0</v>
       </c>
       <c r="E365" s="1"/>
+      <c r="F365" s="75"/>
       <c r="L365" s="3">
         <v>1.0</v>
       </c>
@@ -24249,6 +24533,7 @@
       <c r="E366" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="F366" s="75"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
       <c r="A367" s="5" t="s">
@@ -24264,6 +24549,7 @@
         <v>51.0</v>
       </c>
       <c r="E367" s="1"/>
+      <c r="F367" s="75"/>
       <c r="J367" s="8">
         <v>1.0</v>
       </c>
@@ -24282,6 +24568,7 @@
         <v>17.0</v>
       </c>
       <c r="E368" s="1"/>
+      <c r="F368" s="75"/>
       <c r="K368" s="3">
         <v>1.0</v>
       </c>
@@ -24300,6 +24587,7 @@
         <v>0.0</v>
       </c>
       <c r="E369" s="1"/>
+      <c r="F369" s="75"/>
       <c r="O369" s="3"/>
       <c r="P369" s="3"/>
     </row>
@@ -24317,6 +24605,7 @@
         <v>2.0</v>
       </c>
       <c r="E370" s="1"/>
+      <c r="F370" s="75"/>
       <c r="O370" s="3"/>
       <c r="P370" s="3"/>
     </row>
@@ -24334,6 +24623,7 @@
         <v>73.0</v>
       </c>
       <c r="E371" s="1"/>
+      <c r="F371" s="75"/>
       <c r="L371" s="3">
         <v>1.0</v>
       </c>
@@ -24354,6 +24644,7 @@
         <v>4.0</v>
       </c>
       <c r="E372" s="1"/>
+      <c r="F372" s="75"/>
       <c r="O372" s="3"/>
       <c r="P372" s="3"/>
     </row>
@@ -24371,6 +24662,7 @@
         <v>76.0</v>
       </c>
       <c r="E373" s="1"/>
+      <c r="F373" s="75"/>
       <c r="K373" s="3">
         <v>1.0</v>
       </c>
@@ -24389,6 +24681,7 @@
         <v>152.0</v>
       </c>
       <c r="E374" s="1"/>
+      <c r="F374" s="75"/>
       <c r="J374" s="3">
         <v>1.0</v>
       </c>
@@ -24407,6 +24700,7 @@
         <v>178.0</v>
       </c>
       <c r="E375" s="1"/>
+      <c r="F375" s="75"/>
       <c r="O375" s="3"/>
       <c r="P375" s="3"/>
     </row>
@@ -24424,6 +24718,7 @@
         <v>21.0</v>
       </c>
       <c r="E376" s="1"/>
+      <c r="F376" s="75"/>
       <c r="J376" s="7"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
@@ -24440,6 +24735,7 @@
         <v>13.0</v>
       </c>
       <c r="E377" s="1"/>
+      <c r="F377" s="75"/>
       <c r="J377" s="9">
         <v>1.0</v>
       </c>
@@ -24458,7 +24754,7 @@
         <v>44.0</v>
       </c>
       <c r="E378" s="2"/>
-      <c r="F378" s="3">
+      <c r="F378" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24476,6 +24772,7 @@
         <v>3.0</v>
       </c>
       <c r="E379" s="1"/>
+      <c r="F379" s="75"/>
       <c r="O379" s="3"/>
       <c r="P379" s="3"/>
     </row>
@@ -24493,6 +24790,7 @@
         <v>0.0</v>
       </c>
       <c r="E380" s="1"/>
+      <c r="F380" s="75"/>
       <c r="O380" s="3"/>
       <c r="P380" s="3"/>
     </row>
@@ -24510,6 +24808,7 @@
         <v>42.0</v>
       </c>
       <c r="E381" s="1"/>
+      <c r="F381" s="75"/>
       <c r="K381" s="3">
         <v>1.0</v>
       </c>
@@ -24528,6 +24827,7 @@
         <v>13.0</v>
       </c>
       <c r="E382" s="1"/>
+      <c r="F382" s="75"/>
       <c r="O382" s="3"/>
       <c r="P382" s="3"/>
     </row>
@@ -24545,11 +24845,11 @@
         <v>7144.0</v>
       </c>
       <c r="E383" s="2"/>
-      <c r="F383" s="3">
-        <v>1.0</v>
+      <c r="F383" s="74">
+        <v>2.0</v>
       </c>
       <c r="G383" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="384" ht="14.25" customHeight="1">
@@ -24566,6 +24866,7 @@
         <v>20.0</v>
       </c>
       <c r="E384" s="1"/>
+      <c r="F384" s="75"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
       <c r="A385" s="5" t="s">
@@ -24583,6 +24884,7 @@
       <c r="E385" s="3" t="s">
         <v>781</v>
       </c>
+      <c r="F385" s="75"/>
       <c r="I385" s="3">
         <v>1.0</v>
       </c>
@@ -24606,7 +24908,7 @@
         <v>95.0</v>
       </c>
       <c r="E386" s="18"/>
-      <c r="F386" s="3">
+      <c r="F386" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24626,9 +24928,8 @@
       <c r="E387" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G387" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="F387" s="75"/>
+      <c r="G387" s="7"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
       <c r="A388" s="5" t="s">
@@ -24646,7 +24947,7 @@
       <c r="E388" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F388" s="3">
+      <c r="F388" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24664,6 +24965,7 @@
         <v>51.0</v>
       </c>
       <c r="E389" s="1"/>
+      <c r="F389" s="75"/>
       <c r="K389" s="3">
         <v>1.0</v>
       </c>
@@ -24682,7 +24984,7 @@
         <v>47.0</v>
       </c>
       <c r="E390" s="2"/>
-      <c r="F390" s="3">
+      <c r="F390" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24700,6 +25002,7 @@
         <v>21.0</v>
       </c>
       <c r="E391" s="1"/>
+      <c r="F391" s="75"/>
       <c r="J391" s="8">
         <v>1.0</v>
       </c>
@@ -24720,7 +25023,7 @@
       <c r="E392" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F392" s="3">
+      <c r="F392" s="74">
         <v>1.0</v>
       </c>
       <c r="O392" s="3"/>
@@ -24740,6 +25043,7 @@
         <v>80.0</v>
       </c>
       <c r="E393" s="1"/>
+      <c r="F393" s="75"/>
       <c r="J393" s="3">
         <v>1.0</v>
       </c>
@@ -24758,6 +25062,7 @@
         <v>0.0</v>
       </c>
       <c r="E394" s="1"/>
+      <c r="F394" s="75"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
       <c r="A395" s="5" t="s">
@@ -24773,11 +25078,11 @@
         <v>3838.0</v>
       </c>
       <c r="E395" s="2"/>
-      <c r="F395" s="3">
-        <v>1.0</v>
+      <c r="F395" s="74">
+        <v>2.0</v>
       </c>
       <c r="G395" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="396" ht="14.25" customHeight="1">
@@ -24794,7 +25099,7 @@
         <v>9.0</v>
       </c>
       <c r="E396" s="2"/>
-      <c r="F396" s="3">
+      <c r="F396" s="74">
         <v>1.0</v>
       </c>
       <c r="G396" s="3">
@@ -24815,7 +25120,7 @@
         <v>59.0</v>
       </c>
       <c r="E397" s="2"/>
-      <c r="F397" s="3">
+      <c r="F397" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24833,6 +25138,7 @@
         <v>43.0</v>
       </c>
       <c r="E398" s="1"/>
+      <c r="F398" s="75"/>
       <c r="O398" s="3"/>
       <c r="P398" s="3"/>
     </row>
@@ -24850,6 +25156,7 @@
         <v>39.0</v>
       </c>
       <c r="E399" s="1"/>
+      <c r="F399" s="75"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
       <c r="A400" s="5" t="s">
@@ -24867,6 +25174,7 @@
       <c r="E400" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="F400" s="75"/>
       <c r="K400" s="3">
         <v>1.0</v>
       </c>
@@ -24887,6 +25195,7 @@
       <c r="E401" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="F401" s="75"/>
       <c r="J401" s="3">
         <v>1.0</v>
       </c>
@@ -24905,6 +25214,7 @@
         <v>18.0</v>
       </c>
       <c r="E402" s="1"/>
+      <c r="F402" s="75"/>
       <c r="J402" s="7">
         <v>1.0</v>
       </c>
@@ -24923,6 +25233,7 @@
         <v>43.0</v>
       </c>
       <c r="E403" s="1"/>
+      <c r="F403" s="75"/>
       <c r="O403" s="3"/>
       <c r="P403" s="3"/>
     </row>
@@ -24942,6 +25253,7 @@
       <c r="E404" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="F404" s="75"/>
       <c r="K404" s="3">
         <v>1.0</v>
       </c>
@@ -24962,7 +25274,7 @@
       <c r="E405" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F405" s="3">
+      <c r="F405" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -24980,6 +25292,7 @@
         <v>35.0</v>
       </c>
       <c r="E406" s="1"/>
+      <c r="F406" s="75"/>
       <c r="J406" s="9">
         <v>1.0</v>
       </c>
@@ -24998,6 +25311,7 @@
         <v>16.0</v>
       </c>
       <c r="E407" s="1"/>
+      <c r="F407" s="75"/>
       <c r="O407" s="3"/>
       <c r="P407" s="3"/>
     </row>
@@ -25015,6 +25329,7 @@
         <v>1.0</v>
       </c>
       <c r="E408" s="1"/>
+      <c r="F408" s="75"/>
       <c r="O408" s="3"/>
       <c r="P408" s="3"/>
     </row>
@@ -25032,7 +25347,7 @@
         <v>12.0</v>
       </c>
       <c r="E409" s="2"/>
-      <c r="F409" s="3"/>
+      <c r="F409" s="74"/>
       <c r="J409" s="7"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
@@ -25049,6 +25364,7 @@
         <v>21.0</v>
       </c>
       <c r="E410" s="1"/>
+      <c r="F410" s="75"/>
       <c r="O410" s="3"/>
       <c r="P410" s="3"/>
     </row>
@@ -25066,6 +25382,7 @@
         <v>26.0</v>
       </c>
       <c r="E411" s="1"/>
+      <c r="F411" s="75"/>
       <c r="J411" s="3">
         <v>1.0</v>
       </c>
@@ -25084,6 +25401,7 @@
         <v>1.0</v>
       </c>
       <c r="E412" s="1"/>
+      <c r="F412" s="75"/>
       <c r="L412" s="3"/>
       <c r="M412" s="3"/>
       <c r="N412" s="3"/>
@@ -25102,6 +25420,7 @@
         <v>64.0</v>
       </c>
       <c r="E413" s="1"/>
+      <c r="F413" s="75"/>
       <c r="K413" s="3">
         <v>1.0</v>
       </c>
@@ -25120,6 +25439,7 @@
         <v>25.0</v>
       </c>
       <c r="E414" s="1"/>
+      <c r="F414" s="75"/>
       <c r="K414" s="3">
         <v>1.0</v>
       </c>
@@ -25138,6 +25458,7 @@
         <v>23.0</v>
       </c>
       <c r="E415" s="1"/>
+      <c r="F415" s="75"/>
       <c r="L415" s="3">
         <v>1.0</v>
       </c>
@@ -25158,6 +25479,7 @@
         <v>19.0</v>
       </c>
       <c r="E416" s="1"/>
+      <c r="F416" s="75"/>
       <c r="J416" s="7">
         <v>1.0</v>
       </c>
@@ -25176,6 +25498,7 @@
         <v>0.0</v>
       </c>
       <c r="E417" s="1"/>
+      <c r="F417" s="75"/>
       <c r="O417" s="3"/>
       <c r="P417" s="3"/>
     </row>
@@ -25193,6 +25516,7 @@
         <v>35.0</v>
       </c>
       <c r="E418" s="1"/>
+      <c r="F418" s="75"/>
       <c r="K418" s="3">
         <v>1.0</v>
       </c>
@@ -25211,6 +25535,7 @@
         <v>28.0</v>
       </c>
       <c r="E419" s="1"/>
+      <c r="F419" s="75"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
       <c r="A420" s="5" t="s">
@@ -25228,6 +25553,7 @@
       <c r="E420" s="2" t="s">
         <v>431</v>
       </c>
+      <c r="F420" s="75"/>
       <c r="K420" s="7">
         <v>1.0</v>
       </c>
@@ -25249,7 +25575,7 @@
         <v>25.0</v>
       </c>
       <c r="E421" s="2"/>
-      <c r="F421" s="3">
+      <c r="F421" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -25269,7 +25595,7 @@
       <c r="E422" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="F422" s="9">
+      <c r="F422" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -25287,6 +25613,7 @@
         <v>28.0</v>
       </c>
       <c r="E423" s="1"/>
+      <c r="F423" s="75"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
       <c r="A424" s="5" t="s">
@@ -25302,6 +25629,7 @@
         <v>17.0</v>
       </c>
       <c r="E424" s="1"/>
+      <c r="F424" s="75"/>
       <c r="K424" s="3">
         <v>1.0</v>
       </c>
@@ -25320,6 +25648,7 @@
         <v>97.0</v>
       </c>
       <c r="E425" s="1"/>
+      <c r="F425" s="75"/>
       <c r="G425" s="3">
         <v>1.0</v>
       </c>
@@ -25341,6 +25670,7 @@
         <v>0.0</v>
       </c>
       <c r="E426" s="1"/>
+      <c r="F426" s="75"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
       <c r="A427" s="5" t="s">
@@ -25356,9 +25686,7 @@
         <v>15.0</v>
       </c>
       <c r="E427" s="1"/>
-      <c r="G427" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F427" s="75"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
       <c r="A428" s="5" t="s">
@@ -25374,6 +25702,7 @@
         <v>47.0</v>
       </c>
       <c r="E428" s="1"/>
+      <c r="F428" s="75"/>
       <c r="I428" s="3">
         <v>1.0</v>
       </c>
@@ -25397,6 +25726,7 @@
         <v>129.0</v>
       </c>
       <c r="E429" s="1"/>
+      <c r="F429" s="75"/>
       <c r="G429" s="3">
         <v>1.0</v>
       </c>
@@ -25415,6 +25745,7 @@
         <v>10.0</v>
       </c>
       <c r="E430" s="1"/>
+      <c r="F430" s="75"/>
       <c r="L430" s="3">
         <v>1.0</v>
       </c>
@@ -25435,7 +25766,7 @@
         <v>14.0</v>
       </c>
       <c r="E431" s="6"/>
-      <c r="F431" s="7"/>
+      <c r="F431" s="76"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
       <c r="A432" s="5" t="s">
@@ -25451,6 +25782,7 @@
         <v>268.0</v>
       </c>
       <c r="E432" s="1"/>
+      <c r="F432" s="75"/>
       <c r="J432" s="8">
         <v>1.0</v>
       </c>
@@ -25471,7 +25803,7 @@
       <c r="E433" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="F433" s="8">
+      <c r="F433" s="77">
         <v>1.0</v>
       </c>
       <c r="J433" s="3">
@@ -25492,6 +25824,7 @@
         <v>110.0</v>
       </c>
       <c r="E434" s="1"/>
+      <c r="F434" s="75"/>
       <c r="I434" s="3">
         <v>1.0</v>
       </c>
@@ -25510,6 +25843,7 @@
         <v>55.0</v>
       </c>
       <c r="E435" s="1"/>
+      <c r="F435" s="75"/>
       <c r="J435" s="3">
         <v>1.0</v>
       </c>
@@ -25528,7 +25862,7 @@
         <v>92.0</v>
       </c>
       <c r="E436" s="2"/>
-      <c r="F436" s="3">
+      <c r="F436" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -25546,10 +25880,7 @@
         <v>33.0</v>
       </c>
       <c r="E437" s="1"/>
-      <c r="F437" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G437" s="3">
+      <c r="F437" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -25567,6 +25898,7 @@
         <v>5.0</v>
       </c>
       <c r="E438" s="1"/>
+      <c r="F438" s="75"/>
       <c r="O438" s="3"/>
       <c r="P438" s="3"/>
     </row>
@@ -25584,6 +25916,7 @@
         <v>26.0</v>
       </c>
       <c r="E439" s="1"/>
+      <c r="F439" s="75"/>
       <c r="I439" s="3">
         <v>1.0</v>
       </c>
@@ -25602,7 +25935,7 @@
         <v>1.0</v>
       </c>
       <c r="E440" s="6"/>
-      <c r="F440" s="9">
+      <c r="F440" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -25620,6 +25953,7 @@
         <v>12.0</v>
       </c>
       <c r="E441" s="1"/>
+      <c r="F441" s="75"/>
       <c r="O441" s="3"/>
       <c r="P441" s="3"/>
     </row>
@@ -25639,6 +25973,7 @@
       <c r="E442" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F442" s="75"/>
       <c r="K442" s="3">
         <v>1.0</v>
       </c>
@@ -25657,6 +25992,7 @@
         <v>3.0</v>
       </c>
       <c r="E443" s="1"/>
+      <c r="F443" s="75"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="5" t="s">
@@ -25672,7 +26008,7 @@
         <v>190.0</v>
       </c>
       <c r="E444" s="2"/>
-      <c r="F444" s="3">
+      <c r="F444" s="74">
         <v>1.0</v>
       </c>
       <c r="G444" s="3">
@@ -25693,6 +26029,7 @@
         <v>41.0</v>
       </c>
       <c r="E445" s="1"/>
+      <c r="F445" s="75"/>
       <c r="K445" s="3">
         <v>1.0</v>
       </c>
@@ -25713,6 +26050,7 @@
       <c r="E446" s="2" t="s">
         <v>515</v>
       </c>
+      <c r="F446" s="75"/>
       <c r="K446" s="3">
         <v>1.0</v>
       </c>
@@ -25731,6 +26069,7 @@
         <v>221.0</v>
       </c>
       <c r="E447" s="1"/>
+      <c r="F447" s="75"/>
       <c r="O447" s="3"/>
       <c r="P447" s="3"/>
     </row>
@@ -25748,6 +26087,7 @@
         <v>19.0</v>
       </c>
       <c r="E448" s="1"/>
+      <c r="F448" s="75"/>
       <c r="K448" s="7">
         <v>1.0</v>
       </c>
@@ -25766,6 +26106,7 @@
         <v>6.0</v>
       </c>
       <c r="E449" s="1"/>
+      <c r="F449" s="75"/>
       <c r="O449" s="3"/>
       <c r="P449" s="3"/>
     </row>
@@ -25783,6 +26124,7 @@
         <v>10.0</v>
       </c>
       <c r="E450" s="1"/>
+      <c r="F450" s="75"/>
       <c r="G450" s="7"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
@@ -25801,7 +26143,7 @@
       <c r="E451" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F451" s="8">
+      <c r="F451" s="77">
         <v>1.0</v>
       </c>
       <c r="O451" s="3"/>
@@ -25823,7 +26165,7 @@
       <c r="E452" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F452" s="8">
+      <c r="F452" s="77">
         <v>1.0</v>
       </c>
       <c r="L452" s="3">
@@ -25844,6 +26186,7 @@
         <v>57.0</v>
       </c>
       <c r="E453" s="1"/>
+      <c r="F453" s="75"/>
       <c r="K453" s="3">
         <v>1.0</v>
       </c>
@@ -25862,6 +26205,7 @@
         <v>62.0</v>
       </c>
       <c r="E454" s="1"/>
+      <c r="F454" s="75"/>
       <c r="K454" s="3">
         <v>1.0</v>
       </c>
@@ -25880,7 +26224,7 @@
         <v>194.0</v>
       </c>
       <c r="E455" s="2"/>
-      <c r="F455" s="3">
+      <c r="F455" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -25898,6 +26242,7 @@
         <v>46.0</v>
       </c>
       <c r="E456" s="1"/>
+      <c r="F456" s="75"/>
       <c r="J456" s="3">
         <v>1.0</v>
       </c>
@@ -25919,6 +26264,7 @@
         <v>84.0</v>
       </c>
       <c r="E457" s="1"/>
+      <c r="F457" s="75"/>
       <c r="I457" s="3">
         <v>1.0</v>
       </c>
@@ -25937,6 +26283,7 @@
         <v>159.0</v>
       </c>
       <c r="E458" s="1"/>
+      <c r="F458" s="75"/>
       <c r="I458" s="3">
         <v>1.0</v>
       </c>
@@ -25955,6 +26302,7 @@
         <v>41.0</v>
       </c>
       <c r="E459" s="1"/>
+      <c r="F459" s="75"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
       <c r="A460" s="5" t="s">
@@ -25970,7 +26318,7 @@
         <v>8.0</v>
       </c>
       <c r="E460" s="6"/>
-      <c r="F460" s="9">
+      <c r="F460" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -25988,6 +26336,7 @@
         <v>76.0</v>
       </c>
       <c r="E461" s="1"/>
+      <c r="F461" s="75"/>
       <c r="K461" s="3">
         <v>1.0</v>
       </c>
@@ -26006,7 +26355,7 @@
         <v>49.0</v>
       </c>
       <c r="E462" s="2"/>
-      <c r="F462" s="3">
+      <c r="F462" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -26024,6 +26373,7 @@
         <v>48.0</v>
       </c>
       <c r="E463" s="1"/>
+      <c r="F463" s="75"/>
       <c r="G463" s="3">
         <v>1.0</v>
       </c>
@@ -26047,6 +26397,7 @@
         <v>36.0</v>
       </c>
       <c r="E464" s="1"/>
+      <c r="F464" s="75"/>
       <c r="L464" s="3">
         <v>1.0</v>
       </c>
@@ -26067,6 +26418,7 @@
         <v>19.0</v>
       </c>
       <c r="E465" s="1"/>
+      <c r="F465" s="75"/>
       <c r="I465" s="3">
         <v>1.0</v>
       </c>
@@ -26085,7 +26437,7 @@
         <v>27.0</v>
       </c>
       <c r="E466" s="2"/>
-      <c r="F466" s="3">
+      <c r="F466" s="74">
         <v>1.0</v>
       </c>
       <c r="H466" s="3">
@@ -26106,6 +26458,7 @@
         <v>5.0</v>
       </c>
       <c r="E467" s="1"/>
+      <c r="F467" s="75"/>
       <c r="O467" s="3"/>
       <c r="P467" s="3"/>
     </row>
@@ -26123,6 +26476,7 @@
         <v>56.0</v>
       </c>
       <c r="E468" s="1"/>
+      <c r="F468" s="75"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
       <c r="A469" s="5" t="s">
@@ -26138,6 +26492,7 @@
         <v>2.0</v>
       </c>
       <c r="E469" s="1"/>
+      <c r="F469" s="75"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
       <c r="A470" s="5" t="s">
@@ -26153,6 +26508,7 @@
         <v>913.0</v>
       </c>
       <c r="E470" s="1"/>
+      <c r="F470" s="75"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
       <c r="A471" s="5" t="s">
@@ -26168,6 +26524,7 @@
         <v>34.0</v>
       </c>
       <c r="E471" s="1"/>
+      <c r="F471" s="75"/>
       <c r="K471" s="3">
         <v>1.0</v>
       </c>
@@ -26186,6 +26543,7 @@
         <v>61.0</v>
       </c>
       <c r="E472" s="1"/>
+      <c r="F472" s="75"/>
       <c r="K472" s="3">
         <v>1.0</v>
       </c>
@@ -26204,6 +26562,7 @@
         <v>15.0</v>
       </c>
       <c r="E473" s="1"/>
+      <c r="F473" s="75"/>
       <c r="L473" s="3">
         <v>1.0</v>
       </c>
@@ -26224,6 +26583,7 @@
         <v>3.0</v>
       </c>
       <c r="E474" s="1"/>
+      <c r="F474" s="75"/>
       <c r="G474" s="8">
         <v>1.0</v>
       </c>
@@ -26242,6 +26602,7 @@
         <v>6.0</v>
       </c>
       <c r="E475" s="1"/>
+      <c r="F475" s="75"/>
       <c r="O475" s="3"/>
       <c r="P475" s="3"/>
     </row>
@@ -26259,6 +26620,7 @@
         <v>17.0</v>
       </c>
       <c r="E476" s="1"/>
+      <c r="F476" s="75"/>
       <c r="O476" s="3"/>
       <c r="P476" s="3"/>
     </row>
@@ -26276,6 +26638,7 @@
         <v>1.0</v>
       </c>
       <c r="E477" s="1"/>
+      <c r="F477" s="75"/>
       <c r="O477" s="3"/>
       <c r="P477" s="3"/>
     </row>
@@ -26293,6 +26656,7 @@
         <v>10.0</v>
       </c>
       <c r="E478" s="1"/>
+      <c r="F478" s="75"/>
       <c r="I478" s="8">
         <v>1.0</v>
       </c>
@@ -26313,7 +26677,7 @@
       <c r="E479" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F479" s="3">
+      <c r="F479" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -26333,6 +26697,7 @@
       <c r="E480" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="F480" s="75"/>
       <c r="I480" s="3">
         <v>1.0</v>
       </c>
@@ -26351,6 +26716,7 @@
         <v>68.0</v>
       </c>
       <c r="E481" s="1"/>
+      <c r="F481" s="75"/>
       <c r="K481" s="3">
         <v>1.0</v>
       </c>
@@ -26369,7 +26735,7 @@
         <v>1.0</v>
       </c>
       <c r="E482" s="1"/>
-      <c r="F482" s="8">
+      <c r="F482" s="77">
         <v>1.0</v>
       </c>
       <c r="O482" s="3"/>
@@ -26389,6 +26755,7 @@
         <v>9.0</v>
       </c>
       <c r="E483" s="1"/>
+      <c r="F483" s="75"/>
       <c r="O483" s="3"/>
       <c r="P483" s="3"/>
     </row>
@@ -26402,10 +26769,11 @@
       <c r="C484" s="1">
         <v>225.0</v>
       </c>
-      <c r="D484" s="75">
+      <c r="D484" s="82">
         <v>62.0</v>
       </c>
       <c r="E484" s="1"/>
+      <c r="F484" s="75"/>
       <c r="K484" s="3">
         <v>1.0</v>
       </c>
@@ -26424,7 +26792,7 @@
         <v>52.0</v>
       </c>
       <c r="E485" s="2"/>
-      <c r="F485" s="3">
+      <c r="F485" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -26442,6 +26810,7 @@
         <v>1181.0</v>
       </c>
       <c r="E486" s="1"/>
+      <c r="F486" s="75"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
       <c r="A487" s="5" t="s">
@@ -26459,6 +26828,7 @@
       <c r="E487" s="2" t="s">
         <v>559</v>
       </c>
+      <c r="F487" s="75"/>
       <c r="I487" s="3">
         <v>1.0</v>
       </c>
@@ -26482,6 +26852,7 @@
         <v>32.0</v>
       </c>
       <c r="E488" s="1"/>
+      <c r="F488" s="75"/>
       <c r="O488" s="3"/>
       <c r="P488" s="3"/>
     </row>
@@ -26499,7 +26870,7 @@
         <v>13.0</v>
       </c>
       <c r="E489" s="2"/>
-      <c r="F489" s="3"/>
+      <c r="F489" s="74"/>
       <c r="J489" s="7"/>
       <c r="K489" s="7"/>
     </row>
@@ -26517,6 +26888,7 @@
         <v>44.0</v>
       </c>
       <c r="E490" s="1"/>
+      <c r="F490" s="75"/>
       <c r="K490" s="3">
         <v>1.0</v>
       </c>
@@ -26535,7 +26907,7 @@
         <v>36.0</v>
       </c>
       <c r="E491" s="2"/>
-      <c r="F491" s="3">
+      <c r="F491" s="74">
         <v>1.0</v>
       </c>
       <c r="G491" s="3">
@@ -26556,6 +26928,7 @@
         <v>0.0</v>
       </c>
       <c r="E492" s="1"/>
+      <c r="F492" s="75"/>
       <c r="O492" s="3"/>
       <c r="P492" s="3"/>
     </row>
@@ -26573,6 +26946,7 @@
         <v>21.0</v>
       </c>
       <c r="E493" s="1"/>
+      <c r="F493" s="75"/>
       <c r="K493" s="3">
         <v>1.0</v>
       </c>
@@ -26591,6 +26965,7 @@
         <v>4.0</v>
       </c>
       <c r="E494" s="1"/>
+      <c r="F494" s="75"/>
       <c r="O494" s="3"/>
       <c r="P494" s="3"/>
     </row>
@@ -26608,6 +26983,7 @@
         <v>1.0</v>
       </c>
       <c r="E495" s="1"/>
+      <c r="F495" s="75"/>
       <c r="O495" s="3"/>
       <c r="P495" s="3"/>
     </row>
@@ -26624,8 +27000,10 @@
       <c r="D496" s="1">
         <v>18.0</v>
       </c>
-      <c r="E496" s="2"/>
-      <c r="F496" s="3">
+      <c r="E496" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F496" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -26643,9 +27021,7 @@
         <v>13.0</v>
       </c>
       <c r="E497" s="1"/>
-      <c r="G497" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F497" s="75"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
       <c r="A498" s="5" t="s">
@@ -26661,6 +27037,7 @@
         <v>66.0</v>
       </c>
       <c r="E498" s="1"/>
+      <c r="F498" s="75"/>
       <c r="J498" s="3">
         <v>1.0</v>
       </c>
@@ -26681,9 +27058,7 @@
       <c r="E499" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G499" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="F499" s="75"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
       <c r="A500" s="5" t="s">
@@ -26699,6 +27074,7 @@
         <v>5.0</v>
       </c>
       <c r="E500" s="1"/>
+      <c r="F500" s="75"/>
       <c r="L500" s="7"/>
       <c r="M500" s="7"/>
       <c r="N500" s="7"/>
@@ -26719,7 +27095,7 @@
       <c r="E501" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F501" s="3">
+      <c r="F501" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -26737,6 +27113,7 @@
         <v>10.0</v>
       </c>
       <c r="E502" s="1"/>
+      <c r="F502" s="75"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
       <c r="A503" s="5" t="s">
@@ -26754,7 +27131,7 @@
       <c r="E503" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F503" s="3"/>
+      <c r="F503" s="74"/>
       <c r="J503" s="3">
         <v>1.0</v>
       </c>
@@ -26773,6 +27150,7 @@
         <v>263.0</v>
       </c>
       <c r="E504" s="1"/>
+      <c r="F504" s="75"/>
       <c r="I504" s="3">
         <v>1.0</v>
       </c>
@@ -26791,7 +27169,7 @@
         <v>23.0</v>
       </c>
       <c r="E505" s="1"/>
-      <c r="F505" s="8">
+      <c r="F505" s="77">
         <v>1.0</v>
       </c>
       <c r="G505" s="3">
@@ -26814,6 +27192,7 @@
       <c r="E506" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="F506" s="75"/>
       <c r="I506" s="3">
         <v>1.0</v>
       </c>
@@ -26832,6 +27211,7 @@
         <v>134.0</v>
       </c>
       <c r="E507" s="1"/>
+      <c r="F507" s="75"/>
       <c r="G507" s="3">
         <v>1.0</v>
       </c>
@@ -26853,6 +27233,7 @@
         <v>58.0</v>
       </c>
       <c r="E508" s="1"/>
+      <c r="F508" s="75"/>
       <c r="L508" s="3">
         <v>1.0</v>
       </c>
@@ -26873,6 +27254,7 @@
         <v>47.0</v>
       </c>
       <c r="E509" s="1"/>
+      <c r="F509" s="75"/>
       <c r="J509" s="3">
         <v>1.0</v>
       </c>
@@ -26891,6 +27273,7 @@
         <v>28.0</v>
       </c>
       <c r="E510" s="1"/>
+      <c r="F510" s="75"/>
       <c r="K510" s="3">
         <v>1.0</v>
       </c>
@@ -26909,6 +27292,7 @@
         <v>33.0</v>
       </c>
       <c r="E511" s="1"/>
+      <c r="F511" s="75"/>
       <c r="O511" s="3"/>
       <c r="P511" s="3"/>
     </row>
@@ -26928,6 +27312,7 @@
       <c r="E512" s="2" t="s">
         <v>586</v>
       </c>
+      <c r="F512" s="75"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
       <c r="A513" s="5" t="s">
@@ -26943,6 +27328,7 @@
         <v>164.0</v>
       </c>
       <c r="E513" s="1"/>
+      <c r="F513" s="75"/>
       <c r="I513" s="3">
         <v>1.0</v>
       </c>
@@ -26964,7 +27350,7 @@
         <v>25.0</v>
       </c>
       <c r="E514" s="2"/>
-      <c r="F514" s="8"/>
+      <c r="F514" s="77"/>
       <c r="G514" s="8">
         <v>1.0</v>
       </c>
@@ -26983,6 +27369,7 @@
         <v>0.0</v>
       </c>
       <c r="E515" s="1"/>
+      <c r="F515" s="75"/>
       <c r="O515" s="3"/>
       <c r="P515" s="3"/>
     </row>
@@ -27000,7 +27387,7 @@
         <v>593.0</v>
       </c>
       <c r="E516" s="2"/>
-      <c r="F516" s="3">
+      <c r="F516" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27020,6 +27407,7 @@
       <c r="E517" s="2" t="s">
         <v>591</v>
       </c>
+      <c r="F517" s="75"/>
       <c r="L517" s="3">
         <v>1.0</v>
       </c>
@@ -27042,7 +27430,7 @@
       <c r="E518" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F518" s="3">
+      <c r="F518" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27060,6 +27448,7 @@
         <v>411.0</v>
       </c>
       <c r="E519" s="1"/>
+      <c r="F519" s="75"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
       <c r="A520" s="5" t="s">
@@ -27075,6 +27464,7 @@
         <v>29.0</v>
       </c>
       <c r="E520" s="1"/>
+      <c r="F520" s="75"/>
       <c r="J520" s="3">
         <v>1.0</v>
       </c>
@@ -27093,6 +27483,7 @@
         <v>50.0</v>
       </c>
       <c r="E521" s="1"/>
+      <c r="F521" s="75"/>
       <c r="G521" s="3">
         <v>1.0</v>
       </c>
@@ -27113,7 +27504,7 @@
       <c r="E522" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F522" s="3">
+      <c r="F522" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27131,6 +27522,7 @@
         <v>72.0</v>
       </c>
       <c r="E523" s="1"/>
+      <c r="F523" s="75"/>
       <c r="J523" s="3">
         <v>1.0</v>
       </c>
@@ -27149,6 +27541,7 @@
         <v>36.0</v>
       </c>
       <c r="E524" s="1"/>
+      <c r="F524" s="75"/>
       <c r="O524" s="3"/>
       <c r="P524" s="3"/>
     </row>
@@ -27166,6 +27559,7 @@
         <v>83.0</v>
       </c>
       <c r="E525" s="1"/>
+      <c r="F525" s="75"/>
       <c r="J525" s="3">
         <v>1.0</v>
       </c>
@@ -27184,7 +27578,7 @@
         <v>35.0</v>
       </c>
       <c r="E526" s="2"/>
-      <c r="F526" s="8">
+      <c r="F526" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -27202,7 +27596,7 @@
         <v>18.0</v>
       </c>
       <c r="E527" s="2"/>
-      <c r="F527" s="3">
+      <c r="F527" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27220,6 +27614,7 @@
         <v>20.0</v>
       </c>
       <c r="E528" s="1"/>
+      <c r="F528" s="75"/>
       <c r="O528" s="3"/>
       <c r="P528" s="3"/>
     </row>
@@ -27239,7 +27634,7 @@
       <c r="E529" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F529" s="3">
+      <c r="F529" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27257,6 +27652,7 @@
         <v>11.0</v>
       </c>
       <c r="E530" s="1"/>
+      <c r="F530" s="75"/>
       <c r="L530" s="3">
         <v>1.0</v>
       </c>
@@ -27279,6 +27675,7 @@
       <c r="E531" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="F531" s="75"/>
       <c r="L531" s="8">
         <v>1.0</v>
       </c>
@@ -27299,6 +27696,7 @@
         <v>25.0</v>
       </c>
       <c r="E532" s="1"/>
+      <c r="F532" s="75"/>
       <c r="G532" s="3">
         <v>1.0</v>
       </c>
@@ -27317,6 +27715,7 @@
         <v>14.0</v>
       </c>
       <c r="E533" s="1"/>
+      <c r="F533" s="75"/>
       <c r="I533" s="3">
         <v>1.0</v>
       </c>
@@ -27335,6 +27734,7 @@
         <v>1.0</v>
       </c>
       <c r="E534" s="1"/>
+      <c r="F534" s="75"/>
       <c r="O534" s="3"/>
       <c r="P534" s="3"/>
     </row>
@@ -27352,6 +27752,7 @@
         <v>97.0</v>
       </c>
       <c r="E535" s="2"/>
+      <c r="F535" s="75"/>
       <c r="I535" s="3">
         <v>1.0</v>
       </c>
@@ -27370,6 +27771,7 @@
         <v>19.0</v>
       </c>
       <c r="E536" s="1"/>
+      <c r="F536" s="75"/>
       <c r="K536" s="3">
         <v>1.0</v>
       </c>
@@ -27390,7 +27792,7 @@
       <c r="E537" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F537" s="3">
+      <c r="F537" s="74">
         <v>1.0</v>
       </c>
       <c r="J537" s="3">
@@ -27410,7 +27812,10 @@
       <c r="D538" s="1">
         <v>2227.0</v>
       </c>
-      <c r="E538" s="1"/>
+      <c r="E538" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F538" s="75"/>
       <c r="G538" s="3">
         <v>1.0</v>
       </c>
@@ -27429,6 +27834,7 @@
         <v>1.0</v>
       </c>
       <c r="E539" s="1"/>
+      <c r="F539" s="75"/>
       <c r="O539" s="3"/>
       <c r="P539" s="3"/>
     </row>
@@ -27446,7 +27852,7 @@
         <v>28.0</v>
       </c>
       <c r="E540" s="2"/>
-      <c r="F540" s="3">
+      <c r="F540" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27464,7 +27870,7 @@
         <v>4.0</v>
       </c>
       <c r="E541" s="6"/>
-      <c r="F541" s="9">
+      <c r="F541" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -27482,6 +27888,7 @@
         <v>89.0</v>
       </c>
       <c r="E542" s="1"/>
+      <c r="F542" s="75"/>
       <c r="J542" s="8">
         <v>1.0</v>
       </c>
@@ -27500,6 +27907,7 @@
         <v>51.0</v>
       </c>
       <c r="E543" s="2"/>
+      <c r="F543" s="75"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
       <c r="A544" s="5" t="s">
@@ -27515,7 +27923,7 @@
         <v>10.0</v>
       </c>
       <c r="E544" s="6"/>
-      <c r="F544" s="9">
+      <c r="F544" s="79">
         <v>1.0</v>
       </c>
     </row>
@@ -27533,6 +27941,7 @@
         <v>2.0</v>
       </c>
       <c r="E545" s="1"/>
+      <c r="F545" s="75"/>
       <c r="O545" s="3"/>
       <c r="P545" s="3"/>
     </row>
@@ -27550,6 +27959,7 @@
         <v>40.0</v>
       </c>
       <c r="E546" s="1"/>
+      <c r="F546" s="75"/>
       <c r="K546" s="3">
         <v>1.0</v>
       </c>
@@ -27568,7 +27978,7 @@
         <v>6.0</v>
       </c>
       <c r="E547" s="14"/>
-      <c r="F547" s="8">
+      <c r="F547" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -27586,6 +27996,7 @@
         <v>143.0</v>
       </c>
       <c r="E548" s="1"/>
+      <c r="F548" s="75"/>
       <c r="G548" s="3">
         <v>1.0</v>
       </c>
@@ -27604,6 +28015,7 @@
         <v>308.0</v>
       </c>
       <c r="E549" s="2"/>
+      <c r="F549" s="74"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
       <c r="A550" s="5" t="s">
@@ -27621,6 +28033,7 @@
       <c r="E550" s="2" t="s">
         <v>628</v>
       </c>
+      <c r="F550" s="75"/>
       <c r="G550" s="3">
         <v>1.0</v>
       </c>
@@ -27641,6 +28054,7 @@
       <c r="E551" s="2" t="s">
         <v>630</v>
       </c>
+      <c r="F551" s="75"/>
       <c r="G551" s="3">
         <v>1.0</v>
       </c>
@@ -27659,6 +28073,7 @@
         <v>82.0</v>
       </c>
       <c r="E552" s="1"/>
+      <c r="F552" s="75"/>
       <c r="G552" s="3">
         <v>1.0</v>
       </c>
@@ -27677,6 +28092,7 @@
         <v>1.0</v>
       </c>
       <c r="E553" s="1"/>
+      <c r="F553" s="75"/>
       <c r="O553" s="3"/>
       <c r="P553" s="3"/>
     </row>
@@ -27694,6 +28110,7 @@
         <v>8.0</v>
       </c>
       <c r="E554" s="1"/>
+      <c r="F554" s="75"/>
       <c r="L554" s="7"/>
       <c r="M554" s="7"/>
       <c r="N554" s="7"/>
@@ -27712,8 +28129,9 @@
         <v>3611.0</v>
       </c>
       <c r="E555" s="1"/>
+      <c r="F555" s="75"/>
       <c r="G555" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="556" ht="14.25" customHeight="1">
@@ -27730,6 +28148,7 @@
         <v>11.0</v>
       </c>
       <c r="E556" s="1"/>
+      <c r="F556" s="75"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
       <c r="A557" s="5" t="s">
@@ -27745,10 +28164,7 @@
         <v>33.0</v>
       </c>
       <c r="E557" s="2"/>
-      <c r="F557" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="G557" s="3">
+      <c r="F557" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27766,6 +28182,7 @@
         <v>20.0</v>
       </c>
       <c r="E558" s="1"/>
+      <c r="F558" s="75"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
       <c r="A559" s="5" t="s">
@@ -27781,6 +28198,7 @@
         <v>213.0</v>
       </c>
       <c r="E559" s="1"/>
+      <c r="F559" s="75"/>
       <c r="I559" s="3">
         <v>1.0</v>
       </c>
@@ -27799,6 +28217,7 @@
         <v>303.0</v>
       </c>
       <c r="E560" s="1"/>
+      <c r="F560" s="75"/>
       <c r="G560" s="3">
         <v>1.0</v>
       </c>
@@ -27817,6 +28236,7 @@
         <v>38.0</v>
       </c>
       <c r="E561" s="1"/>
+      <c r="F561" s="75"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
       <c r="A562" s="5" t="s">
@@ -27832,6 +28252,7 @@
         <v>19.0</v>
       </c>
       <c r="E562" s="1"/>
+      <c r="F562" s="75"/>
       <c r="K562" s="3">
         <v>1.0</v>
       </c>
@@ -27850,6 +28271,7 @@
         <v>6.0</v>
       </c>
       <c r="E563" s="1"/>
+      <c r="F563" s="75"/>
       <c r="K563" s="7"/>
       <c r="O563" s="3"/>
       <c r="P563" s="3"/>
@@ -27868,6 +28290,7 @@
         <v>27.0</v>
       </c>
       <c r="E564" s="1"/>
+      <c r="F564" s="75"/>
       <c r="G564" s="3">
         <v>1.0</v>
       </c>
@@ -27889,6 +28312,7 @@
         <v>2.0</v>
       </c>
       <c r="E565" s="1"/>
+      <c r="F565" s="75"/>
       <c r="O565" s="3"/>
       <c r="P565" s="3"/>
     </row>
@@ -27906,6 +28330,7 @@
         <v>178.0</v>
       </c>
       <c r="E566" s="1"/>
+      <c r="F566" s="75"/>
       <c r="G566" s="3">
         <v>1.0</v>
       </c>
@@ -27924,7 +28349,7 @@
         <v>65.0</v>
       </c>
       <c r="E567" s="2"/>
-      <c r="F567" s="3">
+      <c r="F567" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -27942,6 +28367,7 @@
         <v>422.0</v>
       </c>
       <c r="E568" s="1"/>
+      <c r="F568" s="75"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
       <c r="A569" s="5" t="s">
@@ -27957,6 +28383,7 @@
         <v>1545.0</v>
       </c>
       <c r="E569" s="1"/>
+      <c r="F569" s="75"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
       <c r="A570" s="5" t="s">
@@ -27974,6 +28401,7 @@
       <c r="E570" s="2" t="s">
         <v>648</v>
       </c>
+      <c r="F570" s="75"/>
       <c r="G570" s="3">
         <v>1.0</v>
       </c>
@@ -27992,6 +28420,7 @@
         <v>29.0</v>
       </c>
       <c r="E571" s="1"/>
+      <c r="F571" s="75"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
       <c r="A572" s="5" t="s">
@@ -28007,6 +28436,7 @@
         <v>18.0</v>
       </c>
       <c r="E572" s="1"/>
+      <c r="F572" s="75"/>
       <c r="L572" s="3">
         <v>1.0</v>
       </c>
@@ -28027,6 +28457,7 @@
         <v>15.0</v>
       </c>
       <c r="E573" s="1"/>
+      <c r="F573" s="75"/>
       <c r="I573" s="3">
         <v>1.0</v>
       </c>
@@ -28046,6 +28477,7 @@
         <v>1.0</v>
       </c>
       <c r="E574" s="1"/>
+      <c r="F574" s="75"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
       <c r="A575" s="5" t="s">
@@ -28063,7 +28495,7 @@
       <c r="E575" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F575" s="3">
+      <c r="F575" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28083,7 +28515,7 @@
       <c r="E576" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F576" s="8">
+      <c r="F576" s="77">
         <v>1.0</v>
       </c>
     </row>
@@ -28101,6 +28533,7 @@
         <v>27.0</v>
       </c>
       <c r="E577" s="1"/>
+      <c r="F577" s="75"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
       <c r="A578" s="5" t="s">
@@ -28118,6 +28551,7 @@
       <c r="E578" s="2" t="s">
         <v>657</v>
       </c>
+      <c r="F578" s="75"/>
       <c r="G578" s="3">
         <v>1.0</v>
       </c>
@@ -28136,6 +28570,7 @@
         <v>29.0</v>
       </c>
       <c r="E579" s="2"/>
+      <c r="F579" s="75"/>
       <c r="I579" s="13">
         <v>1.0</v>
       </c>
@@ -28154,6 +28589,7 @@
         <v>130.0</v>
       </c>
       <c r="E580" s="1"/>
+      <c r="F580" s="75"/>
       <c r="M580" s="3"/>
       <c r="N580" s="3"/>
     </row>
@@ -28171,6 +28607,7 @@
         <v>27.0</v>
       </c>
       <c r="E581" s="1"/>
+      <c r="F581" s="75"/>
       <c r="J581" s="8">
         <v>1.0</v>
       </c>
@@ -28189,6 +28626,7 @@
         <v>154.0</v>
       </c>
       <c r="E582" s="1"/>
+      <c r="F582" s="75"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
       <c r="A583" s="5" t="s">
@@ -28204,6 +28642,7 @@
         <v>52.0</v>
       </c>
       <c r="E583" s="1"/>
+      <c r="F583" s="75"/>
       <c r="K583" s="3">
         <v>1.0</v>
       </c>
@@ -28222,6 +28661,7 @@
         <v>4473.0</v>
       </c>
       <c r="E584" s="1"/>
+      <c r="F584" s="75"/>
       <c r="G584" s="3">
         <v>1.0</v>
       </c>
@@ -28240,7 +28680,7 @@
         <v>48.0</v>
       </c>
       <c r="E585" s="2"/>
-      <c r="F585" s="8">
+      <c r="F585" s="77">
         <v>1.0</v>
       </c>
       <c r="G585" s="3">
@@ -28261,7 +28701,7 @@
         <v>0.0</v>
       </c>
       <c r="E586" s="6"/>
-      <c r="F586" s="7"/>
+      <c r="F586" s="76"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
       <c r="A587" s="5" t="s">
@@ -28277,7 +28717,7 @@
         <v>20.0</v>
       </c>
       <c r="E587" s="2"/>
-      <c r="F587" s="3">
+      <c r="F587" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28295,6 +28735,7 @@
         <v>5.0</v>
       </c>
       <c r="E588" s="1"/>
+      <c r="F588" s="75"/>
       <c r="O588" s="3"/>
       <c r="P588" s="3"/>
     </row>
@@ -28312,7 +28753,7 @@
         <v>904.0</v>
       </c>
       <c r="E589" s="2"/>
-      <c r="F589" s="3">
+      <c r="F589" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28330,7 +28771,7 @@
         <v>12.0</v>
       </c>
       <c r="E590" s="2"/>
-      <c r="F590" s="3">
+      <c r="F590" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28348,7 +28789,7 @@
         <v>93.0</v>
       </c>
       <c r="E591" s="2"/>
-      <c r="F591" s="3">
+      <c r="F591" s="74">
         <v>1.0</v>
       </c>
       <c r="J591" s="3">
@@ -28371,7 +28812,7 @@
       <c r="E592" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="F592" s="3">
+      <c r="F592" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28389,6 +28830,7 @@
         <v>11.0</v>
       </c>
       <c r="E593" s="1"/>
+      <c r="F593" s="75"/>
       <c r="O593" s="3"/>
       <c r="P593" s="3"/>
     </row>
@@ -28408,6 +28850,7 @@
       <c r="E594" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="F594" s="75"/>
       <c r="J594" s="3">
         <v>1.0</v>
       </c>
@@ -28430,7 +28873,7 @@
       <c r="E595" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F595" s="3">
+      <c r="F595" s="74">
         <v>1.0</v>
       </c>
     </row>
@@ -28448,6 +28891,7 @@
         <v>2775.0</v>
       </c>
       <c r="E596" s="1"/>
+      <c r="F596" s="75"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
       <c r="A597" s="5" t="s">
@@ -28463,6 +28907,7 @@
         <v>28.0</v>
       </c>
       <c r="E597" s="1"/>
+      <c r="F597" s="75"/>
       <c r="O597" s="3"/>
       <c r="P597" s="3"/>
     </row>
@@ -28480,6 +28925,7 @@
         <v>25.0</v>
       </c>
       <c r="E598" s="2"/>
+      <c r="F598" s="75"/>
       <c r="K598" s="3">
         <v>1.0</v>
       </c>
@@ -28500,6 +28946,7 @@
       <c r="E599" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="F599" s="75"/>
       <c r="K599" s="10">
         <v>1.0</v>
       </c>
@@ -28520,6 +28967,7 @@
         <v>1.0</v>
       </c>
       <c r="E600" s="1"/>
+      <c r="F600" s="75"/>
       <c r="O600" s="3"/>
       <c r="P600" s="3"/>
     </row>
@@ -28537,6 +28985,7 @@
         <v>26.0</v>
       </c>
       <c r="E601" s="1"/>
+      <c r="F601" s="75"/>
       <c r="K601" s="3">
         <v>1.0</v>
       </c>
@@ -28555,490 +29004,1253 @@
         <v>39.0</v>
       </c>
       <c r="E602" s="1"/>
+      <c r="F602" s="75"/>
       <c r="O602" s="3"/>
       <c r="P602" s="3"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1">
+      <c r="F603" s="75"/>
+    </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="76"/>
+      <c r="A604" s="83"/>
       <c r="D604" s="58"/>
+      <c r="F604" s="75"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="77"/>
+      <c r="A605" s="84"/>
       <c r="D605" s="67"/>
+      <c r="F605" s="75"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
       <c r="A606" s="71"/>
       <c r="D606" s="68"/>
+      <c r="F606" s="75"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="76"/>
+      <c r="A607" s="83"/>
       <c r="D607" s="67"/>
+      <c r="F607" s="75"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="76"/>
+      <c r="A608" s="83"/>
       <c r="D608" s="63"/>
+      <c r="F608" s="75"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="76"/>
+      <c r="A609" s="83"/>
       <c r="D609" s="58"/>
+      <c r="F609" s="75"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="76"/>
+      <c r="A610" s="83"/>
       <c r="D610" s="58"/>
+      <c r="F610" s="75"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="78"/>
+      <c r="A611" s="85"/>
       <c r="D611" s="58"/>
+      <c r="F611" s="75"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
       <c r="A612" s="71"/>
       <c r="D612" s="67"/>
+      <c r="F612" s="75"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="76"/>
+      <c r="A613" s="83"/>
       <c r="D613" s="63"/>
+      <c r="F613" s="75"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="79"/>
+      <c r="A614" s="86"/>
       <c r="D614" s="56"/>
+      <c r="F614" s="75"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
       <c r="D615" s="58"/>
+      <c r="F615" s="75"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="79"/>
+      <c r="A616" s="86"/>
       <c r="D616" s="56"/>
+      <c r="F616" s="75"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="80"/>
+      <c r="A617" s="87"/>
       <c r="D617" s="67"/>
+      <c r="F617" s="75"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="76"/>
+      <c r="A618" s="83"/>
       <c r="D618" s="67"/>
+      <c r="F618" s="75"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="76"/>
+      <c r="A619" s="83"/>
       <c r="D619" s="67"/>
+      <c r="F619" s="75"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="80"/>
+      <c r="A620" s="87"/>
       <c r="D620" s="67"/>
+      <c r="F620" s="75"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="76"/>
+      <c r="A621" s="83"/>
       <c r="D621" s="62"/>
+      <c r="F621" s="75"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
       <c r="A622" s="7"/>
       <c r="D622" s="58"/>
+      <c r="F622" s="75"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
       <c r="A623" s="7"/>
       <c r="D623" s="63"/>
+      <c r="F623" s="75"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
       <c r="D624" s="58"/>
+      <c r="F624" s="75"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="81"/>
+      <c r="A625" s="88"/>
       <c r="D625" s="58"/>
+      <c r="F625" s="75"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="82"/>
+      <c r="A626" s="89"/>
       <c r="D626" s="62"/>
+      <c r="F626" s="75"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
       <c r="D627" s="56"/>
+      <c r="F627" s="75"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
       <c r="A628" s="7"/>
       <c r="D628" s="62"/>
+      <c r="F628" s="75"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
       <c r="D629" s="72"/>
+      <c r="F629" s="75"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
       <c r="D630" s="72"/>
+      <c r="F630" s="75"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="78"/>
+      <c r="A631" s="85"/>
       <c r="D631" s="72"/>
+      <c r="F631" s="75"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="81"/>
-      <c r="D632" s="83"/>
+      <c r="A632" s="88"/>
+      <c r="D632" s="90"/>
+      <c r="F632" s="75"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="71"/>
-      <c r="D633" s="83"/>
-    </row>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
+      <c r="D633" s="90"/>
+      <c r="F633" s="75"/>
+    </row>
+    <row r="634" ht="14.25" customHeight="1">
+      <c r="F634" s="75"/>
+    </row>
+    <row r="635" ht="14.25" customHeight="1">
+      <c r="F635" s="75"/>
+    </row>
+    <row r="636" ht="14.25" customHeight="1">
+      <c r="F636" s="75"/>
+    </row>
+    <row r="637" ht="14.25" customHeight="1">
+      <c r="F637" s="75"/>
+    </row>
+    <row r="638" ht="14.25" customHeight="1">
+      <c r="F638" s="75"/>
+    </row>
+    <row r="639" ht="14.25" customHeight="1">
+      <c r="F639" s="75"/>
+    </row>
+    <row r="640" ht="14.25" customHeight="1">
+      <c r="F640" s="75"/>
+    </row>
+    <row r="641" ht="14.25" customHeight="1">
+      <c r="F641" s="75"/>
+    </row>
+    <row r="642" ht="14.25" customHeight="1">
+      <c r="F642" s="75"/>
+    </row>
+    <row r="643" ht="14.25" customHeight="1">
+      <c r="F643" s="75"/>
+    </row>
+    <row r="644" ht="14.25" customHeight="1">
+      <c r="F644" s="75"/>
+    </row>
+    <row r="645" ht="14.25" customHeight="1">
+      <c r="F645" s="75"/>
+    </row>
+    <row r="646" ht="14.25" customHeight="1">
+      <c r="F646" s="75"/>
+    </row>
+    <row r="647" ht="14.25" customHeight="1">
+      <c r="F647" s="75"/>
+    </row>
+    <row r="648" ht="14.25" customHeight="1">
+      <c r="F648" s="75"/>
+    </row>
+    <row r="649" ht="14.25" customHeight="1">
+      <c r="F649" s="75"/>
+    </row>
+    <row r="650" ht="14.25" customHeight="1">
+      <c r="F650" s="75"/>
+    </row>
+    <row r="651" ht="14.25" customHeight="1">
+      <c r="F651" s="75"/>
+    </row>
+    <row r="652" ht="14.25" customHeight="1">
+      <c r="F652" s="75"/>
+    </row>
+    <row r="653" ht="14.25" customHeight="1">
+      <c r="F653" s="75"/>
+    </row>
+    <row r="654" ht="14.25" customHeight="1">
+      <c r="F654" s="75"/>
+    </row>
+    <row r="655" ht="14.25" customHeight="1">
+      <c r="F655" s="75"/>
+    </row>
+    <row r="656" ht="14.25" customHeight="1">
+      <c r="F656" s="75"/>
+    </row>
+    <row r="657" ht="14.25" customHeight="1">
+      <c r="F657" s="75"/>
+    </row>
+    <row r="658" ht="14.25" customHeight="1">
+      <c r="F658" s="75"/>
+    </row>
+    <row r="659" ht="14.25" customHeight="1">
+      <c r="F659" s="75"/>
+    </row>
+    <row r="660" ht="14.25" customHeight="1">
+      <c r="F660" s="75"/>
+    </row>
+    <row r="661" ht="14.25" customHeight="1">
+      <c r="F661" s="75"/>
+    </row>
+    <row r="662" ht="14.25" customHeight="1">
+      <c r="F662" s="75"/>
+    </row>
+    <row r="663" ht="14.25" customHeight="1">
+      <c r="F663" s="75"/>
+    </row>
+    <row r="664" ht="14.25" customHeight="1">
+      <c r="F664" s="75"/>
+    </row>
+    <row r="665" ht="14.25" customHeight="1">
+      <c r="F665" s="75"/>
+    </row>
+    <row r="666" ht="14.25" customHeight="1">
+      <c r="F666" s="75"/>
+    </row>
+    <row r="667" ht="14.25" customHeight="1">
+      <c r="F667" s="75"/>
+    </row>
+    <row r="668" ht="14.25" customHeight="1">
+      <c r="F668" s="75"/>
+    </row>
+    <row r="669" ht="14.25" customHeight="1">
+      <c r="F669" s="75"/>
+    </row>
+    <row r="670" ht="14.25" customHeight="1">
+      <c r="F670" s="75"/>
+    </row>
+    <row r="671" ht="14.25" customHeight="1">
+      <c r="F671" s="75"/>
+    </row>
+    <row r="672" ht="14.25" customHeight="1">
+      <c r="F672" s="75"/>
+    </row>
+    <row r="673" ht="14.25" customHeight="1">
+      <c r="F673" s="75"/>
+    </row>
+    <row r="674" ht="14.25" customHeight="1">
+      <c r="F674" s="75"/>
+    </row>
+    <row r="675" ht="14.25" customHeight="1">
+      <c r="F675" s="75"/>
+    </row>
+    <row r="676" ht="14.25" customHeight="1">
+      <c r="F676" s="75"/>
+    </row>
+    <row r="677" ht="14.25" customHeight="1">
+      <c r="F677" s="75"/>
+    </row>
+    <row r="678" ht="14.25" customHeight="1">
+      <c r="F678" s="75"/>
+    </row>
+    <row r="679" ht="14.25" customHeight="1">
+      <c r="F679" s="75"/>
+    </row>
+    <row r="680" ht="14.25" customHeight="1">
+      <c r="F680" s="75"/>
+    </row>
+    <row r="681" ht="14.25" customHeight="1">
+      <c r="F681" s="75"/>
+    </row>
+    <row r="682" ht="14.25" customHeight="1">
+      <c r="F682" s="75"/>
+    </row>
+    <row r="683" ht="14.25" customHeight="1">
+      <c r="F683" s="75"/>
+    </row>
+    <row r="684" ht="14.25" customHeight="1">
+      <c r="F684" s="75"/>
+    </row>
+    <row r="685" ht="14.25" customHeight="1">
+      <c r="F685" s="75"/>
+    </row>
+    <row r="686" ht="14.25" customHeight="1">
+      <c r="F686" s="75"/>
+    </row>
+    <row r="687" ht="14.25" customHeight="1">
+      <c r="F687" s="75"/>
+    </row>
+    <row r="688" ht="14.25" customHeight="1">
+      <c r="F688" s="75"/>
+    </row>
+    <row r="689" ht="14.25" customHeight="1">
+      <c r="F689" s="75"/>
+    </row>
+    <row r="690" ht="14.25" customHeight="1">
+      <c r="F690" s="75"/>
+    </row>
+    <row r="691" ht="14.25" customHeight="1">
+      <c r="F691" s="75"/>
+    </row>
+    <row r="692" ht="14.25" customHeight="1">
+      <c r="F692" s="75"/>
+    </row>
+    <row r="693" ht="14.25" customHeight="1">
+      <c r="F693" s="75"/>
+    </row>
+    <row r="694" ht="14.25" customHeight="1">
+      <c r="F694" s="75"/>
+    </row>
+    <row r="695" ht="14.25" customHeight="1">
+      <c r="F695" s="75"/>
+    </row>
+    <row r="696" ht="14.25" customHeight="1">
+      <c r="F696" s="75"/>
+    </row>
+    <row r="697" ht="14.25" customHeight="1">
+      <c r="F697" s="75"/>
+    </row>
+    <row r="698" ht="14.25" customHeight="1">
+      <c r="F698" s="75"/>
+    </row>
+    <row r="699" ht="14.25" customHeight="1">
+      <c r="F699" s="75"/>
+    </row>
+    <row r="700" ht="14.25" customHeight="1">
+      <c r="F700" s="75"/>
+    </row>
+    <row r="701" ht="14.25" customHeight="1">
+      <c r="F701" s="75"/>
+    </row>
+    <row r="702" ht="14.25" customHeight="1">
+      <c r="F702" s="75"/>
+    </row>
+    <row r="703" ht="14.25" customHeight="1">
+      <c r="F703" s="75"/>
+    </row>
+    <row r="704" ht="14.25" customHeight="1">
+      <c r="F704" s="75"/>
+    </row>
+    <row r="705" ht="14.25" customHeight="1">
+      <c r="F705" s="75"/>
+    </row>
+    <row r="706" ht="14.25" customHeight="1">
+      <c r="F706" s="75"/>
+    </row>
+    <row r="707" ht="14.25" customHeight="1">
+      <c r="F707" s="75"/>
+    </row>
+    <row r="708" ht="14.25" customHeight="1">
+      <c r="F708" s="75"/>
+    </row>
+    <row r="709" ht="14.25" customHeight="1">
+      <c r="F709" s="75"/>
+    </row>
+    <row r="710" ht="14.25" customHeight="1">
+      <c r="F710" s="75"/>
+    </row>
+    <row r="711" ht="14.25" customHeight="1">
+      <c r="F711" s="75"/>
+    </row>
+    <row r="712" ht="14.25" customHeight="1">
+      <c r="F712" s="75"/>
+    </row>
+    <row r="713" ht="14.25" customHeight="1">
+      <c r="F713" s="75"/>
+    </row>
+    <row r="714" ht="14.25" customHeight="1">
+      <c r="F714" s="75"/>
+    </row>
+    <row r="715" ht="14.25" customHeight="1">
+      <c r="F715" s="75"/>
+    </row>
+    <row r="716" ht="14.25" customHeight="1">
+      <c r="F716" s="75"/>
+    </row>
+    <row r="717" ht="14.25" customHeight="1">
+      <c r="F717" s="75"/>
+    </row>
+    <row r="718" ht="14.25" customHeight="1">
+      <c r="F718" s="75"/>
+    </row>
+    <row r="719" ht="14.25" customHeight="1">
+      <c r="F719" s="75"/>
+    </row>
+    <row r="720" ht="14.25" customHeight="1">
+      <c r="F720" s="75"/>
+    </row>
+    <row r="721" ht="14.25" customHeight="1">
+      <c r="F721" s="75"/>
+    </row>
+    <row r="722" ht="14.25" customHeight="1">
+      <c r="F722" s="75"/>
+    </row>
+    <row r="723" ht="14.25" customHeight="1">
+      <c r="F723" s="75"/>
+    </row>
+    <row r="724" ht="14.25" customHeight="1">
+      <c r="F724" s="75"/>
+    </row>
+    <row r="725" ht="14.25" customHeight="1">
+      <c r="F725" s="75"/>
+    </row>
+    <row r="726" ht="14.25" customHeight="1">
+      <c r="F726" s="75"/>
+    </row>
+    <row r="727" ht="14.25" customHeight="1">
+      <c r="F727" s="75"/>
+    </row>
+    <row r="728" ht="14.25" customHeight="1">
+      <c r="F728" s="75"/>
+    </row>
+    <row r="729" ht="14.25" customHeight="1">
+      <c r="F729" s="75"/>
+    </row>
+    <row r="730" ht="14.25" customHeight="1">
+      <c r="F730" s="75"/>
+    </row>
+    <row r="731" ht="14.25" customHeight="1">
+      <c r="F731" s="75"/>
+    </row>
+    <row r="732" ht="14.25" customHeight="1">
+      <c r="F732" s="75"/>
+    </row>
+    <row r="733" ht="14.25" customHeight="1">
+      <c r="F733" s="75"/>
+    </row>
+    <row r="734" ht="14.25" customHeight="1">
+      <c r="F734" s="75"/>
+    </row>
+    <row r="735" ht="14.25" customHeight="1">
+      <c r="F735" s="75"/>
+    </row>
+    <row r="736" ht="14.25" customHeight="1">
+      <c r="F736" s="75"/>
+    </row>
+    <row r="737" ht="14.25" customHeight="1">
+      <c r="F737" s="75"/>
+    </row>
+    <row r="738" ht="14.25" customHeight="1">
+      <c r="F738" s="75"/>
+    </row>
+    <row r="739" ht="14.25" customHeight="1">
+      <c r="F739" s="75"/>
+    </row>
+    <row r="740" ht="14.25" customHeight="1">
+      <c r="F740" s="75"/>
+    </row>
+    <row r="741" ht="14.25" customHeight="1">
+      <c r="F741" s="75"/>
+    </row>
+    <row r="742" ht="14.25" customHeight="1">
+      <c r="F742" s="75"/>
+    </row>
+    <row r="743" ht="14.25" customHeight="1">
+      <c r="F743" s="75"/>
+    </row>
+    <row r="744" ht="14.25" customHeight="1">
+      <c r="F744" s="75"/>
+    </row>
+    <row r="745" ht="14.25" customHeight="1">
+      <c r="F745" s="75"/>
+    </row>
+    <row r="746" ht="14.25" customHeight="1">
+      <c r="F746" s="75"/>
+    </row>
+    <row r="747" ht="14.25" customHeight="1">
+      <c r="F747" s="75"/>
+    </row>
+    <row r="748" ht="14.25" customHeight="1">
+      <c r="F748" s="75"/>
+    </row>
+    <row r="749" ht="14.25" customHeight="1">
+      <c r="F749" s="75"/>
+    </row>
+    <row r="750" ht="14.25" customHeight="1">
+      <c r="F750" s="75"/>
+    </row>
+    <row r="751" ht="14.25" customHeight="1">
+      <c r="F751" s="75"/>
+    </row>
+    <row r="752" ht="14.25" customHeight="1">
+      <c r="F752" s="75"/>
+    </row>
+    <row r="753" ht="14.25" customHeight="1">
+      <c r="F753" s="75"/>
+    </row>
+    <row r="754" ht="14.25" customHeight="1">
+      <c r="F754" s="75"/>
+    </row>
+    <row r="755" ht="14.25" customHeight="1">
+      <c r="F755" s="75"/>
+    </row>
+    <row r="756" ht="14.25" customHeight="1">
+      <c r="F756" s="75"/>
+    </row>
+    <row r="757" ht="14.25" customHeight="1">
+      <c r="F757" s="75"/>
+    </row>
+    <row r="758" ht="14.25" customHeight="1">
+      <c r="F758" s="75"/>
+    </row>
+    <row r="759" ht="14.25" customHeight="1">
+      <c r="F759" s="75"/>
+    </row>
+    <row r="760" ht="14.25" customHeight="1">
+      <c r="F760" s="75"/>
+    </row>
+    <row r="761" ht="14.25" customHeight="1">
+      <c r="F761" s="75"/>
+    </row>
+    <row r="762" ht="14.25" customHeight="1">
+      <c r="F762" s="75"/>
+    </row>
+    <row r="763" ht="14.25" customHeight="1">
+      <c r="F763" s="75"/>
+    </row>
+    <row r="764" ht="14.25" customHeight="1">
+      <c r="F764" s="75"/>
+    </row>
+    <row r="765" ht="14.25" customHeight="1">
+      <c r="F765" s="75"/>
+    </row>
+    <row r="766" ht="14.25" customHeight="1">
+      <c r="F766" s="75"/>
+    </row>
+    <row r="767" ht="14.25" customHeight="1">
+      <c r="F767" s="75"/>
+    </row>
+    <row r="768" ht="14.25" customHeight="1">
+      <c r="F768" s="75"/>
+    </row>
+    <row r="769" ht="14.25" customHeight="1">
+      <c r="F769" s="75"/>
+    </row>
+    <row r="770" ht="14.25" customHeight="1">
+      <c r="F770" s="75"/>
+    </row>
+    <row r="771" ht="14.25" customHeight="1">
+      <c r="F771" s="75"/>
+    </row>
+    <row r="772" ht="14.25" customHeight="1">
+      <c r="F772" s="75"/>
+    </row>
+    <row r="773" ht="14.25" customHeight="1">
+      <c r="F773" s="75"/>
+    </row>
+    <row r="774" ht="14.25" customHeight="1">
+      <c r="F774" s="75"/>
+    </row>
+    <row r="775" ht="14.25" customHeight="1">
+      <c r="F775" s="75"/>
+    </row>
+    <row r="776" ht="14.25" customHeight="1">
+      <c r="F776" s="75"/>
+    </row>
+    <row r="777" ht="14.25" customHeight="1">
+      <c r="F777" s="75"/>
+    </row>
+    <row r="778" ht="14.25" customHeight="1">
+      <c r="F778" s="75"/>
+    </row>
+    <row r="779" ht="14.25" customHeight="1">
+      <c r="F779" s="75"/>
+    </row>
+    <row r="780" ht="14.25" customHeight="1">
+      <c r="F780" s="75"/>
+    </row>
+    <row r="781" ht="14.25" customHeight="1">
+      <c r="F781" s="75"/>
+    </row>
+    <row r="782" ht="14.25" customHeight="1">
+      <c r="F782" s="75"/>
+    </row>
+    <row r="783" ht="14.25" customHeight="1">
+      <c r="F783" s="75"/>
+    </row>
+    <row r="784" ht="14.25" customHeight="1">
+      <c r="F784" s="75"/>
+    </row>
+    <row r="785" ht="14.25" customHeight="1">
+      <c r="F785" s="75"/>
+    </row>
+    <row r="786" ht="14.25" customHeight="1">
+      <c r="F786" s="75"/>
+    </row>
+    <row r="787" ht="14.25" customHeight="1">
+      <c r="F787" s="75"/>
+    </row>
+    <row r="788" ht="14.25" customHeight="1">
+      <c r="F788" s="75"/>
+    </row>
+    <row r="789" ht="14.25" customHeight="1">
+      <c r="F789" s="75"/>
+    </row>
+    <row r="790" ht="14.25" customHeight="1">
+      <c r="F790" s="75"/>
+    </row>
+    <row r="791" ht="14.25" customHeight="1">
+      <c r="F791" s="75"/>
+    </row>
+    <row r="792" ht="14.25" customHeight="1">
+      <c r="F792" s="75"/>
+    </row>
+    <row r="793" ht="14.25" customHeight="1">
+      <c r="F793" s="75"/>
+    </row>
+    <row r="794" ht="14.25" customHeight="1">
+      <c r="F794" s="75"/>
+    </row>
+    <row r="795" ht="14.25" customHeight="1">
+      <c r="F795" s="75"/>
+    </row>
+    <row r="796" ht="14.25" customHeight="1">
+      <c r="F796" s="75"/>
+    </row>
+    <row r="797" ht="14.25" customHeight="1">
+      <c r="F797" s="75"/>
+    </row>
+    <row r="798" ht="14.25" customHeight="1">
+      <c r="F798" s="75"/>
+    </row>
+    <row r="799" ht="14.25" customHeight="1">
+      <c r="F799" s="75"/>
+    </row>
+    <row r="800" ht="14.25" customHeight="1">
+      <c r="F800" s="75"/>
+    </row>
+    <row r="801" ht="14.25" customHeight="1">
+      <c r="F801" s="75"/>
+    </row>
+    <row r="802" ht="14.25" customHeight="1">
+      <c r="F802" s="75"/>
+    </row>
+    <row r="803" ht="14.25" customHeight="1">
+      <c r="F803" s="75"/>
+    </row>
+    <row r="804" ht="14.25" customHeight="1">
+      <c r="F804" s="75"/>
+    </row>
+    <row r="805" ht="14.25" customHeight="1">
+      <c r="F805" s="75"/>
+    </row>
+    <row r="806" ht="14.25" customHeight="1">
+      <c r="F806" s="75"/>
+    </row>
+    <row r="807" ht="14.25" customHeight="1">
+      <c r="F807" s="75"/>
+    </row>
+    <row r="808" ht="14.25" customHeight="1">
+      <c r="F808" s="75"/>
+    </row>
+    <row r="809" ht="14.25" customHeight="1">
+      <c r="F809" s="75"/>
+    </row>
+    <row r="810" ht="14.25" customHeight="1">
+      <c r="F810" s="75"/>
+    </row>
+    <row r="811" ht="14.25" customHeight="1">
+      <c r="F811" s="75"/>
+    </row>
+    <row r="812" ht="14.25" customHeight="1">
+      <c r="F812" s="75"/>
+    </row>
+    <row r="813" ht="14.25" customHeight="1">
+      <c r="F813" s="75"/>
+    </row>
+    <row r="814" ht="14.25" customHeight="1">
+      <c r="F814" s="75"/>
+    </row>
+    <row r="815" ht="14.25" customHeight="1">
+      <c r="F815" s="75"/>
+    </row>
+    <row r="816" ht="14.25" customHeight="1">
+      <c r="F816" s="75"/>
+    </row>
+    <row r="817" ht="14.25" customHeight="1">
+      <c r="F817" s="75"/>
+    </row>
+    <row r="818" ht="14.25" customHeight="1">
+      <c r="F818" s="75"/>
+    </row>
+    <row r="819" ht="14.25" customHeight="1">
+      <c r="F819" s="75"/>
+    </row>
+    <row r="820" ht="14.25" customHeight="1">
+      <c r="F820" s="75"/>
+    </row>
+    <row r="821" ht="14.25" customHeight="1">
+      <c r="F821" s="75"/>
+    </row>
+    <row r="822" ht="14.25" customHeight="1">
+      <c r="F822" s="75"/>
+    </row>
+    <row r="823" ht="14.25" customHeight="1">
+      <c r="F823" s="75"/>
+    </row>
+    <row r="824" ht="14.25" customHeight="1">
+      <c r="F824" s="75"/>
+    </row>
+    <row r="825" ht="14.25" customHeight="1">
+      <c r="F825" s="75"/>
+    </row>
+    <row r="826" ht="14.25" customHeight="1">
+      <c r="F826" s="75"/>
+    </row>
+    <row r="827" ht="14.25" customHeight="1">
+      <c r="F827" s="75"/>
+    </row>
+    <row r="828" ht="14.25" customHeight="1">
+      <c r="F828" s="75"/>
+    </row>
+    <row r="829" ht="14.25" customHeight="1">
+      <c r="F829" s="75"/>
+    </row>
+    <row r="830" ht="14.25" customHeight="1">
+      <c r="F830" s="75"/>
+    </row>
+    <row r="831" ht="14.25" customHeight="1">
+      <c r="F831" s="75"/>
+    </row>
+    <row r="832" ht="14.25" customHeight="1">
+      <c r="F832" s="75"/>
+    </row>
+    <row r="833" ht="14.25" customHeight="1">
+      <c r="F833" s="75"/>
+    </row>
+    <row r="834" ht="14.25" customHeight="1">
+      <c r="F834" s="75"/>
+    </row>
+    <row r="835" ht="14.25" customHeight="1">
+      <c r="F835" s="75"/>
+    </row>
+    <row r="836" ht="14.25" customHeight="1">
+      <c r="F836" s="75"/>
+    </row>
+    <row r="837" ht="14.25" customHeight="1">
+      <c r="F837" s="75"/>
+    </row>
+    <row r="838" ht="14.25" customHeight="1">
+      <c r="F838" s="75"/>
+    </row>
+    <row r="839" ht="14.25" customHeight="1">
+      <c r="F839" s="75"/>
+    </row>
+    <row r="840" ht="14.25" customHeight="1">
+      <c r="F840" s="75"/>
+    </row>
+    <row r="841" ht="14.25" customHeight="1">
+      <c r="F841" s="75"/>
+    </row>
+    <row r="842" ht="14.25" customHeight="1">
+      <c r="F842" s="75"/>
+    </row>
+    <row r="843" ht="14.25" customHeight="1">
+      <c r="F843" s="75"/>
+    </row>
+    <row r="844" ht="14.25" customHeight="1">
+      <c r="F844" s="75"/>
+    </row>
+    <row r="845" ht="14.25" customHeight="1">
+      <c r="F845" s="75"/>
+    </row>
+    <row r="846" ht="14.25" customHeight="1">
+      <c r="F846" s="75"/>
+    </row>
+    <row r="847" ht="14.25" customHeight="1">
+      <c r="F847" s="75"/>
+    </row>
+    <row r="848" ht="14.25" customHeight="1">
+      <c r="F848" s="75"/>
+    </row>
+    <row r="849" ht="14.25" customHeight="1">
+      <c r="F849" s="75"/>
+    </row>
+    <row r="850" ht="14.25" customHeight="1">
+      <c r="F850" s="75"/>
+    </row>
+    <row r="851" ht="14.25" customHeight="1">
+      <c r="F851" s="75"/>
+    </row>
+    <row r="852" ht="14.25" customHeight="1">
+      <c r="F852" s="75"/>
+    </row>
+    <row r="853" ht="14.25" customHeight="1">
+      <c r="F853" s="75"/>
+    </row>
+    <row r="854" ht="14.25" customHeight="1">
+      <c r="F854" s="75"/>
+    </row>
+    <row r="855" ht="14.25" customHeight="1">
+      <c r="F855" s="75"/>
+    </row>
+    <row r="856" ht="14.25" customHeight="1">
+      <c r="F856" s="75"/>
+    </row>
+    <row r="857" ht="14.25" customHeight="1">
+      <c r="F857" s="75"/>
+    </row>
+    <row r="858" ht="14.25" customHeight="1">
+      <c r="F858" s="75"/>
+    </row>
+    <row r="859" ht="14.25" customHeight="1">
+      <c r="F859" s="75"/>
+    </row>
+    <row r="860" ht="14.25" customHeight="1">
+      <c r="F860" s="75"/>
+    </row>
+    <row r="861" ht="14.25" customHeight="1">
+      <c r="F861" s="75"/>
+    </row>
+    <row r="862" ht="14.25" customHeight="1">
+      <c r="F862" s="75"/>
+    </row>
+    <row r="863" ht="14.25" customHeight="1">
+      <c r="F863" s="75"/>
+    </row>
+    <row r="864" ht="14.25" customHeight="1">
+      <c r="F864" s="75"/>
+    </row>
+    <row r="865" ht="14.25" customHeight="1">
+      <c r="F865" s="75"/>
+    </row>
+    <row r="866" ht="14.25" customHeight="1">
+      <c r="F866" s="75"/>
+    </row>
+    <row r="867" ht="14.25" customHeight="1">
+      <c r="F867" s="75"/>
+    </row>
+    <row r="868" ht="14.25" customHeight="1">
+      <c r="F868" s="75"/>
+    </row>
+    <row r="869" ht="14.25" customHeight="1">
+      <c r="F869" s="75"/>
+    </row>
+    <row r="870" ht="14.25" customHeight="1">
+      <c r="F870" s="75"/>
+    </row>
+    <row r="871" ht="14.25" customHeight="1">
+      <c r="F871" s="75"/>
+    </row>
+    <row r="872" ht="14.25" customHeight="1">
+      <c r="F872" s="75"/>
+    </row>
+    <row r="873" ht="14.25" customHeight="1">
+      <c r="F873" s="75"/>
+    </row>
+    <row r="874" ht="14.25" customHeight="1">
+      <c r="F874" s="75"/>
+    </row>
+    <row r="875" ht="14.25" customHeight="1">
+      <c r="F875" s="75"/>
+    </row>
+    <row r="876" ht="14.25" customHeight="1">
+      <c r="F876" s="75"/>
+    </row>
+    <row r="877" ht="14.25" customHeight="1">
+      <c r="F877" s="75"/>
+    </row>
+    <row r="878" ht="14.25" customHeight="1">
+      <c r="F878" s="75"/>
+    </row>
+    <row r="879" ht="14.25" customHeight="1">
+      <c r="F879" s="75"/>
+    </row>
+    <row r="880" ht="14.25" customHeight="1">
+      <c r="F880" s="75"/>
+    </row>
+    <row r="881" ht="14.25" customHeight="1">
+      <c r="F881" s="75"/>
+    </row>
+    <row r="882" ht="14.25" customHeight="1">
+      <c r="F882" s="75"/>
+    </row>
+    <row r="883" ht="14.25" customHeight="1">
+      <c r="F883" s="75"/>
+    </row>
+    <row r="884" ht="14.25" customHeight="1">
+      <c r="F884" s="75"/>
+    </row>
+    <row r="885" ht="14.25" customHeight="1">
+      <c r="F885" s="75"/>
+    </row>
+    <row r="886" ht="14.25" customHeight="1">
+      <c r="F886" s="75"/>
+    </row>
+    <row r="887" ht="14.25" customHeight="1">
+      <c r="F887" s="75"/>
+    </row>
+    <row r="888" ht="14.25" customHeight="1">
+      <c r="F888" s="75"/>
+    </row>
+    <row r="889" ht="14.25" customHeight="1">
+      <c r="F889" s="75"/>
+    </row>
+    <row r="890" ht="14.25" customHeight="1">
+      <c r="F890" s="75"/>
+    </row>
+    <row r="891" ht="14.25" customHeight="1">
+      <c r="F891" s="75"/>
+    </row>
+    <row r="892" ht="14.25" customHeight="1">
+      <c r="F892" s="75"/>
+    </row>
+    <row r="893" ht="14.25" customHeight="1">
+      <c r="F893" s="75"/>
+    </row>
+    <row r="894" ht="14.25" customHeight="1">
+      <c r="F894" s="75"/>
+    </row>
+    <row r="895" ht="14.25" customHeight="1">
+      <c r="F895" s="75"/>
+    </row>
+    <row r="896" ht="14.25" customHeight="1">
+      <c r="F896" s="75"/>
+    </row>
+    <row r="897" ht="14.25" customHeight="1">
+      <c r="F897" s="75"/>
+    </row>
+    <row r="898" ht="14.25" customHeight="1">
+      <c r="F898" s="75"/>
+    </row>
+    <row r="899" ht="14.25" customHeight="1">
+      <c r="F899" s="75"/>
+    </row>
+    <row r="900" ht="14.25" customHeight="1">
+      <c r="F900" s="75"/>
+    </row>
+    <row r="901" ht="14.25" customHeight="1">
+      <c r="F901" s="75"/>
+    </row>
+    <row r="902" ht="14.25" customHeight="1">
+      <c r="F902" s="75"/>
+    </row>
+    <row r="903" ht="14.25" customHeight="1">
+      <c r="F903" s="75"/>
+    </row>
+    <row r="904" ht="14.25" customHeight="1">
+      <c r="F904" s="75"/>
+    </row>
+    <row r="905" ht="14.25" customHeight="1">
+      <c r="F905" s="75"/>
+    </row>
+    <row r="906" ht="14.25" customHeight="1">
+      <c r="F906" s="75"/>
+    </row>
+    <row r="907" ht="14.25" customHeight="1">
+      <c r="F907" s="75"/>
+    </row>
+    <row r="908" ht="14.25" customHeight="1">
+      <c r="F908" s="75"/>
+    </row>
+    <row r="909" ht="14.25" customHeight="1">
+      <c r="F909" s="75"/>
+    </row>
+    <row r="910" ht="14.25" customHeight="1">
+      <c r="F910" s="75"/>
+    </row>
+    <row r="911" ht="14.25" customHeight="1">
+      <c r="F911" s="75"/>
+    </row>
+    <row r="912" ht="14.25" customHeight="1">
+      <c r="F912" s="75"/>
+    </row>
+    <row r="913" ht="14.25" customHeight="1">
+      <c r="F913" s="75"/>
+    </row>
+    <row r="914" ht="14.25" customHeight="1">
+      <c r="F914" s="75"/>
+    </row>
+    <row r="915" ht="14.25" customHeight="1">
+      <c r="F915" s="75"/>
+    </row>
+    <row r="916" ht="14.25" customHeight="1">
+      <c r="F916" s="75"/>
+    </row>
+    <row r="917" ht="14.25" customHeight="1">
+      <c r="F917" s="75"/>
+    </row>
+    <row r="918" ht="14.25" customHeight="1">
+      <c r="F918" s="75"/>
+    </row>
+    <row r="919" ht="14.25" customHeight="1">
+      <c r="F919" s="75"/>
+    </row>
+    <row r="920" ht="14.25" customHeight="1">
+      <c r="F920" s="75"/>
+    </row>
+    <row r="921" ht="14.25" customHeight="1">
+      <c r="F921" s="75"/>
+    </row>
+    <row r="922" ht="14.25" customHeight="1">
+      <c r="F922" s="75"/>
+    </row>
+    <row r="923" ht="14.25" customHeight="1">
+      <c r="F923" s="75"/>
+    </row>
+    <row r="924" ht="14.25" customHeight="1">
+      <c r="F924" s="75"/>
+    </row>
+    <row r="925" ht="14.25" customHeight="1">
+      <c r="F925" s="75"/>
+    </row>
+    <row r="926" ht="14.25" customHeight="1">
+      <c r="F926" s="75"/>
+    </row>
+    <row r="927" ht="14.25" customHeight="1">
+      <c r="F927" s="75"/>
+    </row>
+    <row r="928" ht="14.25" customHeight="1">
+      <c r="F928" s="75"/>
+    </row>
+    <row r="929" ht="14.25" customHeight="1">
+      <c r="F929" s="75"/>
+    </row>
+    <row r="930" ht="14.25" customHeight="1">
+      <c r="F930" s="75"/>
+    </row>
+    <row r="931" ht="14.25" customHeight="1">
+      <c r="F931" s="75"/>
+    </row>
+    <row r="932" ht="14.25" customHeight="1">
+      <c r="F932" s="75"/>
+    </row>
+    <row r="933" ht="14.25" customHeight="1">
+      <c r="F933" s="75"/>
+    </row>
+    <row r="934" ht="14.25" customHeight="1">
+      <c r="F934" s="75"/>
+    </row>
+    <row r="935" ht="14.25" customHeight="1">
+      <c r="F935" s="75"/>
+    </row>
+    <row r="936" ht="14.25" customHeight="1">
+      <c r="F936" s="75"/>
+    </row>
+    <row r="937" ht="14.25" customHeight="1">
+      <c r="F937" s="75"/>
+    </row>
+    <row r="938" ht="14.25" customHeight="1">
+      <c r="F938" s="75"/>
+    </row>
+    <row r="939" ht="14.25" customHeight="1">
+      <c r="F939" s="75"/>
+    </row>
+    <row r="940" ht="14.25" customHeight="1">
+      <c r="F940" s="75"/>
+    </row>
+    <row r="941" ht="14.25" customHeight="1">
+      <c r="F941" s="75"/>
+    </row>
+    <row r="942" ht="14.25" customHeight="1">
+      <c r="F942" s="75"/>
+    </row>
+    <row r="943" ht="14.25" customHeight="1">
+      <c r="F943" s="75"/>
+    </row>
+    <row r="944" ht="14.25" customHeight="1">
+      <c r="F944" s="75"/>
+    </row>
+    <row r="945" ht="14.25" customHeight="1">
+      <c r="F945" s="75"/>
+    </row>
+    <row r="946" ht="14.25" customHeight="1">
+      <c r="F946" s="75"/>
+    </row>
+    <row r="947" ht="14.25" customHeight="1">
+      <c r="F947" s="75"/>
+    </row>
+    <row r="948" ht="14.25" customHeight="1">
+      <c r="F948" s="75"/>
+    </row>
+    <row r="949" ht="14.25" customHeight="1">
+      <c r="F949" s="75"/>
+    </row>
+    <row r="950" ht="14.25" customHeight="1">
+      <c r="F950" s="75"/>
+    </row>
+    <row r="951" ht="14.25" customHeight="1">
+      <c r="F951" s="75"/>
+    </row>
+    <row r="952" ht="14.25" customHeight="1">
+      <c r="F952" s="75"/>
+    </row>
+    <row r="953" ht="14.25" customHeight="1">
+      <c r="F953" s="75"/>
+    </row>
+    <row r="954" ht="14.25" customHeight="1">
+      <c r="F954" s="75"/>
+    </row>
+    <row r="955" ht="14.25" customHeight="1">
+      <c r="F955" s="75"/>
+    </row>
+    <row r="956" ht="14.25" customHeight="1">
+      <c r="F956" s="75"/>
+    </row>
+    <row r="957" ht="14.25" customHeight="1">
+      <c r="F957" s="75"/>
+    </row>
+    <row r="958" ht="14.25" customHeight="1">
+      <c r="F958" s="75"/>
+    </row>
+    <row r="959" ht="14.25" customHeight="1">
+      <c r="F959" s="75"/>
+    </row>
+    <row r="960" ht="14.25" customHeight="1">
+      <c r="F960" s="75"/>
+    </row>
+    <row r="961" ht="14.25" customHeight="1">
+      <c r="F961" s="75"/>
+    </row>
+    <row r="962" ht="14.25" customHeight="1">
+      <c r="F962" s="75"/>
+    </row>
+    <row r="963" ht="14.25" customHeight="1">
+      <c r="F963" s="75"/>
+    </row>
+    <row r="964" ht="14.25" customHeight="1">
+      <c r="F964" s="75"/>
+    </row>
+    <row r="965" ht="14.25" customHeight="1">
+      <c r="F965" s="75"/>
+    </row>
+    <row r="966" ht="14.25" customHeight="1">
+      <c r="F966" s="75"/>
+    </row>
+    <row r="967" ht="14.25" customHeight="1">
+      <c r="F967" s="75"/>
+    </row>
+    <row r="968" ht="14.25" customHeight="1">
+      <c r="F968" s="75"/>
+    </row>
+    <row r="969" ht="14.25" customHeight="1">
+      <c r="F969" s="75"/>
+    </row>
+    <row r="970" ht="14.25" customHeight="1">
+      <c r="F970" s="75"/>
+    </row>
+    <row r="971" ht="14.25" customHeight="1">
+      <c r="F971" s="75"/>
+    </row>
+    <row r="972" ht="14.25" customHeight="1">
+      <c r="F972" s="75"/>
+    </row>
+    <row r="973" ht="14.25" customHeight="1">
+      <c r="F973" s="75"/>
+    </row>
+    <row r="974" ht="14.25" customHeight="1">
+      <c r="F974" s="75"/>
+    </row>
+    <row r="975" ht="14.25" customHeight="1">
+      <c r="F975" s="75"/>
+    </row>
+    <row r="976" ht="14.25" customHeight="1">
+      <c r="F976" s="75"/>
+    </row>
+    <row r="977" ht="14.25" customHeight="1">
+      <c r="F977" s="75"/>
+    </row>
+    <row r="978" ht="14.25" customHeight="1">
+      <c r="F978" s="75"/>
+    </row>
+    <row r="979" ht="14.25" customHeight="1">
+      <c r="F979" s="75"/>
+    </row>
+    <row r="980" ht="14.25" customHeight="1">
+      <c r="F980" s="75"/>
+    </row>
+    <row r="981" ht="14.25" customHeight="1">
+      <c r="F981" s="75"/>
+    </row>
+    <row r="982" ht="14.25" customHeight="1">
+      <c r="F982" s="75"/>
+    </row>
+    <row r="983" ht="14.25" customHeight="1">
+      <c r="F983" s="75"/>
+    </row>
+    <row r="984" ht="14.25" customHeight="1">
+      <c r="F984" s="75"/>
+    </row>
+    <row r="985" ht="14.25" customHeight="1">
+      <c r="F985" s="75"/>
+    </row>
+    <row r="986" ht="14.25" customHeight="1">
+      <c r="F986" s="75"/>
+    </row>
+    <row r="987" ht="14.25" customHeight="1">
+      <c r="F987" s="75"/>
+    </row>
+    <row r="988" ht="14.25" customHeight="1">
+      <c r="F988" s="75"/>
+    </row>
+    <row r="989" ht="14.25" customHeight="1">
+      <c r="F989" s="75"/>
+    </row>
+    <row r="990" ht="14.25" customHeight="1">
+      <c r="F990" s="75"/>
+    </row>
+    <row r="991" ht="14.25" customHeight="1">
+      <c r="F991" s="75"/>
+    </row>
+    <row r="992" ht="14.25" customHeight="1">
+      <c r="F992" s="75"/>
+    </row>
+    <row r="993" ht="14.25" customHeight="1">
+      <c r="F993" s="75"/>
+    </row>
+    <row r="994" ht="14.25" customHeight="1">
+      <c r="F994" s="75"/>
+    </row>
+    <row r="995" ht="14.25" customHeight="1">
+      <c r="F995" s="75"/>
+    </row>
+    <row r="996" ht="14.25" customHeight="1">
+      <c r="F996" s="75"/>
+    </row>
+    <row r="997" ht="14.25" customHeight="1">
+      <c r="F997" s="75"/>
+    </row>
+    <row r="998" ht="14.25" customHeight="1">
+      <c r="F998" s="75"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -29101,13 +30313,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="91" t="s">
         <v>783</v>
       </c>
-      <c r="B2" s="84">
+      <c r="B2" s="91">
         <v>164.0</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="92" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -29115,13 +30327,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="91" t="s">
         <v>784</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="91">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="92" t="s">
         <v>482</v>
       </c>
       <c r="J3" s="3">
@@ -29129,90 +30341,90 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="91" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="91">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="93"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="91" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="91">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="93"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="94" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="91">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="93"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="91">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="93"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="86"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="93"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="91" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="91">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="91">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="86"/>
+      <c r="C10" s="93"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="91" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="91">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="93"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -29221,25 +30433,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="91">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="86"/>
+      <c r="C12" s="93"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="91">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -29251,13 +30463,13 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="91" t="s">
         <v>785</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="91">
         <v>2190.0</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="92" t="s">
         <v>172</v>
       </c>
       <c r="D14" s="3">
@@ -29265,13 +30477,13 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="94" t="s">
         <v>786</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="91">
         <v>2188.0</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="92" t="s">
         <v>787</v>
       </c>
       <c r="D15" s="3">
@@ -29279,98 +30491,98 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="84" t="s">
+      <c r="A16" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="91">
         <v>2182.0</v>
       </c>
-      <c r="C16" s="86"/>
+      <c r="C16" s="93"/>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="94" t="s">
         <v>699</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="91">
         <v>2178.0</v>
       </c>
-      <c r="C17" s="86"/>
+      <c r="C17" s="93"/>
       <c r="G17" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="91" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="91">
         <v>2174.0</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="19"/>
       <c r="G18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="91" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="91">
         <v>2171.0</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="93"/>
       <c r="J19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="91">
         <v>2167.0</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="93"/>
       <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="91">
         <v>2163.0</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="91" t="s">
         <v>460</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="91">
         <v>2163.0</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="93"/>
       <c r="H22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="91" t="s">
         <v>788</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="91">
         <v>2162.0</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="92" t="s">
         <v>598</v>
       </c>
       <c r="D23" s="3">
@@ -29378,25 +30590,27 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="91">
         <v>2157.0</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="94" t="s">
         <v>703</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="91">
         <v>2155.0</v>
       </c>
-      <c r="C25" s="86"/>
+      <c r="C25" s="92" t="s">
+        <v>657</v>
+      </c>
       <c r="D25" s="3">
         <v>1.0</v>
       </c>
@@ -29405,61 +30619,61 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="91">
         <v>2152.0</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="93"/>
       <c r="G26" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="91" t="s">
         <v>789</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="91">
         <v>2152.0</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="84" t="s">
+      <c r="A28" s="91" t="s">
         <v>644</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="91">
         <v>2138.0</v>
       </c>
-      <c r="C28" s="86"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="91">
         <v>2140.0</v>
       </c>
-      <c r="C29" s="86"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="91" t="s">
         <v>790</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="91">
         <v>2133.0</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="91" t="s">
         <v>214</v>
       </c>
       <c r="G30" s="3">
@@ -29467,145 +30681,145 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="91">
         <v>2132.0</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="94" t="s">
         <v>791</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="91">
         <v>2129.0</v>
       </c>
-      <c r="C32" s="86"/>
+      <c r="C32" s="93"/>
       <c r="E32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="91" t="s">
         <v>581</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="91">
         <v>2127.0</v>
       </c>
-      <c r="C33" s="86"/>
+      <c r="C33" s="93"/>
       <c r="J33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="84" t="s">
+      <c r="A34" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="84">
+      <c r="B34" s="91">
         <v>2125.0</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="84">
+      <c r="B35" s="91">
         <v>2115.0</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="93"/>
       <c r="I35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="91" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="84">
+      <c r="B36" s="91">
         <v>2114.0</v>
       </c>
-      <c r="C36" s="86"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="84" t="s">
+      <c r="A37" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="84">
+      <c r="B37" s="91">
         <v>2113.0</v>
       </c>
-      <c r="C37" s="86"/>
+      <c r="C37" s="93"/>
       <c r="I37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="84">
+      <c r="B38" s="91">
         <v>2106.0</v>
       </c>
-      <c r="C38" s="86"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="94" t="s">
         <v>708</v>
       </c>
-      <c r="B39" s="84">
+      <c r="B39" s="91">
         <v>2088.0</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="93"/>
       <c r="G39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="84">
+      <c r="B40" s="91">
         <v>2067.0</v>
       </c>
-      <c r="C40" s="86"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="84">
+      <c r="B41" s="91">
         <v>1997.0</v>
       </c>
-      <c r="C41" s="86"/>
+      <c r="C41" s="93"/>
       <c r="H41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="84">
+      <c r="B42" s="91">
         <v>1997.0</v>
       </c>
-      <c r="C42" s="86"/>
+      <c r="C42" s="93"/>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
@@ -29614,88 +30828,85 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="84" t="s">
+      <c r="A43" s="91" t="s">
         <v>792</v>
       </c>
-      <c r="B43" s="84">
+      <c r="B43" s="91">
         <v>1995.0</v>
       </c>
-      <c r="C43" s="86"/>
+      <c r="C43" s="93"/>
       <c r="J43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="94" t="s">
         <v>780</v>
       </c>
-      <c r="B44" s="84">
+      <c r="B44" s="91">
         <v>1948.0</v>
       </c>
-      <c r="C44" s="86"/>
+      <c r="C44" s="93"/>
       <c r="D44" s="3">
         <v>1.0</v>
       </c>
-      <c r="E44" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="91" t="s">
         <v>793</v>
       </c>
-      <c r="B45" s="84">
+      <c r="B45" s="91">
         <v>1920.0</v>
       </c>
-      <c r="C45" s="86"/>
+      <c r="C45" s="93"/>
       <c r="E45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="91" t="s">
         <v>680</v>
       </c>
-      <c r="B46" s="84">
+      <c r="B46" s="91">
         <v>1902.0</v>
       </c>
-      <c r="C46" s="86"/>
+      <c r="C46" s="93"/>
       <c r="I46" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="87" t="s">
+      <c r="A47" s="94" t="s">
         <v>715</v>
       </c>
-      <c r="B47" s="84">
+      <c r="B47" s="91">
         <v>1877.0</v>
       </c>
-      <c r="C47" s="86"/>
+      <c r="C47" s="93"/>
       <c r="G47" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="91" t="s">
         <v>533</v>
       </c>
-      <c r="B48" s="84">
+      <c r="B48" s="91">
         <v>1869.0</v>
       </c>
-      <c r="C48" s="86"/>
+      <c r="C48" s="93"/>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="91" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="84">
+      <c r="B49" s="91">
         <v>1831.0</v>
       </c>
-      <c r="C49" s="86"/>
+      <c r="C49" s="93"/>
       <c r="D49" s="3">
         <v>1.0</v>
       </c>
@@ -29704,85 +30915,85 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="94" t="s">
         <v>794</v>
       </c>
-      <c r="B50" s="84">
+      <c r="B50" s="91">
         <v>1784.0</v>
       </c>
-      <c r="C50" s="86"/>
+      <c r="C50" s="93"/>
       <c r="G50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="84">
+      <c r="B51" s="91">
         <v>1709.0</v>
       </c>
-      <c r="C51" s="86"/>
+      <c r="C51" s="93"/>
       <c r="H51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="84">
+      <c r="B52" s="91">
         <v>1698.0</v>
       </c>
-      <c r="C52" s="86"/>
+      <c r="C52" s="93"/>
       <c r="D52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="84">
+      <c r="B53" s="91">
         <v>1664.0</v>
       </c>
-      <c r="C53" s="86"/>
+      <c r="C53" s="93"/>
       <c r="G53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="91" t="s">
         <v>488</v>
       </c>
-      <c r="B54" s="84">
+      <c r="B54" s="91">
         <v>1655.0</v>
       </c>
-      <c r="C54" s="86"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="84" t="s">
+      <c r="A55" s="91" t="s">
         <v>795</v>
       </c>
-      <c r="B55" s="84">
+      <c r="B55" s="91">
         <v>1640.0</v>
       </c>
-      <c r="C55" s="86"/>
+      <c r="C55" s="93"/>
       <c r="D55" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="87" t="s">
+      <c r="A56" s="94" t="s">
         <v>796</v>
       </c>
-      <c r="B56" s="84">
+      <c r="B56" s="91">
         <v>1639.0</v>
       </c>
-      <c r="C56" s="86"/>
+      <c r="C56" s="93"/>
       <c r="G56" s="3">
         <v>1.0</v>
       </c>
@@ -29791,169 +31002,166 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="84" t="s">
+      <c r="A57" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="84">
+      <c r="B57" s="91">
         <v>1611.0</v>
       </c>
-      <c r="C57" s="86"/>
+      <c r="C57" s="93"/>
       <c r="I57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="84">
+      <c r="B58" s="91">
         <v>1578.0</v>
       </c>
-      <c r="C58" s="86"/>
+      <c r="C58" s="93"/>
       <c r="G58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="84" t="s">
+      <c r="A59" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="84">
+      <c r="B59" s="91">
         <v>1520.0</v>
       </c>
-      <c r="C59" s="86"/>
+      <c r="C59" s="93"/>
       <c r="H59" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="91" t="s">
         <v>797</v>
       </c>
-      <c r="B60" s="84">
+      <c r="B60" s="91">
         <v>1482.0</v>
       </c>
-      <c r="C60" s="86"/>
+      <c r="C60" s="93"/>
       <c r="J60" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="84" t="s">
+      <c r="A61" s="91" t="s">
         <v>798</v>
       </c>
-      <c r="B61" s="84">
+      <c r="B61" s="91">
         <v>1383.0</v>
       </c>
-      <c r="C61" s="86"/>
+      <c r="C61" s="93"/>
       <c r="H61" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="84">
+      <c r="B62" s="91">
         <v>1382.0</v>
       </c>
-      <c r="C62" s="86"/>
+      <c r="C62" s="93"/>
       <c r="H62" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="84">
+      <c r="B63" s="91">
         <v>1339.0</v>
       </c>
-      <c r="C63" s="86"/>
+      <c r="C63" s="93"/>
       <c r="H63" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="84" t="s">
+      <c r="A64" s="91" t="s">
         <v>556</v>
       </c>
-      <c r="B64" s="84">
+      <c r="B64" s="91">
         <v>1287.0</v>
       </c>
-      <c r="C64" s="86"/>
+      <c r="C64" s="93"/>
       <c r="D64" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="84" t="s">
+      <c r="A65" s="91" t="s">
         <v>490</v>
       </c>
-      <c r="B65" s="84">
+      <c r="B65" s="91">
         <v>1273.0</v>
       </c>
-      <c r="C65" s="86"/>
+      <c r="C65" s="93"/>
       <c r="D65" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="84" t="s">
+      <c r="A66" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="84">
+      <c r="B66" s="91">
         <v>1257.0</v>
       </c>
-      <c r="C66" s="86"/>
+      <c r="C66" s="93"/>
       <c r="D66" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="94" t="s">
         <v>728</v>
       </c>
-      <c r="B67" s="84">
+      <c r="B67" s="91">
         <v>1247.0</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="E67" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C67" s="93"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="96" t="s">
         <v>799</v>
       </c>
-      <c r="B68" s="84">
+      <c r="B68" s="91">
         <v>1227.0</v>
       </c>
-      <c r="C68" s="86"/>
+      <c r="C68" s="93"/>
       <c r="G68" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="84" t="s">
+      <c r="A69" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="84">
+      <c r="B69" s="91">
         <v>1170.0</v>
       </c>
-      <c r="C69" s="86"/>
+      <c r="C69" s="93"/>
       <c r="D69" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="84" t="s">
+      <c r="A70" s="91" t="s">
         <v>800</v>
       </c>
-      <c r="B70" s="84">
+      <c r="B70" s="91">
         <v>1164.0</v>
       </c>
-      <c r="C70" s="85" t="s">
+      <c r="C70" s="92" t="s">
         <v>801</v>
       </c>
       <c r="D70" s="3">
@@ -29961,39 +31169,36 @@
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="94" t="s">
         <v>733</v>
       </c>
-      <c r="B71" s="84">
+      <c r="B71" s="91">
         <v>1130.0</v>
       </c>
-      <c r="C71" s="85" t="s">
+      <c r="C71" s="92" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="84" t="s">
+      <c r="A72" s="91" t="s">
         <v>768</v>
       </c>
-      <c r="B72" s="84">
+      <c r="B72" s="91">
         <v>1129.0</v>
       </c>
-      <c r="C72" s="86"/>
-      <c r="E72" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C72" s="93"/>
       <c r="J72" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="91" t="s">
         <v>803</v>
       </c>
-      <c r="B73" s="84">
+      <c r="B73" s="91">
         <v>1124.0</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="92" t="s">
         <v>503</v>
       </c>
       <c r="G73" s="3">
@@ -30001,25 +31206,25 @@
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="84">
+      <c r="B74" s="91">
         <v>1102.0</v>
       </c>
-      <c r="C74" s="86"/>
+      <c r="C74" s="93"/>
       <c r="H74" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="84" t="s">
+      <c r="A75" s="91" t="s">
         <v>804</v>
       </c>
-      <c r="B75" s="84">
+      <c r="B75" s="91">
         <v>1097.0</v>
       </c>
-      <c r="C75" s="85" t="s">
+      <c r="C75" s="92" t="s">
         <v>396</v>
       </c>
       <c r="D75" s="3">
@@ -30027,73 +31232,73 @@
       </c>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="94" t="s">
         <v>734</v>
       </c>
-      <c r="B76" s="84">
+      <c r="B76" s="91">
         <v>1089.0</v>
       </c>
-      <c r="C76" s="86"/>
+      <c r="C76" s="93"/>
       <c r="G76" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="84" t="s">
+      <c r="A77" s="91" t="s">
         <v>525</v>
       </c>
-      <c r="B77" s="84">
+      <c r="B77" s="91">
         <v>1075.0</v>
       </c>
-      <c r="C77" s="86"/>
+      <c r="C77" s="93"/>
       <c r="I77" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="84" t="s">
+      <c r="A78" s="91" t="s">
         <v>521</v>
       </c>
-      <c r="B78" s="84">
+      <c r="B78" s="91">
         <v>1033.0</v>
       </c>
-      <c r="C78" s="86"/>
+      <c r="C78" s="93"/>
       <c r="D78" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="84" t="s">
+      <c r="A79" s="91" t="s">
         <v>805</v>
       </c>
-      <c r="B79" s="84">
+      <c r="B79" s="91">
         <v>991.0</v>
       </c>
-      <c r="C79" s="86"/>
+      <c r="C79" s="93"/>
       <c r="D79" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="87" t="s">
+      <c r="A80" s="94" t="s">
         <v>735</v>
       </c>
-      <c r="B80" s="84">
+      <c r="B80" s="91">
         <v>978.0</v>
       </c>
-      <c r="C80" s="86"/>
+      <c r="C80" s="93"/>
       <c r="G80" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="91" t="s">
         <v>408</v>
       </c>
-      <c r="B81" s="84">
+      <c r="B81" s="91">
         <v>933.0</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="92" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="3">
@@ -30101,25 +31306,25 @@
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="84" t="s">
+      <c r="A82" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="84">
+      <c r="B82" s="91">
         <v>929.0</v>
       </c>
-      <c r="C82" s="86"/>
+      <c r="C82" s="93"/>
       <c r="D82" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="84" t="s">
+      <c r="A83" s="91" t="s">
         <v>806</v>
       </c>
-      <c r="B83" s="84">
+      <c r="B83" s="91">
         <v>921.0</v>
       </c>
-      <c r="C83" s="85" t="s">
+      <c r="C83" s="92" t="s">
         <v>419</v>
       </c>
       <c r="H83" s="3">
@@ -30127,25 +31332,25 @@
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="84">
+      <c r="B84" s="91">
         <v>918.0</v>
       </c>
-      <c r="C84" s="86"/>
+      <c r="C84" s="93"/>
       <c r="H84" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="84" t="s">
+      <c r="A85" s="91" t="s">
         <v>807</v>
       </c>
-      <c r="B85" s="84">
+      <c r="B85" s="91">
         <v>892.0</v>
       </c>
-      <c r="C85" s="85" t="s">
+      <c r="C85" s="92" t="s">
         <v>587</v>
       </c>
       <c r="G85" s="3">
@@ -30153,100 +31358,97 @@
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="90" t="s">
+      <c r="A86" s="97" t="s">
         <v>508</v>
       </c>
-      <c r="B86" s="84">
+      <c r="B86" s="91">
         <v>863.0</v>
       </c>
-      <c r="C86" s="86"/>
+      <c r="C86" s="93"/>
       <c r="G86" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="B87" s="84">
+      <c r="B87" s="91">
         <v>831.0</v>
       </c>
-      <c r="C87" s="86"/>
+      <c r="C87" s="93"/>
       <c r="G87" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="84" t="s">
+      <c r="A88" s="91" t="s">
         <v>621</v>
       </c>
-      <c r="B88" s="84">
+      <c r="B88" s="91">
         <v>831.0</v>
       </c>
-      <c r="C88" s="86"/>
+      <c r="C88" s="93"/>
       <c r="D88" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="84" t="s">
+      <c r="A89" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="B89" s="84">
+      <c r="B89" s="91">
         <v>804.0</v>
       </c>
-      <c r="C89" s="86"/>
+      <c r="C89" s="93"/>
       <c r="D89" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="87" t="s">
+      <c r="A90" s="94" t="s">
         <v>736</v>
       </c>
-      <c r="B90" s="84">
+      <c r="B90" s="91">
         <v>801.0</v>
       </c>
-      <c r="C90" s="86"/>
+      <c r="C90" s="93"/>
       <c r="D90" s="3">
         <v>1.0</v>
       </c>
-      <c r="E90" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="84" t="s">
+      <c r="A91" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="B91" s="84">
+      <c r="B91" s="91">
         <v>776.0</v>
       </c>
-      <c r="C91" s="86"/>
+      <c r="C91" s="93"/>
       <c r="D91" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="87" t="s">
+      <c r="A92" s="94" t="s">
         <v>808</v>
       </c>
-      <c r="B92" s="84">
+      <c r="B92" s="91">
         <v>772.0</v>
       </c>
-      <c r="C92" s="86"/>
+      <c r="C92" s="93"/>
       <c r="G92" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="84" t="s">
+      <c r="A93" s="91" t="s">
         <v>809</v>
       </c>
-      <c r="B93" s="84">
+      <c r="B93" s="91">
         <v>770.0</v>
       </c>
-      <c r="C93" s="85" t="s">
+      <c r="C93" s="92" t="s">
         <v>500</v>
       </c>
       <c r="E93" s="19"/>
@@ -30255,37 +31457,37 @@
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="84" t="s">
+      <c r="A94" s="91" t="s">
         <v>810</v>
       </c>
-      <c r="B94" s="84">
+      <c r="B94" s="91">
         <v>739.0</v>
       </c>
-      <c r="C94" s="86"/>
+      <c r="C94" s="93"/>
       <c r="H94" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="84" t="s">
+      <c r="A95" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="84">
+      <c r="B95" s="91">
         <v>735.0</v>
       </c>
-      <c r="C95" s="86"/>
+      <c r="C95" s="93"/>
       <c r="I95" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="91" t="s">
         <v>811</v>
       </c>
-      <c r="B96" s="84">
+      <c r="B96" s="91">
         <v>732.0</v>
       </c>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="92" t="s">
         <v>186</v>
       </c>
       <c r="D96" s="3">
@@ -30293,27 +31495,24 @@
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="94" t="s">
         <v>812</v>
       </c>
-      <c r="B97" s="84">
+      <c r="B97" s="91">
         <v>727.0</v>
       </c>
-      <c r="C97" s="85" t="s">
-        <v>739</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1.0</v>
+      <c r="C97" s="92" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="84" t="s">
+      <c r="A98" s="91" t="s">
         <v>624</v>
       </c>
-      <c r="B98" s="84">
+      <c r="B98" s="91">
         <v>719.0</v>
       </c>
-      <c r="C98" s="86"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="3">
         <v>1.0</v>
       </c>
@@ -30322,13 +31521,13 @@
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="84" t="s">
+      <c r="A99" s="91" t="s">
         <v>360</v>
       </c>
-      <c r="B99" s="84">
+      <c r="B99" s="91">
         <v>710.0</v>
       </c>
-      <c r="C99" s="86"/>
+      <c r="C99" s="93"/>
       <c r="D99" s="3">
         <v>1.0</v>
       </c>
@@ -30337,85 +31536,82 @@
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="87" t="s">
+      <c r="A100" s="94" t="s">
         <v>741</v>
       </c>
-      <c r="B100" s="84">
+      <c r="B100" s="91">
         <v>696.0</v>
       </c>
-      <c r="C100" s="86"/>
+      <c r="C100" s="93"/>
       <c r="H100" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="87" t="s">
+      <c r="A101" s="94" t="s">
         <v>743</v>
       </c>
-      <c r="B101" s="84">
+      <c r="B101" s="91">
         <v>695.0</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="E101" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C101" s="93"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="84">
+      <c r="B102" s="91">
         <v>674.0</v>
       </c>
-      <c r="C102" s="86"/>
+      <c r="C102" s="93"/>
       <c r="D102" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="87" t="s">
+      <c r="A103" s="94" t="s">
         <v>745</v>
       </c>
-      <c r="B103" s="84">
+      <c r="B103" s="91">
         <v>653.0</v>
       </c>
-      <c r="C103" s="86"/>
+      <c r="C103" s="93"/>
       <c r="G103" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="84" t="s">
+      <c r="A104" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="84">
+      <c r="B104" s="91">
         <v>603.0</v>
       </c>
-      <c r="C104" s="86"/>
+      <c r="C104" s="93"/>
       <c r="D104" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="87" t="s">
+      <c r="A105" s="94" t="s">
         <v>747</v>
       </c>
-      <c r="B105" s="84">
+      <c r="B105" s="91">
         <v>598.0</v>
       </c>
-      <c r="C105" s="86"/>
+      <c r="C105" s="93"/>
       <c r="D105" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="87" t="s">
+      <c r="A106" s="94" t="s">
         <v>813</v>
       </c>
-      <c r="B106" s="84">
+      <c r="B106" s="91">
         <v>588.0</v>
       </c>
-      <c r="C106" s="85" t="s">
+      <c r="C106" s="92" t="s">
         <v>749</v>
       </c>
       <c r="J106" s="3">
@@ -30423,25 +31619,22 @@
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="96" t="s">
         <v>751</v>
       </c>
-      <c r="B107" s="84">
+      <c r="B107" s="91">
         <v>588.0</v>
       </c>
-      <c r="C107" s="86"/>
-      <c r="E107" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C107" s="93"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="87" t="s">
+      <c r="A108" s="94" t="s">
         <v>753</v>
       </c>
-      <c r="B108" s="84">
+      <c r="B108" s="91">
         <v>565.0</v>
       </c>
-      <c r="C108" s="86"/>
+      <c r="C108" s="93"/>
       <c r="G108" s="3">
         <v>1.0</v>
       </c>
@@ -30450,42 +31643,39 @@
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="87" t="s">
+      <c r="A109" s="94" t="s">
         <v>814</v>
       </c>
-      <c r="B109" s="84">
+      <c r="B109" s="91">
         <v>561.0</v>
       </c>
-      <c r="C109" s="85" t="s">
+      <c r="C109" s="92" t="s">
         <v>815</v>
       </c>
-      <c r="D109" s="3">
-        <v>1.0</v>
-      </c>
       <c r="G109" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="84" t="s">
+      <c r="A110" s="91" t="s">
         <v>816</v>
       </c>
-      <c r="B110" s="84">
+      <c r="B110" s="91">
         <v>546.0</v>
       </c>
-      <c r="C110" s="86"/>
+      <c r="C110" s="93"/>
       <c r="D110" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="84" t="s">
+      <c r="A111" s="91" t="s">
         <v>817</v>
       </c>
-      <c r="B111" s="84">
+      <c r="B111" s="91">
         <v>502.0</v>
       </c>
-      <c r="C111" s="85" t="s">
+      <c r="C111" s="92" t="s">
         <v>614</v>
       </c>
       <c r="D111" s="3">
@@ -30493,34 +31683,31 @@
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="87" t="s">
+      <c r="A112" s="97" t="s">
         <v>758</v>
       </c>
-      <c r="B112" s="84">
+      <c r="B112" s="91">
         <v>480.0</v>
       </c>
-      <c r="C112" s="86"/>
-      <c r="E112" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C112" s="93"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="91" t="s">
         <v>410</v>
       </c>
-      <c r="B113" s="84">
+      <c r="B113" s="91">
         <v>473.0</v>
       </c>
-      <c r="C113" s="86"/>
+      <c r="C113" s="93"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="84" t="s">
+      <c r="A114" s="91" t="s">
         <v>818</v>
       </c>
-      <c r="B114" s="84">
+      <c r="B114" s="91">
         <v>432.0</v>
       </c>
-      <c r="C114" s="85" t="s">
+      <c r="C114" s="92" t="s">
         <v>531</v>
       </c>
       <c r="D114" s="3">
@@ -30528,13 +31715,13 @@
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="84" t="s">
+      <c r="A115" s="91" t="s">
         <v>819</v>
       </c>
-      <c r="B115" s="84">
+      <c r="B115" s="91">
         <v>424.0</v>
       </c>
-      <c r="C115" s="85" t="s">
+      <c r="C115" s="92" t="s">
         <v>184</v>
       </c>
       <c r="D115" s="3">
@@ -30542,13 +31729,13 @@
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="84" t="s">
+      <c r="A116" s="91" t="s">
         <v>502</v>
       </c>
-      <c r="B116" s="84">
+      <c r="B116" s="91">
         <v>418.0</v>
       </c>
-      <c r="C116" s="85" t="s">
+      <c r="C116" s="92" t="s">
         <v>782</v>
       </c>
       <c r="D116" s="3">
@@ -30556,13 +31743,13 @@
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="87" t="s">
+      <c r="A117" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="B117" s="84">
+      <c r="B117" s="91">
         <v>405.0</v>
       </c>
-      <c r="C117" s="85" t="s">
+      <c r="C117" s="92" t="s">
         <v>624</v>
       </c>
       <c r="D117" s="3">
@@ -30573,82 +31760,82 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="84" t="s">
+      <c r="A118" s="91" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="84">
+      <c r="B118" s="91">
         <v>393.0</v>
       </c>
-      <c r="C118" s="86"/>
+      <c r="C118" s="93"/>
       <c r="H118" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="91" t="s">
         <v>441</v>
       </c>
-      <c r="B119" s="84">
+      <c r="B119" s="91">
         <v>382.0</v>
       </c>
-      <c r="C119" s="86"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="91" t="s">
         <v>570</v>
       </c>
-      <c r="B120" s="84">
+      <c r="B120" s="91">
         <v>379.0</v>
       </c>
-      <c r="C120" s="86"/>
+      <c r="C120" s="93"/>
       <c r="H120" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="84" t="s">
+      <c r="A121" s="91" t="s">
         <v>821</v>
       </c>
-      <c r="B121" s="84">
+      <c r="B121" s="91">
         <v>359.0</v>
       </c>
-      <c r="C121" s="86"/>
+      <c r="C121" s="93"/>
       <c r="H121" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="84" t="s">
+      <c r="A122" s="91" t="s">
         <v>553</v>
       </c>
-      <c r="B122" s="84">
+      <c r="B122" s="91">
         <v>353.0</v>
       </c>
-      <c r="C122" s="86"/>
+      <c r="C122" s="93"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="84" t="s">
+      <c r="A123" s="91" t="s">
         <v>473</v>
       </c>
-      <c r="B123" s="84">
+      <c r="B123" s="91">
         <v>348.0</v>
       </c>
-      <c r="C123" s="86"/>
+      <c r="C123" s="93"/>
       <c r="H123" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="84" t="s">
+      <c r="A124" s="91" t="s">
         <v>568</v>
       </c>
-      <c r="B124" s="84">
+      <c r="B124" s="91">
         <v>344.0</v>
       </c>
-      <c r="C124" s="85" t="s">
+      <c r="C124" s="92" t="s">
         <v>132</v>
       </c>
       <c r="D124" s="3">
@@ -30656,25 +31843,25 @@
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="84" t="s">
+      <c r="A125" s="91" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="84">
+      <c r="B125" s="91">
         <v>315.0</v>
       </c>
-      <c r="C125" s="86"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="84" t="s">
+      <c r="A126" s="91" t="s">
         <v>822</v>
       </c>
-      <c r="B126" s="84">
+      <c r="B126" s="91">
         <v>309.0</v>
       </c>
-      <c r="C126" s="85" t="s">
+      <c r="C126" s="92" t="s">
         <v>459</v>
       </c>
       <c r="D126" s="3">
@@ -30682,25 +31869,25 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B127" s="84">
+      <c r="B127" s="91">
         <v>283.0</v>
       </c>
-      <c r="C127" s="86"/>
+      <c r="C127" s="93"/>
       <c r="D127" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="84" t="s">
+      <c r="A128" s="91" t="s">
         <v>823</v>
       </c>
-      <c r="B128" s="84">
+      <c r="B128" s="91">
         <v>279.0</v>
       </c>
-      <c r="C128" s="85" t="s">
+      <c r="C128" s="92" t="s">
         <v>85</v>
       </c>
       <c r="D128" s="3">
@@ -30712,93 +31899,87 @@
       <c r="I128" s="19"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="84" t="s">
+      <c r="A129" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="84">
+      <c r="B129" s="91">
         <v>278.0</v>
       </c>
-      <c r="C129" s="86"/>
+      <c r="C129" s="93"/>
       <c r="D129" s="3">
         <v>1.0</v>
       </c>
-      <c r="E129" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="84" t="s">
+      <c r="A130" s="91" t="s">
         <v>824</v>
       </c>
-      <c r="B130" s="84">
+      <c r="B130" s="91">
         <v>276.0</v>
       </c>
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="92" t="s">
         <v>254</v>
       </c>
       <c r="D130" s="3">
         <v>1.0</v>
       </c>
-      <c r="E130" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="84" t="s">
+      <c r="A131" s="91" t="s">
         <v>183</v>
       </c>
-      <c r="B131" s="84">
+      <c r="B131" s="91">
         <v>274.0</v>
       </c>
-      <c r="C131" s="86"/>
+      <c r="C131" s="93"/>
       <c r="H131" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="84" t="s">
+      <c r="A132" s="91" t="s">
         <v>825</v>
       </c>
-      <c r="B132" s="84">
+      <c r="B132" s="91">
         <v>264.0</v>
       </c>
-      <c r="C132" s="86"/>
+      <c r="C132" s="93"/>
       <c r="D132" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="84" t="s">
+      <c r="A133" s="91" t="s">
         <v>271</v>
       </c>
-      <c r="B133" s="84">
+      <c r="B133" s="91">
         <v>262.0</v>
       </c>
-      <c r="C133" s="86"/>
+      <c r="C133" s="93"/>
       <c r="H133" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="91" t="s">
         <v>781</v>
       </c>
-      <c r="B134" s="84">
+      <c r="B134" s="91">
         <v>250.0</v>
       </c>
-      <c r="C134" s="86"/>
+      <c r="C134" s="93"/>
       <c r="G134" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="84" t="s">
+      <c r="A135" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="84">
+      <c r="B135" s="91">
         <v>247.0</v>
       </c>
-      <c r="C135" s="86"/>
+      <c r="C135" s="93"/>
       <c r="D135" s="3">
         <v>1.0</v>
       </c>
@@ -30807,13 +31988,13 @@
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="91" t="s">
         <v>826</v>
       </c>
-      <c r="B136" s="84">
+      <c r="B136" s="91">
         <v>229.0</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C136" s="92" t="s">
         <v>624</v>
       </c>
       <c r="D136" s="3">
@@ -30821,136 +32002,133 @@
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="91" t="s">
         <v>827</v>
       </c>
-      <c r="B137" s="84">
+      <c r="B137" s="91">
         <v>226.0</v>
       </c>
-      <c r="C137" s="86"/>
+      <c r="C137" s="93"/>
       <c r="H137" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="84" t="s">
+      <c r="A138" s="91" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="84">
+      <c r="B138" s="91">
         <v>221.0</v>
       </c>
-      <c r="C138" s="86"/>
+      <c r="C138" s="93"/>
       <c r="D138" s="3">
         <v>1.0</v>
       </c>
-      <c r="E138" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="84" t="s">
+      <c r="A139" s="91" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="84">
+      <c r="B139" s="91">
         <v>210.0</v>
       </c>
-      <c r="C139" s="86"/>
+      <c r="C139" s="93"/>
       <c r="I139" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="84" t="s">
+      <c r="A140" s="91" t="s">
         <v>457</v>
       </c>
-      <c r="B140" s="84">
+      <c r="B140" s="91">
         <v>209.0</v>
       </c>
-      <c r="C140" s="86"/>
+      <c r="C140" s="93"/>
       <c r="H140" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="84" t="s">
+      <c r="A141" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="84">
+      <c r="B141" s="91">
         <v>181.0</v>
       </c>
-      <c r="C141" s="86"/>
+      <c r="C141" s="93"/>
       <c r="H141" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="84" t="s">
+      <c r="A142" s="91" t="s">
         <v>467</v>
       </c>
-      <c r="B142" s="84">
+      <c r="B142" s="91">
         <v>175.0</v>
       </c>
-      <c r="C142" s="86"/>
+      <c r="C142" s="93"/>
       <c r="I142" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="84" t="s">
+      <c r="A143" s="91" t="s">
         <v>602</v>
       </c>
-      <c r="B143" s="84">
+      <c r="B143" s="91">
         <v>151.0</v>
       </c>
-      <c r="C143" s="86"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="84" t="s">
+      <c r="A144" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="84">
+      <c r="B144" s="91">
         <v>141.0</v>
       </c>
-      <c r="C144" s="86"/>
+      <c r="C144" s="93"/>
       <c r="D144" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="84" t="s">
+      <c r="A145" s="91" t="s">
         <v>440</v>
       </c>
-      <c r="B145" s="84">
+      <c r="B145" s="91">
         <v>128.0</v>
       </c>
-      <c r="C145" s="86"/>
+      <c r="C145" s="93"/>
       <c r="H145" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="84" t="s">
+      <c r="A146" s="91" t="s">
         <v>660</v>
       </c>
-      <c r="B146" s="84">
+      <c r="B146" s="91">
         <v>125.0</v>
       </c>
-      <c r="C146" s="86"/>
+      <c r="C146" s="93"/>
       <c r="H146" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="91" t="s">
         <v>663</v>
       </c>
-      <c r="B147" s="84">
+      <c r="B147" s="91">
         <v>90.0</v>
       </c>
-      <c r="C147" s="86"/>
+      <c r="C147" s="93"/>
       <c r="D147" s="3">
         <v>1.0</v>
       </c>
@@ -30959,25 +32137,25 @@
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="84" t="s">
+      <c r="A148" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="84">
+      <c r="B148" s="91">
         <v>22.0</v>
       </c>
-      <c r="C148" s="86"/>
+      <c r="C148" s="93"/>
       <c r="E148" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="84" t="s">
+      <c r="A149" s="91" t="s">
         <v>828</v>
       </c>
-      <c r="B149" s="84">
+      <c r="B149" s="91">
         <v>26.0</v>
       </c>
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="92" t="s">
         <v>473</v>
       </c>
       <c r="H149" s="3">
@@ -30985,125 +32163,122 @@
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="84" t="s">
+      <c r="A150" s="91" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="84">
+      <c r="B150" s="91">
         <v>29.0</v>
       </c>
-      <c r="C150" s="86"/>
+      <c r="C150" s="93"/>
       <c r="H150" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="84" t="s">
+      <c r="A151" s="91" t="s">
         <v>829</v>
       </c>
-      <c r="B151" s="84">
+      <c r="B151" s="91">
         <v>34.0</v>
       </c>
-      <c r="C151" s="86"/>
+      <c r="C151" s="93"/>
       <c r="H151" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="84" t="s">
+      <c r="A152" s="91" t="s">
         <v>545</v>
       </c>
-      <c r="B152" s="84">
+      <c r="B152" s="91">
         <v>35.0</v>
       </c>
-      <c r="C152" s="86"/>
+      <c r="C152" s="93"/>
       <c r="E152" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="84" t="s">
+      <c r="A153" s="91" t="s">
         <v>588</v>
       </c>
-      <c r="B153" s="84">
+      <c r="B153" s="91">
         <v>61.0</v>
       </c>
-      <c r="C153" s="86"/>
-      <c r="E153" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C153" s="93"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="84" t="s">
+      <c r="A154" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="B154" s="84">
+      <c r="B154" s="91">
         <v>59.0</v>
       </c>
-      <c r="C154" s="85"/>
+      <c r="C154" s="92"/>
       <c r="H154" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="84" t="s">
+      <c r="A155" s="91" t="s">
         <v>830</v>
       </c>
-      <c r="B155" s="84">
+      <c r="B155" s="91">
         <v>74.0</v>
       </c>
-      <c r="C155" s="86"/>
+      <c r="C155" s="93"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="84" t="s">
+      <c r="A156" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="B156" s="84">
+      <c r="B156" s="91">
         <v>12.0</v>
       </c>
-      <c r="C156" s="86"/>
+      <c r="C156" s="93"/>
       <c r="H156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="84" t="s">
+      <c r="A157" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="84">
+      <c r="B157" s="91">
         <v>80.0</v>
       </c>
-      <c r="C157" s="86"/>
+      <c r="C157" s="93"/>
       <c r="H157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="84"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="86"/>
+      <c r="A158" s="91"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="93"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="88"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="86"/>
+      <c r="A159" s="95"/>
+      <c r="B159" s="95"/>
+      <c r="C159" s="93"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="88"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="86"/>
+      <c r="A160" s="95"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="93"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="88"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="86"/>
+      <c r="A161" s="95"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="93"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="88"/>
-      <c r="B162" s="88"/>
-      <c r="C162" s="86"/>
+      <c r="A162" s="95"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="93"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="850">
   <si>
     <t>class</t>
   </si>
@@ -2383,9 +2383,6 @@
   </si>
   <si>
     <t>glass (drink container)</t>
-  </si>
-  <si>
-    <t>glass</t>
   </si>
   <si>
     <t>faucet</t>
@@ -21361,10 +21358,10 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" s="74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G198" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
@@ -22160,6 +22157,9 @@
       <c r="F239" s="74">
         <v>1.0</v>
       </c>
+      <c r="G239" s="3">
+        <v>1.0</v>
+      </c>
       <c r="I239" s="3">
         <v>1.0</v>
       </c>
@@ -22181,7 +22181,9 @@
       <c r="E240" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F240" s="75"/>
+      <c r="F240" s="74">
+        <v>1.0</v>
+      </c>
       <c r="G240" s="3">
         <v>1.0</v>
       </c>
@@ -22559,7 +22561,7 @@
         <v>306</v>
       </c>
       <c r="F260" s="74">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
@@ -24947,9 +24949,7 @@
       <c r="E388" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F388" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F388" s="74"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
       <c r="A389" s="5" t="s">
@@ -25274,9 +25274,7 @@
       <c r="E405" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F405" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F405" s="74"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
       <c r="A406" s="5" t="s">
@@ -25803,9 +25801,7 @@
       <c r="E433" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="F433" s="77">
-        <v>1.0</v>
-      </c>
+      <c r="F433" s="77"/>
       <c r="J433" s="3">
         <v>1.0</v>
       </c>
@@ -25862,9 +25858,7 @@
         <v>92.0</v>
       </c>
       <c r="E436" s="2"/>
-      <c r="F436" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F436" s="74"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
       <c r="A437" s="5" t="s">
@@ -26008,9 +26002,7 @@
         <v>190.0</v>
       </c>
       <c r="E444" s="2"/>
-      <c r="F444" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F444" s="74"/>
       <c r="G444" s="3">
         <v>1.0</v>
       </c>
@@ -26143,9 +26135,7 @@
       <c r="E451" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F451" s="77">
-        <v>1.0</v>
-      </c>
+      <c r="F451" s="77"/>
       <c r="O451" s="3"/>
       <c r="P451" s="3"/>
     </row>
@@ -26318,9 +26308,7 @@
         <v>8.0</v>
       </c>
       <c r="E460" s="6"/>
-      <c r="F460" s="79">
-        <v>1.0</v>
-      </c>
+      <c r="F460" s="79"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
@@ -26437,9 +26425,7 @@
         <v>27.0</v>
       </c>
       <c r="E466" s="2"/>
-      <c r="F466" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F466" s="74"/>
       <c r="H466" s="3">
         <v>1.0</v>
       </c>
@@ -26735,9 +26721,7 @@
         <v>1.0</v>
       </c>
       <c r="E482" s="1"/>
-      <c r="F482" s="77">
-        <v>1.0</v>
-      </c>
+      <c r="F482" s="77"/>
       <c r="O482" s="3"/>
       <c r="P482" s="3"/>
     </row>
@@ -28164,9 +28148,7 @@
         <v>33.0</v>
       </c>
       <c r="E557" s="2"/>
-      <c r="F557" s="74">
-        <v>1.0</v>
-      </c>
+      <c r="F557" s="74"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
       <c r="A558" s="5" t="s">
@@ -28551,7 +28533,7 @@
       <c r="E578" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="F578" s="75"/>
+      <c r="F578" s="74"/>
       <c r="G578" s="3">
         <v>1.0</v>
       </c>
@@ -30484,7 +30466,7 @@
         <v>2188.0</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>787</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3">
         <v>1.0</v>
@@ -30577,7 +30559,7 @@
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="91" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B23" s="91">
         <v>2162.0</v>
@@ -30611,9 +30593,6 @@
       <c r="C25" s="92" t="s">
         <v>657</v>
       </c>
-      <c r="D25" s="3">
-        <v>1.0</v>
-      </c>
       <c r="E25" s="3">
         <v>1.0</v>
       </c>
@@ -30632,7 +30611,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="91" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B27" s="91">
         <v>2152.0</v>
@@ -30668,7 +30647,7 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="91" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B30" s="91">
         <v>2133.0</v>
@@ -30694,7 +30673,7 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="94" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B32" s="91">
         <v>2129.0</v>
@@ -30829,7 +30808,7 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B43" s="91">
         <v>1995.0</v>
@@ -30847,13 +30826,10 @@
         <v>1948.0</v>
       </c>
       <c r="C44" s="93"/>
-      <c r="D44" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="91" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B45" s="91">
         <v>1920.0</v>
@@ -30916,7 +30892,7 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="94" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B50" s="91">
         <v>1784.0</v>
@@ -30976,7 +30952,7 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="91" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B55" s="91">
         <v>1640.0</v>
@@ -30988,7 +30964,7 @@
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="94" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B56" s="91">
         <v>1639.0</v>
@@ -31039,7 +31015,7 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="91" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B60" s="91">
         <v>1482.0</v>
@@ -31051,7 +31027,7 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="91" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B61" s="91">
         <v>1383.0</v>
@@ -31132,7 +31108,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="96" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B68" s="91">
         <v>1227.0</v>
@@ -31156,13 +31132,13 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="91" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B70" s="91">
         <v>1164.0</v>
       </c>
       <c r="C70" s="92" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D70" s="3">
         <v>1.0</v>
@@ -31176,7 +31152,7 @@
         <v>1130.0</v>
       </c>
       <c r="C71" s="92" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
@@ -31193,7 +31169,7 @@
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="91" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B73" s="91">
         <v>1124.0</v>
@@ -31219,7 +31195,7 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="91" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B75" s="91">
         <v>1097.0</v>
@@ -31263,13 +31239,10 @@
         <v>1033.0</v>
       </c>
       <c r="C78" s="93"/>
-      <c r="D78" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="91" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B79" s="91">
         <v>991.0</v>
@@ -31319,7 +31292,7 @@
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="91" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B83" s="91">
         <v>921.0</v>
@@ -31345,7 +31318,7 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="91" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B85" s="91">
         <v>892.0</v>
@@ -31413,9 +31386,6 @@
         <v>801.0</v>
       </c>
       <c r="C90" s="93"/>
-      <c r="D90" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="91" t="s">
@@ -31431,7 +31401,7 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="94" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B92" s="91">
         <v>772.0</v>
@@ -31443,7 +31413,7 @@
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="91" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B93" s="91">
         <v>770.0</v>
@@ -31458,7 +31428,7 @@
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="91" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B94" s="91">
         <v>739.0</v>
@@ -31482,7 +31452,7 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="91" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B96" s="91">
         <v>732.0</v>
@@ -31496,7 +31466,7 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="94" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B97" s="91">
         <v>727.0</v>
@@ -31600,13 +31570,10 @@
         <v>598.0</v>
       </c>
       <c r="C105" s="93"/>
-      <c r="D105" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="94" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B106" s="91">
         <v>588.0</v>
@@ -31644,13 +31611,13 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="94" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B109" s="91">
         <v>561.0</v>
       </c>
       <c r="C109" s="92" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G109" s="3">
         <v>1.0</v>
@@ -31658,19 +31625,16 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="91" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B110" s="91">
         <v>546.0</v>
       </c>
       <c r="C110" s="93"/>
-      <c r="D110" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="91" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B111" s="91">
         <v>502.0</v>
@@ -31702,7 +31666,7 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="91" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B114" s="91">
         <v>432.0</v>
@@ -31716,7 +31680,7 @@
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="91" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B115" s="91">
         <v>424.0</v>
@@ -31738,13 +31702,10 @@
       <c r="C116" s="92" t="s">
         <v>782</v>
       </c>
-      <c r="D116" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="94" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B117" s="91">
         <v>405.0</v>
@@ -31797,7 +31758,7 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="91" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B121" s="91">
         <v>359.0</v>
@@ -31856,7 +31817,7 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="91" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B126" s="91">
         <v>309.0</v>
@@ -31882,7 +31843,7 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="91" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B128" s="91">
         <v>279.0</v>
@@ -31906,13 +31867,10 @@
         <v>278.0</v>
       </c>
       <c r="C129" s="93"/>
-      <c r="D129" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="91" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B130" s="91">
         <v>276.0</v>
@@ -31938,7 +31896,7 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="91" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B132" s="91">
         <v>264.0</v>
@@ -31989,7 +31947,7 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="91" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B136" s="91">
         <v>229.0</v>
@@ -32003,7 +31961,7 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="91" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B137" s="91">
         <v>226.0</v>
@@ -32150,7 +32108,7 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="91" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B149" s="91">
         <v>26.0</v>
@@ -32176,7 +32134,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="91" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B151" s="91">
         <v>34.0</v>
@@ -32221,7 +32179,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B155" s="91">
         <v>74.0</v>
@@ -33155,7 +33113,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -33179,7 +33137,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>314</v>
@@ -33190,7 +33148,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>314</v>
@@ -33201,7 +33159,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>316</v>
@@ -33212,7 +33170,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>316</v>
@@ -33223,7 +33181,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>760</v>
@@ -33234,7 +33192,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>760</v>
@@ -33245,7 +33203,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>320</v>
@@ -33256,7 +33214,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>320</v>
@@ -33267,7 +33225,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>324</v>
@@ -33278,7 +33236,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>324</v>
@@ -33289,7 +33247,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>308</v>
@@ -33300,7 +33258,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>308</v>
@@ -33311,7 +33269,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>328</v>
@@ -33322,7 +33280,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>328</v>
@@ -33333,7 +33291,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>328</v>
@@ -33344,7 +33302,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>328</v>
@@ -33355,7 +33313,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>308</v>
@@ -33366,7 +33324,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>308</v>
@@ -33401,7 +33359,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>312</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="852">
   <si>
     <t>class</t>
   </si>
@@ -2367,6 +2367,12 @@
     <t>doorknob</t>
   </si>
   <si>
+    <t>earring</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
     <t>life jacket</t>
   </si>
   <si>
@@ -2391,9 +2397,6 @@
     <t>Toilet</t>
   </si>
   <si>
-    <t>earring</t>
-  </si>
-  <si>
     <t>License plate</t>
   </si>
   <si>
@@ -2421,6 +2424,9 @@
     <t>tank top (clothing)</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
     <t>toilet tissue</t>
   </si>
   <si>
@@ -2436,6 +2442,9 @@
     <t>microwave oven</t>
   </si>
   <si>
+    <t>blouse</t>
+  </si>
+  <si>
     <t>lightbulb</t>
   </si>
   <si>
@@ -2464,9 +2473,6 @@
   </si>
   <si>
     <t>bow (decorative ribbons)</t>
-  </si>
-  <si>
-    <t>bow</t>
   </si>
   <si>
     <t>pot</t>
@@ -2862,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3093,6 +3099,9 @@
     <xf borderId="0" fillId="6" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -3129,6 +3138,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -4401,9 +4411,6 @@
       <c r="G45" s="3">
         <v>1.0</v>
       </c>
-      <c r="I45" s="3">
-        <v>1.0</v>
-      </c>
       <c r="O45" s="4"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
@@ -15636,7 +15643,7 @@
       </c>
       <c r="I604" s="19">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J604" s="19">
         <f t="shared" si="1"/>
@@ -15655,7 +15662,7 @@
       </c>
       <c r="N604" s="19">
         <f t="shared" ref="N604:N606" si="2">SUM(F604:L604)</f>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O604" s="11"/>
     </row>
@@ -15709,7 +15716,7 @@
       </c>
       <c r="I606" s="19">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J606" s="19">
         <f t="shared" si="3"/>
@@ -15728,7 +15735,7 @@
       </c>
       <c r="N606" s="19">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O606" s="11"/>
       <c r="P606" s="22">
@@ -18510,9 +18517,6 @@
       <c r="G45" s="3">
         <v>1.0</v>
       </c>
-      <c r="I45" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="s">
@@ -18748,7 +18752,9 @@
       <c r="D58" s="1">
         <v>102.0</v>
       </c>
-      <c r="E58" s="1"/>
+      <c r="E58" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F58" s="75"/>
       <c r="I58" s="3">
         <v>1.0</v>
@@ -19882,7 +19888,9 @@
       <c r="D118" s="1">
         <v>84.0</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="F118" s="75"/>
       <c r="I118" s="3">
         <v>1.0</v>
@@ -20868,7 +20876,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="75"/>
       <c r="I171" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
@@ -21009,7 +21017,9 @@
       <c r="D179" s="1">
         <v>21.0</v>
       </c>
-      <c r="E179" s="1"/>
+      <c r="E179" s="82" t="s">
+        <v>781</v>
+      </c>
       <c r="F179" s="75"/>
       <c r="I179" s="3">
         <v>1.0</v>
@@ -21509,7 +21519,7 @@
       </c>
       <c r="F205" s="75"/>
       <c r="I205" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
@@ -22374,9 +22384,6 @@
       <c r="G250" s="3">
         <v>1.0</v>
       </c>
-      <c r="I250" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="5" t="s">
@@ -22997,7 +23004,7 @@
       <c r="E282" s="1"/>
       <c r="F282" s="75"/>
       <c r="I282" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="283" ht="14.25" customHeight="1">
@@ -23049,7 +23056,9 @@
       <c r="D285" s="1">
         <v>285.0</v>
       </c>
-      <c r="E285" s="1"/>
+      <c r="E285" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="F285" s="75"/>
       <c r="I285" s="3">
         <v>1.0</v>
@@ -23976,7 +23985,9 @@
       <c r="D336" s="1">
         <v>32.0</v>
       </c>
-      <c r="E336" s="1"/>
+      <c r="E336" s="2" t="s">
+        <v>536</v>
+      </c>
       <c r="F336" s="75"/>
       <c r="I336" s="3">
         <v>1.0</v>
@@ -24290,7 +24301,9 @@
       <c r="D353" s="1">
         <v>56.0</v>
       </c>
-      <c r="E353" s="1"/>
+      <c r="E353" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="F353" s="75"/>
       <c r="I353" s="3">
         <v>1.0</v>
@@ -24884,7 +24897,7 @@
         <v>48.0</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F385" s="75"/>
       <c r="I385" s="3">
@@ -25799,7 +25812,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F433" s="77"/>
       <c r="J433" s="3">
@@ -25819,7 +25832,9 @@
       <c r="D434" s="1">
         <v>110.0</v>
       </c>
-      <c r="E434" s="1"/>
+      <c r="E434" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="F434" s="75"/>
       <c r="I434" s="3">
         <v>1.0</v>
@@ -26275,7 +26290,7 @@
       <c r="E458" s="1"/>
       <c r="F458" s="75"/>
       <c r="I458" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="459" ht="14.25" customHeight="1">
@@ -26753,7 +26768,7 @@
       <c r="C484" s="1">
         <v>225.0</v>
       </c>
-      <c r="D484" s="82">
+      <c r="D484" s="83">
         <v>62.0</v>
       </c>
       <c r="E484" s="1"/>
@@ -26813,9 +26828,6 @@
         <v>559</v>
       </c>
       <c r="F487" s="75"/>
-      <c r="I487" s="3">
-        <v>1.0</v>
-      </c>
       <c r="L487" s="3">
         <v>1.0</v>
       </c>
@@ -27200,7 +27212,7 @@
         <v>1.0</v>
       </c>
       <c r="I507" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="508" ht="14.25" customHeight="1">
@@ -27700,9 +27712,6 @@
       </c>
       <c r="E533" s="1"/>
       <c r="F533" s="75"/>
-      <c r="I533" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="534" ht="14.25" customHeight="1">
       <c r="A534" s="5" t="s">
@@ -28440,10 +28449,9 @@
       </c>
       <c r="E573" s="1"/>
       <c r="F573" s="75"/>
-      <c r="I573" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J573" s="7"/>
+      <c r="J573" s="7">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="574" ht="14.25" customHeight="1">
       <c r="A574" s="5" t="s">
@@ -28994,12 +29002,12 @@
       <c r="F603" s="75"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="83"/>
+      <c r="A604" s="84"/>
       <c r="D604" s="58"/>
       <c r="F604" s="75"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="84"/>
+      <c r="A605" s="85"/>
       <c r="D605" s="67"/>
       <c r="F605" s="75"/>
     </row>
@@ -29009,27 +29017,27 @@
       <c r="F606" s="75"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="83"/>
+      <c r="A607" s="84"/>
       <c r="D607" s="67"/>
       <c r="F607" s="75"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="83"/>
+      <c r="A608" s="84"/>
       <c r="D608" s="63"/>
       <c r="F608" s="75"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="83"/>
+      <c r="A609" s="84"/>
       <c r="D609" s="58"/>
       <c r="F609" s="75"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="83"/>
+      <c r="A610" s="84"/>
       <c r="D610" s="58"/>
       <c r="F610" s="75"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="85"/>
+      <c r="A611" s="86"/>
       <c r="D611" s="58"/>
       <c r="F611" s="75"/>
     </row>
@@ -29039,12 +29047,12 @@
       <c r="F612" s="75"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="83"/>
+      <c r="A613" s="84"/>
       <c r="D613" s="63"/>
       <c r="F613" s="75"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="86"/>
+      <c r="A614" s="87"/>
       <c r="D614" s="56"/>
       <c r="F614" s="75"/>
     </row>
@@ -29053,32 +29061,32 @@
       <c r="F615" s="75"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="86"/>
+      <c r="A616" s="87"/>
       <c r="D616" s="56"/>
       <c r="F616" s="75"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="87"/>
+      <c r="A617" s="88"/>
       <c r="D617" s="67"/>
       <c r="F617" s="75"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="83"/>
+      <c r="A618" s="84"/>
       <c r="D618" s="67"/>
       <c r="F618" s="75"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="83"/>
+      <c r="A619" s="84"/>
       <c r="D619" s="67"/>
       <c r="F619" s="75"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="87"/>
+      <c r="A620" s="88"/>
       <c r="D620" s="67"/>
       <c r="F620" s="75"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="83"/>
+      <c r="A621" s="84"/>
       <c r="D621" s="62"/>
       <c r="F621" s="75"/>
     </row>
@@ -29097,12 +29105,12 @@
       <c r="F624" s="75"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="88"/>
+      <c r="A625" s="89"/>
       <c r="D625" s="58"/>
       <c r="F625" s="75"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="89"/>
+      <c r="A626" s="90"/>
       <c r="D626" s="62"/>
       <c r="F626" s="75"/>
     </row>
@@ -29124,18 +29132,18 @@
       <c r="F630" s="75"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="85"/>
+      <c r="A631" s="86"/>
       <c r="D631" s="72"/>
       <c r="F631" s="75"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="88"/>
-      <c r="D632" s="90"/>
+      <c r="A632" s="89"/>
+      <c r="D632" s="91"/>
       <c r="F632" s="75"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="71"/>
-      <c r="D633" s="90"/>
+      <c r="D633" s="91"/>
       <c r="F633" s="75"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
@@ -30295,13 +30303,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="91" t="s">
-        <v>783</v>
-      </c>
-      <c r="B2" s="91">
+      <c r="A2" s="92" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" s="92">
         <v>164.0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -30309,13 +30317,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="91" t="s">
-        <v>784</v>
-      </c>
-      <c r="B3" s="91">
+      <c r="A3" s="92" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" s="92">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="93" t="s">
         <v>482</v>
       </c>
       <c r="J3" s="3">
@@ -30323,90 +30331,90 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="92" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="92">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="93"/>
+      <c r="C4" s="94"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="92" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="92">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="94"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="92">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="93"/>
+      <c r="C6" s="94"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="92">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="94"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="94"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="92" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="92">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="92">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="94"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="92" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="92">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="93"/>
+      <c r="C11" s="94"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -30415,25 +30423,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="92" t="s">
         <v>658</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="92">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="93"/>
+      <c r="C12" s="94"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="92">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -30445,13 +30453,13 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="91" t="s">
-        <v>785</v>
-      </c>
-      <c r="B14" s="91">
+      <c r="A14" s="92" t="s">
+        <v>787</v>
+      </c>
+      <c r="B14" s="92">
         <v>2190.0</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>172</v>
       </c>
       <c r="D14" s="3">
@@ -30459,13 +30467,13 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="94" t="s">
-        <v>786</v>
-      </c>
-      <c r="B15" s="91">
+      <c r="A15" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="B15" s="92">
         <v>2188.0</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="93" t="s">
         <v>152</v>
       </c>
       <c r="D15" s="3">
@@ -30473,98 +30481,97 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="92" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="92">
         <v>2182.0</v>
       </c>
-      <c r="C16" s="93"/>
+      <c r="C16" s="94"/>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="95" t="s">
         <v>699</v>
       </c>
-      <c r="B17" s="91">
+      <c r="B17" s="92">
         <v>2178.0</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="G17" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C17" s="94"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="92" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="92">
         <v>2174.0</v>
       </c>
-      <c r="C18" s="93"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="19"/>
       <c r="G18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="92">
         <v>2171.0</v>
       </c>
-      <c r="C19" s="93"/>
+      <c r="C19" s="94"/>
       <c r="J19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="92" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="92">
         <v>2167.0</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="93" t="s">
+        <v>782</v>
+      </c>
       <c r="G20" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="91">
+      <c r="B21" s="92">
         <v>2163.0</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="92" t="s">
         <v>460</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="92">
         <v>2163.0</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="94"/>
       <c r="H22" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="91" t="s">
-        <v>787</v>
-      </c>
-      <c r="B23" s="91">
+      <c r="A23" s="92" t="s">
+        <v>789</v>
+      </c>
+      <c r="B23" s="92">
         <v>2162.0</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="93" t="s">
         <v>598</v>
       </c>
       <c r="D23" s="3">
@@ -30572,25 +30579,25 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="91">
+      <c r="B24" s="92">
         <v>2157.0</v>
       </c>
-      <c r="C24" s="93"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="95" t="s">
         <v>703</v>
       </c>
-      <c r="B25" s="91">
+      <c r="B25" s="92">
         <v>2155.0</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="93" t="s">
         <v>657</v>
       </c>
       <c r="E25" s="3">
@@ -30598,207 +30605,205 @@
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="91">
+      <c r="B26" s="92">
         <v>2152.0</v>
       </c>
-      <c r="C26" s="93"/>
+      <c r="C26" s="94"/>
       <c r="G26" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="91" t="s">
-        <v>788</v>
-      </c>
-      <c r="B27" s="91">
+      <c r="A27" s="92" t="s">
+        <v>790</v>
+      </c>
+      <c r="B27" s="92">
         <v>2152.0</v>
       </c>
-      <c r="C27" s="93"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="92" t="s">
         <v>644</v>
       </c>
-      <c r="B28" s="91">
+      <c r="B28" s="92">
         <v>2138.0</v>
       </c>
-      <c r="C28" s="93"/>
+      <c r="C28" s="94"/>
       <c r="D28" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="92">
         <v>2140.0</v>
       </c>
-      <c r="C29" s="93"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>789</v>
-      </c>
-      <c r="B30" s="91">
+      <c r="A30" s="92" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" s="92">
         <v>2133.0</v>
       </c>
-      <c r="C30" s="91" t="s">
-        <v>214</v>
-      </c>
+      <c r="C30" s="97"/>
       <c r="G30" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="92" t="s">
         <v>399</v>
       </c>
-      <c r="B31" s="91">
+      <c r="B31" s="92">
         <v>2132.0</v>
       </c>
-      <c r="C31" s="93"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="94" t="s">
-        <v>790</v>
-      </c>
-      <c r="B32" s="91">
+      <c r="A32" s="95" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" s="92">
         <v>2129.0</v>
       </c>
-      <c r="C32" s="93"/>
+      <c r="C32" s="94"/>
       <c r="E32" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="92" t="s">
         <v>581</v>
       </c>
-      <c r="B33" s="91">
+      <c r="B33" s="92">
         <v>2127.0</v>
       </c>
-      <c r="C33" s="93"/>
+      <c r="C33" s="94"/>
       <c r="J33" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="B34" s="91">
+      <c r="B34" s="92">
         <v>2125.0</v>
       </c>
-      <c r="C34" s="93"/>
+      <c r="C34" s="94"/>
       <c r="D34" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="92">
         <v>2115.0</v>
       </c>
-      <c r="C35" s="93"/>
+      <c r="C35" s="94"/>
       <c r="I35" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="91" t="s">
+      <c r="A36" s="92" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="91">
+      <c r="B36" s="92">
         <v>2114.0</v>
       </c>
-      <c r="C36" s="93"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="B37" s="91">
+      <c r="B37" s="92">
         <v>2113.0</v>
       </c>
-      <c r="C37" s="93"/>
+      <c r="C37" s="94"/>
       <c r="I37" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="91">
+      <c r="B38" s="92">
         <v>2106.0</v>
       </c>
-      <c r="C38" s="93"/>
+      <c r="C38" s="94"/>
       <c r="D38" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="95" t="s">
         <v>708</v>
       </c>
-      <c r="B39" s="91">
+      <c r="B39" s="92">
         <v>2088.0</v>
       </c>
-      <c r="C39" s="93"/>
+      <c r="C39" s="94"/>
       <c r="G39" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="92" t="s">
         <v>363</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="92">
         <v>2067.0</v>
       </c>
-      <c r="C40" s="93"/>
+      <c r="C40" s="94"/>
       <c r="D40" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="91">
+      <c r="B41" s="92">
         <v>1997.0</v>
       </c>
-      <c r="C41" s="93"/>
+      <c r="C41" s="94"/>
       <c r="H41" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="91">
+      <c r="B42" s="92">
         <v>1997.0</v>
       </c>
-      <c r="C42" s="93"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="3">
         <v>1.0</v>
       </c>
@@ -30807,82 +30812,84 @@
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="91" t="s">
-        <v>791</v>
-      </c>
-      <c r="B43" s="91">
+      <c r="A43" s="92" t="s">
+        <v>792</v>
+      </c>
+      <c r="B43" s="92">
         <v>1995.0</v>
       </c>
-      <c r="C43" s="93"/>
+      <c r="C43" s="94"/>
       <c r="J43" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="95" t="s">
         <v>780</v>
       </c>
-      <c r="B44" s="91">
+      <c r="B44" s="92">
         <v>1948.0</v>
       </c>
-      <c r="C44" s="93"/>
+      <c r="C44" s="94"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="91" t="s">
-        <v>792</v>
-      </c>
-      <c r="B45" s="91">
+      <c r="A45" s="92" t="s">
+        <v>793</v>
+      </c>
+      <c r="B45" s="92">
         <v>1920.0</v>
       </c>
-      <c r="C45" s="93"/>
+      <c r="C45" s="94"/>
       <c r="E45" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="92" t="s">
         <v>680</v>
       </c>
-      <c r="B46" s="91">
+      <c r="B46" s="92">
         <v>1902.0</v>
       </c>
-      <c r="C46" s="93"/>
+      <c r="C46" s="94"/>
       <c r="I46" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="95" t="s">
         <v>715</v>
       </c>
-      <c r="B47" s="91">
+      <c r="B47" s="92">
         <v>1877.0</v>
       </c>
-      <c r="C47" s="93"/>
+      <c r="C47" s="93" t="s">
+        <v>782</v>
+      </c>
       <c r="G47" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="92" t="s">
         <v>533</v>
       </c>
-      <c r="B48" s="91">
+      <c r="B48" s="92">
         <v>1869.0</v>
       </c>
-      <c r="C48" s="93"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="92" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="91">
+      <c r="B49" s="92">
         <v>1831.0</v>
       </c>
-      <c r="C49" s="93"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="3">
         <v>1.0</v>
       </c>
@@ -30891,85 +30898,87 @@
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="94" t="s">
-        <v>793</v>
-      </c>
-      <c r="B50" s="91">
+      <c r="A50" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="B50" s="92">
         <v>1784.0</v>
       </c>
-      <c r="C50" s="93"/>
+      <c r="C50" s="15" t="s">
+        <v>782</v>
+      </c>
       <c r="G50" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="91">
+      <c r="B51" s="92">
         <v>1709.0</v>
       </c>
-      <c r="C51" s="93"/>
+      <c r="C51" s="94"/>
       <c r="H51" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="91">
+      <c r="B52" s="92">
         <v>1698.0</v>
       </c>
-      <c r="C52" s="93"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="91" t="s">
+      <c r="A53" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B53" s="91">
+      <c r="B53" s="92">
         <v>1664.0</v>
       </c>
-      <c r="C53" s="93"/>
+      <c r="C53" s="94"/>
       <c r="G53" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="92" t="s">
         <v>488</v>
       </c>
-      <c r="B54" s="91">
+      <c r="B54" s="92">
         <v>1655.0</v>
       </c>
-      <c r="C54" s="93"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="91" t="s">
-        <v>794</v>
-      </c>
-      <c r="B55" s="91">
+      <c r="A55" s="92" t="s">
+        <v>795</v>
+      </c>
+      <c r="B55" s="92">
         <v>1640.0</v>
       </c>
-      <c r="C55" s="93"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="94" t="s">
-        <v>795</v>
-      </c>
-      <c r="B56" s="91">
+      <c r="A56" s="95" t="s">
+        <v>796</v>
+      </c>
+      <c r="B56" s="92">
         <v>1639.0</v>
       </c>
-      <c r="C56" s="93"/>
+      <c r="C56" s="94"/>
       <c r="G56" s="3">
         <v>1.0</v>
       </c>
@@ -30978,447 +30987,457 @@
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="91">
+      <c r="B57" s="92">
         <v>1611.0</v>
       </c>
-      <c r="C57" s="93"/>
+      <c r="C57" s="94"/>
       <c r="I57" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="91" t="s">
+      <c r="A58" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="91">
+      <c r="B58" s="92">
         <v>1578.0</v>
       </c>
-      <c r="C58" s="93"/>
+      <c r="C58" s="93" t="s">
+        <v>243</v>
+      </c>
       <c r="G58" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="91">
+      <c r="B59" s="92">
         <v>1520.0</v>
       </c>
-      <c r="C59" s="93"/>
+      <c r="C59" s="94"/>
       <c r="H59" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="91" t="s">
-        <v>796</v>
-      </c>
-      <c r="B60" s="91">
+      <c r="A60" s="92" t="s">
+        <v>797</v>
+      </c>
+      <c r="B60" s="92">
         <v>1482.0</v>
       </c>
-      <c r="C60" s="93"/>
+      <c r="C60" s="94"/>
       <c r="J60" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="91" t="s">
-        <v>797</v>
-      </c>
-      <c r="B61" s="91">
+      <c r="A61" s="92" t="s">
+        <v>798</v>
+      </c>
+      <c r="B61" s="92">
         <v>1383.0</v>
       </c>
-      <c r="C61" s="93"/>
+      <c r="C61" s="94"/>
       <c r="H61" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="91">
+      <c r="B62" s="92">
         <v>1382.0</v>
       </c>
-      <c r="C62" s="93"/>
+      <c r="C62" s="94"/>
       <c r="H62" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="91">
+      <c r="B63" s="92">
         <v>1339.0</v>
       </c>
-      <c r="C63" s="93"/>
+      <c r="C63" s="94"/>
       <c r="H63" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="92" t="s">
         <v>556</v>
       </c>
-      <c r="B64" s="91">
+      <c r="B64" s="92">
         <v>1287.0</v>
       </c>
-      <c r="C64" s="93"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="B65" s="91">
+      <c r="B65" s="92">
         <v>1273.0</v>
       </c>
-      <c r="C65" s="93"/>
+      <c r="C65" s="94"/>
       <c r="D65" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="91" t="s">
+      <c r="A66" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="91">
+      <c r="B66" s="92">
         <v>1257.0</v>
       </c>
-      <c r="C66" s="93"/>
+      <c r="C66" s="94"/>
       <c r="D66" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="95" t="s">
         <v>728</v>
       </c>
-      <c r="B67" s="91">
+      <c r="B67" s="92">
         <v>1247.0</v>
       </c>
-      <c r="C67" s="93"/>
+      <c r="C67" s="94"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="96" t="s">
-        <v>798</v>
-      </c>
-      <c r="B68" s="91">
+      <c r="A68" s="98" t="s">
+        <v>799</v>
+      </c>
+      <c r="B68" s="92">
         <v>1227.0</v>
       </c>
-      <c r="C68" s="93"/>
+      <c r="C68" s="93" t="s">
+        <v>800</v>
+      </c>
       <c r="G68" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="91">
+      <c r="B69" s="92">
         <v>1170.0</v>
       </c>
-      <c r="C69" s="93"/>
+      <c r="C69" s="94"/>
       <c r="D69" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="91" t="s">
-        <v>799</v>
-      </c>
-      <c r="B70" s="91">
+      <c r="A70" s="92" t="s">
+        <v>801</v>
+      </c>
+      <c r="B70" s="92">
         <v>1164.0</v>
       </c>
-      <c r="C70" s="92" t="s">
+      <c r="C70" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="95" t="s">
+        <v>733</v>
+      </c>
+      <c r="B71" s="92">
+        <v>1130.0</v>
+      </c>
+      <c r="C71" s="93" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="92" t="s">
+        <v>768</v>
+      </c>
+      <c r="B72" s="92">
+        <v>1129.0</v>
+      </c>
+      <c r="C72" s="94"/>
+      <c r="J72" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="B73" s="92">
+        <v>1124.0</v>
+      </c>
+      <c r="C73" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="92">
+        <v>1102.0</v>
+      </c>
+      <c r="C74" s="94"/>
+      <c r="H74" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="92" t="s">
+        <v>805</v>
+      </c>
+      <c r="B75" s="92">
+        <v>1097.0</v>
+      </c>
+      <c r="C75" s="93" t="s">
+        <v>396</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="95" t="s">
+        <v>734</v>
+      </c>
+      <c r="B76" s="92">
+        <v>1089.0</v>
+      </c>
+      <c r="C76" s="93" t="s">
+        <v>806</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" s="92">
+        <v>1075.0</v>
+      </c>
+      <c r="C77" s="94"/>
+      <c r="I77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78" s="92">
+        <v>1033.0</v>
+      </c>
+      <c r="C78" s="94"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="92" t="s">
+        <v>807</v>
+      </c>
+      <c r="B79" s="92">
+        <v>991.0</v>
+      </c>
+      <c r="C79" s="94"/>
+      <c r="D79" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="95" t="s">
+        <v>735</v>
+      </c>
+      <c r="B80" s="92">
+        <v>978.0</v>
+      </c>
+      <c r="C80" s="94"/>
+      <c r="G80" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="92" t="s">
+        <v>408</v>
+      </c>
+      <c r="B81" s="92">
+        <v>933.0</v>
+      </c>
+      <c r="C81" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="92">
+        <v>929.0</v>
+      </c>
+      <c r="C82" s="94"/>
+      <c r="D82" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="92" t="s">
+        <v>808</v>
+      </c>
+      <c r="B83" s="92">
+        <v>921.0</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>419</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="92">
+        <v>918.0</v>
+      </c>
+      <c r="C84" s="94"/>
+      <c r="H84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="92" t="s">
+        <v>809</v>
+      </c>
+      <c r="B85" s="92">
+        <v>892.0</v>
+      </c>
+      <c r="C85" s="93" t="s">
+        <v>587</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="92">
+        <v>863.0</v>
+      </c>
+      <c r="C86" s="94"/>
+      <c r="G86" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="92">
+        <v>831.0</v>
+      </c>
+      <c r="C87" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="92" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="92">
+        <v>831.0</v>
+      </c>
+      <c r="C88" s="94"/>
+      <c r="D88" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="92" t="s">
+        <v>509</v>
+      </c>
+      <c r="B89" s="92">
+        <v>804.0</v>
+      </c>
+      <c r="C89" s="94"/>
+      <c r="D89" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="95" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="92">
+        <v>801.0</v>
+      </c>
+      <c r="C90" s="94"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="92">
+        <v>776.0</v>
+      </c>
+      <c r="C91" s="94"/>
+      <c r="D91" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="95" t="s">
+        <v>810</v>
+      </c>
+      <c r="B92" s="92">
+        <v>772.0</v>
+      </c>
+      <c r="C92" s="93" t="s">
         <v>800</v>
       </c>
-      <c r="D70" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="94" t="s">
-        <v>733</v>
-      </c>
-      <c r="B71" s="91">
-        <v>1130.0</v>
-      </c>
-      <c r="C71" s="92" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="91" t="s">
-        <v>768</v>
-      </c>
-      <c r="B72" s="91">
-        <v>1129.0</v>
-      </c>
-      <c r="C72" s="93"/>
-      <c r="J72" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="91" t="s">
-        <v>802</v>
-      </c>
-      <c r="B73" s="91">
-        <v>1124.0</v>
-      </c>
-      <c r="C73" s="92" t="s">
-        <v>503</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" s="91">
-        <v>1102.0</v>
-      </c>
-      <c r="C74" s="93"/>
-      <c r="H74" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="91" t="s">
-        <v>803</v>
-      </c>
-      <c r="B75" s="91">
-        <v>1097.0</v>
-      </c>
-      <c r="C75" s="92" t="s">
-        <v>396</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="94" t="s">
-        <v>734</v>
-      </c>
-      <c r="B76" s="91">
-        <v>1089.0</v>
-      </c>
-      <c r="C76" s="93"/>
-      <c r="G76" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="91" t="s">
-        <v>525</v>
-      </c>
-      <c r="B77" s="91">
-        <v>1075.0</v>
-      </c>
-      <c r="C77" s="93"/>
-      <c r="I77" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="91" t="s">
-        <v>521</v>
-      </c>
-      <c r="B78" s="91">
-        <v>1033.0</v>
-      </c>
-      <c r="C78" s="93"/>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="91" t="s">
-        <v>804</v>
-      </c>
-      <c r="B79" s="91">
-        <v>991.0</v>
-      </c>
-      <c r="C79" s="93"/>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="94" t="s">
-        <v>735</v>
-      </c>
-      <c r="B80" s="91">
-        <v>978.0</v>
-      </c>
-      <c r="C80" s="93"/>
-      <c r="G80" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="91" t="s">
-        <v>408</v>
-      </c>
-      <c r="B81" s="91">
-        <v>933.0</v>
-      </c>
-      <c r="C81" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="91">
-        <v>929.0</v>
-      </c>
-      <c r="C82" s="93"/>
-      <c r="D82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="91" t="s">
-        <v>805</v>
-      </c>
-      <c r="B83" s="91">
-        <v>921.0</v>
-      </c>
-      <c r="C83" s="92" t="s">
-        <v>419</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="91" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="91">
-        <v>918.0</v>
-      </c>
-      <c r="C84" s="93"/>
-      <c r="H84" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="91" t="s">
-        <v>806</v>
-      </c>
-      <c r="B85" s="91">
-        <v>892.0</v>
-      </c>
-      <c r="C85" s="92" t="s">
-        <v>587</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="97" t="s">
-        <v>508</v>
-      </c>
-      <c r="B86" s="91">
-        <v>863.0</v>
-      </c>
-      <c r="C86" s="93"/>
-      <c r="G86" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="B87" s="91">
-        <v>831.0</v>
-      </c>
-      <c r="C87" s="93"/>
-      <c r="G87" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="91" t="s">
-        <v>621</v>
-      </c>
-      <c r="B88" s="91">
-        <v>831.0</v>
-      </c>
-      <c r="C88" s="93"/>
-      <c r="D88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="91" t="s">
-        <v>509</v>
-      </c>
-      <c r="B89" s="91">
-        <v>804.0</v>
-      </c>
-      <c r="C89" s="93"/>
-      <c r="D89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="94" t="s">
-        <v>736</v>
-      </c>
-      <c r="B90" s="91">
-        <v>801.0</v>
-      </c>
-      <c r="C90" s="93"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="91" t="s">
-        <v>424</v>
-      </c>
-      <c r="B91" s="91">
-        <v>776.0</v>
-      </c>
-      <c r="C91" s="93"/>
-      <c r="D91" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="94" t="s">
-        <v>807</v>
-      </c>
-      <c r="B92" s="91">
-        <v>772.0</v>
-      </c>
-      <c r="C92" s="93"/>
       <c r="G92" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="91" t="s">
-        <v>808</v>
-      </c>
-      <c r="B93" s="91">
+      <c r="A93" s="92" t="s">
+        <v>811</v>
+      </c>
+      <c r="B93" s="92">
         <v>770.0</v>
       </c>
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="93" t="s">
         <v>500</v>
       </c>
       <c r="E93" s="19"/>
@@ -31427,37 +31446,37 @@
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="91" t="s">
-        <v>809</v>
-      </c>
-      <c r="B94" s="91">
+      <c r="A94" s="92" t="s">
+        <v>812</v>
+      </c>
+      <c r="B94" s="92">
         <v>739.0</v>
       </c>
-      <c r="C94" s="93"/>
+      <c r="C94" s="94"/>
       <c r="H94" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B95" s="91">
+      <c r="B95" s="92">
         <v>735.0</v>
       </c>
-      <c r="C95" s="93"/>
+      <c r="C95" s="94"/>
       <c r="I95" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="91" t="s">
-        <v>810</v>
-      </c>
-      <c r="B96" s="91">
+      <c r="A96" s="92" t="s">
+        <v>813</v>
+      </c>
+      <c r="B96" s="92">
         <v>732.0</v>
       </c>
-      <c r="C96" s="92" t="s">
+      <c r="C96" s="93" t="s">
         <v>186</v>
       </c>
       <c r="D96" s="3">
@@ -31465,24 +31484,24 @@
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="94" t="s">
-        <v>811</v>
-      </c>
-      <c r="B97" s="91">
+      <c r="A97" s="95" t="s">
+        <v>814</v>
+      </c>
+      <c r="B97" s="92">
         <v>727.0</v>
       </c>
-      <c r="C97" s="92" t="s">
+      <c r="C97" s="93" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="92" t="s">
         <v>624</v>
       </c>
-      <c r="B98" s="91">
+      <c r="B98" s="92">
         <v>719.0</v>
       </c>
-      <c r="C98" s="93"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="3">
         <v>1.0</v>
       </c>
@@ -31491,13 +31510,13 @@
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="92" t="s">
         <v>360</v>
       </c>
-      <c r="B99" s="91">
+      <c r="B99" s="92">
         <v>710.0</v>
       </c>
-      <c r="C99" s="93"/>
+      <c r="C99" s="94"/>
       <c r="D99" s="3">
         <v>1.0</v>
       </c>
@@ -31506,79 +31525,81 @@
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="94" t="s">
+      <c r="A100" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="B100" s="91">
+      <c r="B100" s="92">
         <v>696.0</v>
       </c>
-      <c r="C100" s="93"/>
+      <c r="C100" s="94"/>
       <c r="H100" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="94" t="s">
+      <c r="A101" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="B101" s="91">
+      <c r="B101" s="92">
         <v>695.0</v>
       </c>
-      <c r="C101" s="93"/>
+      <c r="C101" s="94"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="91" t="s">
+      <c r="A102" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B102" s="91">
+      <c r="B102" s="92">
         <v>674.0</v>
       </c>
-      <c r="C102" s="93"/>
+      <c r="C102" s="94"/>
       <c r="D102" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="B103" s="91">
+      <c r="B103" s="92">
         <v>653.0</v>
       </c>
-      <c r="C103" s="93"/>
+      <c r="C103" s="93" t="s">
+        <v>175</v>
+      </c>
       <c r="G103" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="91" t="s">
+      <c r="A104" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="B104" s="91">
+      <c r="B104" s="92">
         <v>603.0</v>
       </c>
-      <c r="C104" s="93"/>
+      <c r="C104" s="94"/>
       <c r="D104" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="94" t="s">
+      <c r="A105" s="95" t="s">
         <v>747</v>
       </c>
-      <c r="B105" s="91">
+      <c r="B105" s="92">
         <v>598.0</v>
       </c>
-      <c r="C105" s="93"/>
+      <c r="C105" s="94"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="94" t="s">
-        <v>812</v>
-      </c>
-      <c r="B106" s="91">
+      <c r="A106" s="95" t="s">
+        <v>815</v>
+      </c>
+      <c r="B106" s="92">
         <v>588.0</v>
       </c>
-      <c r="C106" s="92" t="s">
+      <c r="C106" s="93" t="s">
         <v>749</v>
       </c>
       <c r="J106" s="3">
@@ -31586,22 +31607,22 @@
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="96" t="s">
+      <c r="A107" s="98" t="s">
         <v>751</v>
       </c>
-      <c r="B107" s="91">
+      <c r="B107" s="92">
         <v>588.0</v>
       </c>
-      <c r="C107" s="93"/>
+      <c r="C107" s="94"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="94" t="s">
+      <c r="A108" s="95" t="s">
         <v>753</v>
       </c>
-      <c r="B108" s="91">
+      <c r="B108" s="92">
         <v>565.0</v>
       </c>
-      <c r="C108" s="93"/>
+      <c r="C108" s="94"/>
       <c r="G108" s="3">
         <v>1.0</v>
       </c>
@@ -31610,36 +31631,31 @@
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="94" t="s">
-        <v>813</v>
-      </c>
-      <c r="B109" s="91">
+      <c r="A109" s="95" t="s">
+        <v>816</v>
+      </c>
+      <c r="B109" s="92">
         <v>561.0</v>
       </c>
-      <c r="C109" s="92" t="s">
-        <v>814</v>
-      </c>
-      <c r="G109" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="C109" s="93"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="91" t="s">
-        <v>815</v>
-      </c>
-      <c r="B110" s="91">
+      <c r="A110" s="92" t="s">
+        <v>817</v>
+      </c>
+      <c r="B110" s="92">
         <v>546.0</v>
       </c>
-      <c r="C110" s="93"/>
+      <c r="C110" s="94"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="91" t="s">
-        <v>816</v>
-      </c>
-      <c r="B111" s="91">
+      <c r="A111" s="92" t="s">
+        <v>818</v>
+      </c>
+      <c r="B111" s="92">
         <v>502.0</v>
       </c>
-      <c r="C111" s="92" t="s">
+      <c r="C111" s="93" t="s">
         <v>614</v>
       </c>
       <c r="D111" s="3">
@@ -31647,31 +31663,31 @@
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="97" t="s">
+      <c r="A112" s="99" t="s">
         <v>758</v>
       </c>
-      <c r="B112" s="91">
+      <c r="B112" s="92">
         <v>480.0</v>
       </c>
-      <c r="C112" s="93"/>
+      <c r="C112" s="94"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="91" t="s">
+      <c r="A113" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="B113" s="91">
+      <c r="B113" s="92">
         <v>473.0</v>
       </c>
-      <c r="C113" s="93"/>
+      <c r="C113" s="94"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="91" t="s">
-        <v>817</v>
-      </c>
-      <c r="B114" s="91">
+      <c r="A114" s="92" t="s">
+        <v>819</v>
+      </c>
+      <c r="B114" s="92">
         <v>432.0</v>
       </c>
-      <c r="C114" s="92" t="s">
+      <c r="C114" s="93" t="s">
         <v>531</v>
       </c>
       <c r="D114" s="3">
@@ -31679,13 +31695,13 @@
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="91" t="s">
-        <v>818</v>
-      </c>
-      <c r="B115" s="91">
+      <c r="A115" s="92" t="s">
+        <v>820</v>
+      </c>
+      <c r="B115" s="92">
         <v>424.0</v>
       </c>
-      <c r="C115" s="92" t="s">
+      <c r="C115" s="93" t="s">
         <v>184</v>
       </c>
       <c r="D115" s="3">
@@ -31693,24 +31709,24 @@
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="91" t="s">
+      <c r="A116" s="92" t="s">
         <v>502</v>
       </c>
-      <c r="B116" s="91">
+      <c r="B116" s="92">
         <v>418.0</v>
       </c>
-      <c r="C116" s="92" t="s">
-        <v>782</v>
+      <c r="C116" s="93" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="94" t="s">
-        <v>819</v>
-      </c>
-      <c r="B117" s="91">
+      <c r="A117" s="95" t="s">
+        <v>821</v>
+      </c>
+      <c r="B117" s="92">
         <v>405.0</v>
       </c>
-      <c r="C117" s="92" t="s">
+      <c r="C117" s="93" t="s">
         <v>624</v>
       </c>
       <c r="D117" s="3">
@@ -31721,82 +31737,82 @@
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="91" t="s">
+      <c r="A118" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="91">
+      <c r="B118" s="92">
         <v>393.0</v>
       </c>
-      <c r="C118" s="93"/>
+      <c r="C118" s="94"/>
       <c r="H118" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="91" t="s">
+      <c r="A119" s="92" t="s">
         <v>441</v>
       </c>
-      <c r="B119" s="91">
+      <c r="B119" s="92">
         <v>382.0</v>
       </c>
-      <c r="C119" s="93"/>
+      <c r="C119" s="94"/>
       <c r="D119" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="91" t="s">
+      <c r="A120" s="92" t="s">
         <v>570</v>
       </c>
-      <c r="B120" s="91">
+      <c r="B120" s="92">
         <v>379.0</v>
       </c>
-      <c r="C120" s="93"/>
+      <c r="C120" s="94"/>
       <c r="H120" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="91" t="s">
-        <v>820</v>
-      </c>
-      <c r="B121" s="91">
+      <c r="A121" s="92" t="s">
+        <v>822</v>
+      </c>
+      <c r="B121" s="92">
         <v>359.0</v>
       </c>
-      <c r="C121" s="93"/>
+      <c r="C121" s="94"/>
       <c r="H121" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="91" t="s">
+      <c r="A122" s="92" t="s">
         <v>553</v>
       </c>
-      <c r="B122" s="91">
+      <c r="B122" s="92">
         <v>353.0</v>
       </c>
-      <c r="C122" s="93"/>
+      <c r="C122" s="94"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="91" t="s">
+      <c r="A123" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="B123" s="91">
+      <c r="B123" s="92">
         <v>348.0</v>
       </c>
-      <c r="C123" s="93"/>
+      <c r="C123" s="94"/>
       <c r="H123" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="91" t="s">
+      <c r="A124" s="92" t="s">
         <v>568</v>
       </c>
-      <c r="B124" s="91">
+      <c r="B124" s="92">
         <v>344.0</v>
       </c>
-      <c r="C124" s="92" t="s">
+      <c r="C124" s="93" t="s">
         <v>132</v>
       </c>
       <c r="D124" s="3">
@@ -31804,25 +31820,25 @@
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="91" t="s">
+      <c r="A125" s="92" t="s">
         <v>394</v>
       </c>
-      <c r="B125" s="91">
+      <c r="B125" s="92">
         <v>315.0</v>
       </c>
-      <c r="C125" s="93"/>
+      <c r="C125" s="94"/>
       <c r="D125" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="91" t="s">
-        <v>821</v>
-      </c>
-      <c r="B126" s="91">
+      <c r="A126" s="92" t="s">
+        <v>823</v>
+      </c>
+      <c r="B126" s="92">
         <v>309.0</v>
       </c>
-      <c r="C126" s="92" t="s">
+      <c r="C126" s="93" t="s">
         <v>459</v>
       </c>
       <c r="D126" s="3">
@@ -31830,25 +31846,25 @@
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="91" t="s">
+      <c r="A127" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="B127" s="91">
+      <c r="B127" s="92">
         <v>283.0</v>
       </c>
-      <c r="C127" s="93"/>
+      <c r="C127" s="94"/>
       <c r="D127" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="91" t="s">
-        <v>822</v>
-      </c>
-      <c r="B128" s="91">
+      <c r="A128" s="92" t="s">
+        <v>824</v>
+      </c>
+      <c r="B128" s="92">
         <v>279.0</v>
       </c>
-      <c r="C128" s="92" t="s">
+      <c r="C128" s="93" t="s">
         <v>85</v>
       </c>
       <c r="D128" s="3">
@@ -31860,22 +31876,22 @@
       <c r="I128" s="19"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="91" t="s">
+      <c r="A129" s="92" t="s">
         <v>505</v>
       </c>
-      <c r="B129" s="91">
+      <c r="B129" s="92">
         <v>278.0</v>
       </c>
-      <c r="C129" s="93"/>
+      <c r="C129" s="94"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="91" t="s">
-        <v>823</v>
-      </c>
-      <c r="B130" s="91">
+      <c r="A130" s="92" t="s">
+        <v>825</v>
+      </c>
+      <c r="B130" s="92">
         <v>276.0</v>
       </c>
-      <c r="C130" s="92" t="s">
+      <c r="C130" s="93" t="s">
         <v>254</v>
       </c>
       <c r="D130" s="3">
@@ -31883,61 +31899,61 @@
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="91" t="s">
+      <c r="A131" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="B131" s="91">
+      <c r="B131" s="92">
         <v>274.0</v>
       </c>
-      <c r="C131" s="93"/>
+      <c r="C131" s="94"/>
       <c r="H131" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="91" t="s">
-        <v>824</v>
-      </c>
-      <c r="B132" s="91">
+      <c r="A132" s="92" t="s">
+        <v>826</v>
+      </c>
+      <c r="B132" s="92">
         <v>264.0</v>
       </c>
-      <c r="C132" s="93"/>
+      <c r="C132" s="94"/>
       <c r="D132" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="91" t="s">
+      <c r="A133" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B133" s="91">
+      <c r="B133" s="92">
         <v>262.0</v>
       </c>
-      <c r="C133" s="93"/>
+      <c r="C133" s="94"/>
       <c r="H133" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="91" t="s">
-        <v>781</v>
-      </c>
-      <c r="B134" s="91">
+      <c r="A134" s="92" t="s">
+        <v>783</v>
+      </c>
+      <c r="B134" s="92">
         <v>250.0</v>
       </c>
-      <c r="C134" s="93"/>
+      <c r="C134" s="94"/>
       <c r="G134" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="91" t="s">
+      <c r="A135" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="B135" s="91">
+      <c r="B135" s="92">
         <v>247.0</v>
       </c>
-      <c r="C135" s="93"/>
+      <c r="C135" s="94"/>
       <c r="D135" s="3">
         <v>1.0</v>
       </c>
@@ -31946,13 +31962,13 @@
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="91" t="s">
-        <v>825</v>
-      </c>
-      <c r="B136" s="91">
+      <c r="A136" s="92" t="s">
+        <v>827</v>
+      </c>
+      <c r="B136" s="92">
         <v>229.0</v>
       </c>
-      <c r="C136" s="92" t="s">
+      <c r="C136" s="93" t="s">
         <v>624</v>
       </c>
       <c r="D136" s="3">
@@ -31960,133 +31976,133 @@
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="91" t="s">
-        <v>826</v>
-      </c>
-      <c r="B137" s="91">
+      <c r="A137" s="92" t="s">
+        <v>828</v>
+      </c>
+      <c r="B137" s="92">
         <v>226.0</v>
       </c>
-      <c r="C137" s="93"/>
+      <c r="C137" s="94"/>
       <c r="H137" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="91" t="s">
+      <c r="A138" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="B138" s="91">
+      <c r="B138" s="92">
         <v>221.0</v>
       </c>
-      <c r="C138" s="93"/>
+      <c r="C138" s="94"/>
       <c r="D138" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="91" t="s">
+      <c r="A139" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="91">
+      <c r="B139" s="92">
         <v>210.0</v>
       </c>
-      <c r="C139" s="93"/>
+      <c r="C139" s="94"/>
       <c r="I139" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="91" t="s">
+      <c r="A140" s="92" t="s">
         <v>457</v>
       </c>
-      <c r="B140" s="91">
+      <c r="B140" s="92">
         <v>209.0</v>
       </c>
-      <c r="C140" s="93"/>
+      <c r="C140" s="94"/>
       <c r="H140" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="91" t="s">
+      <c r="A141" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="91">
+      <c r="B141" s="92">
         <v>181.0</v>
       </c>
-      <c r="C141" s="93"/>
+      <c r="C141" s="94"/>
       <c r="H141" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="91" t="s">
+      <c r="A142" s="92" t="s">
         <v>467</v>
       </c>
-      <c r="B142" s="91">
+      <c r="B142" s="92">
         <v>175.0</v>
       </c>
-      <c r="C142" s="93"/>
+      <c r="C142" s="94"/>
       <c r="I142" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="91" t="s">
+      <c r="A143" s="92" t="s">
         <v>602</v>
       </c>
-      <c r="B143" s="91">
+      <c r="B143" s="92">
         <v>151.0</v>
       </c>
-      <c r="C143" s="93"/>
+      <c r="C143" s="94"/>
       <c r="D143" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="91" t="s">
+      <c r="A144" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="91">
+      <c r="B144" s="92">
         <v>141.0</v>
       </c>
-      <c r="C144" s="93"/>
+      <c r="C144" s="94"/>
       <c r="D144" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="91" t="s">
+      <c r="A145" s="92" t="s">
         <v>440</v>
       </c>
-      <c r="B145" s="91">
+      <c r="B145" s="92">
         <v>128.0</v>
       </c>
-      <c r="C145" s="93"/>
+      <c r="C145" s="94"/>
       <c r="H145" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="91" t="s">
+      <c r="A146" s="92" t="s">
         <v>660</v>
       </c>
-      <c r="B146" s="91">
+      <c r="B146" s="92">
         <v>125.0</v>
       </c>
-      <c r="C146" s="93"/>
+      <c r="C146" s="94"/>
       <c r="H146" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="91" t="s">
+      <c r="A147" s="92" t="s">
         <v>663</v>
       </c>
-      <c r="B147" s="91">
+      <c r="B147" s="92">
         <v>90.0</v>
       </c>
-      <c r="C147" s="93"/>
+      <c r="C147" s="94"/>
       <c r="D147" s="3">
         <v>1.0</v>
       </c>
@@ -32095,25 +32111,25 @@
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="91" t="s">
+      <c r="A148" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B148" s="91">
+      <c r="B148" s="92">
         <v>22.0</v>
       </c>
-      <c r="C148" s="93"/>
+      <c r="C148" s="94"/>
       <c r="E148" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="91" t="s">
-        <v>827</v>
-      </c>
-      <c r="B149" s="91">
+      <c r="A149" s="92" t="s">
+        <v>829</v>
+      </c>
+      <c r="B149" s="92">
         <v>26.0</v>
       </c>
-      <c r="C149" s="92" t="s">
+      <c r="C149" s="93" t="s">
         <v>473</v>
       </c>
       <c r="H149" s="3">
@@ -32121,122 +32137,122 @@
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="91" t="s">
+      <c r="A150" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="B150" s="91">
+      <c r="B150" s="92">
         <v>29.0</v>
       </c>
-      <c r="C150" s="93"/>
+      <c r="C150" s="94"/>
       <c r="H150" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="91" t="s">
-        <v>828</v>
-      </c>
-      <c r="B151" s="91">
+      <c r="A151" s="92" t="s">
+        <v>830</v>
+      </c>
+      <c r="B151" s="92">
         <v>34.0</v>
       </c>
-      <c r="C151" s="93"/>
+      <c r="C151" s="94"/>
       <c r="H151" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="91" t="s">
+      <c r="A152" s="92" t="s">
         <v>545</v>
       </c>
-      <c r="B152" s="91">
+      <c r="B152" s="92">
         <v>35.0</v>
       </c>
-      <c r="C152" s="93"/>
+      <c r="C152" s="94"/>
       <c r="E152" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="91" t="s">
+      <c r="A153" s="92" t="s">
         <v>588</v>
       </c>
-      <c r="B153" s="91">
+      <c r="B153" s="92">
         <v>61.0</v>
       </c>
-      <c r="C153" s="93"/>
+      <c r="C153" s="94"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="91" t="s">
+      <c r="A154" s="92" t="s">
         <v>614</v>
       </c>
-      <c r="B154" s="91">
+      <c r="B154" s="92">
         <v>59.0</v>
       </c>
-      <c r="C154" s="92"/>
+      <c r="C154" s="93"/>
       <c r="H154" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="91" t="s">
-        <v>829</v>
-      </c>
-      <c r="B155" s="91">
+      <c r="A155" s="92" t="s">
+        <v>831</v>
+      </c>
+      <c r="B155" s="92">
         <v>74.0</v>
       </c>
-      <c r="C155" s="93"/>
+      <c r="C155" s="94"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="B156" s="91">
+      <c r="B156" s="92">
         <v>12.0</v>
       </c>
-      <c r="C156" s="93"/>
+      <c r="C156" s="94"/>
       <c r="H156" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="91" t="s">
+      <c r="A157" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="91">
+      <c r="B157" s="92">
         <v>80.0</v>
       </c>
-      <c r="C157" s="93"/>
+      <c r="C157" s="94"/>
       <c r="H157" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="91"/>
-      <c r="B158" s="91"/>
-      <c r="C158" s="93"/>
+      <c r="A158" s="92"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="94"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="95"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="93"/>
+      <c r="A159" s="96"/>
+      <c r="B159" s="96"/>
+      <c r="C159" s="94"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="95"/>
-      <c r="B160" s="95"/>
-      <c r="C160" s="93"/>
+      <c r="A160" s="96"/>
+      <c r="B160" s="96"/>
+      <c r="C160" s="94"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="95"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="93"/>
+      <c r="A161" s="96"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="94"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="95"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="93"/>
+      <c r="A162" s="96"/>
+      <c r="B162" s="96"/>
+      <c r="C162" s="94"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>
@@ -33113,7 +33129,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -33137,7 +33153,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>314</v>
@@ -33148,7 +33164,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>314</v>
@@ -33159,7 +33175,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>316</v>
@@ -33170,7 +33186,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>316</v>
@@ -33181,7 +33197,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>760</v>
@@ -33192,7 +33208,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>760</v>
@@ -33203,7 +33219,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>320</v>
@@ -33214,7 +33230,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>320</v>
@@ -33225,7 +33241,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>324</v>
@@ -33236,7 +33252,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>324</v>
@@ -33247,7 +33263,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>308</v>
@@ -33258,7 +33274,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>308</v>
@@ -33269,7 +33285,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>328</v>
@@ -33280,7 +33296,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>328</v>
@@ -33291,7 +33307,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>328</v>
@@ -33302,7 +33318,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>328</v>
@@ -33313,7 +33329,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>308</v>
@@ -33324,7 +33340,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>308</v>
@@ -33359,7 +33375,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>312</v>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="852">
   <si>
     <t>class</t>
   </si>
@@ -2674,7 +2674,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0563C1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -3781,9 +3781,7 @@
         <v>18.0</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="J14" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="J14" s="9"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -3972,9 +3970,6 @@
         <v>18.0</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="J23" s="3">
-        <v>1.0</v>
-      </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -4691,9 +4686,6 @@
       <c r="G59" s="3">
         <v>1.0</v>
       </c>
-      <c r="J59" s="3">
-        <v>1.0</v>
-      </c>
       <c r="O59" s="4"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
@@ -15647,7 +15639,7 @@
       </c>
       <c r="J604" s="19">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K604" s="19">
         <f>SUM(K2:K601)</f>
@@ -15662,7 +15654,7 @@
       </c>
       <c r="N604" s="19">
         <f t="shared" ref="N604:N606" si="2">SUM(F604:L604)</f>
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O604" s="11"/>
     </row>
@@ -15720,7 +15712,7 @@
       </c>
       <c r="J606" s="19">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K606" s="19">
         <f t="shared" si="3"/>
@@ -15735,7 +15727,7 @@
       </c>
       <c r="N606" s="19">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="O606" s="11"/>
       <c r="P606" s="22">
@@ -17879,7 +17871,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="75"/>
-      <c r="J12" s="8">
+      <c r="J12" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -17918,9 +17910,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="75"/>
-      <c r="J14" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
@@ -18092,9 +18082,6 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="75"/>
-      <c r="J23" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -18435,9 +18422,7 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="78"/>
-      <c r="J41" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
@@ -18970,9 +18955,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="75"/>
-      <c r="J69" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="5" t="s">
@@ -19066,9 +19049,7 @@
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="75"/>
-      <c r="J74" s="13">
-        <v>1.0</v>
-      </c>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="5" t="s">
@@ -19328,9 +19309,6 @@
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="75"/>
-      <c r="J88" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="5" t="s">
@@ -19389,9 +19367,7 @@
         <v>115</v>
       </c>
       <c r="F91" s="75"/>
-      <c r="J91" s="3">
-        <v>1.0</v>
-      </c>
+      <c r="J91" s="7"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="5" t="s">
@@ -19443,9 +19419,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="75"/>
-      <c r="J94" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="J94" s="8"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="5" t="s">
@@ -19913,9 +19887,6 @@
         <v>147</v>
       </c>
       <c r="F119" s="75"/>
-      <c r="J119" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="5" t="s">
@@ -19951,9 +19922,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="75"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="J121" s="9"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="5" t="s">
@@ -20196,7 +20165,9 @@
       <c r="D134" s="1">
         <v>111.0</v>
       </c>
-      <c r="E134" s="1"/>
+      <c r="E134" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F134" s="75"/>
       <c r="J134" s="3">
         <v>1.0</v>
@@ -20598,9 +20569,6 @@
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="75"/>
-      <c r="J156" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="5" t="s">
@@ -20817,11 +20785,10 @@
       <c r="D168" s="1">
         <v>45.0</v>
       </c>
-      <c r="E168" s="1"/>
+      <c r="E168" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F168" s="75"/>
-      <c r="J168" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="5" t="s">
@@ -21387,13 +21354,9 @@
       <c r="D199" s="1">
         <v>10.0</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="E199" s="2"/>
       <c r="F199" s="75"/>
-      <c r="J199" s="10">
-        <v>1.0</v>
-      </c>
+      <c r="J199" s="10"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="5" t="s">
@@ -21616,9 +21579,6 @@
         <v>250</v>
       </c>
       <c r="F210" s="75"/>
-      <c r="J210" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="211" ht="14.25" customHeight="1">
       <c r="A211" s="5" t="s">
@@ -21709,9 +21669,7 @@
         <v>257</v>
       </c>
       <c r="F215" s="75"/>
-      <c r="J215" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="J215" s="7"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
       <c r="A216" s="5" t="s">
@@ -21981,9 +21939,6 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="75"/>
-      <c r="J229" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="5" t="s">
@@ -22092,9 +22047,6 @@
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="75"/>
-      <c r="J235" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="236" ht="14.25" customHeight="1">
       <c r="A236" s="5" t="s">
@@ -22528,9 +22480,6 @@
       </c>
       <c r="E258" s="1"/>
       <c r="F258" s="75"/>
-      <c r="J258" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="5" t="s">
@@ -24174,7 +24123,9 @@
       <c r="D346" s="1">
         <v>51.0</v>
       </c>
-      <c r="E346" s="1"/>
+      <c r="E346" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="F346" s="75"/>
       <c r="J346" s="3">
         <v>1.0</v>
@@ -24751,9 +24702,7 @@
       </c>
       <c r="E377" s="1"/>
       <c r="F377" s="75"/>
-      <c r="J377" s="9">
-        <v>1.0</v>
-      </c>
+      <c r="J377" s="7"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
       <c r="A378" s="5" t="s">
@@ -25016,7 +24965,7 @@
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="75"/>
-      <c r="J391" s="8">
+      <c r="J391" s="9">
         <v>1.0</v>
       </c>
     </row>
@@ -25057,9 +25006,6 @@
       </c>
       <c r="E393" s="1"/>
       <c r="F393" s="75"/>
-      <c r="J393" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="394" ht="14.25" customHeight="1">
       <c r="A394" s="5" t="s">
@@ -25209,9 +25155,6 @@
         <v>115</v>
       </c>
       <c r="F401" s="75"/>
-      <c r="J401" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="402" ht="14.25" customHeight="1">
       <c r="A402" s="5" t="s">
@@ -25491,9 +25434,7 @@
       </c>
       <c r="E416" s="1"/>
       <c r="F416" s="75"/>
-      <c r="J416" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="J416" s="7"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
       <c r="A417" s="5" t="s">
@@ -25794,9 +25735,7 @@
       </c>
       <c r="E432" s="1"/>
       <c r="F432" s="75"/>
-      <c r="J432" s="8">
-        <v>1.0</v>
-      </c>
+      <c r="J432" s="3"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
       <c r="A433" s="5" t="s">
@@ -25815,9 +25754,6 @@
         <v>784</v>
       </c>
       <c r="F433" s="77"/>
-      <c r="J433" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="434" ht="14.25" customHeight="1">
       <c r="A434" s="5" t="s">
@@ -27251,9 +27187,6 @@
       </c>
       <c r="E509" s="1"/>
       <c r="F509" s="75"/>
-      <c r="J509" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="510" ht="14.25" customHeight="1">
       <c r="A510" s="5" t="s">
@@ -27461,9 +27394,6 @@
       </c>
       <c r="E520" s="1"/>
       <c r="F520" s="75"/>
-      <c r="J520" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="521" ht="14.25" customHeight="1">
       <c r="A521" s="5" t="s">
@@ -27519,9 +27449,6 @@
       </c>
       <c r="E523" s="1"/>
       <c r="F523" s="75"/>
-      <c r="J523" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="524" ht="14.25" customHeight="1">
       <c r="A524" s="5" t="s">
@@ -27556,9 +27483,6 @@
       </c>
       <c r="E525" s="1"/>
       <c r="F525" s="75"/>
-      <c r="J525" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="526" ht="14.25" customHeight="1">
       <c r="A526" s="5" t="s">
@@ -28449,7 +28373,7 @@
       </c>
       <c r="E573" s="1"/>
       <c r="F573" s="75"/>
-      <c r="J573" s="7">
+      <c r="J573" s="10">
         <v>1.0</v>
       </c>
     </row>
@@ -28841,9 +28765,6 @@
         <v>115</v>
       </c>
       <c r="F594" s="75"/>
-      <c r="J594" s="3">
-        <v>1.0</v>
-      </c>
       <c r="O594" s="3"/>
       <c r="P594" s="3"/>
     </row>
@@ -30560,9 +30481,6 @@
         <v>2163.0</v>
       </c>
       <c r="C22" s="94"/>
-      <c r="H22" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="92" t="s">
@@ -31202,9 +31120,6 @@
         <v>1102.0</v>
       </c>
       <c r="C74" s="94"/>
-      <c r="H74" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="92" t="s">
@@ -31441,9 +31356,6 @@
         <v>500</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="H93" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="92" t="s">
@@ -31453,9 +31365,6 @@
         <v>739.0</v>
       </c>
       <c r="C94" s="94"/>
-      <c r="H94" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="92" t="s">
@@ -31531,9 +31440,8 @@
       <c r="B100" s="92">
         <v>696.0</v>
       </c>
-      <c r="C100" s="94"/>
-      <c r="H100" s="3">
-        <v>1.0</v>
+      <c r="C100" s="93" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
@@ -31780,9 +31688,6 @@
         <v>359.0</v>
       </c>
       <c r="C121" s="94"/>
-      <c r="H121" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="92" t="s">
@@ -32030,7 +31935,9 @@
       <c r="B141" s="92">
         <v>181.0</v>
       </c>
-      <c r="C141" s="94"/>
+      <c r="C141" s="93" t="s">
+        <v>103</v>
+      </c>
       <c r="H141" s="3">
         <v>1.0</v>
       </c>
@@ -32079,9 +31986,6 @@
         <v>128.0</v>
       </c>
       <c r="C145" s="94"/>
-      <c r="H145" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="92" t="s">
@@ -32156,9 +32060,6 @@
         <v>34.0</v>
       </c>
       <c r="C151" s="94"/>
-      <c r="H151" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="92" t="s">
@@ -32213,9 +32114,6 @@
         <v>12.0</v>
       </c>
       <c r="C156" s="94"/>
-      <c r="H156" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="92" t="s">
@@ -32225,9 +32123,6 @@
         <v>80.0</v>
       </c>
       <c r="C157" s="94"/>
-      <c r="H157" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="92"/>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -15,14 +15,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjTJTpMcOKzEw7WREjYE1EGp8jBCw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjGj1vmNwhP4Xn+b7BEPiCl3WlFFw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="852">
   <si>
     <t>class</t>
   </si>
@@ -2370,6 +2370,9 @@
     <t>earring</t>
   </si>
   <si>
+    <t>egg</t>
+  </si>
+  <si>
     <t>jewelry</t>
   </si>
   <si>
@@ -2506,9 +2509,6 @@
   </si>
   <si>
     <t>hand towel</t>
-  </si>
-  <si>
-    <t>egg</t>
   </si>
   <si>
     <t>sweet potato</t>
@@ -2868,7 +2868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3087,6 +3087,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -17834,7 +17835,7 @@
       <c r="E10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="78"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -18421,7 +18422,7 @@
         <v>34.0</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="78"/>
+      <c r="F41" s="79"/>
       <c r="J41" s="8"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -19419,7 +19420,9 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="75"/>
-      <c r="J94" s="8"/>
+      <c r="J94" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="5" t="s">
@@ -19922,7 +19925,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="75"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="5" t="s">
@@ -19997,7 +20000,7 @@
         <v>20.0</v>
       </c>
       <c r="E125" s="6"/>
-      <c r="F125" s="79">
+      <c r="F125" s="80">
         <v>1.0</v>
       </c>
     </row>
@@ -20767,7 +20770,7 @@
       <c r="D167" s="1">
         <v>30.0</v>
       </c>
-      <c r="E167" s="80" t="s">
+      <c r="E167" s="81" t="s">
         <v>780</v>
       </c>
       <c r="F167" s="77"/>
@@ -20860,7 +20863,7 @@
         <v>1.0</v>
       </c>
       <c r="E172" s="12"/>
-      <c r="F172" s="78"/>
+      <c r="F172" s="79"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
@@ -20877,7 +20880,7 @@
         <v>356.0</v>
       </c>
       <c r="E173" s="1"/>
-      <c r="F173" s="81"/>
+      <c r="F173" s="82"/>
       <c r="J173" s="3">
         <v>1.0</v>
       </c>
@@ -20984,7 +20987,7 @@
       <c r="D179" s="1">
         <v>21.0</v>
       </c>
-      <c r="E179" s="82" t="s">
+      <c r="E179" s="83" t="s">
         <v>781</v>
       </c>
       <c r="F179" s="75"/>
@@ -21005,7 +21008,9 @@
       <c r="D180" s="1">
         <v>72.0</v>
       </c>
-      <c r="E180" s="1"/>
+      <c r="E180" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="F180" s="75"/>
       <c r="J180" s="3">
         <v>1.0</v>
@@ -21631,7 +21636,7 @@
       <c r="E213" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F213" s="78">
+      <c r="F213" s="79">
         <v>1.0</v>
       </c>
       <c r="G213" s="17"/>
@@ -24253,7 +24258,7 @@
         <v>56.0</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F353" s="75"/>
       <c r="I353" s="3">
@@ -24846,7 +24851,7 @@
         <v>48.0</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F385" s="75"/>
       <c r="I385" s="3">
@@ -25547,7 +25552,7 @@
       <c r="E422" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="F422" s="79">
+      <c r="F422" s="80">
         <v>1.0</v>
       </c>
     </row>
@@ -25751,7 +25756,7 @@
         <v>2.0</v>
       </c>
       <c r="E433" s="14" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F433" s="77"/>
     </row>
@@ -25880,7 +25885,7 @@
         <v>1.0</v>
       </c>
       <c r="E440" s="6"/>
-      <c r="F440" s="79">
+      <c r="F440" s="80">
         <v>1.0</v>
       </c>
     </row>
@@ -26259,7 +26264,7 @@
         <v>8.0</v>
       </c>
       <c r="E460" s="6"/>
-      <c r="F460" s="79"/>
+      <c r="F460" s="80"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
       <c r="A461" s="5" t="s">
@@ -26704,7 +26709,7 @@
       <c r="C484" s="1">
         <v>225.0</v>
       </c>
-      <c r="D484" s="83">
+      <c r="D484" s="84">
         <v>62.0</v>
       </c>
       <c r="E484" s="1"/>
@@ -27787,7 +27792,7 @@
         <v>4.0</v>
       </c>
       <c r="E541" s="6"/>
-      <c r="F541" s="79">
+      <c r="F541" s="80">
         <v>1.0</v>
       </c>
     </row>
@@ -27840,7 +27845,7 @@
         <v>10.0</v>
       </c>
       <c r="E544" s="6"/>
-      <c r="F544" s="79">
+      <c r="F544" s="80">
         <v>1.0</v>
       </c>
     </row>
@@ -28923,12 +28928,12 @@
       <c r="F603" s="75"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="A604" s="84"/>
+      <c r="A604" s="85"/>
       <c r="D604" s="58"/>
       <c r="F604" s="75"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="A605" s="85"/>
+      <c r="A605" s="86"/>
       <c r="D605" s="67"/>
       <c r="F605" s="75"/>
     </row>
@@ -28938,27 +28943,27 @@
       <c r="F606" s="75"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="A607" s="84"/>
+      <c r="A607" s="85"/>
       <c r="D607" s="67"/>
       <c r="F607" s="75"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="A608" s="84"/>
+      <c r="A608" s="85"/>
       <c r="D608" s="63"/>
       <c r="F608" s="75"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="A609" s="84"/>
+      <c r="A609" s="85"/>
       <c r="D609" s="58"/>
       <c r="F609" s="75"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="A610" s="84"/>
+      <c r="A610" s="85"/>
       <c r="D610" s="58"/>
       <c r="F610" s="75"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="A611" s="86"/>
+      <c r="A611" s="87"/>
       <c r="D611" s="58"/>
       <c r="F611" s="75"/>
     </row>
@@ -28968,12 +28973,12 @@
       <c r="F612" s="75"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="A613" s="84"/>
+      <c r="A613" s="85"/>
       <c r="D613" s="63"/>
       <c r="F613" s="75"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="A614" s="87"/>
+      <c r="A614" s="88"/>
       <c r="D614" s="56"/>
       <c r="F614" s="75"/>
     </row>
@@ -28982,32 +28987,32 @@
       <c r="F615" s="75"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="A616" s="87"/>
+      <c r="A616" s="88"/>
       <c r="D616" s="56"/>
       <c r="F616" s="75"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="A617" s="88"/>
+      <c r="A617" s="89"/>
       <c r="D617" s="67"/>
       <c r="F617" s="75"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="A618" s="84"/>
+      <c r="A618" s="85"/>
       <c r="D618" s="67"/>
       <c r="F618" s="75"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="A619" s="84"/>
+      <c r="A619" s="85"/>
       <c r="D619" s="67"/>
       <c r="F619" s="75"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="A620" s="88"/>
+      <c r="A620" s="89"/>
       <c r="D620" s="67"/>
       <c r="F620" s="75"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="A621" s="84"/>
+      <c r="A621" s="85"/>
       <c r="D621" s="62"/>
       <c r="F621" s="75"/>
     </row>
@@ -29026,12 +29031,12 @@
       <c r="F624" s="75"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="A625" s="89"/>
+      <c r="A625" s="90"/>
       <c r="D625" s="58"/>
       <c r="F625" s="75"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="A626" s="90"/>
+      <c r="A626" s="91"/>
       <c r="D626" s="62"/>
       <c r="F626" s="75"/>
     </row>
@@ -29053,18 +29058,18 @@
       <c r="F630" s="75"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="A631" s="86"/>
+      <c r="A631" s="87"/>
       <c r="D631" s="72"/>
       <c r="F631" s="75"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="A632" s="89"/>
-      <c r="D632" s="91"/>
+      <c r="A632" s="90"/>
+      <c r="D632" s="92"/>
       <c r="F632" s="75"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
       <c r="A633" s="71"/>
-      <c r="D633" s="91"/>
+      <c r="D633" s="92"/>
       <c r="F633" s="75"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
@@ -30224,13 +30229,13 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>785</v>
-      </c>
-      <c r="B2" s="92">
+      <c r="A2" s="93" t="s">
+        <v>786</v>
+      </c>
+      <c r="B2" s="93">
         <v>164.0</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3">
@@ -30238,13 +30243,13 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>786</v>
-      </c>
-      <c r="B3" s="92">
+      <c r="A3" s="93" t="s">
+        <v>787</v>
+      </c>
+      <c r="B3" s="93">
         <v>2246.0</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="94" t="s">
         <v>482</v>
       </c>
       <c r="J3" s="3">
@@ -30252,90 +30257,90 @@
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>549</v>
       </c>
-      <c r="B4" s="92">
+      <c r="B4" s="93">
         <v>2231.0</v>
       </c>
-      <c r="C4" s="94"/>
+      <c r="C4" s="95"/>
       <c r="G4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="93">
         <v>2216.0</v>
       </c>
-      <c r="C5" s="94"/>
+      <c r="C5" s="95"/>
       <c r="J5" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="96" t="s">
         <v>690</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="93">
         <v>2215.0</v>
       </c>
-      <c r="C6" s="94"/>
+      <c r="C6" s="95"/>
       <c r="J6" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="93">
         <v>2214.0</v>
       </c>
-      <c r="C7" s="94"/>
+      <c r="C7" s="95"/>
       <c r="E7" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="93">
         <v>2213.0</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="92" t="s">
+      <c r="A10" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="93">
         <v>2203.0</v>
       </c>
-      <c r="C10" s="94"/>
+      <c r="C10" s="95"/>
       <c r="G10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="93" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="92">
+      <c r="B11" s="93">
         <v>2203.0</v>
       </c>
-      <c r="C11" s="94"/>
+      <c r="C11" s="95"/>
       <c r="E11" s="3">
         <v>1.0</v>
       </c>
@@ -30344,25 +30349,25 @@
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="93" t="s">
         <v>658</v>
       </c>
-      <c r="B12" s="92">
+      <c r="B12" s="93">
         <v>2193.0</v>
       </c>
-      <c r="C12" s="94"/>
+      <c r="C12" s="95"/>
       <c r="G12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="93">
         <v>2182.0</v>
       </c>
-      <c r="C13" s="94"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="3">
         <v>1.0</v>
       </c>
@@ -30374,13 +30379,13 @@
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="92" t="s">
-        <v>787</v>
-      </c>
-      <c r="B14" s="92">
+      <c r="A14" s="93" t="s">
+        <v>788</v>
+      </c>
+      <c r="B14" s="93">
         <v>2190.0</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="94" t="s">
         <v>172</v>
       </c>
       <c r="D14" s="3">
@@ -30388,13 +30393,13 @@
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="95" t="s">
-        <v>788</v>
-      </c>
-      <c r="B15" s="92">
+      <c r="A15" s="96" t="s">
+        <v>789</v>
+      </c>
+      <c r="B15" s="93">
         <v>2188.0</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="94" t="s">
         <v>152</v>
       </c>
       <c r="D15" s="3">
@@ -30402,1752 +30407,1752 @@
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="92" t="s">
+      <c r="A16" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="93">
         <v>2182.0</v>
       </c>
-      <c r="C16" s="94"/>
+      <c r="C16" s="95"/>
       <c r="G16" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="96" t="s">
         <v>699</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="93">
         <v>2178.0</v>
       </c>
-      <c r="C17" s="94"/>
+      <c r="C17" s="95"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="93" t="s">
         <v>528</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="93">
         <v>2174.0</v>
       </c>
-      <c r="C18" s="94"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="19"/>
       <c r="G18" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="93">
         <v>2171.0</v>
       </c>
-      <c r="C19" s="94"/>
+      <c r="C19" s="95"/>
       <c r="J19" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="93" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="92">
+      <c r="B20" s="93">
         <v>2167.0</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="94" t="s">
+        <v>783</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="A21" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="93">
+        <v>2163.0</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="D21" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="A22" s="93" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="93">
+        <v>2163.0</v>
+      </c>
+      <c r="C22" s="95"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="93" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23" s="93">
+        <v>2162.0</v>
+      </c>
+      <c r="C23" s="94" t="s">
+        <v>598</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="93">
+        <v>2157.0</v>
+      </c>
+      <c r="C24" s="95"/>
+      <c r="D24" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="A25" s="96" t="s">
+        <v>703</v>
+      </c>
+      <c r="B25" s="93">
+        <v>2155.0</v>
+      </c>
+      <c r="C25" s="94" t="s">
+        <v>657</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="A26" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="93">
+        <v>2152.0</v>
+      </c>
+      <c r="C26" s="95"/>
+      <c r="G26" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="A27" s="93" t="s">
+        <v>791</v>
+      </c>
+      <c r="B27" s="93">
+        <v>2152.0</v>
+      </c>
+      <c r="C27" s="95"/>
+      <c r="D27" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="A28" s="93" t="s">
+        <v>644</v>
+      </c>
+      <c r="B28" s="93">
+        <v>2138.0</v>
+      </c>
+      <c r="C28" s="95"/>
+      <c r="D28" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="93">
+        <v>2140.0</v>
+      </c>
+      <c r="C29" s="95"/>
+      <c r="D29" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="93" t="s">
+        <v>781</v>
+      </c>
+      <c r="B30" s="93">
+        <v>2133.0</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="G30" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="93" t="s">
+        <v>399</v>
+      </c>
+      <c r="B31" s="93">
+        <v>2132.0</v>
+      </c>
+      <c r="C31" s="95"/>
+      <c r="D31" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="96" t="s">
+        <v>792</v>
+      </c>
+      <c r="B32" s="93">
+        <v>2129.0</v>
+      </c>
+      <c r="C32" s="95"/>
+      <c r="E32" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="93" t="s">
+        <v>581</v>
+      </c>
+      <c r="B33" s="93">
+        <v>2127.0</v>
+      </c>
+      <c r="C33" s="95"/>
+      <c r="J33" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="93">
+        <v>2125.0</v>
+      </c>
+      <c r="C34" s="95"/>
+      <c r="D34" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="B35" s="93">
+        <v>2115.0</v>
+      </c>
+      <c r="C35" s="95"/>
+      <c r="I35" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="93">
+        <v>2114.0</v>
+      </c>
+      <c r="C36" s="95"/>
+      <c r="D36" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="93">
+        <v>2113.0</v>
+      </c>
+      <c r="C37" s="95"/>
+      <c r="I37" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="93" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="93">
+        <v>2106.0</v>
+      </c>
+      <c r="C38" s="95"/>
+      <c r="D38" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="96" t="s">
+        <v>708</v>
+      </c>
+      <c r="B39" s="93">
+        <v>2088.0</v>
+      </c>
+      <c r="C39" s="95"/>
+      <c r="G39" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="93" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="93">
+        <v>2067.0</v>
+      </c>
+      <c r="C40" s="95"/>
+      <c r="D40" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="93">
+        <v>1997.0</v>
+      </c>
+      <c r="C41" s="95"/>
+      <c r="H41" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="93">
+        <v>1997.0</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="93" t="s">
+        <v>793</v>
+      </c>
+      <c r="B43" s="93">
+        <v>1995.0</v>
+      </c>
+      <c r="C43" s="95"/>
+      <c r="J43" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="96" t="s">
+        <v>780</v>
+      </c>
+      <c r="B44" s="93">
+        <v>1948.0</v>
+      </c>
+      <c r="C44" s="95"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="93" t="s">
+        <v>794</v>
+      </c>
+      <c r="B45" s="93">
+        <v>1920.0</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="E45" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="93" t="s">
+        <v>680</v>
+      </c>
+      <c r="B46" s="93">
+        <v>1902.0</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="I46" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="96" t="s">
+        <v>715</v>
+      </c>
+      <c r="B47" s="93">
+        <v>1877.0</v>
+      </c>
+      <c r="C47" s="94" t="s">
+        <v>783</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="93" t="s">
+        <v>533</v>
+      </c>
+      <c r="B48" s="93">
+        <v>1869.0</v>
+      </c>
+      <c r="C48" s="95"/>
+      <c r="D48" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="A49" s="93" t="s">
+        <v>578</v>
+      </c>
+      <c r="B49" s="93">
+        <v>1831.0</v>
+      </c>
+      <c r="C49" s="95"/>
+      <c r="D49" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="A50" s="96" t="s">
+        <v>795</v>
+      </c>
+      <c r="B50" s="93">
+        <v>1784.0</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="A51" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="93">
+        <v>1709.0</v>
+      </c>
+      <c r="C51" s="95"/>
+      <c r="H51" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="A52" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="93">
+        <v>1698.0</v>
+      </c>
+      <c r="C52" s="95"/>
+      <c r="D52" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="A53" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="93">
+        <v>1664.0</v>
+      </c>
+      <c r="C53" s="95"/>
+      <c r="G53" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="93" t="s">
+        <v>488</v>
+      </c>
+      <c r="B54" s="93">
+        <v>1655.0</v>
+      </c>
+      <c r="C54" s="95"/>
+      <c r="D54" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="A55" s="93" t="s">
+        <v>796</v>
+      </c>
+      <c r="B55" s="93">
+        <v>1640.0</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="A56" s="96" t="s">
+        <v>797</v>
+      </c>
+      <c r="B56" s="93">
+        <v>1639.0</v>
+      </c>
+      <c r="C56" s="95"/>
+      <c r="G56" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="A57" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="93">
+        <v>1611.0</v>
+      </c>
+      <c r="C57" s="95"/>
+      <c r="I57" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="93">
+        <v>1578.0</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="93">
+        <v>1520.0</v>
+      </c>
+      <c r="C59" s="95"/>
+      <c r="H59" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="93" t="s">
+        <v>798</v>
+      </c>
+      <c r="B60" s="93">
+        <v>1482.0</v>
+      </c>
+      <c r="C60" s="95"/>
+      <c r="J60" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="93" t="s">
+        <v>799</v>
+      </c>
+      <c r="B61" s="93">
+        <v>1383.0</v>
+      </c>
+      <c r="C61" s="95"/>
+      <c r="H61" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="93">
+        <v>1382.0</v>
+      </c>
+      <c r="C62" s="95"/>
+      <c r="H62" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="93">
+        <v>1339.0</v>
+      </c>
+      <c r="C63" s="95"/>
+      <c r="H63" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="93" t="s">
+        <v>556</v>
+      </c>
+      <c r="B64" s="93">
+        <v>1287.0</v>
+      </c>
+      <c r="C64" s="95"/>
+      <c r="D64" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="93" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" s="93">
+        <v>1273.0</v>
+      </c>
+      <c r="C65" s="95"/>
+      <c r="D65" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="93">
+        <v>1257.0</v>
+      </c>
+      <c r="C66" s="95"/>
+      <c r="D66" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="96" t="s">
+        <v>728</v>
+      </c>
+      <c r="B67" s="93">
+        <v>1247.0</v>
+      </c>
+      <c r="C67" s="95"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="99" t="s">
+        <v>800</v>
+      </c>
+      <c r="B68" s="93">
+        <v>1227.0</v>
+      </c>
+      <c r="C68" s="94" t="s">
+        <v>801</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69" s="93">
+        <v>1170.0</v>
+      </c>
+      <c r="C69" s="95"/>
+      <c r="D69" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="93" t="s">
+        <v>802</v>
+      </c>
+      <c r="B70" s="93">
+        <v>1164.0</v>
+      </c>
+      <c r="C70" s="94" t="s">
+        <v>803</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="96" t="s">
+        <v>733</v>
+      </c>
+      <c r="B71" s="93">
+        <v>1130.0</v>
+      </c>
+      <c r="C71" s="94" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="93" t="s">
+        <v>768</v>
+      </c>
+      <c r="B72" s="93">
+        <v>1129.0</v>
+      </c>
+      <c r="C72" s="95"/>
+      <c r="J72" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="93" t="s">
+        <v>805</v>
+      </c>
+      <c r="B73" s="93">
+        <v>1124.0</v>
+      </c>
+      <c r="C73" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="93">
+        <v>1102.0</v>
+      </c>
+      <c r="C74" s="95"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="93" t="s">
+        <v>806</v>
+      </c>
+      <c r="B75" s="93">
+        <v>1097.0</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>396</v>
+      </c>
+      <c r="D75" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="96" t="s">
+        <v>734</v>
+      </c>
+      <c r="B76" s="93">
+        <v>1089.0</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>807</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="93" t="s">
+        <v>525</v>
+      </c>
+      <c r="B77" s="93">
+        <v>1075.0</v>
+      </c>
+      <c r="C77" s="95"/>
+      <c r="I77" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="93" t="s">
+        <v>521</v>
+      </c>
+      <c r="B78" s="93">
+        <v>1033.0</v>
+      </c>
+      <c r="C78" s="95"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="93" t="s">
+        <v>808</v>
+      </c>
+      <c r="B79" s="93">
+        <v>991.0</v>
+      </c>
+      <c r="C79" s="95"/>
+      <c r="D79" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="96" t="s">
+        <v>735</v>
+      </c>
+      <c r="B80" s="93">
+        <v>978.0</v>
+      </c>
+      <c r="C80" s="95"/>
+      <c r="G80" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="93" t="s">
+        <v>408</v>
+      </c>
+      <c r="B81" s="93">
+        <v>933.0</v>
+      </c>
+      <c r="C81" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="B82" s="93">
+        <v>929.0</v>
+      </c>
+      <c r="C82" s="95"/>
+      <c r="D82" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="93" t="s">
+        <v>809</v>
+      </c>
+      <c r="B83" s="93">
+        <v>921.0</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="93">
+        <v>918.0</v>
+      </c>
+      <c r="C84" s="95"/>
+      <c r="H84" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="93" t="s">
+        <v>810</v>
+      </c>
+      <c r="B85" s="93">
+        <v>892.0</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>587</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="93">
+        <v>863.0</v>
+      </c>
+      <c r="C86" s="95"/>
+      <c r="G86" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" s="93">
+        <v>831.0</v>
+      </c>
+      <c r="C87" s="94" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="93" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="93">
+        <v>831.0</v>
+      </c>
+      <c r="C88" s="95"/>
+      <c r="D88" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="93" t="s">
+        <v>509</v>
+      </c>
+      <c r="B89" s="93">
+        <v>804.0</v>
+      </c>
+      <c r="C89" s="95"/>
+      <c r="D89" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="96" t="s">
+        <v>736</v>
+      </c>
+      <c r="B90" s="93">
+        <v>801.0</v>
+      </c>
+      <c r="C90" s="95"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="93" t="s">
+        <v>424</v>
+      </c>
+      <c r="B91" s="93">
+        <v>776.0</v>
+      </c>
+      <c r="C91" s="95"/>
+      <c r="D91" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="96" t="s">
+        <v>811</v>
+      </c>
+      <c r="B92" s="93">
+        <v>772.0</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>801</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="93" t="s">
+        <v>812</v>
+      </c>
+      <c r="B93" s="93">
+        <v>770.0</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>500</v>
+      </c>
+      <c r="E93" s="19"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="93" t="s">
+        <v>813</v>
+      </c>
+      <c r="B94" s="93">
+        <v>739.0</v>
+      </c>
+      <c r="C94" s="95"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="93">
+        <v>735.0</v>
+      </c>
+      <c r="C95" s="95"/>
+      <c r="I95" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="93" t="s">
+        <v>814</v>
+      </c>
+      <c r="B96" s="93">
+        <v>732.0</v>
+      </c>
+      <c r="C96" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="96" t="s">
+        <v>815</v>
+      </c>
+      <c r="B97" s="93">
+        <v>727.0</v>
+      </c>
+      <c r="C97" s="94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="93" t="s">
+        <v>624</v>
+      </c>
+      <c r="B98" s="93">
+        <v>719.0</v>
+      </c>
+      <c r="C98" s="95"/>
+      <c r="D98" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="93" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="93">
+        <v>710.0</v>
+      </c>
+      <c r="C99" s="95"/>
+      <c r="D99" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="96" t="s">
+        <v>741</v>
+      </c>
+      <c r="B100" s="93">
+        <v>696.0</v>
+      </c>
+      <c r="C100" s="94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="96" t="s">
+        <v>743</v>
+      </c>
+      <c r="B101" s="93">
+        <v>695.0</v>
+      </c>
+      <c r="C101" s="95"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="93">
+        <v>674.0</v>
+      </c>
+      <c r="C102" s="95"/>
+      <c r="D102" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="96" t="s">
+        <v>745</v>
+      </c>
+      <c r="B103" s="93">
+        <v>653.0</v>
+      </c>
+      <c r="C103" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="93">
+        <v>603.0</v>
+      </c>
+      <c r="C104" s="95"/>
+      <c r="D104" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="96" t="s">
+        <v>747</v>
+      </c>
+      <c r="B105" s="93">
+        <v>598.0</v>
+      </c>
+      <c r="C105" s="95"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="96" t="s">
+        <v>816</v>
+      </c>
+      <c r="B106" s="93">
+        <v>588.0</v>
+      </c>
+      <c r="C106" s="94" t="s">
+        <v>749</v>
+      </c>
+      <c r="J106" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="99" t="s">
+        <v>751</v>
+      </c>
+      <c r="B107" s="93">
+        <v>588.0</v>
+      </c>
+      <c r="C107" s="95"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="96" t="s">
+        <v>753</v>
+      </c>
+      <c r="B108" s="93">
+        <v>565.0</v>
+      </c>
+      <c r="C108" s="95"/>
+      <c r="G108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="96" t="s">
+        <v>817</v>
+      </c>
+      <c r="B109" s="93">
+        <v>561.0</v>
+      </c>
+      <c r="C109" s="94"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="93" t="s">
+        <v>818</v>
+      </c>
+      <c r="B110" s="93">
+        <v>546.0</v>
+      </c>
+      <c r="C110" s="95"/>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="93" t="s">
+        <v>819</v>
+      </c>
+      <c r="B111" s="93">
+        <v>502.0</v>
+      </c>
+      <c r="C111" s="94" t="s">
+        <v>614</v>
+      </c>
+      <c r="D111" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="100" t="s">
+        <v>758</v>
+      </c>
+      <c r="B112" s="93">
+        <v>480.0</v>
+      </c>
+      <c r="C112" s="95"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="B113" s="93">
+        <v>473.0</v>
+      </c>
+      <c r="C113" s="95"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="93" t="s">
+        <v>820</v>
+      </c>
+      <c r="B114" s="93">
+        <v>432.0</v>
+      </c>
+      <c r="C114" s="94" t="s">
+        <v>531</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="93" t="s">
+        <v>821</v>
+      </c>
+      <c r="B115" s="93">
+        <v>424.0</v>
+      </c>
+      <c r="C115" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="93" t="s">
+        <v>502</v>
+      </c>
+      <c r="B116" s="93">
+        <v>418.0</v>
+      </c>
+      <c r="C116" s="94" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="96" t="s">
+        <v>822</v>
+      </c>
+      <c r="B117" s="93">
+        <v>405.0</v>
+      </c>
+      <c r="C117" s="94" t="s">
+        <v>624</v>
+      </c>
+      <c r="D117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="J117" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B118" s="93">
+        <v>393.0</v>
+      </c>
+      <c r="C118" s="95"/>
+      <c r="H118" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="93" t="s">
+        <v>441</v>
+      </c>
+      <c r="B119" s="93">
+        <v>382.0</v>
+      </c>
+      <c r="C119" s="95"/>
+      <c r="D119" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="93" t="s">
+        <v>570</v>
+      </c>
+      <c r="B120" s="93">
+        <v>379.0</v>
+      </c>
+      <c r="C120" s="95"/>
+      <c r="H120" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="93" t="s">
+        <v>823</v>
+      </c>
+      <c r="B121" s="93">
+        <v>359.0</v>
+      </c>
+      <c r="C121" s="95"/>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="93" t="s">
+        <v>553</v>
+      </c>
+      <c r="B122" s="93">
+        <v>353.0</v>
+      </c>
+      <c r="C122" s="95"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="93" t="s">
+        <v>473</v>
+      </c>
+      <c r="B123" s="93">
+        <v>348.0</v>
+      </c>
+      <c r="C123" s="95"/>
+      <c r="H123" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="93" t="s">
+        <v>568</v>
+      </c>
+      <c r="B124" s="93">
+        <v>344.0</v>
+      </c>
+      <c r="C124" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="93" t="s">
+        <v>394</v>
+      </c>
+      <c r="B125" s="93">
+        <v>315.0</v>
+      </c>
+      <c r="C125" s="95"/>
+      <c r="D125" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="93" t="s">
+        <v>824</v>
+      </c>
+      <c r="B126" s="93">
+        <v>309.0</v>
+      </c>
+      <c r="C126" s="94" t="s">
+        <v>459</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127" s="93">
+        <v>283.0</v>
+      </c>
+      <c r="C127" s="95"/>
+      <c r="D127" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="93" t="s">
+        <v>825</v>
+      </c>
+      <c r="B128" s="93">
+        <v>279.0</v>
+      </c>
+      <c r="C128" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D128" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I128" s="19"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="B129" s="93">
+        <v>278.0</v>
+      </c>
+      <c r="C129" s="95"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="93" t="s">
+        <v>826</v>
+      </c>
+      <c r="B130" s="93">
+        <v>276.0</v>
+      </c>
+      <c r="C130" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B131" s="93">
+        <v>274.0</v>
+      </c>
+      <c r="C131" s="95"/>
+      <c r="H131" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="93" t="s">
+        <v>827</v>
+      </c>
+      <c r="B132" s="93">
+        <v>264.0</v>
+      </c>
+      <c r="C132" s="95"/>
+      <c r="D132" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="93">
+        <v>262.0</v>
+      </c>
+      <c r="C133" s="95"/>
+      <c r="H133" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="B134" s="93">
+        <v>250.0</v>
+      </c>
+      <c r="C134" s="95"/>
+      <c r="G134" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="93">
+        <v>247.0</v>
+      </c>
+      <c r="C135" s="95"/>
+      <c r="D135" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="93" t="s">
+        <v>828</v>
+      </c>
+      <c r="B136" s="93">
+        <v>229.0</v>
+      </c>
+      <c r="C136" s="94" t="s">
+        <v>624</v>
+      </c>
+      <c r="D136" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="93" t="s">
         <v>782</v>
       </c>
-      <c r="G20" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="92" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="92">
-        <v>2163.0</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="92" t="s">
-        <v>460</v>
-      </c>
-      <c r="B22" s="92">
-        <v>2163.0</v>
-      </c>
-      <c r="C22" s="94"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="92" t="s">
-        <v>789</v>
-      </c>
-      <c r="B23" s="92">
-        <v>2162.0</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>598</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="B24" s="92">
-        <v>2157.0</v>
-      </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="95" t="s">
-        <v>703</v>
-      </c>
-      <c r="B25" s="92">
-        <v>2155.0</v>
-      </c>
-      <c r="C25" s="93" t="s">
-        <v>657</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="92" t="s">
-        <v>263</v>
-      </c>
-      <c r="B26" s="92">
-        <v>2152.0</v>
-      </c>
-      <c r="C26" s="94"/>
-      <c r="G26" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="92" t="s">
-        <v>790</v>
-      </c>
-      <c r="B27" s="92">
-        <v>2152.0</v>
-      </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="92" t="s">
-        <v>644</v>
-      </c>
-      <c r="B28" s="92">
-        <v>2138.0</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="92">
-        <v>2140.0</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="92" t="s">
-        <v>781</v>
-      </c>
-      <c r="B30" s="92">
-        <v>2133.0</v>
-      </c>
-      <c r="C30" s="97"/>
-      <c r="G30" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="92" t="s">
-        <v>399</v>
-      </c>
-      <c r="B31" s="92">
-        <v>2132.0</v>
-      </c>
-      <c r="C31" s="94"/>
-      <c r="D31" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="95" t="s">
-        <v>791</v>
-      </c>
-      <c r="B32" s="92">
-        <v>2129.0</v>
-      </c>
-      <c r="C32" s="94"/>
-      <c r="E32" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="92" t="s">
-        <v>581</v>
-      </c>
-      <c r="B33" s="92">
-        <v>2127.0</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="J33" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="B34" s="92">
-        <v>2125.0</v>
-      </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="92">
-        <v>2115.0</v>
-      </c>
-      <c r="C35" s="94"/>
-      <c r="I35" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="92" t="s">
-        <v>244</v>
-      </c>
-      <c r="B36" s="92">
-        <v>2114.0</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="92" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" s="92">
-        <v>2113.0</v>
-      </c>
-      <c r="C37" s="94"/>
-      <c r="I37" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="92">
-        <v>2106.0</v>
-      </c>
-      <c r="C38" s="94"/>
-      <c r="D38" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="95" t="s">
-        <v>708</v>
-      </c>
-      <c r="B39" s="92">
-        <v>2088.0</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="G39" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="92" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" s="92">
-        <v>2067.0</v>
-      </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="92" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="92">
-        <v>1997.0</v>
-      </c>
-      <c r="C41" s="94"/>
-      <c r="H41" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="92">
-        <v>1997.0</v>
-      </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="92" t="s">
-        <v>792</v>
-      </c>
-      <c r="B43" s="92">
-        <v>1995.0</v>
-      </c>
-      <c r="C43" s="94"/>
-      <c r="J43" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="95" t="s">
-        <v>780</v>
-      </c>
-      <c r="B44" s="92">
-        <v>1948.0</v>
-      </c>
-      <c r="C44" s="94"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="92" t="s">
-        <v>793</v>
-      </c>
-      <c r="B45" s="92">
-        <v>1920.0</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="E45" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="92" t="s">
-        <v>680</v>
-      </c>
-      <c r="B46" s="92">
-        <v>1902.0</v>
-      </c>
-      <c r="C46" s="94"/>
-      <c r="I46" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="95" t="s">
-        <v>715</v>
-      </c>
-      <c r="B47" s="92">
-        <v>1877.0</v>
-      </c>
-      <c r="C47" s="93" t="s">
-        <v>782</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="92" t="s">
-        <v>533</v>
-      </c>
-      <c r="B48" s="92">
-        <v>1869.0</v>
-      </c>
-      <c r="C48" s="94"/>
-      <c r="D48" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="92" t="s">
-        <v>578</v>
-      </c>
-      <c r="B49" s="92">
-        <v>1831.0</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="95" t="s">
-        <v>794</v>
-      </c>
-      <c r="B50" s="92">
-        <v>1784.0</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>782</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="92">
-        <v>1709.0</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="H51" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="92">
-        <v>1698.0</v>
-      </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="92">
-        <v>1664.0</v>
-      </c>
-      <c r="C53" s="94"/>
-      <c r="G53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="92" t="s">
-        <v>488</v>
-      </c>
-      <c r="B54" s="92">
-        <v>1655.0</v>
-      </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="92" t="s">
-        <v>795</v>
-      </c>
-      <c r="B55" s="92">
-        <v>1640.0</v>
-      </c>
-      <c r="C55" s="94"/>
-      <c r="D55" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="95" t="s">
-        <v>796</v>
-      </c>
-      <c r="B56" s="92">
-        <v>1639.0</v>
-      </c>
-      <c r="C56" s="94"/>
-      <c r="G56" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="92">
-        <v>1611.0</v>
-      </c>
-      <c r="C57" s="94"/>
-      <c r="I57" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="92">
-        <v>1578.0</v>
-      </c>
-      <c r="C58" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="92">
-        <v>1520.0</v>
-      </c>
-      <c r="C59" s="94"/>
-      <c r="H59" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="92" t="s">
-        <v>797</v>
-      </c>
-      <c r="B60" s="92">
-        <v>1482.0</v>
-      </c>
-      <c r="C60" s="94"/>
-      <c r="J60" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="92" t="s">
-        <v>798</v>
-      </c>
-      <c r="B61" s="92">
-        <v>1383.0</v>
-      </c>
-      <c r="C61" s="94"/>
-      <c r="H61" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="92">
-        <v>1382.0</v>
-      </c>
-      <c r="C62" s="94"/>
-      <c r="H62" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="92">
-        <v>1339.0</v>
-      </c>
-      <c r="C63" s="94"/>
-      <c r="H63" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="92" t="s">
-        <v>556</v>
-      </c>
-      <c r="B64" s="92">
-        <v>1287.0</v>
-      </c>
-      <c r="C64" s="94"/>
-      <c r="D64" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="92" t="s">
-        <v>490</v>
-      </c>
-      <c r="B65" s="92">
-        <v>1273.0</v>
-      </c>
-      <c r="C65" s="94"/>
-      <c r="D65" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="B66" s="92">
-        <v>1257.0</v>
-      </c>
-      <c r="C66" s="94"/>
-      <c r="D66" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="95" t="s">
-        <v>728</v>
-      </c>
-      <c r="B67" s="92">
-        <v>1247.0</v>
-      </c>
-      <c r="C67" s="94"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="98" t="s">
-        <v>799</v>
-      </c>
-      <c r="B68" s="92">
-        <v>1227.0</v>
-      </c>
-      <c r="C68" s="93" t="s">
-        <v>800</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="92" t="s">
-        <v>259</v>
-      </c>
-      <c r="B69" s="92">
-        <v>1170.0</v>
-      </c>
-      <c r="C69" s="94"/>
-      <c r="D69" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="92" t="s">
-        <v>801</v>
-      </c>
-      <c r="B70" s="92">
-        <v>1164.0</v>
-      </c>
-      <c r="C70" s="93" t="s">
-        <v>802</v>
-      </c>
-      <c r="D70" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="95" t="s">
-        <v>733</v>
-      </c>
-      <c r="B71" s="92">
-        <v>1130.0</v>
-      </c>
-      <c r="C71" s="93" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="92" t="s">
-        <v>768</v>
-      </c>
-      <c r="B72" s="92">
-        <v>1129.0</v>
-      </c>
-      <c r="C72" s="94"/>
-      <c r="J72" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="92" t="s">
-        <v>804</v>
-      </c>
-      <c r="B73" s="92">
-        <v>1124.0</v>
-      </c>
-      <c r="C73" s="93" t="s">
-        <v>243</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="B74" s="92">
-        <v>1102.0</v>
-      </c>
-      <c r="C74" s="94"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="92" t="s">
-        <v>805</v>
-      </c>
-      <c r="B75" s="92">
-        <v>1097.0</v>
-      </c>
-      <c r="C75" s="93" t="s">
-        <v>396</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="95" t="s">
-        <v>734</v>
-      </c>
-      <c r="B76" s="92">
-        <v>1089.0</v>
-      </c>
-      <c r="C76" s="93" t="s">
-        <v>806</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="92" t="s">
-        <v>525</v>
-      </c>
-      <c r="B77" s="92">
-        <v>1075.0</v>
-      </c>
-      <c r="C77" s="94"/>
-      <c r="I77" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="92" t="s">
-        <v>521</v>
-      </c>
-      <c r="B78" s="92">
-        <v>1033.0</v>
-      </c>
-      <c r="C78" s="94"/>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="92" t="s">
-        <v>807</v>
-      </c>
-      <c r="B79" s="92">
-        <v>991.0</v>
-      </c>
-      <c r="C79" s="94"/>
-      <c r="D79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="B80" s="92">
-        <v>978.0</v>
-      </c>
-      <c r="C80" s="94"/>
-      <c r="G80" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="92" t="s">
-        <v>408</v>
-      </c>
-      <c r="B81" s="92">
-        <v>933.0</v>
-      </c>
-      <c r="C81" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="92">
-        <v>929.0</v>
-      </c>
-      <c r="C82" s="94"/>
-      <c r="D82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" s="92" t="s">
-        <v>808</v>
-      </c>
-      <c r="B83" s="92">
-        <v>921.0</v>
-      </c>
-      <c r="C83" s="93" t="s">
-        <v>419</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="A84" s="92" t="s">
+      <c r="B137" s="93">
+        <v>226.0</v>
+      </c>
+      <c r="C137" s="95"/>
+      <c r="H137" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" s="93">
+        <v>221.0</v>
+      </c>
+      <c r="C138" s="95"/>
+      <c r="D138" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B139" s="93">
+        <v>210.0</v>
+      </c>
+      <c r="C139" s="95"/>
+      <c r="I139" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B140" s="93">
+        <v>209.0</v>
+      </c>
+      <c r="C140" s="95"/>
+      <c r="H140" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B141" s="93">
+        <v>181.0</v>
+      </c>
+      <c r="C141" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="92">
-        <v>918.0</v>
-      </c>
-      <c r="C84" s="94"/>
-      <c r="H84" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="A85" s="92" t="s">
-        <v>809</v>
-      </c>
-      <c r="B85" s="92">
-        <v>892.0</v>
-      </c>
-      <c r="C85" s="93" t="s">
-        <v>587</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="A86" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="B86" s="92">
-        <v>863.0</v>
-      </c>
-      <c r="C86" s="94"/>
-      <c r="G86" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="A87" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="B87" s="92">
-        <v>831.0</v>
-      </c>
-      <c r="C87" s="93" t="s">
-        <v>341</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="A88" s="92" t="s">
-        <v>621</v>
-      </c>
-      <c r="B88" s="92">
-        <v>831.0</v>
-      </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="A89" s="92" t="s">
-        <v>509</v>
-      </c>
-      <c r="B89" s="92">
-        <v>804.0</v>
-      </c>
-      <c r="C89" s="94"/>
-      <c r="D89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="A90" s="95" t="s">
-        <v>736</v>
-      </c>
-      <c r="B90" s="92">
-        <v>801.0</v>
-      </c>
-      <c r="C90" s="94"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="A91" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="B91" s="92">
-        <v>776.0</v>
-      </c>
-      <c r="C91" s="94"/>
-      <c r="D91" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="A92" s="95" t="s">
-        <v>810</v>
-      </c>
-      <c r="B92" s="92">
-        <v>772.0</v>
-      </c>
-      <c r="C92" s="93" t="s">
-        <v>800</v>
-      </c>
-      <c r="G92" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" s="92" t="s">
-        <v>811</v>
-      </c>
-      <c r="B93" s="92">
-        <v>770.0</v>
-      </c>
-      <c r="C93" s="93" t="s">
-        <v>500</v>
-      </c>
-      <c r="E93" s="19"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" s="92" t="s">
-        <v>812</v>
-      </c>
-      <c r="B94" s="92">
-        <v>739.0</v>
-      </c>
-      <c r="C94" s="94"/>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="A95" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="92">
-        <v>735.0</v>
-      </c>
-      <c r="C95" s="94"/>
-      <c r="I95" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="A96" s="92" t="s">
-        <v>813</v>
-      </c>
-      <c r="B96" s="92">
-        <v>732.0</v>
-      </c>
-      <c r="C96" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="A97" s="95" t="s">
-        <v>814</v>
-      </c>
-      <c r="B97" s="92">
-        <v>727.0</v>
-      </c>
-      <c r="C97" s="93" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="A98" s="92" t="s">
-        <v>624</v>
-      </c>
-      <c r="B98" s="92">
-        <v>719.0</v>
-      </c>
-      <c r="C98" s="94"/>
-      <c r="D98" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I98" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="A99" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="B99" s="92">
-        <v>710.0</v>
-      </c>
-      <c r="C99" s="94"/>
-      <c r="D99" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="A100" s="95" t="s">
-        <v>741</v>
-      </c>
-      <c r="B100" s="92">
-        <v>696.0</v>
-      </c>
-      <c r="C100" s="93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="A101" s="95" t="s">
-        <v>743</v>
-      </c>
-      <c r="B101" s="92">
-        <v>695.0</v>
-      </c>
-      <c r="C101" s="94"/>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="A102" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="92">
-        <v>674.0</v>
-      </c>
-      <c r="C102" s="94"/>
-      <c r="D102" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="A103" s="95" t="s">
-        <v>745</v>
-      </c>
-      <c r="B103" s="92">
-        <v>653.0</v>
-      </c>
-      <c r="C103" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="G103" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="A104" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="B104" s="92">
-        <v>603.0</v>
-      </c>
-      <c r="C104" s="94"/>
-      <c r="D104" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="A105" s="95" t="s">
-        <v>747</v>
-      </c>
-      <c r="B105" s="92">
-        <v>598.0</v>
-      </c>
-      <c r="C105" s="94"/>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="A106" s="95" t="s">
-        <v>815</v>
-      </c>
-      <c r="B106" s="92">
-        <v>588.0</v>
-      </c>
-      <c r="C106" s="93" t="s">
-        <v>749</v>
-      </c>
-      <c r="J106" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="A107" s="98" t="s">
-        <v>751</v>
-      </c>
-      <c r="B107" s="92">
-        <v>588.0</v>
-      </c>
-      <c r="C107" s="94"/>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="A108" s="95" t="s">
-        <v>753</v>
-      </c>
-      <c r="B108" s="92">
-        <v>565.0</v>
-      </c>
-      <c r="C108" s="94"/>
-      <c r="G108" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="A109" s="95" t="s">
-        <v>816</v>
-      </c>
-      <c r="B109" s="92">
-        <v>561.0</v>
-      </c>
-      <c r="C109" s="93"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="A110" s="92" t="s">
-        <v>817</v>
-      </c>
-      <c r="B110" s="92">
-        <v>546.0</v>
-      </c>
-      <c r="C110" s="94"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="A111" s="92" t="s">
-        <v>818</v>
-      </c>
-      <c r="B111" s="92">
-        <v>502.0</v>
-      </c>
-      <c r="C111" s="93" t="s">
+      <c r="H141" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="93" t="s">
+        <v>467</v>
+      </c>
+      <c r="B142" s="93">
+        <v>175.0</v>
+      </c>
+      <c r="C142" s="95"/>
+      <c r="I142" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="93" t="s">
+        <v>602</v>
+      </c>
+      <c r="B143" s="93">
+        <v>151.0</v>
+      </c>
+      <c r="C143" s="95"/>
+      <c r="D143" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" s="93">
+        <v>141.0</v>
+      </c>
+      <c r="C144" s="95"/>
+      <c r="D144" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="93" t="s">
+        <v>440</v>
+      </c>
+      <c r="B145" s="93">
+        <v>128.0</v>
+      </c>
+      <c r="C145" s="95"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="93" t="s">
+        <v>660</v>
+      </c>
+      <c r="B146" s="93">
+        <v>125.0</v>
+      </c>
+      <c r="C146" s="95"/>
+      <c r="H146" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="93" t="s">
+        <v>663</v>
+      </c>
+      <c r="B147" s="93">
+        <v>90.0</v>
+      </c>
+      <c r="C147" s="95"/>
+      <c r="D147" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="93">
+        <v>22.0</v>
+      </c>
+      <c r="C148" s="95"/>
+      <c r="E148" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="93" t="s">
+        <v>829</v>
+      </c>
+      <c r="B149" s="93">
+        <v>26.0</v>
+      </c>
+      <c r="C149" s="94" t="s">
+        <v>473</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="93">
+        <v>29.0</v>
+      </c>
+      <c r="C150" s="95"/>
+      <c r="H150" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="93" t="s">
+        <v>830</v>
+      </c>
+      <c r="B151" s="93">
+        <v>34.0</v>
+      </c>
+      <c r="C151" s="95"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="93" t="s">
+        <v>545</v>
+      </c>
+      <c r="B152" s="93">
+        <v>35.0</v>
+      </c>
+      <c r="C152" s="95"/>
+      <c r="E152" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="93" t="s">
+        <v>588</v>
+      </c>
+      <c r="B153" s="93">
+        <v>61.0</v>
+      </c>
+      <c r="C153" s="95"/>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="93" t="s">
         <v>614</v>
       </c>
-      <c r="D111" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="A112" s="99" t="s">
-        <v>758</v>
-      </c>
-      <c r="B112" s="92">
-        <v>480.0</v>
-      </c>
-      <c r="C112" s="94"/>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="A113" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="B113" s="92">
-        <v>473.0</v>
-      </c>
-      <c r="C113" s="94"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="A114" s="92" t="s">
-        <v>819</v>
-      </c>
-      <c r="B114" s="92">
-        <v>432.0</v>
-      </c>
-      <c r="C114" s="93" t="s">
-        <v>531</v>
-      </c>
-      <c r="D114" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="A115" s="92" t="s">
-        <v>820</v>
-      </c>
-      <c r="B115" s="92">
-        <v>424.0</v>
-      </c>
-      <c r="C115" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="D115" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="A116" s="92" t="s">
-        <v>502</v>
-      </c>
-      <c r="B116" s="92">
-        <v>418.0</v>
-      </c>
-      <c r="C116" s="93" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="A117" s="95" t="s">
-        <v>821</v>
-      </c>
-      <c r="B117" s="92">
-        <v>405.0</v>
-      </c>
-      <c r="C117" s="93" t="s">
-        <v>624</v>
-      </c>
-      <c r="D117" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="J117" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="A118" s="92" t="s">
-        <v>368</v>
-      </c>
-      <c r="B118" s="92">
-        <v>393.0</v>
-      </c>
-      <c r="C118" s="94"/>
-      <c r="H118" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="A119" s="92" t="s">
-        <v>441</v>
-      </c>
-      <c r="B119" s="92">
-        <v>382.0</v>
-      </c>
-      <c r="C119" s="94"/>
-      <c r="D119" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="A120" s="92" t="s">
-        <v>570</v>
-      </c>
-      <c r="B120" s="92">
-        <v>379.0</v>
-      </c>
-      <c r="C120" s="94"/>
-      <c r="H120" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="A121" s="92" t="s">
-        <v>822</v>
-      </c>
-      <c r="B121" s="92">
-        <v>359.0</v>
-      </c>
-      <c r="C121" s="94"/>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="A122" s="92" t="s">
-        <v>553</v>
-      </c>
-      <c r="B122" s="92">
-        <v>353.0</v>
-      </c>
-      <c r="C122" s="94"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="A123" s="92" t="s">
-        <v>473</v>
-      </c>
-      <c r="B123" s="92">
-        <v>348.0</v>
-      </c>
-      <c r="C123" s="94"/>
-      <c r="H123" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="A124" s="92" t="s">
-        <v>568</v>
-      </c>
-      <c r="B124" s="92">
-        <v>344.0</v>
-      </c>
-      <c r="C124" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="D124" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="A125" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="B125" s="92">
-        <v>315.0</v>
-      </c>
-      <c r="C125" s="94"/>
-      <c r="D125" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="A126" s="92" t="s">
-        <v>823</v>
-      </c>
-      <c r="B126" s="92">
-        <v>309.0</v>
-      </c>
-      <c r="C126" s="93" t="s">
-        <v>459</v>
-      </c>
-      <c r="D126" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="A127" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="B127" s="92">
-        <v>283.0</v>
-      </c>
-      <c r="C127" s="94"/>
-      <c r="D127" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="A128" s="92" t="s">
-        <v>824</v>
-      </c>
-      <c r="B128" s="92">
-        <v>279.0</v>
-      </c>
-      <c r="C128" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D128" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E128" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I128" s="19"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="A129" s="92" t="s">
-        <v>505</v>
-      </c>
-      <c r="B129" s="92">
-        <v>278.0</v>
-      </c>
-      <c r="C129" s="94"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="A130" s="92" t="s">
-        <v>825</v>
-      </c>
-      <c r="B130" s="92">
-        <v>276.0</v>
-      </c>
-      <c r="C130" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="D130" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="A131" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="B131" s="92">
-        <v>274.0</v>
-      </c>
-      <c r="C131" s="94"/>
-      <c r="H131" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="A132" s="92" t="s">
-        <v>826</v>
-      </c>
-      <c r="B132" s="92">
-        <v>264.0</v>
-      </c>
-      <c r="C132" s="94"/>
-      <c r="D132" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="A133" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="92">
-        <v>262.0</v>
-      </c>
-      <c r="C133" s="94"/>
-      <c r="H133" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="A134" s="92" t="s">
-        <v>783</v>
-      </c>
-      <c r="B134" s="92">
-        <v>250.0</v>
-      </c>
-      <c r="C134" s="94"/>
-      <c r="G134" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="A135" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135" s="92">
-        <v>247.0</v>
-      </c>
-      <c r="C135" s="94"/>
-      <c r="D135" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="A136" s="92" t="s">
-        <v>827</v>
-      </c>
-      <c r="B136" s="92">
-        <v>229.0</v>
-      </c>
-      <c r="C136" s="93" t="s">
-        <v>624</v>
-      </c>
-      <c r="D136" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="A137" s="92" t="s">
-        <v>828</v>
-      </c>
-      <c r="B137" s="92">
-        <v>226.0</v>
-      </c>
-      <c r="C137" s="94"/>
-      <c r="H137" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="A138" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="B138" s="92">
-        <v>221.0</v>
-      </c>
-      <c r="C138" s="94"/>
-      <c r="D138" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="A139" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="B139" s="92">
-        <v>210.0</v>
-      </c>
-      <c r="C139" s="94"/>
-      <c r="I139" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="A140" s="92" t="s">
-        <v>457</v>
-      </c>
-      <c r="B140" s="92">
-        <v>209.0</v>
-      </c>
-      <c r="C140" s="94"/>
-      <c r="H140" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="A141" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B141" s="92">
-        <v>181.0</v>
-      </c>
-      <c r="C141" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="H141" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="A142" s="92" t="s">
-        <v>467</v>
-      </c>
-      <c r="B142" s="92">
-        <v>175.0</v>
-      </c>
-      <c r="C142" s="94"/>
-      <c r="I142" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="A143" s="92" t="s">
-        <v>602</v>
-      </c>
-      <c r="B143" s="92">
-        <v>151.0</v>
-      </c>
-      <c r="C143" s="94"/>
-      <c r="D143" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="A144" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="B144" s="92">
-        <v>141.0</v>
-      </c>
-      <c r="C144" s="94"/>
-      <c r="D144" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="A145" s="92" t="s">
-        <v>440</v>
-      </c>
-      <c r="B145" s="92">
-        <v>128.0</v>
-      </c>
-      <c r="C145" s="94"/>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="A146" s="92" t="s">
-        <v>660</v>
-      </c>
-      <c r="B146" s="92">
-        <v>125.0</v>
-      </c>
-      <c r="C146" s="94"/>
-      <c r="H146" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="A147" s="92" t="s">
-        <v>663</v>
-      </c>
-      <c r="B147" s="92">
-        <v>90.0</v>
-      </c>
-      <c r="C147" s="94"/>
-      <c r="D147" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E147" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="A148" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" s="92">
-        <v>22.0</v>
-      </c>
-      <c r="C148" s="94"/>
-      <c r="E148" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="A149" s="92" t="s">
-        <v>829</v>
-      </c>
-      <c r="B149" s="92">
-        <v>26.0</v>
-      </c>
-      <c r="C149" s="93" t="s">
-        <v>473</v>
-      </c>
-      <c r="H149" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="A150" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" s="92">
-        <v>29.0</v>
-      </c>
-      <c r="C150" s="94"/>
-      <c r="H150" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="A151" s="92" t="s">
-        <v>830</v>
-      </c>
-      <c r="B151" s="92">
-        <v>34.0</v>
-      </c>
-      <c r="C151" s="94"/>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="A152" s="92" t="s">
-        <v>545</v>
-      </c>
-      <c r="B152" s="92">
-        <v>35.0</v>
-      </c>
-      <c r="C152" s="94"/>
-      <c r="E152" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="A153" s="92" t="s">
-        <v>588</v>
-      </c>
-      <c r="B153" s="92">
-        <v>61.0</v>
-      </c>
-      <c r="C153" s="94"/>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="A154" s="92" t="s">
-        <v>614</v>
-      </c>
-      <c r="B154" s="92">
+      <c r="B154" s="93">
         <v>59.0</v>
       </c>
-      <c r="C154" s="93"/>
+      <c r="C154" s="94"/>
       <c r="H154" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="A155" s="92" t="s">
+      <c r="A155" s="93" t="s">
         <v>831</v>
       </c>
-      <c r="B155" s="92">
+      <c r="B155" s="93">
         <v>74.0</v>
       </c>
-      <c r="C155" s="94"/>
+      <c r="C155" s="95"/>
       <c r="H155" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="A156" s="92" t="s">
+      <c r="A156" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="B156" s="92">
+      <c r="B156" s="93">
         <v>12.0</v>
       </c>
-      <c r="C156" s="94"/>
+      <c r="C156" s="95"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="A157" s="92" t="s">
+      <c r="A157" s="93" t="s">
         <v>257</v>
       </c>
-      <c r="B157" s="92">
+      <c r="B157" s="93">
         <v>80.0</v>
       </c>
-      <c r="C157" s="94"/>
+      <c r="C157" s="95"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="A158" s="92"/>
-      <c r="B158" s="92"/>
-      <c r="C158" s="94"/>
+      <c r="A158" s="93"/>
+      <c r="B158" s="93"/>
+      <c r="C158" s="95"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="A159" s="96"/>
-      <c r="B159" s="96"/>
-      <c r="C159" s="94"/>
+      <c r="A159" s="97"/>
+      <c r="B159" s="97"/>
+      <c r="C159" s="95"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" s="96"/>
-      <c r="B160" s="96"/>
-      <c r="C160" s="94"/>
+      <c r="A160" s="97"/>
+      <c r="B160" s="97"/>
+      <c r="C160" s="95"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="A161" s="96"/>
-      <c r="B161" s="96"/>
-      <c r="C161" s="94"/>
+      <c r="A161" s="97"/>
+      <c r="B161" s="97"/>
+      <c r="C161" s="95"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="A162" s="96"/>
-      <c r="B162" s="96"/>
-      <c r="C162" s="94"/>
+      <c r="A162" s="97"/>
+      <c r="B162" s="97"/>
+      <c r="C162" s="95"/>
     </row>
     <row r="163" ht="14.25" customHeight="1"/>
     <row r="164" ht="14.25" customHeight="1"/>

--- a/GoogleOpenImages-allClasses.xlsx
+++ b/GoogleOpenImages-allClasses.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="852">
   <si>
     <t>class</t>
   </si>
@@ -18083,6 +18083,9 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="75"/>
+      <c r="J23" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="s">
@@ -18423,7 +18426,9 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="79"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="8">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="s">
@@ -18956,7 +18961,9 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="75"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="5" t="s">
@@ -19420,7 +19427,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="75"/>
-      <c r="J94" s="8">
+      <c r="J94" s="3">
         <v>1.0</v>
       </c>
     </row>
@@ -19925,7 +19932,9 @@
       <c r="E121" s="1"/>
       <c r="F121" s="75"/>
       <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="J121" s="10">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="5" t="s">
@@ -20881,9 +20890,6 @@
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="82"/>
-      <c r="J173" s="3">
-        <v>1.0</v>
-      </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="5" t="s">
@@ -21944,6 +21950,9 @@
       </c>
       <c r="E229" s="1"/>
       <c r="F229" s="75"/>
+      <c r="J229" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="230" ht="14.25" customHeight="1">
       <c r="A230" s="5" t="s">
@@ -24970,7 +24979,7 @@
       </c>
       <c r="E391" s="1"/>
       <c r="F391" s="75"/>
-      <c r="J391" s="9">
+      <c r="J391" s="10">
         <v>1.0</v>
       </c>
     </row>
@@ -31124,7 +31133,9 @@
       <c r="B74" s="93">
         <v>1102.0</v>
       </c>
-      <c r="C74" s="95"/>
+      <c r="C74" s="94" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="93" t="s">
@@ -31592,6 +31603,9 @@
         <v>473.0</v>
       </c>
       <c r="C113" s="95"/>
+      <c r="H113" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="93" t="s">
@@ -31693,6 +31707,9 @@
         <v>359.0</v>
       </c>
       <c r="C121" s="95"/>
+      <c r="H121" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="93" t="s">
